--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="168">
   <si>
     <t>Test Number</t>
   </si>
@@ -490,6 +490,36 @@
   </si>
   <si>
     <t>Dashboard Perspective</t>
+  </si>
+  <si>
+    <t>Cannot create a synoptic with a name of greather than 40 characters</t>
+  </si>
+  <si>
+    <t>All synoptics can be loaded on a remote instrument (especially long ones)</t>
+  </si>
+  <si>
+    <t>All configs can be viewed via their config name PV from a remote system</t>
+  </si>
+  <si>
+    <t>A block can be created with run control</t>
+  </si>
+  <si>
+    <t>A block can be created with logging</t>
+  </si>
+  <si>
+    <t>Run control can be turned off for a block in the config</t>
+  </si>
+  <si>
+    <t>Logging can be turned off for a block</t>
+  </si>
+  <si>
+    <t>Run control can be reinstated for a block via the config editor</t>
+  </si>
+  <si>
+    <t>Logging can be reinstated for a block via the config editor</t>
+  </si>
+  <si>
+    <t>Verify that config changes are pushed to the repo</t>
   </si>
 </sst>
 </file>
@@ -936,9 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1747,7 +1779,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <f t="shared" ref="A66:A129" si="1">IF(ISNUMBER(A65),A65+1,1)</f>
+        <f t="shared" ref="A66:A139" si="1">IF(ISNUMBER(A65),A65+1,1)</f>
         <v>65</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -2054,7 +2086,7 @@
         <v>97</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2066,10 +2098,10 @@
         <v>97</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2078,7 +2110,7 @@
         <v>97</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,10 +2122,10 @@
         <v>97</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2102,10 +2134,10 @@
         <v>97</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2114,7 +2146,7 @@
         <v>97</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,7 +2158,7 @@
         <v>97</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,7 +2170,7 @@
         <v>97</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2150,7 +2182,7 @@
         <v>97</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,7 +2194,7 @@
         <v>97</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,31 +2206,31 @@
         <v>97</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,10 +2239,10 @@
         <v>103</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -2219,10 +2251,10 @@
         <v>104</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,10 +2263,10 @@
         <v>105</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,73 +2275,73 @@
         <v>106</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2318,10 +2350,10 @@
         <v>89</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2330,10 +2362,10 @@
         <v>89</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2342,10 +2374,10 @@
         <v>89</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2354,127 +2386,127 @@
         <v>89</v>
       </c>
       <c r="E116" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E124" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2483,93 +2515,213 @@
         <v>126</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <f t="shared" ref="A130:A134" si="2">IF(ISNUMBER(A129),A129+1,1)</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
+        <f t="shared" ref="A140:A144" si="2">IF(ISNUMBER(A139),A139+1,1)</f>
+        <v>139</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
         <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="D132" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E141" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="D133" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E143" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+    <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
         <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="D134" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E144" s="7" t="s">
         <v>16</v>
       </c>
     </row>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="231">
   <si>
     <t>Test Number</t>
   </si>
@@ -704,6 +704,12 @@
   </si>
   <si>
     <t>Value returned as "*** diconnected ***"</t>
+  </si>
+  <si>
+    <t>15-30</t>
+  </si>
+  <si>
+    <t>Default log settings for block is enabled and 30 s rate</t>
   </si>
 </sst>
 </file>
@@ -862,14 +868,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1214,16 +1220,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1032"/>
+  <dimension ref="A1:N1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
@@ -1238,10 +1244,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="57">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3153,11 +3159,11 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B131" si="3">IF(A67=A66,B66+1,1)</f>
+        <f t="shared" ref="B67:B132" si="3">IF(A67=A66,B66+1,1)</f>
         <v>2</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" ref="C67:C131" si="4">CONCATENATE(A67,"-",B67)</f>
+        <f t="shared" ref="C67:C132" si="4">CONCATENATE(A67,"-",B67)</f>
         <v>10-2</v>
       </c>
       <c r="D67" s="5"/>
@@ -3177,7 +3183,7 @@
     </row>
     <row r="68" spans="1:13" ht="15">
       <c r="A68">
-        <f t="shared" ref="A68:A132" si="5">A67</f>
+        <f t="shared" ref="A68:A133" si="5">A67</f>
         <v>10</v>
       </c>
       <c r="B68">
@@ -4611,41 +4617,37 @@
       <c r="L118" s="8"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="1:13" ht="15">
+    <row r="119" spans="1:13" ht="30">
       <c r="A119">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B119">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="C119" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-30</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7" t="s">
+      <c r="C119" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>141</v>
+      <c r="I119" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="J119" s="8"/>
-      <c r="K119" s="7"/>
+      <c r="K119" s="9"/>
       <c r="L119" s="8"/>
       <c r="M119" s="6"/>
     </row>
-    <row r="120" spans="1:13" ht="30">
+    <row r="120" spans="1:13" ht="15">
       <c r="A120">
-        <f t="shared" si="5"/>
+        <f>A118</f>
         <v>15</v>
       </c>
       <c r="B120">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C120" s="3" t="str">
@@ -4660,14 +4662,14 @@
         <v>111</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="7"/>
-      <c r="L120" s="1"/>
+      <c r="L120" s="8"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" ht="15">
+    <row r="121" spans="1:13" ht="30">
       <c r="A121">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4688,14 +4690,14 @@
         <v>111</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="7"/>
-      <c r="L121" s="8"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="1:13" ht="30">
+    <row r="122" spans="1:13" ht="15">
       <c r="A122">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4716,7 +4718,7 @@
         <v>111</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="7"/>
@@ -4744,14 +4746,14 @@
         <v>111</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="7"/>
       <c r="L123" s="8"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" ht="15">
+    <row r="124" spans="1:13" ht="30">
       <c r="A124">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -4772,7 +4774,7 @@
         <v>111</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
@@ -4800,7 +4802,7 @@
         <v>111</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
@@ -4828,7 +4830,7 @@
         <v>111</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
@@ -4856,7 +4858,7 @@
         <v>111</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
@@ -4884,7 +4886,7 @@
         <v>111</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
@@ -4912,7 +4914,7 @@
         <v>111</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
@@ -4940,7 +4942,7 @@
         <v>111</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
@@ -4968,7 +4970,7 @@
         <v>111</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
@@ -4981,11 +4983,11 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B195" si="8">IF(A132=A131,B131+1,1)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" ref="C132:C195" si="9">CONCATENATE(A132,"-",B132)</f>
+        <f t="shared" si="4"/>
         <v>15-43</v>
       </c>
       <c r="D132" s="5"/>
@@ -4996,7 +4998,7 @@
         <v>111</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="7"/>
@@ -5005,15 +5007,15 @@
     </row>
     <row r="133" spans="1:13" ht="15">
       <c r="A133">
-        <f t="shared" ref="A133:A196" si="10">A132</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B133">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B133:B196" si="8">IF(A133=A132,B132+1,1)</f>
         <v>44</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C133:C196" si="9">CONCATENATE(A133,"-",B133)</f>
         <v>15-44</v>
       </c>
       <c r="D133" s="5"/>
@@ -5024,7 +5026,7 @@
         <v>111</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="7"/>
@@ -5033,7 +5035,7 @@
     </row>
     <row r="134" spans="1:13" ht="15">
       <c r="A134">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A134:A197" si="10">A133</f>
         <v>15</v>
       </c>
       <c r="B134">
@@ -5052,14 +5054,14 @@
         <v>111</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="7"/>
       <c r="L134" s="8"/>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="1:13" ht="120">
+    <row r="135" spans="1:13" ht="15">
       <c r="A135">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5080,14 +5082,14 @@
         <v>111</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="7"/>
-      <c r="L135" s="1"/>
+      <c r="L135" s="8"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" ht="30">
+    <row r="136" spans="1:13" ht="120">
       <c r="A136">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5108,14 +5110,14 @@
         <v>111</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J136" s="8"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="16"/>
+      <c r="K136" s="7"/>
+      <c r="L136" s="1"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" ht="45">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5133,17 +5135,17 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c r="H137" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J137" s="8"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
+      <c r="K137" s="5"/>
+      <c r="L137" s="16"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="45">
       <c r="A138">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5164,14 +5166,14 @@
         <v>159</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="1"/>
+      <c r="L138" s="8"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" ht="15">
+    <row r="139" spans="1:13" ht="30">
       <c r="A139">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5192,14 +5194,14 @@
         <v>159</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="7"/>
-      <c r="L139" s="8"/>
+      <c r="L139" s="1"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="30">
+    <row r="140" spans="1:13" ht="15">
       <c r="A140">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -5220,36 +5222,35 @@
         <v>159</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7"/>
       <c r="L140" s="8"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="15">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141">
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="B141">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C141" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-1</v>
+        <v>15-52</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="7"/>
@@ -5258,16 +5259,15 @@
     </row>
     <row r="142" spans="1:13" ht="15">
       <c r="A142">
-        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B142">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-2</v>
+        <v>16-1</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -5279,7 +5279,7 @@
         <v>100</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="7"/>
@@ -5293,11 +5293,11 @@
       </c>
       <c r="B143">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-3</v>
+        <v>16-2</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -5309,11 +5309,12 @@
         <v>100</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="7"/>
-      <c r="L143" s="11"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="6"/>
     </row>
     <row r="144" spans="1:13" ht="15">
       <c r="A144">
@@ -5322,11 +5323,11 @@
       </c>
       <c r="B144">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-4</v>
+        <v>16-3</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -5338,12 +5339,11 @@
         <v>100</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="6"/>
+      <c r="L144" s="11"/>
     </row>
     <row r="145" spans="1:13" ht="15">
       <c r="A145">
@@ -5352,23 +5352,23 @@
       </c>
       <c r="B145">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-5</v>
+        <v>16-4</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7" t="s">
+      <c r="F145" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G145" s="7"/>
       <c r="H145" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="7"/>
@@ -5382,11 +5382,11 @@
       </c>
       <c r="B146">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-6</v>
+        <v>16-5</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5398,7 +5398,7 @@
         <v>100</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="7"/>
@@ -5412,11 +5412,11 @@
       </c>
       <c r="B147">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-7</v>
+        <v>16-6</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5428,7 +5428,7 @@
         <v>100</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="7"/>
@@ -5442,11 +5442,11 @@
       </c>
       <c r="B148">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-8</v>
+        <v>16-7</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5458,24 +5458,25 @@
         <v>100</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="7"/>
       <c r="L148" s="8"/>
-    </row>
-    <row r="149" spans="1:13" ht="30">
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="1:13" ht="15">
       <c r="A149">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B149">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C149" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-9</v>
+        <v>16-8</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -5487,25 +5488,24 @@
         <v>100</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="7"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="6"/>
-    </row>
-    <row r="150" spans="1:13" ht="45">
+      <c r="L149" s="8"/>
+    </row>
+    <row r="150" spans="1:13" ht="30">
       <c r="A150">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B150">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-10</v>
+        <v>16-9</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -5517,25 +5517,25 @@
         <v>100</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="7"/>
-      <c r="L150" s="8"/>
+      <c r="L150" s="1"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" ht="30">
+    <row r="151" spans="1:13" ht="45">
       <c r="A151">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B151">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C151" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-11</v>
+        <v>16-10</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -5547,25 +5547,25 @@
         <v>100</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="7"/>
       <c r="L151" s="8"/>
       <c r="M151" s="6"/>
     </row>
-    <row r="152" spans="1:13" ht="45">
+    <row r="152" spans="1:13" ht="30">
       <c r="A152">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B152">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-12</v>
+        <v>16-11</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5577,7 +5577,7 @@
         <v>100</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="7"/>
@@ -5591,11 +5591,11 @@
       </c>
       <c r="B153">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-13</v>
+        <v>16-12</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -5607,25 +5607,25 @@
         <v>100</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="7"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" ht="60">
+    <row r="154" spans="1:13" ht="45">
       <c r="A154">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B154">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C154" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-14</v>
+        <v>16-13</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -5637,25 +5637,25 @@
         <v>100</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" ht="15">
+    <row r="155" spans="1:13" ht="60">
       <c r="A155">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B155">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-15</v>
+        <v>16-14</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -5667,7 +5667,7 @@
         <v>100</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="7"/>
@@ -5681,11 +5681,11 @@
       </c>
       <c r="B156">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C156" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-16</v>
+        <v>16-15</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -5697,41 +5697,41 @@
         <v>100</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="7"/>
       <c r="L156" s="8"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" ht="30">
+    <row r="157" spans="1:13" ht="15">
       <c r="A157">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B157">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-17</v>
+        <v>16-16</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="7"/>
+      <c r="G157" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G157" s="7"/>
       <c r="H157" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="7"/>
-      <c r="L157" s="1"/>
+      <c r="L157" s="8"/>
       <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" ht="30">
@@ -5741,27 +5741,27 @@
       </c>
       <c r="B158">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C158" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-18</v>
+        <v>16-17</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7" t="s">
-        <v>181</v>
-      </c>
+      <c r="F158" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G158" s="7"/>
       <c r="H158" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="7"/>
-      <c r="L158" s="8"/>
+      <c r="L158" s="1"/>
       <c r="M158" s="6"/>
     </row>
     <row r="159" spans="1:13" ht="30">
@@ -5771,23 +5771,23 @@
       </c>
       <c r="B159">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C159" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-19</v>
+        <v>16-18</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="7"/>
@@ -5801,11 +5801,11 @@
       </c>
       <c r="B160">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C160" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-20</v>
+        <v>16-19</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -5817,25 +5817,25 @@
         <v>183</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="7"/>
       <c r="L160" s="8"/>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" ht="15">
+    <row r="161" spans="1:13" ht="30">
       <c r="A161">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B161">
         <f t="shared" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C161" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-21</v>
+        <v>16-20</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -5847,7 +5847,7 @@
         <v>183</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="7"/>
@@ -5861,11 +5861,11 @@
       </c>
       <c r="B162">
         <f t="shared" si="8"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C162" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>16-22</v>
+        <v>16-21</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -5877,7 +5877,7 @@
         <v>183</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="7"/>
@@ -5886,15 +5886,16 @@
     </row>
     <row r="163" spans="1:13" ht="15">
       <c r="A163">
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="B163">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C163" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>17-1</v>
+        <v>16-22</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -5903,27 +5904,27 @@
         <v>65</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
-      <c r="L163" s="11"/>
-    </row>
-    <row r="164" spans="1:13" ht="30">
+      <c r="L163" s="8"/>
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" ht="15">
       <c r="A164">
-        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="B164">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>17-2</v>
+        <v>17-1</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5935,25 +5936,24 @@
         <v>188</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" ht="15">
+      <c r="L164" s="11"/>
+    </row>
+    <row r="165" spans="1:13" ht="30">
       <c r="A165">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="B165">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>17-3</v>
+        <v>17-2</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5965,11 +5965,11 @@
         <v>188</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
-      <c r="L165" s="8"/>
+      <c r="L165" s="1"/>
       <c r="M165" s="6"/>
     </row>
     <row r="166" spans="1:13" ht="15">
@@ -5979,11 +5979,11 @@
       </c>
       <c r="B166">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C166" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>17-4</v>
+        <v>17-3</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5995,7 +5995,7 @@
         <v>188</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
@@ -6004,15 +6004,16 @@
     </row>
     <row r="167" spans="1:13" ht="15">
       <c r="A167">
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="B167">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>18-1</v>
+        <v>17-4</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6021,27 +6022,27 @@
         <v>65</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
-      <c r="L167" s="11"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="6"/>
     </row>
     <row r="168" spans="1:13" ht="15">
       <c r="A168">
-        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="B168">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>18-2</v>
+        <v>18-1</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6053,12 +6054,11 @@
         <v>193</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
-      <c r="L168" s="8"/>
-      <c r="M168" s="6"/>
+      <c r="L168" s="11"/>
     </row>
     <row r="169" spans="1:13" ht="15">
       <c r="A169">
@@ -6067,11 +6067,11 @@
       </c>
       <c r="B169">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>18-3</v>
+        <v>18-2</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6083,24 +6083,25 @@
         <v>193</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
       <c r="L169" s="8"/>
       <c r="M169" s="6"/>
     </row>
-    <row r="170" spans="1:13" ht="30">
+    <row r="170" spans="1:13" ht="15">
       <c r="A170">
-        <v>19</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="B170">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>19-1</v>
+        <v>18-3</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6109,10 +6110,10 @@
         <v>65</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
@@ -6121,16 +6122,15 @@
     </row>
     <row r="171" spans="1:13" ht="30">
       <c r="A171">
-        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="B171">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>19-2</v>
+        <v>19-1</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6142,11 +6142,12 @@
         <v>197</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
-      <c r="L171" s="17"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="6"/>
     </row>
     <row r="172" spans="1:13" ht="30">
       <c r="A172">
@@ -6155,11 +6156,11 @@
       </c>
       <c r="B172">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C172" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>19-3</v>
+        <v>19-2</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6171,25 +6172,24 @@
         <v>197</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
       <c r="L172" s="18"/>
-      <c r="M172" s="6"/>
-    </row>
-    <row r="173" spans="1:13" ht="45">
+    </row>
+    <row r="173" spans="1:13" ht="30">
       <c r="A173">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="B173">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>19-4</v>
+        <v>19-3</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6201,25 +6201,25 @@
         <v>197</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
-      <c r="L173" s="18"/>
+      <c r="L173" s="19"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" ht="30">
+    <row r="174" spans="1:13" ht="45">
       <c r="A174">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="B174">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>19-5</v>
+        <v>19-4</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6231,7 +6231,7 @@
         <v>197</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
@@ -6240,45 +6240,45 @@
     </row>
     <row r="175" spans="1:13" ht="30">
       <c r="A175">
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="B175">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C175" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>20-1</v>
+        <v>19-5</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="7"/>
       <c r="G175" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="8"/>
+      <c r="L175" s="20"/>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" ht="45">
+    <row r="176" spans="1:13" ht="30">
       <c r="A176">
-        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="B176">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>20-2</v>
+        <v>20-1</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6290,84 +6290,84 @@
         <v>203</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
       <c r="L176" s="8"/>
       <c r="M176" s="6"/>
     </row>
-    <row r="177" spans="1:13" ht="26.25">
+    <row r="177" spans="1:13" ht="45">
       <c r="A177">
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="B177">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-1</v>
-      </c>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G177" s="15"/>
-      <c r="H177" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I177" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J177" s="12"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="12"/>
+        <v>20-2</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J177" s="8"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="8"/>
       <c r="M177" s="6"/>
     </row>
     <row r="178" spans="1:13" ht="26.25">
       <c r="A178">
-        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B178">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-2</v>
+        <v>21-1</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="10" t="s">
+      <c r="F178" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G178" s="15"/>
       <c r="H178" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J178" s="12"/>
       <c r="K178" s="10"/>
       <c r="L178" s="12"/>
       <c r="M178" s="6"/>
     </row>
-    <row r="179" spans="1:13" ht="39">
+    <row r="179" spans="1:13" ht="26.25">
       <c r="A179">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B179">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-3</v>
+        <v>21-2</v>
       </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
@@ -6379,11 +6379,11 @@
         <v>15</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J179" s="12"/>
       <c r="K179" s="10"/>
-      <c r="L179" s="11"/>
+      <c r="L179" s="12"/>
       <c r="M179" s="6"/>
     </row>
     <row r="180" spans="1:13" ht="39">
@@ -6393,11 +6393,11 @@
       </c>
       <c r="B180">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-4</v>
+        <v>21-3</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
@@ -6408,26 +6408,26 @@
       <c r="H180" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I180" s="12" t="s">
-        <v>209</v>
+      <c r="I180" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="10"/>
-      <c r="L180" s="12"/>
+      <c r="L180" s="11"/>
       <c r="M180" s="6"/>
     </row>
-    <row r="181" spans="1:13" ht="51.75">
+    <row r="181" spans="1:13" ht="39">
       <c r="A181">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B181">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-5</v>
+        <v>21-4</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -6439,25 +6439,25 @@
         <v>15</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J181" s="12"/>
       <c r="K181" s="10"/>
       <c r="L181" s="12"/>
       <c r="M181" s="6"/>
     </row>
-    <row r="182" spans="1:13" ht="26.25">
+    <row r="182" spans="1:13" ht="51.75">
       <c r="A182">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B182">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-6</v>
+        <v>21-5</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -6469,27 +6469,41 @@
         <v>15</v>
       </c>
       <c r="I182" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="10"/>
       <c r="L182" s="12"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" ht="15">
+    <row r="183" spans="1:13" ht="26.25">
       <c r="A183">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B183">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-7</v>
-      </c>
-      <c r="L183" s="6"/>
+        <v>21-6</v>
+      </c>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J183" s="12"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="12"/>
       <c r="M183" s="6"/>
     </row>
     <row r="184" spans="1:13" ht="15">
@@ -6499,11 +6513,11 @@
       </c>
       <c r="B184">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-8</v>
+        <v>21-7</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -6515,11 +6529,11 @@
       </c>
       <c r="B185">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C185" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-9</v>
+        <v>21-8</v>
       </c>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -6531,11 +6545,11 @@
       </c>
       <c r="B186">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C186" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-10</v>
+        <v>21-9</v>
       </c>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -6547,11 +6561,11 @@
       </c>
       <c r="B187">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C187" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-11</v>
+        <v>21-10</v>
       </c>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
@@ -6563,11 +6577,11 @@
       </c>
       <c r="B188">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C188" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-12</v>
+        <v>21-11</v>
       </c>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -6579,11 +6593,11 @@
       </c>
       <c r="B189">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C189" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-13</v>
+        <v>21-12</v>
       </c>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
@@ -6595,11 +6609,11 @@
       </c>
       <c r="B190">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-14</v>
+        <v>21-13</v>
       </c>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
@@ -6611,11 +6625,11 @@
       </c>
       <c r="B191">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C191" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-15</v>
+        <v>21-14</v>
       </c>
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
@@ -6627,11 +6641,11 @@
       </c>
       <c r="B192">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C192" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-16</v>
+        <v>21-15</v>
       </c>
       <c r="L192" s="6"/>
       <c r="M192" s="6"/>
@@ -6643,11 +6657,11 @@
       </c>
       <c r="B193">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C193" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-17</v>
+        <v>21-16</v>
       </c>
       <c r="L193" s="6"/>
       <c r="M193" s="6"/>
@@ -6659,11 +6673,11 @@
       </c>
       <c r="B194">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-18</v>
+        <v>21-17</v>
       </c>
       <c r="L194" s="6"/>
       <c r="M194" s="6"/>
@@ -6675,11 +6689,11 @@
       </c>
       <c r="B195">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C195" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>21-19</v>
+        <v>21-18</v>
       </c>
       <c r="L195" s="6"/>
       <c r="M195" s="6"/>
@@ -6690,44 +6704,44 @@
         <v>21</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B259" si="11">IF(A196=A195,B195+1,1)</f>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>19</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" ref="C196:C259" si="12">CONCATENATE(A196,"-",B196)</f>
-        <v>21-20</v>
+        <f t="shared" si="9"/>
+        <v>21-19</v>
       </c>
       <c r="L196" s="6"/>
       <c r="M196" s="6"/>
     </row>
     <row r="197" spans="1:13" ht="15">
       <c r="A197">
-        <f t="shared" ref="A197:A260" si="13">A196</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B197">
+        <f t="shared" ref="B197:B260" si="11">IF(A197=A196,B196+1,1)</f>
+        <v>20</v>
+      </c>
+      <c r="C197" s="3" t="str">
+        <f t="shared" ref="C197:C260" si="12">CONCATENATE(A197,"-",B197)</f>
+        <v>21-20</v>
+      </c>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+    </row>
+    <row r="198" spans="1:13" ht="15">
+      <c r="A198">
+        <f t="shared" ref="A198:A261" si="13">A197</f>
+        <v>21</v>
+      </c>
+      <c r="B198">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="C197" s="3" t="str">
+      <c r="C198" s="3" t="str">
         <f t="shared" si="12"/>
         <v>21-21</v>
-      </c>
-      <c r="L197" s="6"/>
-      <c r="M197" s="6"/>
-    </row>
-    <row r="198" spans="1:13" ht="15">
-      <c r="A198">
-        <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="B198">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="C198" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-22</v>
       </c>
       <c r="L198" s="6"/>
       <c r="M198" s="6"/>
@@ -6739,11 +6753,11 @@
       </c>
       <c r="B199">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C199" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-23</v>
+        <v>21-22</v>
       </c>
       <c r="L199" s="6"/>
       <c r="M199" s="6"/>
@@ -6755,11 +6769,11 @@
       </c>
       <c r="B200">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C200" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-24</v>
+        <v>21-23</v>
       </c>
       <c r="L200" s="6"/>
       <c r="M200" s="6"/>
@@ -6771,11 +6785,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C201" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-25</v>
+        <v>21-24</v>
       </c>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
@@ -6787,11 +6801,11 @@
       </c>
       <c r="B202">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C202" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-26</v>
+        <v>21-25</v>
       </c>
       <c r="L202" s="6"/>
       <c r="M202" s="6"/>
@@ -6803,11 +6817,11 @@
       </c>
       <c r="B203">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C203" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-27</v>
+        <v>21-26</v>
       </c>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
@@ -6819,11 +6833,11 @@
       </c>
       <c r="B204">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C204" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-28</v>
+        <v>21-27</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
@@ -6835,11 +6849,11 @@
       </c>
       <c r="B205">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C205" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-29</v>
+        <v>21-28</v>
       </c>
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
@@ -6851,11 +6865,11 @@
       </c>
       <c r="B206">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-30</v>
+        <v>21-29</v>
       </c>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
@@ -6867,11 +6881,11 @@
       </c>
       <c r="B207">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C207" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-31</v>
+        <v>21-30</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
@@ -6883,11 +6897,11 @@
       </c>
       <c r="B208">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C208" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-32</v>
+        <v>21-31</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
@@ -6899,11 +6913,11 @@
       </c>
       <c r="B209">
         <f t="shared" si="11"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C209" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-33</v>
+        <v>21-32</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -6915,11 +6929,11 @@
       </c>
       <c r="B210">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C210" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-34</v>
+        <v>21-33</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -6931,11 +6945,11 @@
       </c>
       <c r="B211">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C211" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-35</v>
+        <v>21-34</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -6947,11 +6961,11 @@
       </c>
       <c r="B212">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C212" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-36</v>
+        <v>21-35</v>
       </c>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
@@ -6963,11 +6977,11 @@
       </c>
       <c r="B213">
         <f t="shared" si="11"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C213" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-37</v>
+        <v>21-36</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
@@ -6979,11 +6993,11 @@
       </c>
       <c r="B214">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C214" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-38</v>
+        <v>21-37</v>
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
@@ -6995,11 +7009,11 @@
       </c>
       <c r="B215">
         <f t="shared" si="11"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C215" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-39</v>
+        <v>21-38</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
@@ -7011,11 +7025,11 @@
       </c>
       <c r="B216">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C216" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-40</v>
+        <v>21-39</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
@@ -7027,11 +7041,11 @@
       </c>
       <c r="B217">
         <f t="shared" si="11"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C217" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-41</v>
+        <v>21-40</v>
       </c>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
@@ -7043,11 +7057,11 @@
       </c>
       <c r="B218">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C218" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-42</v>
+        <v>21-41</v>
       </c>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
@@ -7059,11 +7073,11 @@
       </c>
       <c r="B219">
         <f t="shared" si="11"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C219" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-43</v>
+        <v>21-42</v>
       </c>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
@@ -7075,11 +7089,11 @@
       </c>
       <c r="B220">
         <f t="shared" si="11"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C220" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-44</v>
+        <v>21-43</v>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
@@ -7091,11 +7105,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="11"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C221" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-45</v>
+        <v>21-44</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
@@ -7107,11 +7121,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="11"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C222" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-46</v>
+        <v>21-45</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
@@ -7123,11 +7137,11 @@
       </c>
       <c r="B223">
         <f t="shared" si="11"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C223" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-47</v>
+        <v>21-46</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -7139,11 +7153,11 @@
       </c>
       <c r="B224">
         <f t="shared" si="11"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C224" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-48</v>
+        <v>21-47</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -7155,11 +7169,11 @@
       </c>
       <c r="B225">
         <f t="shared" si="11"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C225" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-49</v>
+        <v>21-48</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
@@ -7171,11 +7185,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-50</v>
+        <v>21-49</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
@@ -7187,11 +7201,11 @@
       </c>
       <c r="B227">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C227" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-51</v>
+        <v>21-50</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
@@ -7203,11 +7217,11 @@
       </c>
       <c r="B228">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C228" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-52</v>
+        <v>21-51</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
@@ -7219,11 +7233,11 @@
       </c>
       <c r="B229">
         <f t="shared" si="11"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C229" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-53</v>
+        <v>21-52</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
@@ -7235,11 +7249,11 @@
       </c>
       <c r="B230">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C230" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-54</v>
+        <v>21-53</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
@@ -7251,11 +7265,11 @@
       </c>
       <c r="B231">
         <f t="shared" si="11"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C231" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-55</v>
+        <v>21-54</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -7267,11 +7281,11 @@
       </c>
       <c r="B232">
         <f t="shared" si="11"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C232" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-56</v>
+        <v>21-55</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
@@ -7283,11 +7297,11 @@
       </c>
       <c r="B233">
         <f t="shared" si="11"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C233" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-57</v>
+        <v>21-56</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
@@ -7299,11 +7313,11 @@
       </c>
       <c r="B234">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C234" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-58</v>
+        <v>21-57</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
@@ -7315,11 +7329,11 @@
       </c>
       <c r="B235">
         <f t="shared" si="11"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C235" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-59</v>
+        <v>21-58</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
@@ -7331,11 +7345,11 @@
       </c>
       <c r="B236">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C236" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-60</v>
+        <v>21-59</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
@@ -7347,11 +7361,11 @@
       </c>
       <c r="B237">
         <f t="shared" si="11"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C237" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-61</v>
+        <v>21-60</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
@@ -7363,11 +7377,11 @@
       </c>
       <c r="B238">
         <f t="shared" si="11"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C238" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-62</v>
+        <v>21-61</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
@@ -7379,11 +7393,11 @@
       </c>
       <c r="B239">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C239" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-63</v>
+        <v>21-62</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
@@ -7395,11 +7409,11 @@
       </c>
       <c r="B240">
         <f t="shared" si="11"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C240" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-64</v>
+        <v>21-63</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
@@ -7411,11 +7425,11 @@
       </c>
       <c r="B241">
         <f t="shared" si="11"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C241" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-65</v>
+        <v>21-64</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
@@ -7427,11 +7441,11 @@
       </c>
       <c r="B242">
         <f t="shared" si="11"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C242" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-66</v>
+        <v>21-65</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
@@ -7443,11 +7457,11 @@
       </c>
       <c r="B243">
         <f t="shared" si="11"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C243" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-67</v>
+        <v>21-66</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -7459,11 +7473,11 @@
       </c>
       <c r="B244">
         <f t="shared" si="11"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C244" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-68</v>
+        <v>21-67</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
@@ -7475,11 +7489,11 @@
       </c>
       <c r="B245">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C245" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-69</v>
+        <v>21-68</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
@@ -7491,11 +7505,11 @@
       </c>
       <c r="B246">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C246" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-70</v>
+        <v>21-69</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
@@ -7507,11 +7521,11 @@
       </c>
       <c r="B247">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C247" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-71</v>
+        <v>21-70</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
@@ -7523,11 +7537,11 @@
       </c>
       <c r="B248">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C248" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-72</v>
+        <v>21-71</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
@@ -7539,11 +7553,11 @@
       </c>
       <c r="B249">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C249" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-73</v>
+        <v>21-72</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
@@ -7555,11 +7569,11 @@
       </c>
       <c r="B250">
         <f t="shared" si="11"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C250" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-74</v>
+        <v>21-73</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -7571,11 +7585,11 @@
       </c>
       <c r="B251">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C251" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-75</v>
+        <v>21-74</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
@@ -7587,11 +7601,11 @@
       </c>
       <c r="B252">
         <f t="shared" si="11"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C252" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-76</v>
+        <v>21-75</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
@@ -7603,11 +7617,11 @@
       </c>
       <c r="B253">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C253" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-77</v>
+        <v>21-76</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
@@ -7619,11 +7633,11 @@
       </c>
       <c r="B254">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C254" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-78</v>
+        <v>21-77</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
@@ -7635,11 +7649,11 @@
       </c>
       <c r="B255">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C255" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-79</v>
+        <v>21-78</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
@@ -7651,11 +7665,11 @@
       </c>
       <c r="B256">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C256" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-80</v>
+        <v>21-79</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
@@ -7667,11 +7681,11 @@
       </c>
       <c r="B257">
         <f t="shared" si="11"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C257" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-81</v>
+        <v>21-80</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -7683,11 +7697,11 @@
       </c>
       <c r="B258">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C258" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-82</v>
+        <v>21-81</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
@@ -7699,11 +7713,11 @@
       </c>
       <c r="B259">
         <f t="shared" si="11"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C259" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>21-83</v>
+        <v>21-82</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
@@ -7714,44 +7728,44 @@
         <v>21</v>
       </c>
       <c r="B260">
-        <f t="shared" ref="B260:B323" si="14">IF(A260=A259,B259+1,1)</f>
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>83</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" ref="C260:C323" si="15">CONCATENATE(A260,"-",B260)</f>
-        <v>21-84</v>
+        <f t="shared" si="12"/>
+        <v>21-83</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" ref="A261:A324" si="16">A260</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="B261">
+        <f t="shared" ref="B261:B324" si="14">IF(A261=A260,B260+1,1)</f>
+        <v>84</v>
+      </c>
+      <c r="C261" s="3" t="str">
+        <f t="shared" ref="C261:C324" si="15">CONCATENATE(A261,"-",B261)</f>
+        <v>21-84</v>
+      </c>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+    </row>
+    <row r="262" spans="1:13" ht="15">
+      <c r="A262">
+        <f t="shared" ref="A262:A325" si="16">A261</f>
+        <v>21</v>
+      </c>
+      <c r="B262">
         <f t="shared" si="14"/>
         <v>85</v>
       </c>
-      <c r="C261" s="3" t="str">
+      <c r="C262" s="3" t="str">
         <f t="shared" si="15"/>
         <v>21-85</v>
-      </c>
-      <c r="L261" s="6"/>
-      <c r="M261" s="6"/>
-    </row>
-    <row r="262" spans="1:13" ht="15">
-      <c r="A262">
-        <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="C262" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v>21-86</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -7763,11 +7777,11 @@
       </c>
       <c r="B263">
         <f t="shared" si="14"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C263" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-87</v>
+        <v>21-86</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -7779,11 +7793,11 @@
       </c>
       <c r="B264">
         <f t="shared" si="14"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C264" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-88</v>
+        <v>21-87</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
@@ -7795,11 +7809,11 @@
       </c>
       <c r="B265">
         <f t="shared" si="14"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C265" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-89</v>
+        <v>21-88</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
@@ -7811,11 +7825,11 @@
       </c>
       <c r="B266">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C266" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-90</v>
+        <v>21-89</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -7827,11 +7841,11 @@
       </c>
       <c r="B267">
         <f t="shared" si="14"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C267" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-91</v>
+        <v>21-90</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
@@ -7843,11 +7857,11 @@
       </c>
       <c r="B268">
         <f t="shared" si="14"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C268" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-92</v>
+        <v>21-91</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
@@ -7859,11 +7873,11 @@
       </c>
       <c r="B269">
         <f t="shared" si="14"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C269" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-93</v>
+        <v>21-92</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -7875,11 +7889,11 @@
       </c>
       <c r="B270">
         <f t="shared" si="14"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C270" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-94</v>
+        <v>21-93</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
@@ -7891,11 +7905,11 @@
       </c>
       <c r="B271">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C271" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-95</v>
+        <v>21-94</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
@@ -7907,11 +7921,11 @@
       </c>
       <c r="B272">
         <f t="shared" si="14"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C272" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-96</v>
+        <v>21-95</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -7923,11 +7937,11 @@
       </c>
       <c r="B273">
         <f t="shared" si="14"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C273" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-97</v>
+        <v>21-96</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
@@ -7939,11 +7953,11 @@
       </c>
       <c r="B274">
         <f t="shared" si="14"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C274" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-98</v>
+        <v>21-97</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
@@ -7955,11 +7969,11 @@
       </c>
       <c r="B275">
         <f t="shared" si="14"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C275" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-99</v>
+        <v>21-98</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
@@ -7971,11 +7985,11 @@
       </c>
       <c r="B276">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C276" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-100</v>
+        <v>21-99</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
@@ -7987,11 +8001,11 @@
       </c>
       <c r="B277">
         <f t="shared" si="14"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C277" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-101</v>
+        <v>21-100</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
@@ -8003,11 +8017,11 @@
       </c>
       <c r="B278">
         <f t="shared" si="14"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C278" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-102</v>
+        <v>21-101</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -8019,11 +8033,11 @@
       </c>
       <c r="B279">
         <f t="shared" si="14"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C279" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-103</v>
+        <v>21-102</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
@@ -8035,11 +8049,11 @@
       </c>
       <c r="B280">
         <f t="shared" si="14"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C280" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-104</v>
+        <v>21-103</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
@@ -8051,11 +8065,11 @@
       </c>
       <c r="B281">
         <f t="shared" si="14"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C281" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-105</v>
+        <v>21-104</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
@@ -8067,11 +8081,11 @@
       </c>
       <c r="B282">
         <f t="shared" si="14"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C282" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-106</v>
+        <v>21-105</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
@@ -8083,11 +8097,11 @@
       </c>
       <c r="B283">
         <f t="shared" si="14"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C283" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-107</v>
+        <v>21-106</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
@@ -8099,11 +8113,11 @@
       </c>
       <c r="B284">
         <f t="shared" si="14"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C284" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-108</v>
+        <v>21-107</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
@@ -8115,11 +8129,11 @@
       </c>
       <c r="B285">
         <f t="shared" si="14"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C285" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-109</v>
+        <v>21-108</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -8131,11 +8145,11 @@
       </c>
       <c r="B286">
         <f t="shared" si="14"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C286" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-110</v>
+        <v>21-109</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
@@ -8147,11 +8161,11 @@
       </c>
       <c r="B287">
         <f t="shared" si="14"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C287" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-111</v>
+        <v>21-110</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
@@ -8163,11 +8177,11 @@
       </c>
       <c r="B288">
         <f t="shared" si="14"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C288" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-112</v>
+        <v>21-111</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
@@ -8179,11 +8193,11 @@
       </c>
       <c r="B289">
         <f t="shared" si="14"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C289" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-113</v>
+        <v>21-112</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
@@ -8195,11 +8209,11 @@
       </c>
       <c r="B290">
         <f t="shared" si="14"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C290" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-114</v>
+        <v>21-113</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
@@ -8211,11 +8225,11 @@
       </c>
       <c r="B291">
         <f t="shared" si="14"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C291" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-115</v>
+        <v>21-114</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
@@ -8227,11 +8241,11 @@
       </c>
       <c r="B292">
         <f t="shared" si="14"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C292" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-116</v>
+        <v>21-115</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -8243,11 +8257,11 @@
       </c>
       <c r="B293">
         <f t="shared" si="14"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C293" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-117</v>
+        <v>21-116</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
@@ -8259,11 +8273,11 @@
       </c>
       <c r="B294">
         <f t="shared" si="14"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C294" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-118</v>
+        <v>21-117</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
@@ -8275,11 +8289,11 @@
       </c>
       <c r="B295">
         <f t="shared" si="14"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C295" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-119</v>
+        <v>21-118</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -8291,11 +8305,11 @@
       </c>
       <c r="B296">
         <f t="shared" si="14"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C296" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-120</v>
+        <v>21-119</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
@@ -8307,11 +8321,11 @@
       </c>
       <c r="B297">
         <f t="shared" si="14"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C297" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-121</v>
+        <v>21-120</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
@@ -8323,11 +8337,11 @@
       </c>
       <c r="B298">
         <f t="shared" si="14"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C298" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-122</v>
+        <v>21-121</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -8339,11 +8353,11 @@
       </c>
       <c r="B299">
         <f t="shared" si="14"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C299" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-123</v>
+        <v>21-122</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
@@ -8355,11 +8369,11 @@
       </c>
       <c r="B300">
         <f t="shared" si="14"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C300" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-124</v>
+        <v>21-123</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
@@ -8371,11 +8385,11 @@
       </c>
       <c r="B301">
         <f t="shared" si="14"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C301" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-125</v>
+        <v>21-124</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
@@ -8387,11 +8401,11 @@
       </c>
       <c r="B302">
         <f t="shared" si="14"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C302" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-126</v>
+        <v>21-125</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
@@ -8403,11 +8417,11 @@
       </c>
       <c r="B303">
         <f t="shared" si="14"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C303" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-127</v>
+        <v>21-126</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
@@ -8419,11 +8433,11 @@
       </c>
       <c r="B304">
         <f t="shared" si="14"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C304" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-128</v>
+        <v>21-127</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
@@ -8435,11 +8449,11 @@
       </c>
       <c r="B305">
         <f t="shared" si="14"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C305" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-129</v>
+        <v>21-128</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
@@ -8451,11 +8465,11 @@
       </c>
       <c r="B306">
         <f t="shared" si="14"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C306" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-130</v>
+        <v>21-129</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
@@ -8467,11 +8481,11 @@
       </c>
       <c r="B307">
         <f t="shared" si="14"/>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C307" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-131</v>
+        <v>21-130</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
@@ -8483,11 +8497,11 @@
       </c>
       <c r="B308">
         <f t="shared" si="14"/>
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C308" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-132</v>
+        <v>21-131</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
@@ -8499,11 +8513,11 @@
       </c>
       <c r="B309">
         <f t="shared" si="14"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C309" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-133</v>
+        <v>21-132</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
@@ -8515,11 +8529,11 @@
       </c>
       <c r="B310">
         <f t="shared" si="14"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C310" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-134</v>
+        <v>21-133</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
@@ -8531,11 +8545,11 @@
       </c>
       <c r="B311">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C311" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-135</v>
+        <v>21-134</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
@@ -8547,11 +8561,11 @@
       </c>
       <c r="B312">
         <f t="shared" si="14"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C312" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-136</v>
+        <v>21-135</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
@@ -8563,11 +8577,11 @@
       </c>
       <c r="B313">
         <f t="shared" si="14"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C313" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-137</v>
+        <v>21-136</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
@@ -8579,11 +8593,11 @@
       </c>
       <c r="B314">
         <f t="shared" si="14"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C314" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-138</v>
+        <v>21-137</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -8595,11 +8609,11 @@
       </c>
       <c r="B315">
         <f t="shared" si="14"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C315" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-139</v>
+        <v>21-138</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
@@ -8611,11 +8625,11 @@
       </c>
       <c r="B316">
         <f t="shared" si="14"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C316" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-140</v>
+        <v>21-139</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
@@ -8627,11 +8641,11 @@
       </c>
       <c r="B317">
         <f t="shared" si="14"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C317" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-141</v>
+        <v>21-140</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
@@ -8643,11 +8657,11 @@
       </c>
       <c r="B318">
         <f t="shared" si="14"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C318" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-142</v>
+        <v>21-141</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
@@ -8659,11 +8673,11 @@
       </c>
       <c r="B319">
         <f t="shared" si="14"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C319" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-143</v>
+        <v>21-142</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
@@ -8675,11 +8689,11 @@
       </c>
       <c r="B320">
         <f t="shared" si="14"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C320" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-144</v>
+        <v>21-143</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
@@ -8691,11 +8705,11 @@
       </c>
       <c r="B321">
         <f t="shared" si="14"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C321" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-145</v>
+        <v>21-144</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
@@ -8707,11 +8721,11 @@
       </c>
       <c r="B322">
         <f t="shared" si="14"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C322" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-146</v>
+        <v>21-145</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
@@ -8723,11 +8737,11 @@
       </c>
       <c r="B323">
         <f t="shared" si="14"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C323" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>21-147</v>
+        <v>21-146</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
@@ -8738,44 +8752,44 @@
         <v>21</v>
       </c>
       <c r="B324">
-        <f t="shared" ref="B324:B345" si="17">IF(A324=A323,B323+1,1)</f>
-        <v>148</v>
+        <f t="shared" si="14"/>
+        <v>147</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" ref="C324:C345" si="18">CONCATENATE(A324,"-",B324)</f>
-        <v>21-148</v>
+        <f t="shared" si="15"/>
+        <v>21-147</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" ref="A325:A345" si="19">A324</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="B325">
+        <f t="shared" ref="B325:B346" si="17">IF(A325=A324,B324+1,1)</f>
+        <v>148</v>
+      </c>
+      <c r="C325" s="3" t="str">
+        <f t="shared" ref="C325:C346" si="18">CONCATENATE(A325,"-",B325)</f>
+        <v>21-148</v>
+      </c>
+      <c r="L325" s="6"/>
+      <c r="M325" s="6"/>
+    </row>
+    <row r="326" spans="1:13" ht="15">
+      <c r="A326">
+        <f t="shared" ref="A326:A346" si="19">A325</f>
+        <v>21</v>
+      </c>
+      <c r="B326">
         <f t="shared" si="17"/>
         <v>149</v>
       </c>
-      <c r="C325" s="3" t="str">
+      <c r="C326" s="3" t="str">
         <f t="shared" si="18"/>
         <v>21-149</v>
-      </c>
-      <c r="L325" s="6"/>
-      <c r="M325" s="6"/>
-    </row>
-    <row r="326" spans="1:13" ht="15">
-      <c r="A326">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="17"/>
-        <v>150</v>
-      </c>
-      <c r="C326" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>21-150</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
@@ -8787,11 +8801,11 @@
       </c>
       <c r="B327">
         <f t="shared" si="17"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C327" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-151</v>
+        <v>21-150</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
@@ -8803,11 +8817,11 @@
       </c>
       <c r="B328">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C328" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-152</v>
+        <v>21-151</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
@@ -8819,11 +8833,11 @@
       </c>
       <c r="B329">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C329" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-153</v>
+        <v>21-152</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
@@ -8835,11 +8849,11 @@
       </c>
       <c r="B330">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C330" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-154</v>
+        <v>21-153</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -8851,11 +8865,11 @@
       </c>
       <c r="B331">
         <f t="shared" si="17"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C331" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-155</v>
+        <v>21-154</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
@@ -8867,11 +8881,11 @@
       </c>
       <c r="B332">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C332" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-156</v>
+        <v>21-155</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
@@ -8883,11 +8897,11 @@
       </c>
       <c r="B333">
         <f t="shared" si="17"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C333" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-157</v>
+        <v>21-156</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
@@ -8899,11 +8913,11 @@
       </c>
       <c r="B334">
         <f t="shared" si="17"/>
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C334" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-158</v>
+        <v>21-157</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
@@ -8915,11 +8929,11 @@
       </c>
       <c r="B335">
         <f t="shared" si="17"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C335" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-159</v>
+        <v>21-158</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
@@ -8931,11 +8945,11 @@
       </c>
       <c r="B336">
         <f t="shared" si="17"/>
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C336" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-160</v>
+        <v>21-159</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
@@ -8947,11 +8961,11 @@
       </c>
       <c r="B337">
         <f t="shared" si="17"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C337" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-161</v>
+        <v>21-160</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
@@ -8963,11 +8977,11 @@
       </c>
       <c r="B338">
         <f t="shared" si="17"/>
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C338" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-162</v>
+        <v>21-161</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
@@ -8979,11 +8993,11 @@
       </c>
       <c r="B339">
         <f t="shared" si="17"/>
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C339" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-163</v>
+        <v>21-162</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
@@ -8995,11 +9009,11 @@
       </c>
       <c r="B340">
         <f t="shared" si="17"/>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C340" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-164</v>
+        <v>21-163</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
@@ -9011,11 +9025,11 @@
       </c>
       <c r="B341">
         <f t="shared" si="17"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C341" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-165</v>
+        <v>21-164</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
@@ -9027,11 +9041,11 @@
       </c>
       <c r="B342">
         <f t="shared" si="17"/>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C342" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-166</v>
+        <v>21-165</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
@@ -9043,11 +9057,11 @@
       </c>
       <c r="B343">
         <f t="shared" si="17"/>
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C343" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-167</v>
+        <v>21-166</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
@@ -9059,11 +9073,11 @@
       </c>
       <c r="B344">
         <f t="shared" si="17"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C344" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-168</v>
+        <v>21-167</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
@@ -9075,16 +9089,28 @@
       </c>
       <c r="B345">
         <f t="shared" si="17"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C345" s="3" t="str">
         <f t="shared" si="18"/>
-        <v>21-169</v>
+        <v>21-168</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
-    <row r="346" spans="1:13" ht="12.75">
+    <row r="346" spans="1:13" ht="15">
+      <c r="A346">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="17"/>
+        <v>169</v>
+      </c>
+      <c r="C346" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v>21-169</v>
+      </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
@@ -11832,21 +11858,25 @@
       <c r="L1032" s="6"/>
       <c r="M1032" s="6"/>
     </row>
+    <row r="1033" spans="12:13" ht="12.75">
+      <c r="L1033" s="6"/>
+      <c r="M1033" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L171:L174"/>
+    <mergeCell ref="L172:L175"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K182">
+  <conditionalFormatting sqref="K2:K183">
     <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K182">
+  <conditionalFormatting sqref="K2:K183">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K182">
+  <conditionalFormatting sqref="K2:K183">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -709,7 +709,7 @@
     <t>15-30</t>
   </si>
   <si>
-    <t>Default log settings for block is enabled and 30 s rate</t>
+    <t>New block log settings default to enabled and 30 s rate</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
   <dimension ref="A1:N1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="249">
   <si>
     <t>Test Number</t>
   </si>
@@ -710,6 +710,60 @@
   </si>
   <si>
     <t>New block log settings default to enabled and 30 s rate</t>
+  </si>
+  <si>
+    <t>Can use the following PVs from SIMPLE IOC: VALUE:P3, VALUE:P5, LONG</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0 is displayed as 0.000 (PREC 3) and 0.00000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0.1 is displayed as 0.100 (PREC 3) and 0.10000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0.01 is displayed as 0.010 (PREC 3) and 0.01000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0.001 is displayed as 0.001 (PREC 3) and 0.00100 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0.001234 is displayed as 0.001 (PREC 3) and 0.00123 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 0.0009 is displayed as 9.000E-4 (PREC 3) and 9.00000E-4 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 15 is displayed as 15.000 (PREC 3) and 15.00000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 999999 is displayed as 999999.000 (PREC 3) and 999999.00000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 1000000 is displayed as 1.000E6 (PREC 3) and 1.00000E6 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: 1234567 is displayed as 1.234E6 (PREC 3) and 1.23457E7 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -0.001234 is displayed as -0.001 (PREC 3) and -0.00123 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -0.0009 is displayed as -9.000E-4 (PREC 3) and -9.00000E-4 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -0.001 is displayed as -0.001 (PREC 3) and -0.00100 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -999999 is displayed as -999999.000 (PREC 3) and -999999.00000 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -1000000 is displayed as -1.000E6 (PREC 3) and -1.00000E6 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at ai: -1234567 is displayed as -1.234E6 (PREC 3) and -1.23457E7 (PREC 5)</t>
+  </si>
+  <si>
+    <t>Block pointing at longin: never displayed as scientific notation (try 0, 15, 999999, 1000000, 1234567 and their negatives)</t>
   </si>
 </sst>
 </file>
@@ -880,7 +934,1519 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1220,11 +2786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1033"/>
+  <dimension ref="A1:N1050"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I201" sqref="I201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1781,11 +3347,11 @@
     </row>
     <row r="20" spans="1:13" ht="45">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f>A19</f>
         <v>3</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>IF(A20=A19,B19+1,1)</f>
         <v>6</v>
       </c>
       <c r="C20" s="3" t="str">
@@ -5011,11 +6577,11 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B196" si="8">IF(A133=A132,B132+1,1)</f>
+        <f t="shared" ref="B133:B213" si="8">IF(A133=A132,B132+1,1)</f>
         <v>44</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" ref="C133:C196" si="9">CONCATENATE(A133,"-",B133)</f>
+        <f t="shared" ref="C133:C213" si="9">CONCATENATE(A133,"-",B133)</f>
         <v>15-44</v>
       </c>
       <c r="D133" s="5"/>
@@ -5035,7 +6601,7 @@
     </row>
     <row r="134" spans="1:13" ht="15">
       <c r="A134">
-        <f t="shared" ref="A134:A197" si="10">A133</f>
+        <f t="shared" ref="A134:A214" si="10">A133</f>
         <v>15</v>
       </c>
       <c r="B134">
@@ -6506,7 +8072,7 @@
       <c r="L183" s="12"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" ht="15">
+    <row r="184" spans="1:13" ht="26.25">
       <c r="A184">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -6516,13 +8082,29 @@
         <v>7</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C184" si="11">CONCATENATE(A184,"-",B184)</f>
         <v>21-7</v>
       </c>
-      <c r="L184" s="6"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J184" s="12"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" ht="15">
+    <row r="185" spans="1:13" ht="26.25">
       <c r="A185">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -6532,13 +8114,29 @@
         <v>8</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C185" si="12">CONCATENATE(A185,"-",B185)</f>
         <v>21-8</v>
       </c>
-      <c r="L185" s="6"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J185" s="12"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" ht="15">
+    <row r="186" spans="1:13" ht="26.25">
       <c r="A186">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -6548,15 +8146,31 @@
         <v>9</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C186" si="13">CONCATENATE(A186,"-",B186)</f>
         <v>21-9</v>
       </c>
-      <c r="L186" s="6"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J186" s="12"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" ht="15">
+    <row r="187" spans="1:13" ht="26.25">
       <c r="A187">
-        <f t="shared" si="10"/>
+        <f>A186</f>
         <v>21</v>
       </c>
       <c r="B187">
@@ -6564,15 +8178,31 @@
         <v>10</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C187:C189" si="14">CONCATENATE(A187,"-",B187)</f>
         <v>21-10</v>
       </c>
-      <c r="L187" s="6"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J187" s="12"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M187" s="6"/>
     </row>
-    <row r="188" spans="1:13" ht="15">
+    <row r="188" spans="1:13" ht="26.25">
       <c r="A188">
-        <f t="shared" si="10"/>
+        <f>A187</f>
         <v>21</v>
       </c>
       <c r="B188">
@@ -6580,15 +8210,31 @@
         <v>11</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C188" si="15">CONCATENATE(A188,"-",B188)</f>
         <v>21-11</v>
       </c>
-      <c r="L188" s="6"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J188" s="12"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" ht="15">
+    <row r="189" spans="1:13" ht="26.25">
       <c r="A189">
-        <f t="shared" si="10"/>
+        <f>A187</f>
         <v>21</v>
       </c>
       <c r="B189">
@@ -6596,13 +8242,29 @@
         <v>12</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>21-12</v>
       </c>
-      <c r="L189" s="6"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J189" s="12"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" ht="15">
+    <row r="190" spans="1:13" ht="26.25">
       <c r="A190">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -6612,15 +8274,31 @@
         <v>13</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C190" si="16">CONCATENATE(A190,"-",B190)</f>
         <v>21-13</v>
       </c>
-      <c r="L190" s="6"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J190" s="12"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="1:13" ht="15">
+    <row r="191" spans="1:13" ht="26.25">
       <c r="A191">
-        <f t="shared" si="10"/>
+        <f>A189</f>
         <v>21</v>
       </c>
       <c r="B191">
@@ -6628,15 +8306,31 @@
         <v>14</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C191" si="17">CONCATENATE(A191,"-",B191)</f>
         <v>21-14</v>
       </c>
-      <c r="L191" s="6"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="J191" s="12"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M191" s="6"/>
     </row>
-    <row r="192" spans="1:13" ht="15">
+    <row r="192" spans="1:13" ht="26.25">
       <c r="A192">
-        <f t="shared" si="10"/>
+        <f>A190</f>
         <v>21</v>
       </c>
       <c r="B192">
@@ -6644,15 +8338,31 @@
         <v>15</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C192" si="18">CONCATENATE(A192,"-",B192)</f>
         <v>21-15</v>
       </c>
-      <c r="L192" s="6"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J192" s="12"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M192" s="6"/>
     </row>
-    <row r="193" spans="1:13" ht="15">
+    <row r="193" spans="1:13" ht="26.25">
       <c r="A193">
-        <f t="shared" si="10"/>
+        <f>A191</f>
         <v>21</v>
       </c>
       <c r="B193">
@@ -6660,13 +8370,29 @@
         <v>16</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C193:C194" si="19">CONCATENATE(A193,"-",B193)</f>
         <v>21-16</v>
       </c>
-      <c r="L193" s="6"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J193" s="12"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M193" s="6"/>
     </row>
-    <row r="194" spans="1:13" ht="15">
+    <row r="194" spans="1:13" ht="39">
       <c r="A194">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -6676,31 +8402,62 @@
         <v>17</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>21-17</v>
       </c>
-      <c r="L194" s="6"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J194" s="12"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M194" s="6"/>
     </row>
-    <row r="195" spans="1:13" ht="15">
+    <row r="195" spans="1:13" ht="39">
       <c r="A195">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B195">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C195" si="20">CONCATENATE(A195,"-",B195)</f>
         <v>21-18</v>
       </c>
-      <c r="L195" s="6"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J195" s="12"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" ht="15">
+    <row r="196" spans="1:13" ht="26.25">
       <c r="A196">
-        <f t="shared" si="10"/>
+        <f>A194</f>
         <v>21</v>
       </c>
       <c r="B196">
@@ -6708,87 +8465,166 @@
         <v>19</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="C196:C198" si="21">CONCATENATE(A196,"-",B196)</f>
         <v>21-19</v>
       </c>
-      <c r="L196" s="6"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J196" s="12"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="15">
+    <row r="197" spans="1:13" ht="26.25">
       <c r="A197">
-        <f t="shared" si="10"/>
+        <f>A195</f>
         <v>21</v>
       </c>
       <c r="B197">
-        <f t="shared" ref="B197:B260" si="11">IF(A197=A196,B196+1,1)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" ref="C197:C260" si="12">CONCATENATE(A197,"-",B197)</f>
+        <f t="shared" ref="C197" si="22">CONCATENATE(A197,"-",B197)</f>
         <v>21-20</v>
       </c>
-      <c r="L197" s="6"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H197" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J197" s="12"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M197" s="6"/>
     </row>
-    <row r="198" spans="1:13" ht="15">
+    <row r="198" spans="1:13" ht="26.25">
       <c r="A198">
-        <f t="shared" ref="A198:A261" si="13">A197</f>
+        <f>A196</f>
         <v>21</v>
       </c>
       <c r="B198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>21-21</v>
       </c>
-      <c r="L198" s="6"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H198" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J198" s="12"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M198" s="6"/>
     </row>
-    <row r="199" spans="1:13" ht="15">
+    <row r="199" spans="1:13" ht="26.25">
       <c r="A199">
-        <f t="shared" si="13"/>
+        <f>A197</f>
         <v>21</v>
       </c>
       <c r="B199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C199" si="23">CONCATENATE(A199,"-",B199)</f>
         <v>21-22</v>
       </c>
-      <c r="L199" s="6"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H199" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J199" s="12"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M199" s="6"/>
     </row>
-    <row r="200" spans="1:13" ht="15">
+    <row r="200" spans="1:13" ht="39">
       <c r="A200">
-        <f t="shared" si="13"/>
+        <f>A198</f>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C200" si="24">CONCATENATE(A200,"-",B200)</f>
         <v>21-23</v>
       </c>
-      <c r="L200" s="6"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J200" s="12"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M200" s="6"/>
     </row>
     <row r="201" spans="1:13" ht="15">
       <c r="A201">
-        <f t="shared" si="13"/>
+        <f>A183</f>
         <v>21</v>
       </c>
       <c r="B201">
-        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-24</v>
       </c>
       <c r="L201" s="6"/>
@@ -6796,15 +8632,15 @@
     </row>
     <row r="202" spans="1:13" ht="15">
       <c r="A202">
-        <f t="shared" si="13"/>
+        <f>A201</f>
         <v>21</v>
       </c>
       <c r="B202">
-        <f t="shared" si="11"/>
+        <f>IF(A202=A201,B201+1,1)</f>
         <v>25</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-25</v>
       </c>
       <c r="L202" s="6"/>
@@ -6812,15 +8648,15 @@
     </row>
     <row r="203" spans="1:13" ht="15">
       <c r="A203">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-26</v>
       </c>
       <c r="L203" s="6"/>
@@ -6828,15 +8664,15 @@
     </row>
     <row r="204" spans="1:13" ht="15">
       <c r="A204">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-27</v>
       </c>
       <c r="L204" s="6"/>
@@ -6844,15 +8680,15 @@
     </row>
     <row r="205" spans="1:13" ht="15">
       <c r="A205">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-28</v>
       </c>
       <c r="L205" s="6"/>
@@ -6860,15 +8696,15 @@
     </row>
     <row r="206" spans="1:13" ht="15">
       <c r="A206">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-29</v>
       </c>
       <c r="L206" s="6"/>
@@ -6876,15 +8712,15 @@
     </row>
     <row r="207" spans="1:13" ht="15">
       <c r="A207">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-30</v>
       </c>
       <c r="L207" s="6"/>
@@ -6892,15 +8728,15 @@
     </row>
     <row r="208" spans="1:13" ht="15">
       <c r="A208">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-31</v>
       </c>
       <c r="L208" s="6"/>
@@ -6908,15 +8744,15 @@
     </row>
     <row r="209" spans="1:13" ht="15">
       <c r="A209">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-32</v>
       </c>
       <c r="L209" s="6"/>
@@ -6924,15 +8760,15 @@
     </row>
     <row r="210" spans="1:13" ht="15">
       <c r="A210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-33</v>
       </c>
       <c r="L210" s="6"/>
@@ -6940,15 +8776,15 @@
     </row>
     <row r="211" spans="1:13" ht="15">
       <c r="A211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-34</v>
       </c>
       <c r="L211" s="6"/>
@@ -6956,15 +8792,15 @@
     </row>
     <row r="212" spans="1:13" ht="15">
       <c r="A212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-35</v>
       </c>
       <c r="L212" s="6"/>
@@ -6972,15 +8808,15 @@
     </row>
     <row r="213" spans="1:13" ht="15">
       <c r="A213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>21-36</v>
       </c>
       <c r="L213" s="6"/>
@@ -6988,15 +8824,15 @@
     </row>
     <row r="214" spans="1:13" ht="15">
       <c r="A214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="B214">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B214:B277" si="25">IF(A214=A213,B213+1,1)</f>
         <v>37</v>
       </c>
       <c r="C214" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C214:C277" si="26">CONCATENATE(A214,"-",B214)</f>
         <v>21-37</v>
       </c>
       <c r="L214" s="6"/>
@@ -7004,15 +8840,15 @@
     </row>
     <row r="215" spans="1:13" ht="15">
       <c r="A215">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A215:A278" si="27">A214</f>
         <v>21</v>
       </c>
       <c r="B215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>38</v>
       </c>
       <c r="C215" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-38</v>
       </c>
       <c r="L215" s="6"/>
@@ -7020,15 +8856,15 @@
     </row>
     <row r="216" spans="1:13" ht="15">
       <c r="A216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
       <c r="C216" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-39</v>
       </c>
       <c r="L216" s="6"/>
@@ -7036,15 +8872,15 @@
     </row>
     <row r="217" spans="1:13" ht="15">
       <c r="A217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
       <c r="C217" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-40</v>
       </c>
       <c r="L217" s="6"/>
@@ -7052,15 +8888,15 @@
     </row>
     <row r="218" spans="1:13" ht="15">
       <c r="A218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>41</v>
       </c>
       <c r="C218" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-41</v>
       </c>
       <c r="L218" s="6"/>
@@ -7068,15 +8904,15 @@
     </row>
     <row r="219" spans="1:13" ht="15">
       <c r="A219">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-42</v>
       </c>
       <c r="L219" s="6"/>
@@ -7084,15 +8920,15 @@
     </row>
     <row r="220" spans="1:13" ht="15">
       <c r="A220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>43</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-43</v>
       </c>
       <c r="L220" s="6"/>
@@ -7100,15 +8936,15 @@
     </row>
     <row r="221" spans="1:13" ht="15">
       <c r="A221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>44</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-44</v>
       </c>
       <c r="L221" s="6"/>
@@ -7116,15 +8952,15 @@
     </row>
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-45</v>
       </c>
       <c r="L222" s="6"/>
@@ -7132,15 +8968,15 @@
     </row>
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>46</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-46</v>
       </c>
       <c r="L223" s="6"/>
@@ -7148,15 +8984,15 @@
     </row>
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>47</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-47</v>
       </c>
       <c r="L224" s="6"/>
@@ -7164,15 +9000,15 @@
     </row>
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>48</v>
       </c>
       <c r="C225" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-48</v>
       </c>
       <c r="L225" s="6"/>
@@ -7180,15 +9016,15 @@
     </row>
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>49</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-49</v>
       </c>
       <c r="L226" s="6"/>
@@ -7196,15 +9032,15 @@
     </row>
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-50</v>
       </c>
       <c r="L227" s="6"/>
@@ -7212,15 +9048,15 @@
     </row>
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>51</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-51</v>
       </c>
       <c r="L228" s="6"/>
@@ -7228,15 +9064,15 @@
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>52</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-52</v>
       </c>
       <c r="L229" s="6"/>
@@ -7244,15 +9080,15 @@
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>53</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-53</v>
       </c>
       <c r="L230" s="6"/>
@@ -7260,15 +9096,15 @@
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-54</v>
       </c>
       <c r="L231" s="6"/>
@@ -7276,15 +9112,15 @@
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>55</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-55</v>
       </c>
       <c r="L232" s="6"/>
@@ -7292,15 +9128,15 @@
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>56</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-56</v>
       </c>
       <c r="L233" s="6"/>
@@ -7308,15 +9144,15 @@
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>57</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-57</v>
       </c>
       <c r="L234" s="6"/>
@@ -7324,15 +9160,15 @@
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>58</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-58</v>
       </c>
       <c r="L235" s="6"/>
@@ -7340,15 +9176,15 @@
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>59</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-59</v>
       </c>
       <c r="L236" s="6"/>
@@ -7356,15 +9192,15 @@
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-60</v>
       </c>
       <c r="L237" s="6"/>
@@ -7372,15 +9208,15 @@
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>61</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-61</v>
       </c>
       <c r="L238" s="6"/>
@@ -7388,15 +9224,15 @@
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>62</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-62</v>
       </c>
       <c r="L239" s="6"/>
@@ -7404,15 +9240,15 @@
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>63</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-63</v>
       </c>
       <c r="L240" s="6"/>
@@ -7420,15 +9256,15 @@
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>64</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-64</v>
       </c>
       <c r="L241" s="6"/>
@@ -7436,15 +9272,15 @@
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>65</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-65</v>
       </c>
       <c r="L242" s="6"/>
@@ -7452,15 +9288,15 @@
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>66</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-66</v>
       </c>
       <c r="L243" s="6"/>
@@ -7468,15 +9304,15 @@
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>67</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-67</v>
       </c>
       <c r="L244" s="6"/>
@@ -7484,15 +9320,15 @@
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>68</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-68</v>
       </c>
       <c r="L245" s="6"/>
@@ -7500,15 +9336,15 @@
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>69</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-69</v>
       </c>
       <c r="L246" s="6"/>
@@ -7516,15 +9352,15 @@
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>70</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-70</v>
       </c>
       <c r="L247" s="6"/>
@@ -7532,15 +9368,15 @@
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>71</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-71</v>
       </c>
       <c r="L248" s="6"/>
@@ -7548,15 +9384,15 @@
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>72</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-72</v>
       </c>
       <c r="L249" s="6"/>
@@ -7564,15 +9400,15 @@
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>73</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-73</v>
       </c>
       <c r="L250" s="6"/>
@@ -7580,15 +9416,15 @@
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>74</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-74</v>
       </c>
       <c r="L251" s="6"/>
@@ -7596,15 +9432,15 @@
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>75</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-75</v>
       </c>
       <c r="L252" s="6"/>
@@ -7612,15 +9448,15 @@
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>76</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-76</v>
       </c>
       <c r="L253" s="6"/>
@@ -7628,15 +9464,15 @@
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>77</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-77</v>
       </c>
       <c r="L254" s="6"/>
@@ -7644,15 +9480,15 @@
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>78</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-78</v>
       </c>
       <c r="L255" s="6"/>
@@ -7660,15 +9496,15 @@
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>79</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-79</v>
       </c>
       <c r="L256" s="6"/>
@@ -7676,15 +9512,15 @@
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>80</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-80</v>
       </c>
       <c r="L257" s="6"/>
@@ -7692,15 +9528,15 @@
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>81</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-81</v>
       </c>
       <c r="L258" s="6"/>
@@ -7708,15 +9544,15 @@
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>82</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-82</v>
       </c>
       <c r="L259" s="6"/>
@@ -7724,15 +9560,15 @@
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B260">
-        <f t="shared" si="11"/>
+        <f t="shared" si="25"/>
         <v>83</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>21-83</v>
       </c>
       <c r="L260" s="6"/>
@@ -7740,15 +9576,15 @@
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B261">
-        <f t="shared" ref="B261:B324" si="14">IF(A261=A260,B260+1,1)</f>
+        <f t="shared" si="25"/>
         <v>84</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" ref="C261:C324" si="15">CONCATENATE(A261,"-",B261)</f>
+        <f t="shared" si="26"/>
         <v>21-84</v>
       </c>
       <c r="L261" s="6"/>
@@ -7756,15 +9592,15 @@
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
-        <f t="shared" ref="A262:A325" si="16">A261</f>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-85</v>
       </c>
       <c r="L262" s="6"/>
@@ -7772,15 +9608,15 @@
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>86</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-86</v>
       </c>
       <c r="L263" s="6"/>
@@ -7788,15 +9624,15 @@
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>87</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-87</v>
       </c>
       <c r="L264" s="6"/>
@@ -7804,15 +9640,15 @@
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>88</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-88</v>
       </c>
       <c r="L265" s="6"/>
@@ -7820,15 +9656,15 @@
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>89</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-89</v>
       </c>
       <c r="L266" s="6"/>
@@ -7836,15 +9672,15 @@
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>90</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-90</v>
       </c>
       <c r="L267" s="6"/>
@@ -7852,15 +9688,15 @@
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>91</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-91</v>
       </c>
       <c r="L268" s="6"/>
@@ -7868,15 +9704,15 @@
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>92</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-92</v>
       </c>
       <c r="L269" s="6"/>
@@ -7884,15 +9720,15 @@
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>93</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-93</v>
       </c>
       <c r="L270" s="6"/>
@@ -7900,15 +9736,15 @@
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>94</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-94</v>
       </c>
       <c r="L271" s="6"/>
@@ -7916,15 +9752,15 @@
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>95</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-95</v>
       </c>
       <c r="L272" s="6"/>
@@ -7932,15 +9768,15 @@
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>96</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-96</v>
       </c>
       <c r="L273" s="6"/>
@@ -7948,15 +9784,15 @@
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>97</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-97</v>
       </c>
       <c r="L274" s="6"/>
@@ -7964,15 +9800,15 @@
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>98</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-98</v>
       </c>
       <c r="L275" s="6"/>
@@ -7980,15 +9816,15 @@
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>99</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-99</v>
       </c>
       <c r="L276" s="6"/>
@@ -7996,15 +9832,15 @@
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="26"/>
         <v>21-100</v>
       </c>
       <c r="L277" s="6"/>
@@ -8012,15 +9848,15 @@
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
-        <f t="shared" si="16"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="B278">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B278:B341" si="28">IF(A278=A277,B277+1,1)</f>
         <v>101</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="C278:C341" si="29">CONCATENATE(A278,"-",B278)</f>
         <v>21-101</v>
       </c>
       <c r="L278" s="6"/>
@@ -8028,15 +9864,15 @@
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="A279:A342" si="30">A278</f>
         <v>21</v>
       </c>
       <c r="B279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>102</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-102</v>
       </c>
       <c r="L279" s="6"/>
@@ -8044,15 +9880,15 @@
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>103</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-103</v>
       </c>
       <c r="L280" s="6"/>
@@ -8060,15 +9896,15 @@
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>104</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-104</v>
       </c>
       <c r="L281" s="6"/>
@@ -8076,15 +9912,15 @@
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>105</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-105</v>
       </c>
       <c r="L282" s="6"/>
@@ -8092,15 +9928,15 @@
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>106</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-106</v>
       </c>
       <c r="L283" s="6"/>
@@ -8108,15 +9944,15 @@
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>107</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-107</v>
       </c>
       <c r="L284" s="6"/>
@@ -8124,15 +9960,15 @@
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-108</v>
       </c>
       <c r="L285" s="6"/>
@@ -8140,15 +9976,15 @@
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>109</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-109</v>
       </c>
       <c r="L286" s="6"/>
@@ -8156,15 +9992,15 @@
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>110</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-110</v>
       </c>
       <c r="L287" s="6"/>
@@ -8172,15 +10008,15 @@
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>111</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-111</v>
       </c>
       <c r="L288" s="6"/>
@@ -8188,15 +10024,15 @@
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>112</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-112</v>
       </c>
       <c r="L289" s="6"/>
@@ -8204,15 +10040,15 @@
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>113</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-113</v>
       </c>
       <c r="L290" s="6"/>
@@ -8220,15 +10056,15 @@
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>114</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-114</v>
       </c>
       <c r="L291" s="6"/>
@@ -8236,15 +10072,15 @@
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>115</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-115</v>
       </c>
       <c r="L292" s="6"/>
@@ -8252,15 +10088,15 @@
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>116</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-116</v>
       </c>
       <c r="L293" s="6"/>
@@ -8268,15 +10104,15 @@
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>117</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-117</v>
       </c>
       <c r="L294" s="6"/>
@@ -8284,15 +10120,15 @@
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>118</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-118</v>
       </c>
       <c r="L295" s="6"/>
@@ -8300,15 +10136,15 @@
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>119</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-119</v>
       </c>
       <c r="L296" s="6"/>
@@ -8316,15 +10152,15 @@
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>120</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-120</v>
       </c>
       <c r="L297" s="6"/>
@@ -8332,15 +10168,15 @@
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>121</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-121</v>
       </c>
       <c r="L298" s="6"/>
@@ -8348,15 +10184,15 @@
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>122</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-122</v>
       </c>
       <c r="L299" s="6"/>
@@ -8364,15 +10200,15 @@
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>123</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-123</v>
       </c>
       <c r="L300" s="6"/>
@@ -8380,15 +10216,15 @@
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>124</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-124</v>
       </c>
       <c r="L301" s="6"/>
@@ -8396,15 +10232,15 @@
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>125</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-125</v>
       </c>
       <c r="L302" s="6"/>
@@ -8412,15 +10248,15 @@
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>126</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-126</v>
       </c>
       <c r="L303" s="6"/>
@@ -8428,15 +10264,15 @@
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>127</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-127</v>
       </c>
       <c r="L304" s="6"/>
@@ -8444,15 +10280,15 @@
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>128</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-128</v>
       </c>
       <c r="L305" s="6"/>
@@ -8460,15 +10296,15 @@
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>129</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-129</v>
       </c>
       <c r="L306" s="6"/>
@@ -8476,15 +10312,15 @@
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>130</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-130</v>
       </c>
       <c r="L307" s="6"/>
@@ -8492,15 +10328,15 @@
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>131</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-131</v>
       </c>
       <c r="L308" s="6"/>
@@ -8508,15 +10344,15 @@
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>132</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-132</v>
       </c>
       <c r="L309" s="6"/>
@@ -8524,15 +10360,15 @@
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>133</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-133</v>
       </c>
       <c r="L310" s="6"/>
@@ -8540,15 +10376,15 @@
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>134</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-134</v>
       </c>
       <c r="L311" s="6"/>
@@ -8556,15 +10392,15 @@
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>135</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-135</v>
       </c>
       <c r="L312" s="6"/>
@@ -8572,15 +10408,15 @@
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>136</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-136</v>
       </c>
       <c r="L313" s="6"/>
@@ -8588,15 +10424,15 @@
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>137</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-137</v>
       </c>
       <c r="L314" s="6"/>
@@ -8604,15 +10440,15 @@
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>138</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-138</v>
       </c>
       <c r="L315" s="6"/>
@@ -8620,15 +10456,15 @@
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>139</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-139</v>
       </c>
       <c r="L316" s="6"/>
@@ -8636,15 +10472,15 @@
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>140</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-140</v>
       </c>
       <c r="L317" s="6"/>
@@ -8652,15 +10488,15 @@
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>141</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-141</v>
       </c>
       <c r="L318" s="6"/>
@@ -8668,15 +10504,15 @@
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>142</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-142</v>
       </c>
       <c r="L319" s="6"/>
@@ -8684,15 +10520,15 @@
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>143</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-143</v>
       </c>
       <c r="L320" s="6"/>
@@ -8700,15 +10536,15 @@
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>144</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-144</v>
       </c>
       <c r="L321" s="6"/>
@@ -8716,15 +10552,15 @@
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>145</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-145</v>
       </c>
       <c r="L322" s="6"/>
@@ -8732,15 +10568,15 @@
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>146</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-146</v>
       </c>
       <c r="L323" s="6"/>
@@ -8748,15 +10584,15 @@
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B324">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>147</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="29"/>
         <v>21-147</v>
       </c>
       <c r="L324" s="6"/>
@@ -8764,15 +10600,15 @@
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B325">
-        <f t="shared" ref="B325:B346" si="17">IF(A325=A324,B324+1,1)</f>
+        <f t="shared" si="28"/>
         <v>148</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" ref="C325:C346" si="18">CONCATENATE(A325,"-",B325)</f>
+        <f t="shared" si="29"/>
         <v>21-148</v>
       </c>
       <c r="L325" s="6"/>
@@ -8780,15 +10616,15 @@
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
-        <f t="shared" ref="A326:A346" si="19">A325</f>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>149</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-149</v>
       </c>
       <c r="L326" s="6"/>
@@ -8796,15 +10632,15 @@
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>150</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-150</v>
       </c>
       <c r="L327" s="6"/>
@@ -8812,15 +10648,15 @@
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>151</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-151</v>
       </c>
       <c r="L328" s="6"/>
@@ -8828,15 +10664,15 @@
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>152</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-152</v>
       </c>
       <c r="L329" s="6"/>
@@ -8844,15 +10680,15 @@
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>153</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-153</v>
       </c>
       <c r="L330" s="6"/>
@@ -8860,15 +10696,15 @@
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>154</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-154</v>
       </c>
       <c r="L331" s="6"/>
@@ -8876,15 +10712,15 @@
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>155</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-155</v>
       </c>
       <c r="L332" s="6"/>
@@ -8892,15 +10728,15 @@
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>156</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-156</v>
       </c>
       <c r="L333" s="6"/>
@@ -8908,15 +10744,15 @@
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>157</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-157</v>
       </c>
       <c r="L334" s="6"/>
@@ -8924,15 +10760,15 @@
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>158</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-158</v>
       </c>
       <c r="L335" s="6"/>
@@ -8940,15 +10776,15 @@
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>159</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-159</v>
       </c>
       <c r="L336" s="6"/>
@@ -8956,15 +10792,15 @@
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>160</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-160</v>
       </c>
       <c r="L337" s="6"/>
@@ -8972,15 +10808,15 @@
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>161</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-161</v>
       </c>
       <c r="L338" s="6"/>
@@ -8988,15 +10824,15 @@
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>162</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-162</v>
       </c>
       <c r="L339" s="6"/>
@@ -9004,15 +10840,15 @@
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>163</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-163</v>
       </c>
       <c r="L340" s="6"/>
@@ -9020,15 +10856,15 @@
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="28"/>
         <v>164</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
         <v>21-164</v>
       </c>
       <c r="L341" s="6"/>
@@ -9036,15 +10872,15 @@
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="B342">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B342:B363" si="31">IF(A342=A341,B341+1,1)</f>
         <v>165</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C342:C363" si="32">CONCATENATE(A342,"-",B342)</f>
         <v>21-165</v>
       </c>
       <c r="L342" s="6"/>
@@ -9052,15 +10888,15 @@
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A343:A363" si="33">A342</f>
         <v>21</v>
       </c>
       <c r="B343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>166</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>21-166</v>
       </c>
       <c r="L343" s="6"/>
@@ -9068,15 +10904,15 @@
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="B344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>167</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>21-167</v>
       </c>
       <c r="L344" s="6"/>
@@ -9084,15 +10920,15 @@
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="B345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>168</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>21-168</v>
       </c>
       <c r="L345" s="6"/>
@@ -9100,105 +10936,309 @@
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="B346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>169</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>21-169</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
-    <row r="347" spans="1:13" ht="12.75">
+    <row r="347" spans="1:13" ht="15">
+      <c r="A347">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="31"/>
+        <v>170</v>
+      </c>
+      <c r="C347" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-170</v>
+      </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
-    <row r="348" spans="1:13" ht="12.75">
+    <row r="348" spans="1:13" ht="15">
+      <c r="A348">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="31"/>
+        <v>171</v>
+      </c>
+      <c r="C348" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-171</v>
+      </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
-    <row r="349" spans="1:13" ht="12.75">
+    <row r="349" spans="1:13" ht="15">
+      <c r="A349">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="31"/>
+        <v>172</v>
+      </c>
+      <c r="C349" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-172</v>
+      </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
-    <row r="350" spans="1:13" ht="12.75">
+    <row r="350" spans="1:13" ht="15">
+      <c r="A350">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="31"/>
+        <v>173</v>
+      </c>
+      <c r="C350" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-173</v>
+      </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
-    <row r="351" spans="1:13" ht="12.75">
+    <row r="351" spans="1:13" ht="15">
+      <c r="A351">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="31"/>
+        <v>174</v>
+      </c>
+      <c r="C351" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-174</v>
+      </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
-    <row r="352" spans="1:13" ht="12.75">
+    <row r="352" spans="1:13" ht="15">
+      <c r="A352">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="31"/>
+        <v>175</v>
+      </c>
+      <c r="C352" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-175</v>
+      </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
-    <row r="353" spans="12:13" ht="12.75">
+    <row r="353" spans="1:13" ht="15">
+      <c r="A353">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="31"/>
+        <v>176</v>
+      </c>
+      <c r="C353" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-176</v>
+      </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
-    <row r="354" spans="12:13" ht="12.75">
+    <row r="354" spans="1:13" ht="15">
+      <c r="A354">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="31"/>
+        <v>177</v>
+      </c>
+      <c r="C354" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-177</v>
+      </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
-    <row r="355" spans="12:13" ht="12.75">
+    <row r="355" spans="1:13" ht="15">
+      <c r="A355">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="31"/>
+        <v>178</v>
+      </c>
+      <c r="C355" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-178</v>
+      </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
-    <row r="356" spans="12:13" ht="12.75">
+    <row r="356" spans="1:13" ht="15">
+      <c r="A356">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="31"/>
+        <v>179</v>
+      </c>
+      <c r="C356" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-179</v>
+      </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
-    <row r="357" spans="12:13" ht="12.75">
+    <row r="357" spans="1:13" ht="15">
+      <c r="A357">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="31"/>
+        <v>180</v>
+      </c>
+      <c r="C357" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-180</v>
+      </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
-    <row r="358" spans="12:13" ht="12.75">
+    <row r="358" spans="1:13" ht="15">
+      <c r="A358">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="31"/>
+        <v>181</v>
+      </c>
+      <c r="C358" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-181</v>
+      </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
-    <row r="359" spans="12:13" ht="12.75">
+    <row r="359" spans="1:13" ht="15">
+      <c r="A359">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="31"/>
+        <v>182</v>
+      </c>
+      <c r="C359" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-182</v>
+      </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
-    <row r="360" spans="12:13" ht="12.75">
+    <row r="360" spans="1:13" ht="15">
+      <c r="A360">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="31"/>
+        <v>183</v>
+      </c>
+      <c r="C360" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-183</v>
+      </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
-    <row r="361" spans="12:13" ht="12.75">
+    <row r="361" spans="1:13" ht="15">
+      <c r="A361">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="31"/>
+        <v>184</v>
+      </c>
+      <c r="C361" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-184</v>
+      </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
-    <row r="362" spans="12:13" ht="12.75">
+    <row r="362" spans="1:13" ht="15">
+      <c r="A362">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="31"/>
+        <v>185</v>
+      </c>
+      <c r="C362" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-185</v>
+      </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
-    <row r="363" spans="12:13" ht="12.75">
+    <row r="363" spans="1:13" ht="15">
+      <c r="A363">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="31"/>
+        <v>186</v>
+      </c>
+      <c r="C363" s="3" t="str">
+        <f t="shared" si="32"/>
+        <v>21-186</v>
+      </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
-    <row r="364" spans="12:13" ht="12.75">
+    <row r="364" spans="1:13" ht="12.75">
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
-    <row r="365" spans="12:13" ht="12.75">
+    <row r="365" spans="1:13" ht="12.75">
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
-    <row r="366" spans="12:13" ht="12.75">
+    <row r="366" spans="1:13" ht="12.75">
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
-    <row r="367" spans="12:13" ht="12.75">
+    <row r="367" spans="1:13" ht="12.75">
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
-    <row r="368" spans="12:13" ht="12.75">
+    <row r="368" spans="1:13" ht="12.75">
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
@@ -11861,24 +13901,347 @@
     <row r="1033" spans="12:13" ht="12.75">
       <c r="L1033" s="6"/>
       <c r="M1033" s="6"/>
+    </row>
+    <row r="1034" spans="12:13" ht="12.75">
+      <c r="L1034" s="6"/>
+      <c r="M1034" s="6"/>
+    </row>
+    <row r="1035" spans="12:13" ht="12.75">
+      <c r="L1035" s="6"/>
+      <c r="M1035" s="6"/>
+    </row>
+    <row r="1036" spans="12:13" ht="12.75">
+      <c r="L1036" s="6"/>
+      <c r="M1036" s="6"/>
+    </row>
+    <row r="1037" spans="12:13" ht="12.75">
+      <c r="L1037" s="6"/>
+      <c r="M1037" s="6"/>
+    </row>
+    <row r="1038" spans="12:13" ht="12.75">
+      <c r="L1038" s="6"/>
+      <c r="M1038" s="6"/>
+    </row>
+    <row r="1039" spans="12:13" ht="12.75">
+      <c r="L1039" s="6"/>
+      <c r="M1039" s="6"/>
+    </row>
+    <row r="1040" spans="12:13" ht="12.75">
+      <c r="L1040" s="6"/>
+      <c r="M1040" s="6"/>
+    </row>
+    <row r="1041" spans="12:13" ht="12.75">
+      <c r="L1041" s="6"/>
+      <c r="M1041" s="6"/>
+    </row>
+    <row r="1042" spans="12:13" ht="12.75">
+      <c r="L1042" s="6"/>
+      <c r="M1042" s="6"/>
+    </row>
+    <row r="1043" spans="12:13" ht="12.75">
+      <c r="L1043" s="6"/>
+      <c r="M1043" s="6"/>
+    </row>
+    <row r="1044" spans="12:13" ht="12.75">
+      <c r="L1044" s="6"/>
+      <c r="M1044" s="6"/>
+    </row>
+    <row r="1045" spans="12:13" ht="12.75">
+      <c r="L1045" s="6"/>
+      <c r="M1045" s="6"/>
+    </row>
+    <row r="1046" spans="12:13" ht="12.75">
+      <c r="L1046" s="6"/>
+      <c r="M1046" s="6"/>
+    </row>
+    <row r="1047" spans="12:13" ht="12.75">
+      <c r="L1047" s="6"/>
+      <c r="M1047" s="6"/>
+    </row>
+    <row r="1048" spans="12:13" ht="12.75">
+      <c r="L1048" s="6"/>
+      <c r="M1048" s="6"/>
+    </row>
+    <row r="1049" spans="12:13" ht="12.75">
+      <c r="L1049" s="6"/>
+      <c r="M1049" s="6"/>
+    </row>
+    <row r="1050" spans="12:13" ht="12.75">
+      <c r="L1050" s="6"/>
+      <c r="M1050" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L172:L175"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K183">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="53" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K183">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K183">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K184">
+    <cfRule type="containsBlanks" dxfId="50" priority="55">
+      <formula>LEN(TRIM(K184))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K184">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K184))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K184">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K184))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K185">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
+      <formula>LEN(TRIM(K185))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K185">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K185))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K185">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K185))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K186">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
+      <formula>LEN(TRIM(K186))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K186">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K186))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K186">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K186))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K187">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
+      <formula>LEN(TRIM(K187))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K187">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K187))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K187">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K187))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K189">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
+      <formula>LEN(TRIM(K189))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K191">
+    <cfRule type="containsBlanks" dxfId="37" priority="37">
+      <formula>LEN(TRIM(K191))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K193">
+    <cfRule type="containsBlanks" dxfId="36" priority="34">
+      <formula>LEN(TRIM(K193))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsBlanks" dxfId="35" priority="31">
+      <formula>LEN(TRIM(K194))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsBlanks" dxfId="34" priority="28">
+      <formula>LEN(TRIM(K196))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsBlanks" dxfId="33" priority="25">
+      <formula>LEN(TRIM(K198))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsBlanks" dxfId="32" priority="22">
+      <formula>LEN(TRIM(K200))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K190))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K189">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K189))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K189">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K189))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K192))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K191">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K191">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
+      <formula>LEN(TRIM(K188))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K193">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K193">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsBlanks" dxfId="22" priority="7">
+      <formula>LEN(TRIM(K195))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(K197))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(K199))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K188))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K188))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="255">
   <si>
     <t>Test Number</t>
   </si>
@@ -764,6 +764,24 @@
   </si>
   <si>
     <t>Block pointing at longin: never displayed as scientific notation (try 0, 15, 999999, 1000000, 1234567 and their negatives)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Use the message simulator to create messages of different types.</t>
+  </si>
+  <si>
+    <t>Messages with higher severity than the filter are shown.</t>
+  </si>
+  <si>
+    <t>Generate 150,000 and check gui works</t>
+  </si>
+  <si>
+    <t>Gui should remain responsive as messages are coming in. Last message should be displayed before new next info message appears. (i.e. the view is refreshed for the last message)</t>
+  </si>
+  <si>
+    <t>The gui is filtering out requests to refresh the message view but this means the last refresh may not be caught hence the check on the last message.</t>
   </si>
 </sst>
 </file>
@@ -884,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -930,11 +948,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1817,678 +1836,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2786,11 +2133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1050"/>
+  <dimension ref="A1:N1052"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I201" sqref="I201"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2883,11 +2230,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">IF(A3=A2,B2+1,1)</f>
+        <f t="shared" ref="B3:B68" si="0">IF(A3=A2,B2+1,1)</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:C66" si="1">CONCATENATE(A3,"-",B3)</f>
+        <f t="shared" ref="C3:C68" si="1">CONCATENATE(A3,"-",B3)</f>
         <v>1-2</v>
       </c>
       <c r="D3" s="5"/>
@@ -2907,7 +2254,7 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="2">A3</f>
+        <f t="shared" ref="A4:A69" si="2">A3</f>
         <v>1</v>
       </c>
       <c r="B4">
@@ -4607,112 +3954,131 @@
     </row>
     <row r="63" spans="1:13" ht="15">
       <c r="A63">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="B63" si="3">IF(A63=A62,B62+1,1)</f>
+        <v>11</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>9-1</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>40</v>
+        <f t="shared" ref="C63" si="4">CONCATENATE(A63,"-",B63)</f>
+        <v>8-11</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="9"/>
       <c r="L63" s="8"/>
       <c r="M63" s="6"/>
     </row>
     <row r="64" spans="1:13" ht="30">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ref="B64:B65" si="5">IF(A64=A63,B63+1,1)</f>
+        <v>12</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>9-2</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
+        <f t="shared" ref="C64:C65" si="6">CONCATENATE(A64,"-",B64)</f>
+        <v>8-12</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K64" s="9"/>
       <c r="L64" s="8"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" ht="15">
+    <row r="65" spans="1:13" ht="60">
       <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>8-13</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1521</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M65" s="6"/>
+    </row>
+    <row r="66" spans="1:13" ht="30">
+      <c r="A66">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>9-3</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" ht="15">
-      <c r="A66">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C66" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>10-1</v>
+        <v>8-14</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H66" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="7"/>
@@ -4722,25 +4088,25 @@
     <row r="67" spans="1:13" ht="15">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B132" si="3">IF(A67=A66,B66+1,1)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" ref="C67:C132" si="4">CONCATENATE(A67,"-",B67)</f>
-        <v>10-2</v>
+        <f t="shared" si="1"/>
+        <v>8-15</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="7"/>
@@ -4749,16 +4115,15 @@
     </row>
     <row r="68" spans="1:13" ht="15">
       <c r="A68">
-        <f t="shared" ref="A68:A133" si="5">A67</f>
         <v>10</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>10-3</v>
+        <f t="shared" si="1"/>
+        <v>10-1</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -4768,7 +4133,7 @@
         <v>88</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="7"/>
@@ -4777,16 +4142,16 @@
     </row>
     <row r="69" spans="1:13" ht="15">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" ref="B69:B134" si="7">IF(A69=A68,B68+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>10-4</v>
+        <f t="shared" ref="C69:C134" si="8">CONCATENATE(A69,"-",B69)</f>
+        <v>10-2</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4796,7 +4161,7 @@
         <v>88</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="7"/>
@@ -4805,53 +4170,54 @@
     </row>
     <row r="70" spans="1:13" ht="15">
       <c r="A70">
-        <v>11</v>
+        <f t="shared" ref="A70:A135" si="9">A69</f>
+        <v>10</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-1</v>
+        <f t="shared" si="8"/>
+        <v>10-3</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8"/>
       <c r="M70" s="6"/>
     </row>
-    <row r="71" spans="1:13" ht="30">
+    <row r="71" spans="1:13" ht="15">
       <c r="A71">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="B71">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-2</v>
+        <f t="shared" si="8"/>
+        <v>10-4</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="7"/>
@@ -4860,16 +4226,15 @@
     </row>
     <row r="72" spans="1:13" ht="15">
       <c r="A72">
-        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B72">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-3</v>
+        <f t="shared" si="8"/>
+        <v>11-1</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -4879,27 +4244,25 @@
         <v>92</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J72" s="8"/>
       <c r="K72" s="7"/>
       <c r="L72" s="8"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="15">
+    <row r="73" spans="1:13" ht="30">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B73">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-4</v>
+        <f t="shared" si="8"/>
+        <v>11-2</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4909,99 +4272,98 @@
         <v>92</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J73" s="8"/>
       <c r="K73" s="7"/>
-      <c r="L73" s="1"/>
+      <c r="L73" s="8"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="30">
+    <row r="74" spans="1:13" ht="15">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B74">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-5</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
+        <f t="shared" si="8"/>
+        <v>11-3</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>223</v>
+      <c r="I74" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K74" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="K74" s="7"/>
       <c r="L74" s="8"/>
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="1:13" ht="15">
       <c r="A75">
-        <f t="shared" ref="A75:A78" si="6">A74</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B78" si="7">IF(A75=A74,B74+1,1)</f>
-        <v>6</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>11-4</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>226</v>
+      <c r="I75" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="K75" s="9"/>
-      <c r="L75" s="8"/>
+        <v>220</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="1"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="15">
+    <row r="76" spans="1:13" ht="30">
       <c r="A76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-7</v>
+        <f t="shared" si="8"/>
+        <v>11-5</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
         <v>92</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="8"/>
@@ -5009,72 +4371,75 @@
     </row>
     <row r="77" spans="1:13" ht="15">
       <c r="A77">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A77:A80" si="10">A76</f>
         <v>11</v>
       </c>
       <c r="B77">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="C77" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-8</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7" t="s">
+        <f t="shared" ref="B77:B80" si="11">IF(A77=A76,B76+1,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J77" s="8"/>
-      <c r="K77" s="7"/>
+      <c r="I77" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" s="9"/>
       <c r="L77" s="8"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" ht="15">
       <c r="A78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B78">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-9</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7" t="s">
+        <f t="shared" si="8"/>
+        <v>11-7</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J78" s="8"/>
-      <c r="K78" s="7"/>
+      <c r="I78" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K78" s="9"/>
       <c r="L78" s="8"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" ht="30">
+    <row r="79" spans="1:13" ht="15">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-10</v>
+        <f t="shared" si="8"/>
+        <v>11-8</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -5084,25 +4449,25 @@
         <v>92</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" ht="30">
+    <row r="80" spans="1:13" ht="15">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>11-11</v>
+        <f t="shared" si="8"/>
+        <v>11-9</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -5112,108 +4477,108 @@
         <v>92</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="7"/>
       <c r="L80" s="8"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13" ht="15">
+    <row r="81" spans="1:13" ht="30">
       <c r="A81">
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-1</v>
+        <f t="shared" si="8"/>
+        <v>11-10</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="7"/>
       <c r="L81" s="8"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1">
+    <row r="82" spans="1:13" ht="30">
       <c r="A82">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-2</v>
+        <f t="shared" si="8"/>
+        <v>11-11</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="7"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="2"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="6"/>
     </row>
     <row r="83" spans="1:13" ht="15">
       <c r="A83">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-3</v>
+        <f t="shared" si="8"/>
+        <v>12-1</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="7"/>
       <c r="L83" s="8"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" ht="15">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1">
       <c r="A84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-4</v>
+        <f t="shared" si="8"/>
+        <v>12-2</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -5223,176 +4588,175 @@
         <v>100</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:13" ht="30">
+      <c r="L84" s="1"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" ht="15">
       <c r="A85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-5</v>
+        <f t="shared" si="8"/>
+        <v>12-3</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
-      <c r="L85" s="1"/>
+      <c r="L85" s="8"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13" ht="45">
+    <row r="86" spans="1:13" ht="15">
       <c r="A86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>12-6</v>
+        <f t="shared" si="8"/>
+        <v>12-4</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J86" s="8"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="8"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="15">
+    <row r="87" spans="1:13" ht="30">
       <c r="A87">
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>13-1</v>
+        <f t="shared" si="8"/>
+        <v>12-5</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="7"/>
-      <c r="L87" s="8"/>
+      <c r="L87" s="1"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13" ht="15">
+    <row r="88" spans="1:13" ht="45">
       <c r="A88">
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>14-1</v>
+        <f t="shared" si="8"/>
+        <v>12-6</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J88" s="8"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="8"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" ht="30">
+    <row r="89" spans="1:13" ht="15">
       <c r="A89">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>14-2</v>
+        <f t="shared" si="8"/>
+        <v>13-1</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="7"/>
       <c r="L89" s="8"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" ht="30">
+    <row r="90" spans="1:13" ht="15">
       <c r="A90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-1</v>
+        <f t="shared" si="8"/>
+        <v>14-1</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H90" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="7"/>
@@ -5401,26 +4765,28 @@
     </row>
     <row r="91" spans="1:13" ht="30">
       <c r="A91">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-2</v>
+        <f t="shared" si="8"/>
+        <v>14-2</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H91" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="7"/>
@@ -5429,16 +4795,15 @@
     </row>
     <row r="92" spans="1:13" ht="30">
       <c r="A92">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-3</v>
+        <f t="shared" si="8"/>
+        <v>15-1</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5448,7 +4813,7 @@
         <v>111</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="7"/>
@@ -5457,16 +4822,16 @@
     </row>
     <row r="93" spans="1:13" ht="30">
       <c r="A93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-4</v>
+        <f t="shared" si="8"/>
+        <v>15-2</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5476,7 +4841,7 @@
         <v>111</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="7"/>
@@ -5485,16 +4850,16 @@
     </row>
     <row r="94" spans="1:13" ht="30">
       <c r="A94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-5</v>
+        <f t="shared" si="8"/>
+        <v>15-3</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5504,7 +4869,7 @@
         <v>111</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="7"/>
@@ -5513,16 +4878,16 @@
     </row>
     <row r="95" spans="1:13" ht="30">
       <c r="A95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-6</v>
+        <f t="shared" si="8"/>
+        <v>15-4</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5532,7 +4897,7 @@
         <v>111</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="7"/>
@@ -5541,16 +4906,16 @@
     </row>
     <row r="96" spans="1:13" ht="30">
       <c r="A96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-7</v>
+        <f t="shared" si="8"/>
+        <v>15-5</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -5560,7 +4925,7 @@
         <v>111</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="7"/>
@@ -5569,16 +4934,16 @@
     </row>
     <row r="97" spans="1:13" ht="30">
       <c r="A97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-8</v>
+        <f t="shared" si="8"/>
+        <v>15-6</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -5588,7 +4953,7 @@
         <v>111</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="7"/>
@@ -5597,16 +4962,16 @@
     </row>
     <row r="98" spans="1:13" ht="30">
       <c r="A98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-9</v>
+        <f t="shared" si="8"/>
+        <v>15-7</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -5616,7 +4981,7 @@
         <v>111</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="7"/>
@@ -5625,16 +4990,16 @@
     </row>
     <row r="99" spans="1:13" ht="30">
       <c r="A99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-10</v>
+        <f t="shared" si="8"/>
+        <v>15-8</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -5644,7 +5009,7 @@
         <v>111</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="7"/>
@@ -5653,16 +5018,16 @@
     </row>
     <row r="100" spans="1:13" ht="30">
       <c r="A100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-11</v>
+        <f t="shared" si="8"/>
+        <v>15-9</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -5672,7 +5037,7 @@
         <v>111</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="7"/>
@@ -5681,16 +5046,16 @@
     </row>
     <row r="101" spans="1:13" ht="30">
       <c r="A101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-12</v>
+        <f t="shared" si="8"/>
+        <v>15-10</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -5700,7 +5065,7 @@
         <v>111</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="7"/>
@@ -5709,16 +5074,16 @@
     </row>
     <row r="102" spans="1:13" ht="30">
       <c r="A102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-13</v>
+        <f t="shared" si="8"/>
+        <v>15-11</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -5728,25 +5093,25 @@
         <v>111</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="7"/>
-      <c r="L102" s="1"/>
+      <c r="L102" s="8"/>
       <c r="M102" s="6"/>
     </row>
     <row r="103" spans="1:13" ht="30">
       <c r="A103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-14</v>
+        <f t="shared" si="8"/>
+        <v>15-12</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -5756,7 +5121,7 @@
         <v>111</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="7"/>
@@ -5765,16 +5130,16 @@
     </row>
     <row r="104" spans="1:13" ht="30">
       <c r="A104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-15</v>
+        <f t="shared" si="8"/>
+        <v>15-13</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -5784,25 +5149,25 @@
         <v>111</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
+      <c r="L104" s="1"/>
       <c r="M104" s="6"/>
     </row>
     <row r="105" spans="1:13" ht="30">
       <c r="A105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-16</v>
+        <f t="shared" si="8"/>
+        <v>15-14</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -5812,25 +5177,25 @@
         <v>111</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="7"/>
       <c r="L105" s="8"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13" ht="30">
       <c r="A106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-17</v>
+        <f t="shared" si="8"/>
+        <v>15-15</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -5840,25 +5205,25 @@
         <v>111</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="7"/>
       <c r="L106" s="8"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="1:13" ht="15">
+    <row r="107" spans="1:13" ht="30">
       <c r="A107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-18</v>
+        <f t="shared" si="8"/>
+        <v>15-16</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -5868,7 +5233,7 @@
         <v>111</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="7"/>
@@ -5877,16 +5242,16 @@
     </row>
     <row r="108" spans="1:13" ht="15">
       <c r="A108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-19</v>
+        <f t="shared" si="8"/>
+        <v>15-17</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -5896,7 +5261,7 @@
         <v>111</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="7"/>
@@ -5905,16 +5270,16 @@
     </row>
     <row r="109" spans="1:13" ht="15">
       <c r="A109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-20</v>
+        <f t="shared" si="8"/>
+        <v>15-18</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -5924,7 +5289,7 @@
         <v>111</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="7"/>
@@ -5933,16 +5298,16 @@
     </row>
     <row r="110" spans="1:13" ht="15">
       <c r="A110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-21</v>
+        <f t="shared" si="8"/>
+        <v>15-19</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -5952,7 +5317,7 @@
         <v>111</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="7"/>
@@ -5961,16 +5326,16 @@
     </row>
     <row r="111" spans="1:13" ht="15">
       <c r="A111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-22</v>
+        <f t="shared" si="8"/>
+        <v>15-20</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -5980,7 +5345,7 @@
         <v>111</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="7"/>
@@ -5989,16 +5354,16 @@
     </row>
     <row r="112" spans="1:13" ht="15">
       <c r="A112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
-        <v>23</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-23</v>
+        <f t="shared" si="8"/>
+        <v>15-21</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -6008,7 +5373,7 @@
         <v>111</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="7"/>
@@ -6017,16 +5382,16 @@
     </row>
     <row r="113" spans="1:13" ht="15">
       <c r="A113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-24</v>
+        <f t="shared" si="8"/>
+        <v>15-22</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -6036,7 +5401,7 @@
         <v>111</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="7"/>
@@ -6045,16 +5410,16 @@
     </row>
     <row r="114" spans="1:13" ht="15">
       <c r="A114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
-        <v>25</v>
+        <f t="shared" si="7"/>
+        <v>23</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-25</v>
+        <f t="shared" si="8"/>
+        <v>15-23</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -6064,7 +5429,7 @@
         <v>111</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="7"/>
@@ -6073,16 +5438,16 @@
     </row>
     <row r="115" spans="1:13" ht="15">
       <c r="A115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
-        <v>26</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-26</v>
+        <f t="shared" si="8"/>
+        <v>15-24</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -6092,7 +5457,7 @@
         <v>111</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="7"/>
@@ -6101,16 +5466,16 @@
     </row>
     <row r="116" spans="1:13" ht="15">
       <c r="A116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="7"/>
+        <v>25</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-27</v>
+        <f t="shared" si="8"/>
+        <v>15-25</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -6120,7 +5485,7 @@
         <v>111</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="7"/>
@@ -6129,16 +5494,16 @@
     </row>
     <row r="117" spans="1:13" ht="15">
       <c r="A117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B117">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>26</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-28</v>
+        <f t="shared" si="8"/>
+        <v>15-26</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -6148,7 +5513,7 @@
         <v>111</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="7"/>
@@ -6157,16 +5522,16 @@
     </row>
     <row r="118" spans="1:13" ht="15">
       <c r="A118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B118">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>27</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-29</v>
+        <f t="shared" si="8"/>
+        <v>15-27</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -6176,49 +5541,53 @@
         <v>111</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="7"/>
       <c r="L118" s="8"/>
       <c r="M118" s="6"/>
     </row>
-    <row r="119" spans="1:13" ht="30">
+    <row r="119" spans="1:13" ht="15">
       <c r="A119">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B119">
-        <v>30</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="C119" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>15-28</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I119" s="8" t="s">
-        <v>230</v>
+      <c r="I119" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="J119" s="8"/>
-      <c r="K119" s="9"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="8"/>
       <c r="M119" s="6"/>
     </row>
     <row r="120" spans="1:13" ht="15">
       <c r="A120">
-        <f>A118</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B120">
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-31</v>
+        <f t="shared" si="8"/>
+        <v>15-29</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -6228,7 +5597,7 @@
         <v>111</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="7"/>
@@ -6237,44 +5606,40 @@
     </row>
     <row r="121" spans="1:13" ht="30">
       <c r="A121">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C121" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-32</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>142</v>
+      <c r="I121" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="J121" s="8"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="1"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="8"/>
       <c r="M121" s="6"/>
     </row>
     <row r="122" spans="1:13" ht="15">
       <c r="A122">
-        <f t="shared" si="5"/>
+        <f>A120</f>
         <v>15</v>
       </c>
       <c r="B122">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-33</v>
+        <f t="shared" si="8"/>
+        <v>15-31</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -6284,7 +5649,7 @@
         <v>111</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="7"/>
@@ -6293,16 +5658,16 @@
     </row>
     <row r="123" spans="1:13" ht="30">
       <c r="A123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B123">
-        <f t="shared" si="3"/>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-34</v>
+        <f t="shared" si="8"/>
+        <v>15-32</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -6312,25 +5677,25 @@
         <v>111</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="8"/>
+      <c r="L123" s="1"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" ht="30">
+    <row r="124" spans="1:13" ht="15">
       <c r="A124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B124">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f t="shared" si="7"/>
+        <v>33</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-35</v>
+        <f t="shared" si="8"/>
+        <v>15-33</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -6340,25 +5705,25 @@
         <v>111</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="8"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" ht="15">
+    <row r="125" spans="1:13" ht="30">
       <c r="A125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B125">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>34</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-36</v>
+        <f t="shared" si="8"/>
+        <v>15-34</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -6368,25 +5733,25 @@
         <v>111</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="8"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:13" ht="15">
+    <row r="126" spans="1:13" ht="30">
       <c r="A126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B126">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-37</v>
+        <f t="shared" si="8"/>
+        <v>15-35</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -6396,7 +5761,7 @@
         <v>111</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
@@ -6405,16 +5770,16 @@
     </row>
     <row r="127" spans="1:13" ht="15">
       <c r="A127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B127">
-        <f t="shared" si="3"/>
-        <v>38</v>
+        <f t="shared" si="7"/>
+        <v>36</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-38</v>
+        <f t="shared" si="8"/>
+        <v>15-36</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -6424,7 +5789,7 @@
         <v>111</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
@@ -6433,16 +5798,16 @@
     </row>
     <row r="128" spans="1:13" ht="15">
       <c r="A128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B128">
-        <f t="shared" si="3"/>
-        <v>39</v>
+        <f t="shared" si="7"/>
+        <v>37</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-39</v>
+        <f t="shared" si="8"/>
+        <v>15-37</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -6452,7 +5817,7 @@
         <v>111</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
@@ -6461,16 +5826,16 @@
     </row>
     <row r="129" spans="1:13" ht="15">
       <c r="A129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B129">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>38</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-40</v>
+        <f t="shared" si="8"/>
+        <v>15-38</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -6480,7 +5845,7 @@
         <v>111</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
@@ -6489,16 +5854,16 @@
     </row>
     <row r="130" spans="1:13" ht="15">
       <c r="A130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B130">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>39</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-41</v>
+        <f t="shared" si="8"/>
+        <v>15-39</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -6508,7 +5873,7 @@
         <v>111</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
@@ -6517,16 +5882,16 @@
     </row>
     <row r="131" spans="1:13" ht="15">
       <c r="A131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B131">
-        <f t="shared" si="3"/>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-42</v>
+        <f t="shared" si="8"/>
+        <v>15-40</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -6536,7 +5901,7 @@
         <v>111</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
@@ -6545,16 +5910,16 @@
     </row>
     <row r="132" spans="1:13" ht="15">
       <c r="A132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B132">
-        <f t="shared" si="3"/>
-        <v>43</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>15-43</v>
+        <f t="shared" si="8"/>
+        <v>15-41</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -6564,7 +5929,7 @@
         <v>111</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="7"/>
@@ -6573,16 +5938,16 @@
     </row>
     <row r="133" spans="1:13" ht="15">
       <c r="A133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133:B213" si="8">IF(A133=A132,B132+1,1)</f>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" ref="C133:C213" si="9">CONCATENATE(A133,"-",B133)</f>
-        <v>15-44</v>
+        <f t="shared" si="8"/>
+        <v>15-42</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -6592,7 +5957,7 @@
         <v>111</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="7"/>
@@ -6601,16 +5966,16 @@
     </row>
     <row r="134" spans="1:13" ht="15">
       <c r="A134">
-        <f t="shared" ref="A134:A214" si="10">A133</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B134">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="C134" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-      <c r="C134" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-45</v>
+        <v>15-43</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -6620,7 +5985,7 @@
         <v>111</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="7"/>
@@ -6629,16 +5994,16 @@
     </row>
     <row r="135" spans="1:13" ht="15">
       <c r="A135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B135">
-        <f t="shared" si="8"/>
-        <v>46</v>
+        <f t="shared" ref="B135:B215" si="12">IF(A135=A134,B134+1,1)</f>
+        <v>44</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-46</v>
+        <f t="shared" ref="C135:C215" si="13">CONCATENATE(A135,"-",B135)</f>
+        <v>15-44</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -6648,25 +6013,25 @@
         <v>111</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="7"/>
       <c r="L135" s="8"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" ht="120">
+    <row r="136" spans="1:13" ht="15">
       <c r="A136">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A136:A216" si="14">A135</f>
         <v>15</v>
       </c>
       <c r="B136">
-        <f t="shared" si="8"/>
-        <v>47</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-47</v>
+        <f t="shared" si="13"/>
+        <v>15-45</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -6676,25 +6041,25 @@
         <v>111</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="7"/>
-      <c r="L136" s="1"/>
+      <c r="L136" s="8"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="15">
       <c r="A137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B137">
-        <f t="shared" si="8"/>
-        <v>48</v>
+        <f t="shared" si="12"/>
+        <v>46</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-48</v>
+        <f t="shared" si="13"/>
+        <v>15-46</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -6704,81 +6069,81 @@
         <v>111</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J137" s="8"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="16"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="8"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="45">
+    <row r="138" spans="1:13" ht="120">
       <c r="A138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B138">
-        <f t="shared" si="8"/>
-        <v>49</v>
+        <f t="shared" si="12"/>
+        <v>47</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-49</v>
+        <f t="shared" si="13"/>
+        <v>15-47</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c r="H138" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="8"/>
+      <c r="L138" s="1"/>
       <c r="M138" s="6"/>
     </row>
     <row r="139" spans="1:13" ht="30">
       <c r="A139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B139">
-        <f t="shared" si="8"/>
-        <v>50</v>
+        <f t="shared" si="12"/>
+        <v>48</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-50</v>
+        <f t="shared" si="13"/>
+        <v>15-48</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c r="H139" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J139" s="8"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="1"/>
+      <c r="K139" s="5"/>
+      <c r="L139" s="16"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="15">
+    <row r="140" spans="1:13" ht="45">
       <c r="A140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B140">
-        <f t="shared" si="8"/>
-        <v>51</v>
+        <f t="shared" si="12"/>
+        <v>49</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-51</v>
+        <f t="shared" si="13"/>
+        <v>15-49</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -6788,7 +6153,7 @@
         <v>159</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7"/>
@@ -6797,16 +6162,16 @@
     </row>
     <row r="141" spans="1:13" ht="30">
       <c r="A141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B141">
-        <f t="shared" si="8"/>
-        <v>52</v>
+        <f t="shared" si="12"/>
+        <v>50</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>15-52</v>
+        <f t="shared" si="13"/>
+        <v>15-50</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -6816,66 +6181,63 @@
         <v>159</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="7"/>
-      <c r="L141" s="8"/>
+      <c r="L141" s="1"/>
       <c r="M141" s="6"/>
     </row>
     <row r="142" spans="1:13" ht="15">
       <c r="A142">
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="B142">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>51</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-1</v>
+        <f t="shared" si="13"/>
+        <v>15-51</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="7"/>
       <c r="L142" s="8"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" ht="15">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143">
-        <f t="shared" si="10"/>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="B143">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>52</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-2</v>
+        <f t="shared" si="13"/>
+        <v>15-52</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="7"/>
@@ -6884,16 +6246,15 @@
     </row>
     <row r="144" spans="1:13" ht="15">
       <c r="A144">
-        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="B144">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-3</v>
+        <f t="shared" si="13"/>
+        <v>16-1</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -6905,24 +6266,25 @@
         <v>100</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="11"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="6"/>
     </row>
     <row r="145" spans="1:13" ht="15">
       <c r="A145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B145">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-4</v>
+        <f t="shared" si="13"/>
+        <v>16-2</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -6934,7 +6296,7 @@
         <v>100</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="7"/>
@@ -6943,58 +6305,57 @@
     </row>
     <row r="146" spans="1:13" ht="15">
       <c r="A146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B146">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-5</v>
+        <f t="shared" si="13"/>
+        <v>16-3</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7" t="s">
+      <c r="F146" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="7"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="6"/>
+      <c r="L146" s="11"/>
     </row>
     <row r="147" spans="1:13" ht="15">
       <c r="A147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B147">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-6</v>
+        <f t="shared" si="13"/>
+        <v>16-4</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7" t="s">
+      <c r="F147" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G147" s="7"/>
       <c r="H147" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="7"/>
@@ -7003,16 +6364,16 @@
     </row>
     <row r="148" spans="1:13" ht="15">
       <c r="A148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B148">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-7</v>
+        <f t="shared" si="13"/>
+        <v>16-5</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -7024,7 +6385,7 @@
         <v>100</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="7"/>
@@ -7033,16 +6394,16 @@
     </row>
     <row r="149" spans="1:13" ht="15">
       <c r="A149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B149">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-8</v>
+        <f t="shared" si="13"/>
+        <v>16-6</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -7054,24 +6415,25 @@
         <v>100</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="7"/>
       <c r="L149" s="8"/>
-    </row>
-    <row r="150" spans="1:13" ht="30">
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="1:13" ht="15">
       <c r="A150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B150">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-9</v>
+        <f t="shared" si="13"/>
+        <v>16-7</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -7083,25 +6445,25 @@
         <v>100</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="7"/>
-      <c r="L150" s="1"/>
+      <c r="L150" s="8"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" ht="45">
+    <row r="151" spans="1:13" ht="15">
       <c r="A151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B151">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-10</v>
+        <f t="shared" si="13"/>
+        <v>16-8</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -7113,25 +6475,24 @@
         <v>100</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="7"/>
       <c r="L151" s="8"/>
-      <c r="M151" s="6"/>
     </row>
     <row r="152" spans="1:13" ht="30">
       <c r="A152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B152">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-11</v>
+        <f t="shared" si="13"/>
+        <v>16-9</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -7143,25 +6504,25 @@
         <v>100</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
+      <c r="L152" s="1"/>
       <c r="M152" s="6"/>
     </row>
     <row r="153" spans="1:13" ht="45">
       <c r="A153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B153">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-12</v>
+        <f t="shared" si="13"/>
+        <v>16-10</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -7173,25 +6534,25 @@
         <v>100</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="7"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" ht="45">
+    <row r="154" spans="1:13" ht="30">
       <c r="A154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B154">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-13</v>
+        <f t="shared" si="13"/>
+        <v>16-11</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -7203,25 +6564,25 @@
         <v>100</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" ht="60">
+    <row r="155" spans="1:13" ht="45">
       <c r="A155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B155">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-14</v>
+        <f t="shared" si="13"/>
+        <v>16-12</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -7233,25 +6594,25 @@
         <v>100</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="7"/>
       <c r="L155" s="8"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" ht="15">
+    <row r="156" spans="1:13" ht="45">
       <c r="A156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B156">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-15</v>
+        <f t="shared" si="13"/>
+        <v>16-13</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -7263,25 +6624,25 @@
         <v>100</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="7"/>
       <c r="L156" s="8"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" ht="15">
+    <row r="157" spans="1:13" ht="60">
       <c r="A157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B157">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-16</v>
+        <f t="shared" si="13"/>
+        <v>16-14</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -7293,67 +6654,67 @@
         <v>100</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="7"/>
       <c r="L157" s="8"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="30">
+    <row r="158" spans="1:13" ht="15">
       <c r="A158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B158">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-17</v>
+        <f t="shared" si="13"/>
+        <v>16-15</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="7"/>
+      <c r="G158" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G158" s="7"/>
       <c r="H158" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="7"/>
-      <c r="L158" s="1"/>
+      <c r="L158" s="8"/>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" ht="30">
+    <row r="159" spans="1:13" ht="15">
       <c r="A159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B159">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-18</v>
+        <f t="shared" si="13"/>
+        <v>16-16</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="7"/>
       <c r="G159" s="7" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="7"/>
@@ -7362,76 +6723,76 @@
     </row>
     <row r="160" spans="1:13" ht="30">
       <c r="A160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B160">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-19</v>
+        <f t="shared" si="13"/>
+        <v>16-17</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7" t="s">
+      <c r="F160" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G160" s="7"/>
       <c r="H160" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
+      <c r="L160" s="1"/>
       <c r="M160" s="6"/>
     </row>
     <row r="161" spans="1:13" ht="30">
       <c r="A161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B161">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-20</v>
+        <f t="shared" si="13"/>
+        <v>16-18</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" ht="15">
+    <row r="162" spans="1:13" ht="30">
       <c r="A162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B162">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-21</v>
+        <f t="shared" si="13"/>
+        <v>16-19</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -7443,25 +6804,25 @@
         <v>183</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="7"/>
       <c r="L162" s="8"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" ht="15">
+    <row r="163" spans="1:13" ht="30">
       <c r="A163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B163">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>16-22</v>
+        <f t="shared" si="13"/>
+        <v>16-20</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -7473,7 +6834,7 @@
         <v>183</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
@@ -7482,15 +6843,16 @@
     </row>
     <row r="164" spans="1:13" ht="15">
       <c r="A164">
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="B164">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="C164" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>17-1</v>
+        <f t="shared" si="13"/>
+        <v>16-21</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -7499,27 +6861,28 @@
         <v>65</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="11"/>
-    </row>
-    <row r="165" spans="1:13" ht="30">
+      <c r="L164" s="8"/>
+      <c r="M164" s="6"/>
+    </row>
+    <row r="165" spans="1:13" ht="15">
       <c r="A165">
-        <f t="shared" si="10"/>
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="B165">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>22</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>17-2</v>
+        <f t="shared" si="13"/>
+        <v>16-22</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -7528,28 +6891,27 @@
         <v>65</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
-      <c r="L165" s="1"/>
+      <c r="L165" s="8"/>
       <c r="M165" s="6"/>
     </row>
     <row r="166" spans="1:13" ht="15">
       <c r="A166">
-        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="B166">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>17-3</v>
+        <f t="shared" si="13"/>
+        <v>17-1</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -7561,25 +6923,24 @@
         <v>188</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
-      <c r="L166" s="8"/>
-      <c r="M166" s="6"/>
-    </row>
-    <row r="167" spans="1:13" ht="15">
+      <c r="L166" s="11"/>
+    </row>
+    <row r="167" spans="1:13" ht="30">
       <c r="A167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="B167">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C167" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>17-4</v>
+        <f t="shared" si="13"/>
+        <v>17-2</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7591,24 +6952,25 @@
         <v>188</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
-      <c r="L167" s="8"/>
+      <c r="L167" s="1"/>
       <c r="M167" s="6"/>
     </row>
     <row r="168" spans="1:13" ht="15">
       <c r="A168">
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="B168">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="C168" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>18-1</v>
+        <f t="shared" si="13"/>
+        <v>17-3</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7617,27 +6979,28 @@
         <v>65</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
-      <c r="L168" s="11"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="6"/>
     </row>
     <row r="169" spans="1:13" ht="15">
       <c r="A169">
-        <f t="shared" si="10"/>
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="B169">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="C169" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>18-2</v>
+        <f t="shared" si="13"/>
+        <v>17-4</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7646,10 +7009,10 @@
         <v>65</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
@@ -7658,16 +7021,15 @@
     </row>
     <row r="170" spans="1:13" ht="15">
       <c r="A170">
-        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="B170">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C170" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>18-3</v>
+        <f t="shared" si="13"/>
+        <v>18-1</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -7679,24 +7041,24 @@
         <v>193</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
-      <c r="L170" s="8"/>
-      <c r="M170" s="6"/>
-    </row>
-    <row r="171" spans="1:13" ht="30">
+      <c r="L170" s="11"/>
+    </row>
+    <row r="171" spans="1:13" ht="15">
       <c r="A171">
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="B171">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C171" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>19-1</v>
+        <f t="shared" si="13"/>
+        <v>18-2</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7705,28 +7067,28 @@
         <v>65</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
       <c r="L171" s="8"/>
       <c r="M171" s="6"/>
     </row>
-    <row r="172" spans="1:13" ht="30">
+    <row r="172" spans="1:13" ht="15">
       <c r="A172">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="14"/>
+        <v>18</v>
       </c>
       <c r="B172">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="C172" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>19-2</v>
+        <f t="shared" si="13"/>
+        <v>18-3</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -7735,27 +7097,27 @@
         <v>65</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
-      <c r="L172" s="18"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="6"/>
     </row>
     <row r="173" spans="1:13" ht="30">
       <c r="A173">
-        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="B173">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>19-3</v>
+        <f t="shared" si="13"/>
+        <v>19-1</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -7767,25 +7129,25 @@
         <v>197</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
-      <c r="L173" s="19"/>
+      <c r="L173" s="8"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" ht="45">
+    <row r="174" spans="1:13" ht="30">
       <c r="A174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="B174">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C174" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>19-4</v>
+        <f t="shared" si="13"/>
+        <v>19-2</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -7797,25 +7159,24 @@
         <v>197</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="6"/>
+      <c r="L174" s="18"/>
     </row>
     <row r="175" spans="1:13" ht="30">
       <c r="A175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="B175">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="C175" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>19-5</v>
+        <f t="shared" si="13"/>
+        <v>19-3</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -7827,173 +7188,173 @@
         <v>197</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="20"/>
+      <c r="L175" s="19"/>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" ht="30">
+    <row r="176" spans="1:13" ht="45">
       <c r="A176">
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="B176">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>20-1</v>
+        <f t="shared" si="13"/>
+        <v>19-4</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="7"/>
       <c r="G176" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="8"/>
+      <c r="L176" s="19"/>
       <c r="M176" s="6"/>
     </row>
-    <row r="177" spans="1:13" ht="45">
+    <row r="177" spans="1:13" ht="30">
       <c r="A177">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="B177">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>20-2</v>
+        <f t="shared" si="13"/>
+        <v>19-5</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="7"/>
       <c r="G177" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="8"/>
+      <c r="L177" s="20"/>
       <c r="M177" s="6"/>
     </row>
-    <row r="178" spans="1:13" ht="26.25">
+    <row r="178" spans="1:13" ht="30">
       <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="C178" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>20-1</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J178" s="8"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="1:13" ht="45">
+      <c r="A179">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="C179" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>20-2</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" s="8"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="1:13" ht="26.25">
+      <c r="A180">
         <v>21</v>
       </c>
-      <c r="B178">
-        <f t="shared" si="8"/>
+      <c r="B180">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="C178" s="3" t="str">
-        <f t="shared" si="9"/>
+      <c r="C180" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>21-1</v>
-      </c>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G178" s="15"/>
-      <c r="H178" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I178" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J178" s="12"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="6"/>
-    </row>
-    <row r="179" spans="1:13" ht="26.25">
-      <c r="A179">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="B179">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="C179" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-2</v>
-      </c>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H179" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I179" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J179" s="12"/>
-      <c r="K179" s="10"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="6"/>
-    </row>
-    <row r="180" spans="1:13" ht="39">
-      <c r="A180">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="C180" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-3</v>
       </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="10" t="s">
+      <c r="F180" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G180" s="15"/>
       <c r="H180" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J180" s="12"/>
       <c r="K180" s="10"/>
-      <c r="L180" s="11"/>
+      <c r="L180" s="12"/>
       <c r="M180" s="6"/>
     </row>
-    <row r="181" spans="1:13" ht="39">
+    <row r="181" spans="1:13" ht="26.25">
       <c r="A181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B181">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="C181" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-4</v>
+        <f t="shared" si="13"/>
+        <v>21-2</v>
       </c>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
@@ -8004,26 +7365,26 @@
       <c r="H181" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I181" s="12" t="s">
-        <v>209</v>
+      <c r="I181" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J181" s="12"/>
       <c r="K181" s="10"/>
       <c r="L181" s="12"/>
       <c r="M181" s="6"/>
     </row>
-    <row r="182" spans="1:13" ht="51.75">
+    <row r="182" spans="1:13" ht="39">
       <c r="A182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B182">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-5</v>
+        <f t="shared" si="13"/>
+        <v>21-3</v>
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
@@ -8034,26 +7395,26 @@
       <c r="H182" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I182" s="12" t="s">
-        <v>210</v>
+      <c r="I182" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="J182" s="12"/>
       <c r="K182" s="10"/>
-      <c r="L182" s="12"/>
+      <c r="L182" s="11"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" ht="26.25">
+    <row r="183" spans="1:13" ht="39">
       <c r="A183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B183">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-6</v>
+        <f t="shared" si="13"/>
+        <v>21-4</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
@@ -8065,89 +7426,85 @@
         <v>15</v>
       </c>
       <c r="I183" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="10"/>
       <c r="L183" s="12"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" ht="26.25">
+    <row r="184" spans="1:13" ht="51.75">
       <c r="A184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B184">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f t="shared" ref="C184" si="11">CONCATENATE(A184,"-",B184)</f>
-        <v>21-7</v>
+        <f t="shared" si="13"/>
+        <v>21-5</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H184" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I184" s="12" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="10"/>
-      <c r="L184" s="12" t="s">
-        <v>231</v>
-      </c>
+      <c r="L184" s="12"/>
       <c r="M184" s="6"/>
     </row>
     <row r="185" spans="1:13" ht="26.25">
       <c r="A185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B185">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" ref="C185" si="12">CONCATENATE(A185,"-",B185)</f>
-        <v>21-8</v>
+        <f t="shared" si="13"/>
+        <v>21-6</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
       <c r="G185" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H185" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="10"/>
-      <c r="L185" s="12" t="s">
-        <v>231</v>
-      </c>
+      <c r="L185" s="12"/>
       <c r="M185" s="6"/>
     </row>
     <row r="186" spans="1:13" ht="26.25">
       <c r="A186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B186">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" ref="C186" si="13">CONCATENATE(A186,"-",B186)</f>
-        <v>21-9</v>
+        <f t="shared" ref="C186" si="15">CONCATENATE(A186,"-",B186)</f>
+        <v>21-7</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -8159,7 +7516,7 @@
         <v>15</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="10"/>
@@ -8170,16 +7527,16 @@
     </row>
     <row r="187" spans="1:13" ht="26.25">
       <c r="A187">
-        <f>A186</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B187">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" ref="C187:C189" si="14">CONCATENATE(A187,"-",B187)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C187" si="16">CONCATENATE(A187,"-",B187)</f>
+        <v>21-8</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -8191,7 +7548,7 @@
         <v>15</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="10"/>
@@ -8202,16 +7559,16 @@
     </row>
     <row r="188" spans="1:13" ht="26.25">
       <c r="A188">
-        <f>A187</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B188">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" ref="C188" si="15">CONCATENATE(A188,"-",B188)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C188" si="17">CONCATENATE(A188,"-",B188)</f>
+        <v>21-9</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -8223,7 +7580,7 @@
         <v>15</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="10"/>
@@ -8234,16 +7591,16 @@
     </row>
     <row r="189" spans="1:13" ht="26.25">
       <c r="A189">
-        <f>A187</f>
+        <f>A188</f>
         <v>21</v>
       </c>
       <c r="B189">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>21-12</v>
+        <f t="shared" ref="C189:C191" si="18">CONCATENATE(A189,"-",B189)</f>
+        <v>21-10</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -8255,7 +7612,7 @@
         <v>15</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="10"/>
@@ -8266,16 +7623,16 @@
     </row>
     <row r="190" spans="1:13" ht="26.25">
       <c r="A190">
-        <f t="shared" si="10"/>
+        <f>A189</f>
         <v>21</v>
       </c>
       <c r="B190">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" ref="C190" si="16">CONCATENATE(A190,"-",B190)</f>
-        <v>21-13</v>
+        <f t="shared" ref="C190" si="19">CONCATENATE(A190,"-",B190)</f>
+        <v>21-11</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -8287,7 +7644,7 @@
         <v>15</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="10"/>
@@ -8302,12 +7659,12 @@
         <v>21</v>
       </c>
       <c r="B191">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f t="shared" ref="C191" si="17">CONCATENATE(A191,"-",B191)</f>
-        <v>21-14</v>
+        <f t="shared" si="18"/>
+        <v>21-12</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -8319,7 +7676,7 @@
         <v>15</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="10"/>
@@ -8330,16 +7687,16 @@
     </row>
     <row r="192" spans="1:13" ht="26.25">
       <c r="A192">
-        <f>A190</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B192">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" ref="C192" si="18">CONCATENATE(A192,"-",B192)</f>
-        <v>21-15</v>
+        <f t="shared" ref="C192" si="20">CONCATENATE(A192,"-",B192)</f>
+        <v>21-13</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -8351,7 +7708,7 @@
         <v>15</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="10"/>
@@ -8366,12 +7723,12 @@
         <v>21</v>
       </c>
       <c r="B193">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" ref="C193:C194" si="19">CONCATENATE(A193,"-",B193)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C193" si="21">CONCATENATE(A193,"-",B193)</f>
+        <v>21-14</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -8383,7 +7740,7 @@
         <v>15</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="10"/>
@@ -8392,18 +7749,18 @@
       </c>
       <c r="M193" s="6"/>
     </row>
-    <row r="194" spans="1:13" ht="39">
+    <row r="194" spans="1:13" ht="26.25">
       <c r="A194">
-        <f t="shared" si="10"/>
+        <f>A192</f>
         <v>21</v>
       </c>
       <c r="B194">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v>21-17</v>
+        <f t="shared" ref="C194" si="22">CONCATENATE(A194,"-",B194)</f>
+        <v>21-15</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -8415,7 +7772,7 @@
         <v>15</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
@@ -8424,17 +7781,18 @@
       </c>
       <c r="M194" s="6"/>
     </row>
-    <row r="195" spans="1:13" ht="39">
+    <row r="195" spans="1:13" ht="26.25">
       <c r="A195">
-        <f t="shared" si="10"/>
+        <f>A193</f>
         <v>21</v>
       </c>
       <c r="B195">
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" ref="C195" si="20">CONCATENATE(A195,"-",B195)</f>
-        <v>21-18</v>
+        <f t="shared" ref="C195:C196" si="23">CONCATENATE(A195,"-",B195)</f>
+        <v>21-16</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -8446,7 +7804,7 @@
         <v>15</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
@@ -8455,18 +7813,18 @@
       </c>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" ht="26.25">
+    <row r="196" spans="1:13" ht="39">
       <c r="A196">
-        <f>A194</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B196">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" ref="C196:C198" si="21">CONCATENATE(A196,"-",B196)</f>
-        <v>21-19</v>
+        <f t="shared" si="23"/>
+        <v>21-17</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -8478,7 +7836,7 @@
         <v>15</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
@@ -8487,18 +7845,17 @@
       </c>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="26.25">
+    <row r="197" spans="1:13" ht="39">
       <c r="A197">
-        <f>A195</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B197">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" ref="C197" si="22">CONCATENATE(A197,"-",B197)</f>
-        <v>21-20</v>
+        <f t="shared" ref="C197" si="24">CONCATENATE(A197,"-",B197)</f>
+        <v>21-18</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -8510,7 +7867,7 @@
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
@@ -8525,12 +7882,12 @@
         <v>21</v>
       </c>
       <c r="B198">
-        <f t="shared" si="8"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-21</v>
+        <f t="shared" ref="C198:C200" si="25">CONCATENATE(A198,"-",B198)</f>
+        <v>21-19</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8542,7 +7899,7 @@
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
@@ -8557,12 +7914,12 @@
         <v>21</v>
       </c>
       <c r="B199">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199" si="23">CONCATENATE(A199,"-",B199)</f>
-        <v>21-22</v>
+        <f t="shared" ref="C199" si="26">CONCATENATE(A199,"-",B199)</f>
+        <v>21-20</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8574,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
@@ -8583,18 +7940,18 @@
       </c>
       <c r="M199" s="6"/>
     </row>
-    <row r="200" spans="1:13" ht="39">
+    <row r="200" spans="1:13" ht="26.25">
       <c r="A200">
         <f>A198</f>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" ref="C200" si="24">CONCATENATE(A200,"-",B200)</f>
-        <v>21-23</v>
+        <f t="shared" si="25"/>
+        <v>21-21</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8606,7 +7963,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
@@ -8615,2618 +7972,2675 @@
       </c>
       <c r="M200" s="6"/>
     </row>
-    <row r="201" spans="1:13" ht="15">
+    <row r="201" spans="1:13" ht="26.25">
       <c r="A201">
-        <f>A183</f>
+        <f>A199</f>
         <v>21</v>
       </c>
       <c r="B201">
-        <v>24</v>
+        <f t="shared" si="12"/>
+        <v>22</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-24</v>
-      </c>
-      <c r="L201" s="6"/>
+        <f t="shared" ref="C201" si="27">CONCATENATE(A201,"-",B201)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J201" s="12"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" ht="15">
+    <row r="202" spans="1:13" ht="39">
       <c r="A202">
-        <f>A201</f>
+        <f>A200</f>
         <v>21</v>
       </c>
       <c r="B202">
-        <f>IF(A202=A201,B201+1,1)</f>
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>23</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-25</v>
-      </c>
-      <c r="L202" s="6"/>
+        <f t="shared" ref="C202" si="28">CONCATENATE(A202,"-",B202)</f>
+        <v>21-23</v>
+      </c>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J202" s="12"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="12" t="s">
+        <v>231</v>
+      </c>
       <c r="M202" s="6"/>
     </row>
     <row r="203" spans="1:13" ht="15">
       <c r="A203">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B203">
-        <f t="shared" si="8"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-26</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>22-24</v>
+      </c>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
     </row>
     <row r="204" spans="1:13" ht="15">
       <c r="A204">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f>A203</f>
+        <v>22</v>
       </c>
       <c r="B204">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f>IF(A204=A203,B203+1,1)</f>
+        <v>25</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-27</v>
+        <f t="shared" si="13"/>
+        <v>22-25</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
     </row>
     <row r="205" spans="1:13" ht="15">
       <c r="A205">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B205">
-        <f t="shared" si="8"/>
-        <v>28</v>
+        <f t="shared" si="12"/>
+        <v>26</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-28</v>
+        <f t="shared" si="13"/>
+        <v>22-26</v>
       </c>
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
     </row>
     <row r="206" spans="1:13" ht="15">
       <c r="A206">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B206">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f t="shared" si="12"/>
+        <v>27</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-29</v>
+        <f t="shared" si="13"/>
+        <v>22-27</v>
       </c>
       <c r="L206" s="6"/>
       <c r="M206" s="6"/>
     </row>
     <row r="207" spans="1:13" ht="15">
       <c r="A207">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B207">
-        <f t="shared" si="8"/>
-        <v>30</v>
+        <f t="shared" si="12"/>
+        <v>28</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-30</v>
+        <f t="shared" si="13"/>
+        <v>22-28</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
     </row>
     <row r="208" spans="1:13" ht="15">
       <c r="A208">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B208">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f t="shared" si="12"/>
+        <v>29</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-31</v>
+        <f t="shared" si="13"/>
+        <v>22-29</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
     </row>
     <row r="209" spans="1:13" ht="15">
       <c r="A209">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B209">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-32</v>
+        <f t="shared" si="13"/>
+        <v>22-30</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
     </row>
     <row r="210" spans="1:13" ht="15">
       <c r="A210">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B210">
-        <f t="shared" si="8"/>
-        <v>33</v>
+        <f t="shared" si="12"/>
+        <v>31</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-33</v>
+        <f t="shared" si="13"/>
+        <v>22-31</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
     </row>
     <row r="211" spans="1:13" ht="15">
       <c r="A211">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B211">
-        <f t="shared" si="8"/>
-        <v>34</v>
+        <f t="shared" si="12"/>
+        <v>32</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-34</v>
+        <f t="shared" si="13"/>
+        <v>22-32</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
     </row>
     <row r="212" spans="1:13" ht="15">
       <c r="A212">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B212">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>33</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-35</v>
+        <f t="shared" si="13"/>
+        <v>22-33</v>
       </c>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
     </row>
     <row r="213" spans="1:13" ht="15">
       <c r="A213">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B213">
-        <f t="shared" si="8"/>
-        <v>36</v>
+        <f t="shared" si="12"/>
+        <v>34</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>21-36</v>
+        <f t="shared" si="13"/>
+        <v>22-34</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
     </row>
     <row r="214" spans="1:13" ht="15">
       <c r="A214">
-        <f t="shared" si="10"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B214">
-        <f t="shared" ref="B214:B277" si="25">IF(A214=A213,B213+1,1)</f>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>35</v>
       </c>
       <c r="C214" s="3" t="str">
-        <f t="shared" ref="C214:C277" si="26">CONCATENATE(A214,"-",B214)</f>
-        <v>21-37</v>
+        <f t="shared" si="13"/>
+        <v>22-35</v>
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
     </row>
     <row r="215" spans="1:13" ht="15">
       <c r="A215">
-        <f t="shared" ref="A215:A278" si="27">A214</f>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B215">
-        <f t="shared" si="25"/>
-        <v>38</v>
+        <f t="shared" si="12"/>
+        <v>36</v>
       </c>
       <c r="C215" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-38</v>
+        <f t="shared" si="13"/>
+        <v>22-36</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
     </row>
     <row r="216" spans="1:13" ht="15">
       <c r="A216">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B216">
-        <f t="shared" si="25"/>
-        <v>39</v>
+        <f t="shared" ref="B216:B279" si="29">IF(A216=A215,B215+1,1)</f>
+        <v>37</v>
       </c>
       <c r="C216" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-39</v>
+        <f t="shared" ref="C216:C279" si="30">CONCATENATE(A216,"-",B216)</f>
+        <v>22-37</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
     </row>
     <row r="217" spans="1:13" ht="15">
       <c r="A217">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" ref="A217:A280" si="31">A216</f>
+        <v>22</v>
       </c>
       <c r="B217">
-        <f t="shared" si="25"/>
-        <v>40</v>
+        <f t="shared" si="29"/>
+        <v>38</v>
       </c>
       <c r="C217" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-40</v>
+        <f t="shared" si="30"/>
+        <v>22-38</v>
       </c>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
     </row>
     <row r="218" spans="1:13" ht="15">
       <c r="A218">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B218">
-        <f t="shared" si="25"/>
-        <v>41</v>
+        <f t="shared" si="29"/>
+        <v>39</v>
       </c>
       <c r="C218" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-41</v>
+        <f t="shared" si="30"/>
+        <v>22-39</v>
       </c>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
     </row>
     <row r="219" spans="1:13" ht="15">
       <c r="A219">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B219">
-        <f t="shared" si="25"/>
-        <v>42</v>
+        <f t="shared" si="29"/>
+        <v>40</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-42</v>
+        <f t="shared" si="30"/>
+        <v>22-40</v>
       </c>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
     </row>
     <row r="220" spans="1:13" ht="15">
       <c r="A220">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B220">
-        <f t="shared" si="25"/>
-        <v>43</v>
+        <f t="shared" si="29"/>
+        <v>41</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-43</v>
+        <f t="shared" si="30"/>
+        <v>22-41</v>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
     </row>
     <row r="221" spans="1:13" ht="15">
       <c r="A221">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B221">
-        <f t="shared" si="25"/>
-        <v>44</v>
+        <f t="shared" si="29"/>
+        <v>42</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-44</v>
+        <f t="shared" si="30"/>
+        <v>22-42</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B222">
-        <f t="shared" si="25"/>
-        <v>45</v>
+        <f t="shared" si="29"/>
+        <v>43</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-45</v>
+        <f t="shared" si="30"/>
+        <v>22-43</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
     </row>
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B223">
-        <f t="shared" si="25"/>
-        <v>46</v>
+        <f t="shared" si="29"/>
+        <v>44</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-46</v>
+        <f t="shared" si="30"/>
+        <v>22-44</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B224">
-        <f t="shared" si="25"/>
-        <v>47</v>
+        <f t="shared" si="29"/>
+        <v>45</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-47</v>
+        <f t="shared" si="30"/>
+        <v>22-45</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
     </row>
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B225">
-        <f t="shared" si="25"/>
-        <v>48</v>
+        <f t="shared" si="29"/>
+        <v>46</v>
       </c>
       <c r="C225" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-48</v>
+        <f t="shared" si="30"/>
+        <v>22-46</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
     </row>
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B226">
-        <f t="shared" si="25"/>
-        <v>49</v>
+        <f t="shared" si="29"/>
+        <v>47</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-49</v>
+        <f t="shared" si="30"/>
+        <v>22-47</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
     </row>
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B227">
-        <f t="shared" si="25"/>
-        <v>50</v>
+        <f t="shared" si="29"/>
+        <v>48</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-50</v>
+        <f t="shared" si="30"/>
+        <v>22-48</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
     </row>
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B228">
-        <f t="shared" si="25"/>
-        <v>51</v>
+        <f t="shared" si="29"/>
+        <v>49</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-51</v>
+        <f t="shared" si="30"/>
+        <v>22-49</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B229">
-        <f t="shared" si="25"/>
-        <v>52</v>
+        <f t="shared" si="29"/>
+        <v>50</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-52</v>
+        <f t="shared" si="30"/>
+        <v>22-50</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B230">
-        <f t="shared" si="25"/>
-        <v>53</v>
+        <f t="shared" si="29"/>
+        <v>51</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-53</v>
+        <f t="shared" si="30"/>
+        <v>22-51</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B231">
-        <f t="shared" si="25"/>
-        <v>54</v>
+        <f t="shared" si="29"/>
+        <v>52</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-54</v>
+        <f t="shared" si="30"/>
+        <v>22-52</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B232">
-        <f t="shared" si="25"/>
-        <v>55</v>
+        <f t="shared" si="29"/>
+        <v>53</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-55</v>
+        <f t="shared" si="30"/>
+        <v>22-53</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B233">
-        <f t="shared" si="25"/>
-        <v>56</v>
+        <f t="shared" si="29"/>
+        <v>54</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-56</v>
+        <f t="shared" si="30"/>
+        <v>22-54</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B234">
-        <f t="shared" si="25"/>
-        <v>57</v>
+        <f t="shared" si="29"/>
+        <v>55</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-57</v>
+        <f t="shared" si="30"/>
+        <v>22-55</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B235">
-        <f t="shared" si="25"/>
-        <v>58</v>
+        <f t="shared" si="29"/>
+        <v>56</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-58</v>
+        <f t="shared" si="30"/>
+        <v>22-56</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B236">
-        <f t="shared" si="25"/>
-        <v>59</v>
+        <f t="shared" si="29"/>
+        <v>57</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-59</v>
+        <f t="shared" si="30"/>
+        <v>22-57</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B237">
-        <f t="shared" si="25"/>
-        <v>60</v>
+        <f t="shared" si="29"/>
+        <v>58</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-60</v>
+        <f t="shared" si="30"/>
+        <v>22-58</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B238">
-        <f t="shared" si="25"/>
-        <v>61</v>
+        <f t="shared" si="29"/>
+        <v>59</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-61</v>
+        <f t="shared" si="30"/>
+        <v>22-59</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B239">
-        <f t="shared" si="25"/>
-        <v>62</v>
+        <f t="shared" si="29"/>
+        <v>60</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-62</v>
+        <f t="shared" si="30"/>
+        <v>22-60</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B240">
-        <f t="shared" si="25"/>
-        <v>63</v>
+        <f t="shared" si="29"/>
+        <v>61</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-63</v>
+        <f t="shared" si="30"/>
+        <v>22-61</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B241">
-        <f t="shared" si="25"/>
-        <v>64</v>
+        <f t="shared" si="29"/>
+        <v>62</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-64</v>
+        <f t="shared" si="30"/>
+        <v>22-62</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B242">
-        <f t="shared" si="25"/>
-        <v>65</v>
+        <f t="shared" si="29"/>
+        <v>63</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-65</v>
+        <f t="shared" si="30"/>
+        <v>22-63</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B243">
-        <f t="shared" si="25"/>
-        <v>66</v>
+        <f t="shared" si="29"/>
+        <v>64</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-66</v>
+        <f t="shared" si="30"/>
+        <v>22-64</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B244">
-        <f t="shared" si="25"/>
-        <v>67</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-67</v>
+        <f t="shared" si="30"/>
+        <v>22-65</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B245">
-        <f t="shared" si="25"/>
-        <v>68</v>
+        <f t="shared" si="29"/>
+        <v>66</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-68</v>
+        <f t="shared" si="30"/>
+        <v>22-66</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B246">
-        <f t="shared" si="25"/>
-        <v>69</v>
+        <f t="shared" si="29"/>
+        <v>67</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-69</v>
+        <f t="shared" si="30"/>
+        <v>22-67</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B247">
-        <f t="shared" si="25"/>
-        <v>70</v>
+        <f t="shared" si="29"/>
+        <v>68</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-70</v>
+        <f t="shared" si="30"/>
+        <v>22-68</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B248">
-        <f t="shared" si="25"/>
-        <v>71</v>
+        <f t="shared" si="29"/>
+        <v>69</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-71</v>
+        <f t="shared" si="30"/>
+        <v>22-69</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B249">
-        <f t="shared" si="25"/>
-        <v>72</v>
+        <f t="shared" si="29"/>
+        <v>70</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-72</v>
+        <f t="shared" si="30"/>
+        <v>22-70</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B250">
-        <f t="shared" si="25"/>
-        <v>73</v>
+        <f t="shared" si="29"/>
+        <v>71</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-73</v>
+        <f t="shared" si="30"/>
+        <v>22-71</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B251">
-        <f t="shared" si="25"/>
-        <v>74</v>
+        <f t="shared" si="29"/>
+        <v>72</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-74</v>
+        <f t="shared" si="30"/>
+        <v>22-72</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B252">
-        <f t="shared" si="25"/>
-        <v>75</v>
+        <f t="shared" si="29"/>
+        <v>73</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-75</v>
+        <f t="shared" si="30"/>
+        <v>22-73</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B253">
-        <f t="shared" si="25"/>
-        <v>76</v>
+        <f t="shared" si="29"/>
+        <v>74</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-76</v>
+        <f t="shared" si="30"/>
+        <v>22-74</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B254">
-        <f t="shared" si="25"/>
-        <v>77</v>
+        <f t="shared" si="29"/>
+        <v>75</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-77</v>
+        <f t="shared" si="30"/>
+        <v>22-75</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B255">
-        <f t="shared" si="25"/>
-        <v>78</v>
+        <f t="shared" si="29"/>
+        <v>76</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-78</v>
+        <f t="shared" si="30"/>
+        <v>22-76</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B256">
-        <f t="shared" si="25"/>
-        <v>79</v>
+        <f t="shared" si="29"/>
+        <v>77</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-79</v>
+        <f t="shared" si="30"/>
+        <v>22-77</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B257">
-        <f t="shared" si="25"/>
-        <v>80</v>
+        <f t="shared" si="29"/>
+        <v>78</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-80</v>
+        <f t="shared" si="30"/>
+        <v>22-78</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B258">
-        <f t="shared" si="25"/>
-        <v>81</v>
+        <f t="shared" si="29"/>
+        <v>79</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-81</v>
+        <f t="shared" si="30"/>
+        <v>22-79</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B259">
-        <f t="shared" si="25"/>
-        <v>82</v>
+        <f t="shared" si="29"/>
+        <v>80</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-82</v>
+        <f t="shared" si="30"/>
+        <v>22-80</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B260">
-        <f t="shared" si="25"/>
-        <v>83</v>
+        <f t="shared" si="29"/>
+        <v>81</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-83</v>
+        <f t="shared" si="30"/>
+        <v>22-81</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B261">
-        <f t="shared" si="25"/>
-        <v>84</v>
+        <f t="shared" si="29"/>
+        <v>82</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-84</v>
+        <f t="shared" si="30"/>
+        <v>22-82</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B262">
-        <f t="shared" si="25"/>
-        <v>85</v>
+        <f t="shared" si="29"/>
+        <v>83</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-85</v>
+        <f t="shared" si="30"/>
+        <v>22-83</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B263">
-        <f t="shared" si="25"/>
-        <v>86</v>
+        <f t="shared" si="29"/>
+        <v>84</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-86</v>
+        <f t="shared" si="30"/>
+        <v>22-84</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B264">
-        <f t="shared" si="25"/>
-        <v>87</v>
+        <f t="shared" si="29"/>
+        <v>85</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-87</v>
+        <f t="shared" si="30"/>
+        <v>22-85</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B265">
-        <f t="shared" si="25"/>
-        <v>88</v>
+        <f t="shared" si="29"/>
+        <v>86</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-88</v>
+        <f t="shared" si="30"/>
+        <v>22-86</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B266">
-        <f t="shared" si="25"/>
-        <v>89</v>
+        <f t="shared" si="29"/>
+        <v>87</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-89</v>
+        <f t="shared" si="30"/>
+        <v>22-87</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B267">
-        <f t="shared" si="25"/>
-        <v>90</v>
+        <f t="shared" si="29"/>
+        <v>88</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-90</v>
+        <f t="shared" si="30"/>
+        <v>22-88</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B268">
-        <f t="shared" si="25"/>
-        <v>91</v>
+        <f t="shared" si="29"/>
+        <v>89</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-91</v>
+        <f t="shared" si="30"/>
+        <v>22-89</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B269">
-        <f t="shared" si="25"/>
-        <v>92</v>
+        <f t="shared" si="29"/>
+        <v>90</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-92</v>
+        <f t="shared" si="30"/>
+        <v>22-90</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B270">
-        <f t="shared" si="25"/>
-        <v>93</v>
+        <f t="shared" si="29"/>
+        <v>91</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-93</v>
+        <f t="shared" si="30"/>
+        <v>22-91</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B271">
-        <f t="shared" si="25"/>
-        <v>94</v>
+        <f t="shared" si="29"/>
+        <v>92</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-94</v>
+        <f t="shared" si="30"/>
+        <v>22-92</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B272">
-        <f t="shared" si="25"/>
-        <v>95</v>
+        <f t="shared" si="29"/>
+        <v>93</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-95</v>
+        <f t="shared" si="30"/>
+        <v>22-93</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B273">
-        <f t="shared" si="25"/>
-        <v>96</v>
+        <f t="shared" si="29"/>
+        <v>94</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-96</v>
+        <f t="shared" si="30"/>
+        <v>22-94</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B274">
-        <f t="shared" si="25"/>
-        <v>97</v>
+        <f t="shared" si="29"/>
+        <v>95</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-97</v>
+        <f t="shared" si="30"/>
+        <v>22-95</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B275">
-        <f t="shared" si="25"/>
-        <v>98</v>
+        <f t="shared" si="29"/>
+        <v>96</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-98</v>
+        <f t="shared" si="30"/>
+        <v>22-96</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B276">
-        <f t="shared" si="25"/>
-        <v>99</v>
+        <f t="shared" si="29"/>
+        <v>97</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-99</v>
+        <f t="shared" si="30"/>
+        <v>22-97</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B277">
-        <f t="shared" si="25"/>
-        <v>100</v>
+        <f t="shared" si="29"/>
+        <v>98</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-100</v>
+        <f t="shared" si="30"/>
+        <v>22-98</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B278">
-        <f t="shared" ref="B278:B341" si="28">IF(A278=A277,B277+1,1)</f>
-        <v>101</v>
+        <f t="shared" si="29"/>
+        <v>99</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" ref="C278:C341" si="29">CONCATENATE(A278,"-",B278)</f>
-        <v>21-101</v>
+        <f t="shared" si="30"/>
+        <v>22-99</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
-        <f t="shared" ref="A279:A342" si="30">A278</f>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B279">
-        <f t="shared" si="28"/>
-        <v>102</v>
+        <f t="shared" si="29"/>
+        <v>100</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-102</v>
+        <f t="shared" si="30"/>
+        <v>22-100</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="31"/>
+        <v>22</v>
       </c>
       <c r="B280">
-        <f t="shared" si="28"/>
-        <v>103</v>
+        <f t="shared" ref="B280:B343" si="32">IF(A280=A279,B279+1,1)</f>
+        <v>101</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-103</v>
+        <f t="shared" ref="C280:C343" si="33">CONCATENATE(A280,"-",B280)</f>
+        <v>22-101</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" ref="A281:A344" si="34">A280</f>
+        <v>22</v>
       </c>
       <c r="B281">
-        <f t="shared" si="28"/>
-        <v>104</v>
+        <f t="shared" si="32"/>
+        <v>102</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-104</v>
+        <f t="shared" si="33"/>
+        <v>22-102</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B282">
-        <f t="shared" si="28"/>
-        <v>105</v>
+        <f t="shared" si="32"/>
+        <v>103</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-105</v>
+        <f t="shared" si="33"/>
+        <v>22-103</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B283">
-        <f t="shared" si="28"/>
-        <v>106</v>
+        <f t="shared" si="32"/>
+        <v>104</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-106</v>
+        <f t="shared" si="33"/>
+        <v>22-104</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B284">
-        <f t="shared" si="28"/>
-        <v>107</v>
+        <f t="shared" si="32"/>
+        <v>105</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-107</v>
+        <f t="shared" si="33"/>
+        <v>22-105</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B285">
-        <f t="shared" si="28"/>
-        <v>108</v>
+        <f t="shared" si="32"/>
+        <v>106</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-108</v>
+        <f t="shared" si="33"/>
+        <v>22-106</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B286">
-        <f t="shared" si="28"/>
-        <v>109</v>
+        <f t="shared" si="32"/>
+        <v>107</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-109</v>
+        <f t="shared" si="33"/>
+        <v>22-107</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B287">
-        <f t="shared" si="28"/>
-        <v>110</v>
+        <f t="shared" si="32"/>
+        <v>108</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-110</v>
+        <f t="shared" si="33"/>
+        <v>22-108</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B288">
-        <f t="shared" si="28"/>
-        <v>111</v>
+        <f t="shared" si="32"/>
+        <v>109</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-111</v>
+        <f t="shared" si="33"/>
+        <v>22-109</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B289">
-        <f t="shared" si="28"/>
-        <v>112</v>
+        <f t="shared" si="32"/>
+        <v>110</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-112</v>
+        <f t="shared" si="33"/>
+        <v>22-110</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B290">
-        <f t="shared" si="28"/>
-        <v>113</v>
+        <f t="shared" si="32"/>
+        <v>111</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-113</v>
+        <f t="shared" si="33"/>
+        <v>22-111</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B291">
-        <f t="shared" si="28"/>
-        <v>114</v>
+        <f t="shared" si="32"/>
+        <v>112</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-114</v>
+        <f t="shared" si="33"/>
+        <v>22-112</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B292">
-        <f t="shared" si="28"/>
-        <v>115</v>
+        <f t="shared" si="32"/>
+        <v>113</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-115</v>
+        <f t="shared" si="33"/>
+        <v>22-113</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B293">
-        <f t="shared" si="28"/>
-        <v>116</v>
+        <f t="shared" si="32"/>
+        <v>114</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-116</v>
+        <f t="shared" si="33"/>
+        <v>22-114</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B294">
-        <f t="shared" si="28"/>
-        <v>117</v>
+        <f t="shared" si="32"/>
+        <v>115</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-117</v>
+        <f t="shared" si="33"/>
+        <v>22-115</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B295">
-        <f t="shared" si="28"/>
-        <v>118</v>
+        <f t="shared" si="32"/>
+        <v>116</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-118</v>
+        <f t="shared" si="33"/>
+        <v>22-116</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B296">
-        <f t="shared" si="28"/>
-        <v>119</v>
+        <f t="shared" si="32"/>
+        <v>117</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-119</v>
+        <f t="shared" si="33"/>
+        <v>22-117</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B297">
-        <f t="shared" si="28"/>
-        <v>120</v>
+        <f t="shared" si="32"/>
+        <v>118</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-120</v>
+        <f t="shared" si="33"/>
+        <v>22-118</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B298">
-        <f t="shared" si="28"/>
-        <v>121</v>
+        <f t="shared" si="32"/>
+        <v>119</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-121</v>
+        <f t="shared" si="33"/>
+        <v>22-119</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B299">
-        <f t="shared" si="28"/>
-        <v>122</v>
+        <f t="shared" si="32"/>
+        <v>120</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-122</v>
+        <f t="shared" si="33"/>
+        <v>22-120</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B300">
-        <f t="shared" si="28"/>
-        <v>123</v>
+        <f t="shared" si="32"/>
+        <v>121</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-123</v>
+        <f t="shared" si="33"/>
+        <v>22-121</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B301">
-        <f t="shared" si="28"/>
-        <v>124</v>
+        <f t="shared" si="32"/>
+        <v>122</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-124</v>
+        <f t="shared" si="33"/>
+        <v>22-122</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B302">
-        <f t="shared" si="28"/>
-        <v>125</v>
+        <f t="shared" si="32"/>
+        <v>123</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-125</v>
+        <f t="shared" si="33"/>
+        <v>22-123</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B303">
-        <f t="shared" si="28"/>
-        <v>126</v>
+        <f t="shared" si="32"/>
+        <v>124</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-126</v>
+        <f t="shared" si="33"/>
+        <v>22-124</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B304">
-        <f t="shared" si="28"/>
-        <v>127</v>
+        <f t="shared" si="32"/>
+        <v>125</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-127</v>
+        <f t="shared" si="33"/>
+        <v>22-125</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B305">
-        <f t="shared" si="28"/>
-        <v>128</v>
+        <f t="shared" si="32"/>
+        <v>126</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-128</v>
+        <f t="shared" si="33"/>
+        <v>22-126</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B306">
-        <f t="shared" si="28"/>
-        <v>129</v>
+        <f t="shared" si="32"/>
+        <v>127</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-129</v>
+        <f t="shared" si="33"/>
+        <v>22-127</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B307">
-        <f t="shared" si="28"/>
-        <v>130</v>
+        <f t="shared" si="32"/>
+        <v>128</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-130</v>
+        <f t="shared" si="33"/>
+        <v>22-128</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B308">
-        <f t="shared" si="28"/>
-        <v>131</v>
+        <f t="shared" si="32"/>
+        <v>129</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-131</v>
+        <f t="shared" si="33"/>
+        <v>22-129</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B309">
-        <f t="shared" si="28"/>
-        <v>132</v>
+        <f t="shared" si="32"/>
+        <v>130</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-132</v>
+        <f t="shared" si="33"/>
+        <v>22-130</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B310">
-        <f t="shared" si="28"/>
-        <v>133</v>
+        <f t="shared" si="32"/>
+        <v>131</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-133</v>
+        <f t="shared" si="33"/>
+        <v>22-131</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B311">
-        <f t="shared" si="28"/>
-        <v>134</v>
+        <f t="shared" si="32"/>
+        <v>132</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-134</v>
+        <f t="shared" si="33"/>
+        <v>22-132</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B312">
-        <f t="shared" si="28"/>
-        <v>135</v>
+        <f t="shared" si="32"/>
+        <v>133</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-135</v>
+        <f t="shared" si="33"/>
+        <v>22-133</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B313">
-        <f t="shared" si="28"/>
-        <v>136</v>
+        <f t="shared" si="32"/>
+        <v>134</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-136</v>
+        <f t="shared" si="33"/>
+        <v>22-134</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B314">
-        <f t="shared" si="28"/>
-        <v>137</v>
+        <f t="shared" si="32"/>
+        <v>135</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-137</v>
+        <f t="shared" si="33"/>
+        <v>22-135</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B315">
-        <f t="shared" si="28"/>
-        <v>138</v>
+        <f t="shared" si="32"/>
+        <v>136</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-138</v>
+        <f t="shared" si="33"/>
+        <v>22-136</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B316">
-        <f t="shared" si="28"/>
-        <v>139</v>
+        <f t="shared" si="32"/>
+        <v>137</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-139</v>
+        <f t="shared" si="33"/>
+        <v>22-137</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B317">
-        <f t="shared" si="28"/>
-        <v>140</v>
+        <f t="shared" si="32"/>
+        <v>138</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-140</v>
+        <f t="shared" si="33"/>
+        <v>22-138</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B318">
-        <f t="shared" si="28"/>
-        <v>141</v>
+        <f t="shared" si="32"/>
+        <v>139</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-141</v>
+        <f t="shared" si="33"/>
+        <v>22-139</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B319">
-        <f t="shared" si="28"/>
-        <v>142</v>
+        <f t="shared" si="32"/>
+        <v>140</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-142</v>
+        <f t="shared" si="33"/>
+        <v>22-140</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B320">
-        <f t="shared" si="28"/>
-        <v>143</v>
+        <f t="shared" si="32"/>
+        <v>141</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-143</v>
+        <f t="shared" si="33"/>
+        <v>22-141</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B321">
-        <f t="shared" si="28"/>
-        <v>144</v>
+        <f t="shared" si="32"/>
+        <v>142</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-144</v>
+        <f t="shared" si="33"/>
+        <v>22-142</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B322">
-        <f t="shared" si="28"/>
-        <v>145</v>
+        <f t="shared" si="32"/>
+        <v>143</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-145</v>
+        <f t="shared" si="33"/>
+        <v>22-143</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B323">
-        <f t="shared" si="28"/>
-        <v>146</v>
+        <f t="shared" si="32"/>
+        <v>144</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-146</v>
+        <f t="shared" si="33"/>
+        <v>22-144</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B324">
-        <f t="shared" si="28"/>
-        <v>147</v>
+        <f t="shared" si="32"/>
+        <v>145</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-147</v>
+        <f t="shared" si="33"/>
+        <v>22-145</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B325">
-        <f t="shared" si="28"/>
-        <v>148</v>
+        <f t="shared" si="32"/>
+        <v>146</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-148</v>
+        <f t="shared" si="33"/>
+        <v>22-146</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B326">
-        <f t="shared" si="28"/>
-        <v>149</v>
+        <f t="shared" si="32"/>
+        <v>147</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-149</v>
+        <f t="shared" si="33"/>
+        <v>22-147</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B327">
-        <f t="shared" si="28"/>
-        <v>150</v>
+        <f t="shared" si="32"/>
+        <v>148</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-150</v>
+        <f t="shared" si="33"/>
+        <v>22-148</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B328">
-        <f t="shared" si="28"/>
-        <v>151</v>
+        <f t="shared" si="32"/>
+        <v>149</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-151</v>
+        <f t="shared" si="33"/>
+        <v>22-149</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B329">
-        <f t="shared" si="28"/>
-        <v>152</v>
+        <f t="shared" si="32"/>
+        <v>150</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-152</v>
+        <f t="shared" si="33"/>
+        <v>22-150</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B330">
-        <f t="shared" si="28"/>
-        <v>153</v>
+        <f t="shared" si="32"/>
+        <v>151</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-153</v>
+        <f t="shared" si="33"/>
+        <v>22-151</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B331">
-        <f t="shared" si="28"/>
-        <v>154</v>
+        <f t="shared" si="32"/>
+        <v>152</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-154</v>
+        <f t="shared" si="33"/>
+        <v>22-152</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B332">
-        <f t="shared" si="28"/>
-        <v>155</v>
+        <f t="shared" si="32"/>
+        <v>153</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-155</v>
+        <f t="shared" si="33"/>
+        <v>22-153</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B333">
-        <f t="shared" si="28"/>
-        <v>156</v>
+        <f t="shared" si="32"/>
+        <v>154</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-156</v>
+        <f t="shared" si="33"/>
+        <v>22-154</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B334">
-        <f t="shared" si="28"/>
-        <v>157</v>
+        <f t="shared" si="32"/>
+        <v>155</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-157</v>
+        <f t="shared" si="33"/>
+        <v>22-155</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B335">
-        <f t="shared" si="28"/>
-        <v>158</v>
+        <f t="shared" si="32"/>
+        <v>156</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-158</v>
+        <f t="shared" si="33"/>
+        <v>22-156</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B336">
-        <f t="shared" si="28"/>
-        <v>159</v>
+        <f t="shared" si="32"/>
+        <v>157</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-159</v>
+        <f t="shared" si="33"/>
+        <v>22-157</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B337">
-        <f t="shared" si="28"/>
-        <v>160</v>
+        <f t="shared" si="32"/>
+        <v>158</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-160</v>
+        <f t="shared" si="33"/>
+        <v>22-158</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B338">
-        <f t="shared" si="28"/>
-        <v>161</v>
+        <f t="shared" si="32"/>
+        <v>159</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-161</v>
+        <f t="shared" si="33"/>
+        <v>22-159</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B339">
-        <f t="shared" si="28"/>
-        <v>162</v>
+        <f t="shared" si="32"/>
+        <v>160</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-162</v>
+        <f t="shared" si="33"/>
+        <v>22-160</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B340">
-        <f t="shared" si="28"/>
-        <v>163</v>
+        <f t="shared" si="32"/>
+        <v>161</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-163</v>
+        <f t="shared" si="33"/>
+        <v>22-161</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B341">
-        <f t="shared" si="28"/>
-        <v>164</v>
+        <f t="shared" si="32"/>
+        <v>162</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-164</v>
+        <f t="shared" si="33"/>
+        <v>22-162</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
-        <f t="shared" si="30"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B342">
-        <f t="shared" ref="B342:B363" si="31">IF(A342=A341,B341+1,1)</f>
-        <v>165</v>
+        <f t="shared" si="32"/>
+        <v>163</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" ref="C342:C363" si="32">CONCATENATE(A342,"-",B342)</f>
-        <v>21-165</v>
+        <f t="shared" si="33"/>
+        <v>22-163</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
-        <f t="shared" ref="A343:A363" si="33">A342</f>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B343">
-        <f t="shared" si="31"/>
-        <v>166</v>
+        <f t="shared" si="32"/>
+        <v>164</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-166</v>
+        <f t="shared" si="33"/>
+        <v>22-164</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="B344">
-        <f t="shared" si="31"/>
-        <v>167</v>
+        <f t="shared" ref="B344:B365" si="35">IF(A344=A343,B343+1,1)</f>
+        <v>165</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-167</v>
+        <f t="shared" ref="C344:C365" si="36">CONCATENATE(A344,"-",B344)</f>
+        <v>22-165</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" ref="A345:A365" si="37">A344</f>
+        <v>22</v>
       </c>
       <c r="B345">
-        <f t="shared" si="31"/>
-        <v>168</v>
+        <f t="shared" si="35"/>
+        <v>166</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-168</v>
+        <f t="shared" si="36"/>
+        <v>22-166</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B346">
-        <f t="shared" si="31"/>
-        <v>169</v>
+        <f t="shared" si="35"/>
+        <v>167</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-169</v>
+        <f t="shared" si="36"/>
+        <v>22-167</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B347">
-        <f t="shared" si="31"/>
-        <v>170</v>
+        <f t="shared" si="35"/>
+        <v>168</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-170</v>
+        <f t="shared" si="36"/>
+        <v>22-168</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B348">
-        <f t="shared" si="31"/>
-        <v>171</v>
+        <f t="shared" si="35"/>
+        <v>169</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-171</v>
+        <f t="shared" si="36"/>
+        <v>22-169</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B349">
-        <f t="shared" si="31"/>
-        <v>172</v>
+        <f t="shared" si="35"/>
+        <v>170</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-172</v>
+        <f t="shared" si="36"/>
+        <v>22-170</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B350">
-        <f t="shared" si="31"/>
-        <v>173</v>
+        <f t="shared" si="35"/>
+        <v>171</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-173</v>
+        <f t="shared" si="36"/>
+        <v>22-171</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B351">
-        <f t="shared" si="31"/>
-        <v>174</v>
+        <f t="shared" si="35"/>
+        <v>172</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-174</v>
+        <f t="shared" si="36"/>
+        <v>22-172</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B352">
-        <f t="shared" si="31"/>
-        <v>175</v>
+        <f t="shared" si="35"/>
+        <v>173</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-175</v>
+        <f t="shared" si="36"/>
+        <v>22-173</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B353">
-        <f t="shared" si="31"/>
-        <v>176</v>
+        <f t="shared" si="35"/>
+        <v>174</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-176</v>
+        <f t="shared" si="36"/>
+        <v>22-174</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B354">
-        <f t="shared" si="31"/>
-        <v>177</v>
+        <f t="shared" si="35"/>
+        <v>175</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-177</v>
+        <f t="shared" si="36"/>
+        <v>22-175</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B355">
-        <f t="shared" si="31"/>
-        <v>178</v>
+        <f t="shared" si="35"/>
+        <v>176</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-178</v>
+        <f t="shared" si="36"/>
+        <v>22-176</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B356">
-        <f t="shared" si="31"/>
-        <v>179</v>
+        <f t="shared" si="35"/>
+        <v>177</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-179</v>
+        <f t="shared" si="36"/>
+        <v>22-177</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B357">
-        <f t="shared" si="31"/>
-        <v>180</v>
+        <f t="shared" si="35"/>
+        <v>178</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-180</v>
+        <f t="shared" si="36"/>
+        <v>22-178</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B358">
-        <f t="shared" si="31"/>
-        <v>181</v>
+        <f t="shared" si="35"/>
+        <v>179</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-181</v>
+        <f t="shared" si="36"/>
+        <v>22-179</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B359">
-        <f t="shared" si="31"/>
-        <v>182</v>
+        <f t="shared" si="35"/>
+        <v>180</v>
       </c>
       <c r="C359" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-182</v>
+        <f t="shared" si="36"/>
+        <v>22-180</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B360">
-        <f t="shared" si="31"/>
-        <v>183</v>
+        <f t="shared" si="35"/>
+        <v>181</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-183</v>
+        <f t="shared" si="36"/>
+        <v>22-181</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B361">
-        <f t="shared" si="31"/>
-        <v>184</v>
+        <f t="shared" si="35"/>
+        <v>182</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-184</v>
+        <f t="shared" si="36"/>
+        <v>22-182</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B362">
-        <f t="shared" si="31"/>
-        <v>185</v>
+        <f t="shared" si="35"/>
+        <v>183</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-185</v>
+        <f t="shared" si="36"/>
+        <v>22-183</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
-        <f t="shared" si="33"/>
-        <v>21</v>
+        <f t="shared" si="37"/>
+        <v>22</v>
       </c>
       <c r="B363">
-        <f t="shared" si="31"/>
-        <v>186</v>
+        <f t="shared" si="35"/>
+        <v>184</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>21-186</v>
+        <f t="shared" si="36"/>
+        <v>22-184</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
-    <row r="364" spans="1:13" ht="12.75">
+    <row r="364" spans="1:13" ht="15">
+      <c r="A364">
+        <f t="shared" si="37"/>
+        <v>22</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="35"/>
+        <v>185</v>
+      </c>
+      <c r="C364" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>22-185</v>
+      </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
-    <row r="365" spans="1:13" ht="12.75">
+    <row r="365" spans="1:13" ht="15">
+      <c r="A365">
+        <f t="shared" si="37"/>
+        <v>22</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="35"/>
+        <v>186</v>
+      </c>
+      <c r="C365" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>22-186</v>
+      </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
@@ -13970,278 +13384,286 @@
       <c r="L1050" s="6"/>
       <c r="M1050" s="6"/>
     </row>
+    <row r="1051" spans="12:13" ht="12.75">
+      <c r="L1051" s="6"/>
+      <c r="M1051" s="6"/>
+    </row>
+    <row r="1052" spans="12:13" ht="12.75">
+      <c r="L1052" s="6"/>
+      <c r="M1052" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L172:L175"/>
+    <mergeCell ref="L174:L177"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K183">
-    <cfRule type="containsBlanks" dxfId="53" priority="58">
+  <conditionalFormatting sqref="K2:K185">
+    <cfRule type="containsBlanks" dxfId="56" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K183">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K2:K185">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K183">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K2:K185">
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K184">
+  <conditionalFormatting sqref="K186">
     <cfRule type="containsBlanks" dxfId="50" priority="55">
-      <formula>LEN(TRIM(K184))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K184">
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K184))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K184">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K184))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K185">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
-      <formula>LEN(TRIM(K185))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K185">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K185))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K185">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K185))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K186">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
       <formula>LEN(TRIM(K186))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K186))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K186))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
       <formula>LEN(TRIM(K187))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K187))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K187">
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K187))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
+      <formula>LEN(TRIM(K188))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K188))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K188">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K188))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="containsBlanks" dxfId="38" priority="40">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
       <formula>LEN(TRIM(K189))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K189">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K189))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K189">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K189))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsBlanks" dxfId="37" priority="37">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
       <formula>LEN(TRIM(K191))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsBlanks" dxfId="36" priority="34">
+    <cfRule type="containsBlanks" dxfId="37" priority="37">
       <formula>LEN(TRIM(K193))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsBlanks" dxfId="35" priority="31">
-      <formula>LEN(TRIM(K194))=0</formula>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsBlanks" dxfId="36" priority="34">
+      <formula>LEN(TRIM(K195))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsBlanks" dxfId="34" priority="28">
+    <cfRule type="containsBlanks" dxfId="35" priority="31">
       <formula>LEN(TRIM(K196))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="33" priority="25">
+    <cfRule type="containsBlanks" dxfId="34" priority="28">
       <formula>LEN(TRIM(K198))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="32" priority="22">
+    <cfRule type="containsBlanks" dxfId="33" priority="25">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
-      <formula>LEN(TRIM(K190))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K189">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K189))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K189">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K189))))</formula>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsBlanks" dxfId="32" priority="22">
+      <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
       <formula>LEN(TRIM(K192))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
-      <formula>LEN(TRIM(K188))=0</formula>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K194))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
+      <formula>LEN(TRIM(K190))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
     <cfRule type="containsBlanks" dxfId="22" priority="7">
-      <formula>LEN(TRIM(K195))=0</formula>
+      <formula>LEN(TRIM(K197))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(K199))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(K201))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
-      <formula>LEN(TRIM(K197))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
-      <formula>LEN(TRIM(K199))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K188))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K188))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K195">
+  <conditionalFormatting sqref="K197">
     <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="262">
   <si>
     <t>Test Number</t>
   </si>
@@ -782,6 +782,27 @@
   </si>
   <si>
     <t>The gui is filtering out requests to refresh the message view but this means the last refresh may not be caught hence the check on the last message.</t>
+  </si>
+  <si>
+    <t>Local host name appears at the top of the instrument list when on a host machine</t>
+  </si>
+  <si>
+    <t>Instrument List</t>
+  </si>
+  <si>
+    <t>When on an instrument machine for an instrument in CS:INSTLIST, the instrument name only appears once and it is at the top of the list</t>
+  </si>
+  <si>
+    <t>List of supported instruments appears in the instrument list</t>
+  </si>
+  <si>
+    <t>Can switch from local host to other instrument</t>
+  </si>
+  <si>
+    <t>Can switch between two listed instruments</t>
+  </si>
+  <si>
+    <t>Can switch to a custom instrument not on the list</t>
   </si>
 </sst>
 </file>
@@ -838,7 +859,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -898,11 +919,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -946,14 +1013,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1710,132 +1803,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2136,8 +2103,8 @@
   <dimension ref="A1:N1052"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7163,7 +7130,7 @@
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
-      <c r="L174" s="18"/>
+      <c r="L174" s="19"/>
     </row>
     <row r="175" spans="1:13" ht="30">
       <c r="A175">
@@ -7192,7 +7159,7 @@
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="19"/>
+      <c r="L175" s="20"/>
       <c r="M175" s="6"/>
     </row>
     <row r="176" spans="1:13" ht="45">
@@ -7222,7 +7189,7 @@
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="19"/>
+      <c r="L176" s="20"/>
       <c r="M176" s="6"/>
     </row>
     <row r="177" spans="1:13" ht="30">
@@ -7252,7 +7219,7 @@
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="20"/>
+      <c r="L177" s="21"/>
       <c r="M177" s="6"/>
     </row>
     <row r="178" spans="1:13" ht="30">
@@ -8013,75 +7980,109 @@
         <f t="shared" si="12"/>
         <v>23</v>
       </c>
-      <c r="C202" s="3" t="str">
-        <f t="shared" ref="C202" si="28">CONCATENATE(A202,"-",B202)</f>
+      <c r="C202" s="22" t="str">
+        <f t="shared" ref="C202:C203" si="28">CONCATENATE(A202,"-",B202)</f>
         <v>21-23</v>
       </c>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="10" t="s">
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H202" s="10" t="s">
+      <c r="H202" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I202" s="12" t="s">
+      <c r="I202" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="J202" s="12"/>
-      <c r="K202" s="10"/>
-      <c r="L202" s="12" t="s">
+      <c r="J202" s="18"/>
+      <c r="K202" s="24"/>
+      <c r="L202" s="18" t="s">
         <v>231</v>
       </c>
       <c r="M202" s="6"/>
     </row>
-    <row r="203" spans="1:13" ht="15">
+    <row r="203" spans="1:13" ht="26.25">
       <c r="A203">
         <v>22</v>
       </c>
       <c r="B203">
-        <v>24</v>
-      </c>
-      <c r="C203" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>22-24</v>
-      </c>
-      <c r="G203" s="21"/>
-      <c r="H203" s="21"/>
-      <c r="L203" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C203" s="26" t="str">
+        <f>CONCATENATE(A203,"-",B203)</f>
+        <v>22-1</v>
+      </c>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27"/>
+      <c r="G203" s="28"/>
+      <c r="H203" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I203" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J203" s="27"/>
+      <c r="K203" s="27"/>
+      <c r="L203" s="30"/>
       <c r="M203" s="6"/>
     </row>
-    <row r="204" spans="1:13" ht="15">
+    <row r="204" spans="1:13" ht="39">
       <c r="A204">
         <f>A203</f>
         <v>22</v>
       </c>
       <c r="B204">
         <f>IF(A204=A203,B203+1,1)</f>
-        <v>25</v>
-      </c>
-      <c r="C204" s="3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C204" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>22-25</v>
-      </c>
-      <c r="L204" s="6"/>
+        <v>22-2</v>
+      </c>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I204" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J204" s="27"/>
+      <c r="K204" s="27"/>
+      <c r="L204" s="30"/>
       <c r="M204" s="6"/>
     </row>
-    <row r="205" spans="1:13" ht="15">
+    <row r="205" spans="1:13" ht="26.25">
       <c r="A205">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="B205">
         <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
-      <c r="C205" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="C205" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>22-26</v>
-      </c>
-      <c r="L205" s="6"/>
+        <v>22-3</v>
+      </c>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I205" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J205" s="27"/>
+      <c r="K205" s="27"/>
+      <c r="L205" s="30"/>
       <c r="M205" s="6"/>
     </row>
     <row r="206" spans="1:13" ht="15">
@@ -8091,13 +8092,25 @@
       </c>
       <c r="B206">
         <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="C206" s="3" t="str">
+        <v>4</v>
+      </c>
+      <c r="C206" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>22-27</v>
-      </c>
-      <c r="L206" s="6"/>
+        <v>22-4</v>
+      </c>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I206" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J206" s="27"/>
+      <c r="K206" s="27"/>
+      <c r="L206" s="30"/>
       <c r="M206" s="6"/>
     </row>
     <row r="207" spans="1:13" ht="15">
@@ -8107,13 +8120,25 @@
       </c>
       <c r="B207">
         <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="C207" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="C207" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>22-28</v>
-      </c>
-      <c r="L207" s="6"/>
+        <v>22-5</v>
+      </c>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="I207" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J207" s="27"/>
+      <c r="K207" s="27"/>
+      <c r="L207" s="30"/>
       <c r="M207" s="6"/>
     </row>
     <row r="208" spans="1:13" ht="15">
@@ -8123,43 +8148,56 @@
       </c>
       <c r="B208">
         <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="C208" s="3" t="str">
+        <v>6</v>
+      </c>
+      <c r="C208" s="26" t="str">
         <f t="shared" si="13"/>
-        <v>22-29</v>
-      </c>
-      <c r="L208" s="6"/>
+        <v>22-6</v>
+      </c>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="I208" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J208" s="27"/>
+      <c r="K208" s="27"/>
+      <c r="L208" s="30"/>
       <c r="M208" s="6"/>
     </row>
     <row r="209" spans="1:13" ht="15">
       <c r="A209">
-        <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B209">
         <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="C209" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C209" s="25" t="str">
         <f t="shared" si="13"/>
-        <v>22-30</v>
-      </c>
+        <v>23-1</v>
+      </c>
+      <c r="H209" s="33"/>
+      <c r="I209" s="31"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
     </row>
     <row r="210" spans="1:13" ht="15">
       <c r="A210">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B210">
         <f t="shared" si="12"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C210" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-31</v>
+        <v>23-2</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -8167,15 +8205,15 @@
     <row r="211" spans="1:13" ht="15">
       <c r="A211">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B211">
         <f t="shared" si="12"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C211" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-32</v>
+        <v>23-3</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -8183,15 +8221,15 @@
     <row r="212" spans="1:13" ht="15">
       <c r="A212">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B212">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C212" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-33</v>
+        <v>23-4</v>
       </c>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
@@ -8199,15 +8237,15 @@
     <row r="213" spans="1:13" ht="15">
       <c r="A213">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B213">
         <f t="shared" si="12"/>
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C213" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-34</v>
+        <v>23-5</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
@@ -8215,15 +8253,15 @@
     <row r="214" spans="1:13" ht="15">
       <c r="A214">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B214">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C214" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-35</v>
+        <v>23-6</v>
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
@@ -8231,15 +8269,15 @@
     <row r="215" spans="1:13" ht="15">
       <c r="A215">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B215">
         <f t="shared" si="12"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C215" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>22-36</v>
+        <v>23-7</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
@@ -8247,15 +8285,15 @@
     <row r="216" spans="1:13" ht="15">
       <c r="A216">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B216">
         <f t="shared" ref="B216:B279" si="29">IF(A216=A215,B215+1,1)</f>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C216" s="3" t="str">
         <f t="shared" ref="C216:C279" si="30">CONCATENATE(A216,"-",B216)</f>
-        <v>22-37</v>
+        <v>23-8</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
@@ -8263,15 +8301,15 @@
     <row r="217" spans="1:13" ht="15">
       <c r="A217">
         <f t="shared" ref="A217:A280" si="31">A216</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B217">
         <f t="shared" si="29"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C217" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-38</v>
+        <v>23-9</v>
       </c>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
@@ -8279,15 +8317,15 @@
     <row r="218" spans="1:13" ht="15">
       <c r="A218">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B218">
         <f t="shared" si="29"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C218" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-39</v>
+        <v>23-10</v>
       </c>
       <c r="L218" s="6"/>
       <c r="M218" s="6"/>
@@ -8295,15 +8333,15 @@
     <row r="219" spans="1:13" ht="15">
       <c r="A219">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B219">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C219" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-40</v>
+        <v>23-11</v>
       </c>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
@@ -8311,15 +8349,15 @@
     <row r="220" spans="1:13" ht="15">
       <c r="A220">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B220">
         <f t="shared" si="29"/>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C220" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-41</v>
+        <v>23-12</v>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
@@ -8327,15 +8365,15 @@
     <row r="221" spans="1:13" ht="15">
       <c r="A221">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B221">
         <f t="shared" si="29"/>
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C221" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-42</v>
+        <v>23-13</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
@@ -8343,15 +8381,15 @@
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B222">
         <f t="shared" si="29"/>
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C222" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-43</v>
+        <v>23-14</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
@@ -8359,15 +8397,15 @@
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B223">
         <f t="shared" si="29"/>
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C223" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-44</v>
+        <v>23-15</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -8375,15 +8413,15 @@
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B224">
         <f t="shared" si="29"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C224" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-45</v>
+        <v>23-16</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -8391,15 +8429,15 @@
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B225">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C225" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-46</v>
+        <v>23-17</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
@@ -8407,15 +8445,15 @@
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B226">
         <f t="shared" si="29"/>
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-47</v>
+        <v>23-18</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
@@ -8423,15 +8461,15 @@
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B227">
         <f t="shared" si="29"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C227" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-48</v>
+        <v>23-19</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
@@ -8439,15 +8477,15 @@
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B228">
         <f t="shared" si="29"/>
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C228" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-49</v>
+        <v>23-20</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
@@ -8455,15 +8493,15 @@
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B229">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C229" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-50</v>
+        <v>23-21</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
@@ -8471,15 +8509,15 @@
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B230">
         <f t="shared" si="29"/>
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C230" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-51</v>
+        <v>23-22</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
@@ -8487,15 +8525,15 @@
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B231">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C231" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-52</v>
+        <v>23-23</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -8503,15 +8541,15 @@
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B232">
         <f t="shared" si="29"/>
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C232" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-53</v>
+        <v>23-24</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
@@ -8519,15 +8557,15 @@
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B233">
         <f t="shared" si="29"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C233" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-54</v>
+        <v>23-25</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
@@ -8535,15 +8573,15 @@
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B234">
         <f t="shared" si="29"/>
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C234" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-55</v>
+        <v>23-26</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
@@ -8551,15 +8589,15 @@
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B235">
         <f t="shared" si="29"/>
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C235" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-56</v>
+        <v>23-27</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
@@ -8567,15 +8605,15 @@
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B236">
         <f t="shared" si="29"/>
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C236" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-57</v>
+        <v>23-28</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
@@ -8583,15 +8621,15 @@
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B237">
         <f t="shared" si="29"/>
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C237" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-58</v>
+        <v>23-29</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
@@ -8599,15 +8637,15 @@
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B238">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C238" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-59</v>
+        <v>23-30</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
@@ -8615,15 +8653,15 @@
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B239">
         <f t="shared" si="29"/>
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C239" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-60</v>
+        <v>23-31</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
@@ -8631,15 +8669,15 @@
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B240">
         <f t="shared" si="29"/>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C240" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-61</v>
+        <v>23-32</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
@@ -8647,15 +8685,15 @@
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B241">
         <f t="shared" si="29"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C241" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-62</v>
+        <v>23-33</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
@@ -8663,15 +8701,15 @@
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B242">
         <f t="shared" si="29"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C242" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-63</v>
+        <v>23-34</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
@@ -8679,15 +8717,15 @@
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B243">
         <f t="shared" si="29"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C243" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-64</v>
+        <v>23-35</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -8695,15 +8733,15 @@
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B244">
         <f t="shared" si="29"/>
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C244" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-65</v>
+        <v>23-36</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
@@ -8711,15 +8749,15 @@
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B245">
         <f t="shared" si="29"/>
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C245" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-66</v>
+        <v>23-37</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
@@ -8727,15 +8765,15 @@
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B246">
         <f t="shared" si="29"/>
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C246" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-67</v>
+        <v>23-38</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
@@ -8743,15 +8781,15 @@
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B247">
         <f t="shared" si="29"/>
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C247" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-68</v>
+        <v>23-39</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
@@ -8759,15 +8797,15 @@
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B248">
         <f t="shared" si="29"/>
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C248" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-69</v>
+        <v>23-40</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
@@ -8775,15 +8813,15 @@
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B249">
         <f t="shared" si="29"/>
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C249" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-70</v>
+        <v>23-41</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
@@ -8791,15 +8829,15 @@
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B250">
         <f t="shared" si="29"/>
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C250" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-71</v>
+        <v>23-42</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -8807,15 +8845,15 @@
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B251">
         <f t="shared" si="29"/>
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C251" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-72</v>
+        <v>23-43</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
@@ -8823,15 +8861,15 @@
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B252">
         <f t="shared" si="29"/>
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C252" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-73</v>
+        <v>23-44</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
@@ -8839,15 +8877,15 @@
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B253">
         <f t="shared" si="29"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C253" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-74</v>
+        <v>23-45</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
@@ -8855,15 +8893,15 @@
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B254">
         <f t="shared" si="29"/>
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C254" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-75</v>
+        <v>23-46</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
@@ -8871,15 +8909,15 @@
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B255">
         <f t="shared" si="29"/>
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C255" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-76</v>
+        <v>23-47</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
@@ -8887,15 +8925,15 @@
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B256">
         <f t="shared" si="29"/>
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C256" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-77</v>
+        <v>23-48</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
@@ -8903,15 +8941,15 @@
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B257">
         <f t="shared" si="29"/>
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C257" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-78</v>
+        <v>23-49</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -8919,15 +8957,15 @@
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B258">
         <f t="shared" si="29"/>
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C258" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-79</v>
+        <v>23-50</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
@@ -8935,15 +8973,15 @@
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B259">
         <f t="shared" si="29"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C259" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-80</v>
+        <v>23-51</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
@@ -8951,15 +8989,15 @@
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B260">
         <f t="shared" si="29"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C260" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-81</v>
+        <v>23-52</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
@@ -8967,15 +9005,15 @@
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B261">
         <f t="shared" si="29"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C261" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-82</v>
+        <v>23-53</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
@@ -8983,15 +9021,15 @@
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B262">
         <f t="shared" si="29"/>
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="C262" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-83</v>
+        <v>23-54</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -8999,15 +9037,15 @@
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B263">
         <f t="shared" si="29"/>
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C263" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-84</v>
+        <v>23-55</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -9015,15 +9053,15 @@
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B264">
         <f t="shared" si="29"/>
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C264" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-85</v>
+        <v>23-56</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
@@ -9031,15 +9069,15 @@
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B265">
         <f t="shared" si="29"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C265" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-86</v>
+        <v>23-57</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
@@ -9047,15 +9085,15 @@
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B266">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C266" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-87</v>
+        <v>23-58</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -9063,15 +9101,15 @@
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B267">
         <f t="shared" si="29"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C267" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-88</v>
+        <v>23-59</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
@@ -9079,15 +9117,15 @@
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B268">
         <f t="shared" si="29"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C268" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-89</v>
+        <v>23-60</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
@@ -9095,15 +9133,15 @@
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B269">
         <f t="shared" si="29"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C269" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-90</v>
+        <v>23-61</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -9111,15 +9149,15 @@
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B270">
         <f t="shared" si="29"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C270" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-91</v>
+        <v>23-62</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
@@ -9127,15 +9165,15 @@
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B271">
         <f t="shared" si="29"/>
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C271" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-92</v>
+        <v>23-63</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
@@ -9143,15 +9181,15 @@
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B272">
         <f t="shared" si="29"/>
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C272" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-93</v>
+        <v>23-64</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -9159,15 +9197,15 @@
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B273">
         <f t="shared" si="29"/>
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C273" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-94</v>
+        <v>23-65</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
@@ -9175,15 +9213,15 @@
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B274">
         <f t="shared" si="29"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C274" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-95</v>
+        <v>23-66</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
@@ -9191,15 +9229,15 @@
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B275">
         <f t="shared" si="29"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C275" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-96</v>
+        <v>23-67</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
@@ -9207,15 +9245,15 @@
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B276">
         <f t="shared" si="29"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C276" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-97</v>
+        <v>23-68</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
@@ -9223,15 +9261,15 @@
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B277">
         <f t="shared" si="29"/>
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C277" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-98</v>
+        <v>23-69</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
@@ -9239,15 +9277,15 @@
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B278">
         <f t="shared" si="29"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C278" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-99</v>
+        <v>23-70</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -9255,15 +9293,15 @@
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B279">
         <f t="shared" si="29"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C279" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>22-100</v>
+        <v>23-71</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
@@ -9271,15 +9309,15 @@
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
         <f t="shared" si="31"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B280">
         <f t="shared" ref="B280:B343" si="32">IF(A280=A279,B279+1,1)</f>
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C280" s="3" t="str">
         <f t="shared" ref="C280:C343" si="33">CONCATENATE(A280,"-",B280)</f>
-        <v>22-101</v>
+        <v>23-72</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
@@ -9287,15 +9325,15 @@
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
         <f t="shared" ref="A281:A344" si="34">A280</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B281">
         <f t="shared" si="32"/>
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C281" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-102</v>
+        <v>23-73</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
@@ -9303,15 +9341,15 @@
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B282">
         <f t="shared" si="32"/>
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C282" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-103</v>
+        <v>23-74</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
@@ -9319,15 +9357,15 @@
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B283">
         <f t="shared" si="32"/>
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C283" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-104</v>
+        <v>23-75</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
@@ -9335,15 +9373,15 @@
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B284">
         <f t="shared" si="32"/>
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C284" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-105</v>
+        <v>23-76</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
@@ -9351,15 +9389,15 @@
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B285">
         <f t="shared" si="32"/>
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C285" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-106</v>
+        <v>23-77</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -9367,15 +9405,15 @@
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B286">
         <f t="shared" si="32"/>
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C286" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-107</v>
+        <v>23-78</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
@@ -9383,15 +9421,15 @@
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B287">
         <f t="shared" si="32"/>
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C287" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-108</v>
+        <v>23-79</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
@@ -9399,15 +9437,15 @@
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B288">
         <f t="shared" si="32"/>
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C288" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-109</v>
+        <v>23-80</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
@@ -9415,15 +9453,15 @@
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B289">
         <f t="shared" si="32"/>
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C289" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-110</v>
+        <v>23-81</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
@@ -9431,15 +9469,15 @@
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B290">
         <f t="shared" si="32"/>
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C290" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-111</v>
+        <v>23-82</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
@@ -9447,15 +9485,15 @@
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B291">
         <f t="shared" si="32"/>
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C291" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-112</v>
+        <v>23-83</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
@@ -9463,15 +9501,15 @@
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B292">
         <f t="shared" si="32"/>
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C292" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-113</v>
+        <v>23-84</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -9479,15 +9517,15 @@
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B293">
         <f t="shared" si="32"/>
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C293" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-114</v>
+        <v>23-85</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
@@ -9495,15 +9533,15 @@
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B294">
         <f t="shared" si="32"/>
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C294" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-115</v>
+        <v>23-86</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
@@ -9511,15 +9549,15 @@
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B295">
         <f t="shared" si="32"/>
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C295" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-116</v>
+        <v>23-87</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -9527,15 +9565,15 @@
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B296">
         <f t="shared" si="32"/>
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C296" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-117</v>
+        <v>23-88</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
@@ -9543,15 +9581,15 @@
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B297">
         <f t="shared" si="32"/>
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C297" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-118</v>
+        <v>23-89</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
@@ -9559,15 +9597,15 @@
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B298">
         <f t="shared" si="32"/>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C298" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-119</v>
+        <v>23-90</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -9575,15 +9613,15 @@
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B299">
         <f t="shared" si="32"/>
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C299" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-120</v>
+        <v>23-91</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
@@ -9591,15 +9629,15 @@
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B300">
         <f t="shared" si="32"/>
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C300" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-121</v>
+        <v>23-92</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
@@ -9607,15 +9645,15 @@
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B301">
         <f t="shared" si="32"/>
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C301" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-122</v>
+        <v>23-93</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
@@ -9623,15 +9661,15 @@
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B302">
         <f t="shared" si="32"/>
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C302" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-123</v>
+        <v>23-94</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
@@ -9639,15 +9677,15 @@
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B303">
         <f t="shared" si="32"/>
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C303" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-124</v>
+        <v>23-95</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
@@ -9655,15 +9693,15 @@
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B304">
         <f t="shared" si="32"/>
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C304" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-125</v>
+        <v>23-96</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
@@ -9671,15 +9709,15 @@
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B305">
         <f t="shared" si="32"/>
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C305" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-126</v>
+        <v>23-97</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
@@ -9687,15 +9725,15 @@
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B306">
         <f t="shared" si="32"/>
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C306" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-127</v>
+        <v>23-98</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
@@ -9703,15 +9741,15 @@
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B307">
         <f t="shared" si="32"/>
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C307" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-128</v>
+        <v>23-99</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
@@ -9719,15 +9757,15 @@
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B308">
         <f t="shared" si="32"/>
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C308" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-129</v>
+        <v>23-100</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
@@ -9735,15 +9773,15 @@
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B309">
         <f t="shared" si="32"/>
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C309" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-130</v>
+        <v>23-101</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
@@ -9751,15 +9789,15 @@
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B310">
         <f t="shared" si="32"/>
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C310" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-131</v>
+        <v>23-102</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
@@ -9767,15 +9805,15 @@
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B311">
         <f t="shared" si="32"/>
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C311" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-132</v>
+        <v>23-103</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
@@ -9783,15 +9821,15 @@
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B312">
         <f t="shared" si="32"/>
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C312" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-133</v>
+        <v>23-104</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
@@ -9799,15 +9837,15 @@
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B313">
         <f t="shared" si="32"/>
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C313" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-134</v>
+        <v>23-105</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
@@ -9815,15 +9853,15 @@
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B314">
         <f t="shared" si="32"/>
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C314" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-135</v>
+        <v>23-106</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -9831,15 +9869,15 @@
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B315">
         <f t="shared" si="32"/>
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C315" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-136</v>
+        <v>23-107</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
@@ -9847,15 +9885,15 @@
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B316">
         <f t="shared" si="32"/>
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C316" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-137</v>
+        <v>23-108</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
@@ -9863,15 +9901,15 @@
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B317">
         <f t="shared" si="32"/>
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C317" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-138</v>
+        <v>23-109</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
@@ -9879,15 +9917,15 @@
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B318">
         <f t="shared" si="32"/>
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C318" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-139</v>
+        <v>23-110</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
@@ -9895,15 +9933,15 @@
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B319">
         <f t="shared" si="32"/>
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C319" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-140</v>
+        <v>23-111</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
@@ -9911,15 +9949,15 @@
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B320">
         <f t="shared" si="32"/>
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C320" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-141</v>
+        <v>23-112</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
@@ -9927,15 +9965,15 @@
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B321">
         <f t="shared" si="32"/>
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C321" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-142</v>
+        <v>23-113</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
@@ -9943,15 +9981,15 @@
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B322">
         <f t="shared" si="32"/>
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C322" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-143</v>
+        <v>23-114</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
@@ -9959,15 +9997,15 @@
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B323">
         <f t="shared" si="32"/>
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C323" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-144</v>
+        <v>23-115</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
@@ -9975,15 +10013,15 @@
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B324">
         <f t="shared" si="32"/>
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C324" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-145</v>
+        <v>23-116</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
@@ -9991,15 +10029,15 @@
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B325">
         <f t="shared" si="32"/>
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C325" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-146</v>
+        <v>23-117</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
@@ -10007,15 +10045,15 @@
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B326">
         <f t="shared" si="32"/>
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C326" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-147</v>
+        <v>23-118</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
@@ -10023,15 +10061,15 @@
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B327">
         <f t="shared" si="32"/>
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C327" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-148</v>
+        <v>23-119</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
@@ -10039,15 +10077,15 @@
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B328">
         <f t="shared" si="32"/>
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C328" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-149</v>
+        <v>23-120</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
@@ -10055,15 +10093,15 @@
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B329">
         <f t="shared" si="32"/>
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="C329" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-150</v>
+        <v>23-121</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
@@ -10071,15 +10109,15 @@
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B330">
         <f t="shared" si="32"/>
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C330" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-151</v>
+        <v>23-122</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -10087,15 +10125,15 @@
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B331">
         <f t="shared" si="32"/>
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C331" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-152</v>
+        <v>23-123</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
@@ -10103,15 +10141,15 @@
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B332">
         <f t="shared" si="32"/>
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C332" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-153</v>
+        <v>23-124</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
@@ -10119,15 +10157,15 @@
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B333">
         <f t="shared" si="32"/>
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C333" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-154</v>
+        <v>23-125</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
@@ -10135,15 +10173,15 @@
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B334">
         <f t="shared" si="32"/>
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C334" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-155</v>
+        <v>23-126</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
@@ -10151,15 +10189,15 @@
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B335">
         <f t="shared" si="32"/>
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C335" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-156</v>
+        <v>23-127</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
@@ -10167,15 +10205,15 @@
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B336">
         <f t="shared" si="32"/>
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C336" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-157</v>
+        <v>23-128</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
@@ -10183,15 +10221,15 @@
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B337">
         <f t="shared" si="32"/>
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C337" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-158</v>
+        <v>23-129</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
@@ -10199,15 +10237,15 @@
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B338">
         <f t="shared" si="32"/>
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C338" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-159</v>
+        <v>23-130</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
@@ -10215,15 +10253,15 @@
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B339">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C339" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-160</v>
+        <v>23-131</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
@@ -10231,15 +10269,15 @@
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B340">
         <f t="shared" si="32"/>
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="C340" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-161</v>
+        <v>23-132</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
@@ -10247,15 +10285,15 @@
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B341">
         <f t="shared" si="32"/>
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C341" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-162</v>
+        <v>23-133</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
@@ -10263,15 +10301,15 @@
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B342">
         <f t="shared" si="32"/>
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="C342" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-163</v>
+        <v>23-134</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
@@ -10279,15 +10317,15 @@
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B343">
         <f t="shared" si="32"/>
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C343" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>22-164</v>
+        <v>23-135</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
@@ -10295,15 +10333,15 @@
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
         <f t="shared" si="34"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B344">
         <f t="shared" ref="B344:B365" si="35">IF(A344=A343,B343+1,1)</f>
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C344" s="3" t="str">
         <f t="shared" ref="C344:C365" si="36">CONCATENATE(A344,"-",B344)</f>
-        <v>22-165</v>
+        <v>23-136</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
@@ -10311,15 +10349,15 @@
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
         <f t="shared" ref="A345:A365" si="37">A344</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B345">
         <f t="shared" si="35"/>
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C345" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-166</v>
+        <v>23-137</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
@@ -10327,15 +10365,15 @@
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B346">
         <f t="shared" si="35"/>
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C346" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-167</v>
+        <v>23-138</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
@@ -10343,15 +10381,15 @@
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B347">
         <f t="shared" si="35"/>
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C347" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-168</v>
+        <v>23-139</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
@@ -10359,15 +10397,15 @@
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B348">
         <f t="shared" si="35"/>
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C348" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-169</v>
+        <v>23-140</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
@@ -10375,15 +10413,15 @@
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B349">
         <f t="shared" si="35"/>
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C349" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-170</v>
+        <v>23-141</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
@@ -10391,15 +10429,15 @@
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B350">
         <f t="shared" si="35"/>
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C350" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-171</v>
+        <v>23-142</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
@@ -10407,15 +10445,15 @@
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B351">
         <f t="shared" si="35"/>
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C351" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-172</v>
+        <v>23-143</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
@@ -10423,15 +10461,15 @@
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B352">
         <f t="shared" si="35"/>
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C352" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-173</v>
+        <v>23-144</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
@@ -10439,15 +10477,15 @@
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B353">
         <f t="shared" si="35"/>
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C353" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-174</v>
+        <v>23-145</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
@@ -10455,15 +10493,15 @@
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B354">
         <f t="shared" si="35"/>
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C354" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-175</v>
+        <v>23-146</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
@@ -10471,15 +10509,15 @@
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B355">
         <f t="shared" si="35"/>
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C355" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-176</v>
+        <v>23-147</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
@@ -10487,15 +10525,15 @@
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B356">
         <f t="shared" si="35"/>
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C356" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-177</v>
+        <v>23-148</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
@@ -10503,15 +10541,15 @@
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B357">
         <f t="shared" si="35"/>
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C357" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-178</v>
+        <v>23-149</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
@@ -10519,15 +10557,15 @@
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B358">
         <f t="shared" si="35"/>
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C358" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-179</v>
+        <v>23-150</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
@@ -10535,15 +10573,15 @@
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B359">
         <f t="shared" si="35"/>
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C359" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-180</v>
+        <v>23-151</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
@@ -10551,15 +10589,15 @@
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B360">
         <f t="shared" si="35"/>
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C360" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-181</v>
+        <v>23-152</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
@@ -10567,15 +10605,15 @@
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B361">
         <f t="shared" si="35"/>
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C361" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-182</v>
+        <v>23-153</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
@@ -10583,15 +10621,15 @@
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B362">
         <f t="shared" si="35"/>
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C362" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-183</v>
+        <v>23-154</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
@@ -10599,15 +10637,15 @@
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B363">
         <f t="shared" si="35"/>
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C363" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-184</v>
+        <v>23-155</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
@@ -10615,15 +10653,15 @@
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B364">
         <f t="shared" si="35"/>
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="C364" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-185</v>
+        <v>23-156</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
@@ -10631,15 +10669,15 @@
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
         <f t="shared" si="37"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B365">
         <f t="shared" si="35"/>
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C365" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>22-186</v>
+        <v>23-157</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
@@ -13397,17 +13435,17 @@
     <mergeCell ref="L174:L177"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K185">
-    <cfRule type="containsBlanks" dxfId="56" priority="58">
+    <cfRule type="containsBlanks" dxfId="53" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K185">
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K185">
-    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="267">
   <si>
     <t>Test Number</t>
   </si>
@@ -803,13 +803,28 @@
   </si>
   <si>
     <t>Can switch to a custom instrument not on the list</t>
+  </si>
+  <si>
+    <t>Experiment Setup, Periods: content of "Period Settings" group changes appropriately depending on "Period Type" Selection</t>
+  </si>
+  <si>
+    <t>Experiment Setup, Periods: (only applicable for hardware period types) window shows appropriate controls depending on selected period source</t>
+  </si>
+  <si>
+    <t>Software: can only r/w number of software periods;  Hardware Internal: Hardware period sequences, delay and period source; Hardware External: like hardware internal but with period sequences and frames parameter disabled</t>
+  </si>
+  <si>
+    <t>"Specify Parameters" shows table with parameters, "Read from file" shows file selection drop down menu.</t>
+  </si>
+  <si>
+    <t>Run Summary Tab: Log message table only shows messages with a severity equal or higher than the filter value specified in the drop down menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -843,6 +858,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -969,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1013,11 +1041,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1042,6 +1065,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2100,11 +2143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1052"/>
+  <dimension ref="A1:N1055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H208" sqref="H208"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2197,11 +2240,11 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B68" si="0">IF(A3=A2,B2+1,1)</f>
+        <f t="shared" ref="B3:B71" si="0">IF(A3=A2,B2+1,1)</f>
         <v>2</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f t="shared" ref="C3:C68" si="1">CONCATENATE(A3,"-",B3)</f>
+        <f t="shared" ref="C3:C71" si="1">CONCATENATE(A3,"-",B3)</f>
         <v>1-2</v>
       </c>
       <c r="D3" s="5"/>
@@ -2221,7 +2264,7 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4">
-        <f t="shared" ref="A4:A69" si="2">A3</f>
+        <f t="shared" ref="A4:A72" si="2">A3</f>
         <v>1</v>
       </c>
       <c r="B4">
@@ -3261,65 +3304,64 @@
       <c r="L40" s="8"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="39">
+    <row r="41" spans="1:13" ht="60">
       <c r="A41">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>IF(A41=A40,B40+1,1)</f>
         <v>13</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A41,"-",B41)</f>
         <v>6-13</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="12"/>
+      <c r="I41" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="45">
-      <c r="A42">
-        <f t="shared" si="2"/>
+    <row r="42" spans="1:13" s="35" customFormat="1" ht="45">
+      <c r="A42" s="35">
+        <f>A40</f>
         <v>6</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
+      <c r="B42" s="35">
+        <f>IF(A42=A41,B41+1,1)</f>
         <v>14</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="34" t="str">
         <f t="shared" si="1"/>
         <v>6-14</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="6"/>
+      <c r="I42" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="39"/>
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43">
@@ -3340,11 +3382,11 @@
       <c r="G43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="7"/>
@@ -3370,18 +3412,18 @@
       <c r="G44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="7"/>
       <c r="L44" s="8"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="30">
+    <row r="45" spans="1:13" ht="45">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3400,18 +3442,18 @@
       <c r="G45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="7"/>
       <c r="L45" s="8"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="45">
+    <row r="46" spans="1:13" ht="30">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3430,132 +3472,136 @@
       <c r="G46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="7"/>
       <c r="L46" s="8"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="15">
+    <row r="47" spans="1:13" ht="45">
       <c r="A47">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7-1</v>
+        <v>6-19</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="8"/>
       <c r="K47" s="7"/>
       <c r="L47" s="8"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="15">
+    <row r="48" spans="1:13" ht="90">
       <c r="A48">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>A47</f>
+        <v>6</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>7-2</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
+        <f>IF(A48=A47,B47+1,1)</f>
+        <v>20</v>
+      </c>
+      <c r="C48" s="40" t="str">
+        <f>CONCATENATE(A48,"-",B48)</f>
+        <v>6-20</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K48" s="9"/>
       <c r="L48" s="8"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:13" ht="60">
       <c r="A49">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>A48</f>
+        <v>6</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>IF(A49=A48,B48+1,1)</f>
+        <v>21</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>7-3</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="7"/>
+        <f>CONCATENATE(A49,"-",B49)</f>
+        <v>6-21</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K49" s="9"/>
       <c r="L49" s="8"/>
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" ht="15">
       <c r="A50">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>IF(A50=A47,B47+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7-4</v>
+        <v>7-1</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J50" s="8"/>
+      <c r="I50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="9"/>
       <c r="K50" s="7"/>
       <c r="L50" s="8"/>
       <c r="M50" s="6"/>
@@ -3567,53 +3613,53 @@
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7-5</v>
+        <v>7-2</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="7"/>
       <c r="L51" s="8"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" ht="30">
+    <row r="52" spans="1:13" ht="15">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>7-6</v>
+        <v>7-3</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="7"/>
@@ -3622,15 +3668,16 @@
     </row>
     <row r="53" spans="1:13" ht="15">
       <c r="A53">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-1</v>
+        <v>7-4</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3639,10 +3686,10 @@
         <v>65</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="7"/>
@@ -3652,57 +3699,57 @@
     <row r="54" spans="1:13" ht="15">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-2</v>
+        <v>7-5</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" ht="15">
+    <row r="55" spans="1:13" ht="30">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-3</v>
+        <v>7-6</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J55" s="8"/>
       <c r="K55" s="7"/>
@@ -3711,16 +3758,15 @@
     </row>
     <row r="56" spans="1:13" ht="15">
       <c r="A56">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-4</v>
+        <v>8-1</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3732,11 +3778,11 @@
         <v>73</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="8"/>
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="1:13" ht="15">
@@ -3746,11 +3792,11 @@
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-5</v>
+        <v>8-2</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3762,11 +3808,11 @@
         <v>73</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="1:13" ht="15">
@@ -3776,11 +3822,11 @@
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-6</v>
+        <v>8-3</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3792,7 +3838,7 @@
         <v>73</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="7"/>
@@ -3806,11 +3852,11 @@
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-7</v>
+        <v>8-4</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3822,7 +3868,7 @@
         <v>73</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="7"/>
@@ -3836,11 +3882,11 @@
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-8</v>
+        <v>8-5</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3852,11 +3898,11 @@
         <v>73</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J60" s="8"/>
       <c r="K60" s="7"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="8"/>
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="15">
@@ -3866,11 +3912,11 @@
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-9</v>
+        <v>8-6</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3882,7 +3928,7 @@
         <v>73</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="7"/>
@@ -3896,11 +3942,11 @@
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>8-10</v>
+        <v>8-7</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3912,7 +3958,7 @@
         <v>73</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="7"/>
@@ -3925,210 +3971,217 @@
         <v>8</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63" si="3">IF(A63=A62,B62+1,1)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f t="shared" ref="C63" si="4">CONCATENATE(A63,"-",B63)</f>
-        <v>8-11</v>
-      </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
+        <f t="shared" si="1"/>
+        <v>8-8</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="8" t="s">
-        <v>82</v>
+      <c r="I63" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="8"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="1"/>
       <c r="M63" s="6"/>
     </row>
-    <row r="64" spans="1:13" ht="30">
+    <row r="64" spans="1:13" ht="15">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B65" si="5">IF(A64=A63,B63+1,1)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f t="shared" ref="C64:C65" si="6">CONCATENATE(A64,"-",B64)</f>
-        <v>8-12</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G64" s="9" t="s">
+        <f t="shared" si="1"/>
+        <v>8-9</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="K64" s="9"/>
+      <c r="I64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" s="8"/>
+      <c r="K64" s="7"/>
       <c r="L64" s="8"/>
       <c r="M64" s="6"/>
     </row>
-    <row r="65" spans="1:13" ht="60">
+    <row r="65" spans="1:13" ht="15">
       <c r="A65">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v>8-13</v>
-      </c>
-      <c r="D65" s="9">
-        <v>1521</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="H65" s="9" t="s">
+        <f t="shared" si="1"/>
+        <v>8-10</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="K65" s="9"/>
-      <c r="L65" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="I65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="1"/>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" ht="30">
+    <row r="66" spans="1:13" ht="15">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" ref="B66" si="3">IF(A66=A65,B65+1,1)</f>
+        <v>11</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>8-14</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>86</v>
+        <f t="shared" ref="C66" si="4">CONCATENATE(A66,"-",B66)</f>
+        <v>8-11</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J66" s="8"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="9"/>
       <c r="L66" s="8"/>
       <c r="M66" s="6"/>
     </row>
-    <row r="67" spans="1:13" ht="15">
+    <row r="67" spans="1:13" ht="30">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" ref="B67:B68" si="5">IF(A67=A66,B66+1,1)</f>
+        <v>12</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>8-15</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="7"/>
+        <f t="shared" ref="C67:C68" si="6">CONCATENATE(A67,"-",B67)</f>
+        <v>8-12</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K67" s="9"/>
       <c r="L67" s="8"/>
       <c r="M67" s="6"/>
     </row>
-    <row r="68" spans="1:13" ht="15">
+    <row r="68" spans="1:13" ht="60">
       <c r="A68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>10-1</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+        <f t="shared" si="6"/>
+        <v>8-13</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1521</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="M68" s="6"/>
     </row>
-    <row r="69" spans="1:13" ht="15">
+    <row r="69" spans="1:13" ht="30">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B134" si="7">IF(A69=A68,B68+1,1)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f t="shared" ref="C69:C134" si="8">CONCATENATE(A69,"-",B69)</f>
-        <v>10-2</v>
+        <f t="shared" si="1"/>
+        <v>8-14</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="H69" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="7"/>
@@ -4137,26 +4190,26 @@
     </row>
     <row r="70" spans="1:13" ht="15">
       <c r="A70">
-        <f t="shared" ref="A70:A135" si="9">A69</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="B70">
-        <f t="shared" si="7"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>10-3</v>
+        <f t="shared" si="1"/>
+        <v>8-15</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="7"/>
@@ -4165,16 +4218,15 @@
     </row>
     <row r="71" spans="1:13" ht="15">
       <c r="A71">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="B71">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>10-4</v>
+        <f t="shared" si="1"/>
+        <v>10-1</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -4184,7 +4236,7 @@
         <v>88</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="7"/>
@@ -4193,53 +4245,54 @@
     </row>
     <row r="72" spans="1:13" ht="15">
       <c r="A72">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="B72">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" ref="B72:B137" si="7">IF(A72=A71,B71+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>11-1</v>
+        <f t="shared" ref="C72:C137" si="8">CONCATENATE(A72,"-",B72)</f>
+        <v>10-2</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="7"/>
       <c r="L72" s="8"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="30">
+    <row r="73" spans="1:13" ht="15">
       <c r="A73">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" ref="A73:A138" si="9">A72</f>
+        <v>10</v>
       </c>
       <c r="B73">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11-2</v>
+        <v>10-3</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="7"/>
@@ -4249,45 +4302,42 @@
     <row r="74" spans="1:13" ht="15">
       <c r="A74">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11-3</v>
+        <v>10-4</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>219</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J74" s="8"/>
       <c r="K74" s="7"/>
       <c r="L74" s="8"/>
       <c r="M74" s="6"/>
     </row>
     <row r="75" spans="1:13" ht="15">
       <c r="A75">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11-4</v>
+        <v>11-1</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -4297,13 +4347,11 @@
         <v>92</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J75" s="8"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="1"/>
+      <c r="L75" s="8"/>
       <c r="M75" s="6"/>
     </row>
     <row r="76" spans="1:13" ht="30">
@@ -4313,184 +4361,188 @@
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>11-5</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
+        <v>11-2</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="K76" s="9"/>
+      <c r="I76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" s="8"/>
+      <c r="K76" s="7"/>
       <c r="L76" s="8"/>
       <c r="M76" s="6"/>
     </row>
     <row r="77" spans="1:13" ht="15">
       <c r="A77">
-        <f t="shared" ref="A77:A80" si="10">A76</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:B80" si="11">IF(A77=A76,B76+1,1)</f>
-        <v>6</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>11-3</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="8" t="s">
-        <v>226</v>
+      <c r="I77" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="K77" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="K77" s="7"/>
       <c r="L77" s="8"/>
       <c r="M77" s="6"/>
     </row>
     <row r="78" spans="1:13" ht="15">
       <c r="A78">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>11-4</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:13" ht="30">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="C79" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>11-5</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:13" ht="15">
+      <c r="A80">
+        <f t="shared" ref="A80:A83" si="10">A79</f>
+        <v>11</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80:B83" si="11">IF(A80=A79,B79+1,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="1:13" ht="15">
+      <c r="A81">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B78">
+      <c r="B81">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C81" s="3" t="str">
         <f t="shared" si="8"/>
         <v>11-7</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J81" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="K78" s="9"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="6"/>
-    </row>
-    <row r="79" spans="1:13" ht="15">
-      <c r="A79">
+      <c r="K81" s="9"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="1:13" ht="15">
+      <c r="A82">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B79">
+      <c r="B82">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C82" s="3" t="str">
         <f t="shared" si="8"/>
         <v>11-8</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J79" s="8"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="6"/>
-    </row>
-    <row r="80" spans="1:13" ht="15">
-      <c r="A80">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="C80" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>11-9</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="6"/>
-    </row>
-    <row r="81" spans="1:13" ht="30">
-      <c r="A81">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="C81" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>11-10</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="6"/>
-    </row>
-    <row r="82" spans="1:13" ht="30">
-      <c r="A82">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="C82" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>11-11</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -4500,7 +4552,7 @@
         <v>92</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="7"/>
@@ -4509,81 +4561,82 @@
     </row>
     <row r="83" spans="1:13" ht="15">
       <c r="A83">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="B83">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="C83" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-1</v>
+        <v>11-9</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="7"/>
       <c r="L83" s="8"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1">
+    <row r="84" spans="1:13" ht="30">
       <c r="A84">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-2</v>
+        <v>11-10</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="7"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" ht="15">
+      <c r="L84" s="8"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="1:13" ht="30">
       <c r="A85">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C85" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-3</v>
+        <v>11-11</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
@@ -4592,177 +4645,174 @@
     </row>
     <row r="86" spans="1:13" ht="15">
       <c r="A86">
-        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-4</v>
+        <v>12-1</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="7"/>
       <c r="L86" s="8"/>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="30">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1">
       <c r="A87">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-5</v>
+        <v>12-2</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="7"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="6"/>
-    </row>
-    <row r="88" spans="1:13" ht="45">
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" ht="15">
       <c r="A88">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>12-6</v>
+        <v>12-3</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J88" s="8"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="8"/>
       <c r="M88" s="6"/>
     </row>
     <row r="89" spans="1:13" ht="15">
       <c r="A89">
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>13-1</v>
+        <v>12-4</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="7"/>
       <c r="L89" s="8"/>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" ht="15">
+    <row r="90" spans="1:13" ht="30">
       <c r="A90">
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C90" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14-1</v>
+        <v>12-5</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="G90" s="7"/>
       <c r="H90" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J90" s="8"/>
       <c r="K90" s="7"/>
-      <c r="L90" s="8"/>
+      <c r="L90" s="1"/>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13" ht="30">
+    <row r="91" spans="1:13" ht="45">
       <c r="A91">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>14-2</v>
+        <v>12-6</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="G91" s="7"/>
       <c r="H91" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J91" s="8"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="8"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13" ht="30">
+    <row r="92" spans="1:13" ht="15">
       <c r="A92">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
@@ -4770,45 +4820,46 @@
       </c>
       <c r="C92" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-1</v>
+        <v>13-1</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="7"/>
       <c r="L92" s="8"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13" ht="30">
+    <row r="93" spans="1:13" ht="15">
       <c r="A93">
-        <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-2</v>
+        <v>14-1</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H93" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="7"/>
@@ -4818,25 +4869,27 @@
     <row r="94" spans="1:13" ht="30">
       <c r="A94">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-3</v>
+        <v>14-2</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H94" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="7"/>
@@ -4845,16 +4898,15 @@
     </row>
     <row r="95" spans="1:13" ht="30">
       <c r="A95">
-        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B95">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-4</v>
+        <v>15-1</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4864,7 +4916,7 @@
         <v>111</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="7"/>
@@ -4878,11 +4930,11 @@
       </c>
       <c r="B96">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-5</v>
+        <v>15-2</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4892,7 +4944,7 @@
         <v>111</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="7"/>
@@ -4906,11 +4958,11 @@
       </c>
       <c r="B97">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-6</v>
+        <v>15-3</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4920,7 +4972,7 @@
         <v>111</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="7"/>
@@ -4934,11 +4986,11 @@
       </c>
       <c r="B98">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C98" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-7</v>
+        <v>15-4</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4948,7 +5000,7 @@
         <v>111</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="7"/>
@@ -4962,11 +5014,11 @@
       </c>
       <c r="B99">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-8</v>
+        <v>15-5</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4976,7 +5028,7 @@
         <v>111</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="7"/>
@@ -4990,11 +5042,11 @@
       </c>
       <c r="B100">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-9</v>
+        <v>15-6</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -5004,7 +5056,7 @@
         <v>111</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="7"/>
@@ -5018,11 +5070,11 @@
       </c>
       <c r="B101">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C101" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-10</v>
+        <v>15-7</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -5032,7 +5084,7 @@
         <v>111</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="7"/>
@@ -5046,11 +5098,11 @@
       </c>
       <c r="B102">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C102" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-11</v>
+        <v>15-8</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -5060,7 +5112,7 @@
         <v>111</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J102" s="8"/>
       <c r="K102" s="7"/>
@@ -5074,11 +5126,11 @@
       </c>
       <c r="B103">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-12</v>
+        <v>15-9</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -5088,7 +5140,7 @@
         <v>111</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="7"/>
@@ -5102,11 +5154,11 @@
       </c>
       <c r="B104">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C104" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-13</v>
+        <v>15-10</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -5116,11 +5168,11 @@
         <v>111</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="7"/>
-      <c r="L104" s="1"/>
+      <c r="L104" s="8"/>
       <c r="M104" s="6"/>
     </row>
     <row r="105" spans="1:13" ht="30">
@@ -5130,11 +5182,11 @@
       </c>
       <c r="B105">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C105" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-14</v>
+        <v>15-11</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -5144,7 +5196,7 @@
         <v>111</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J105" s="8"/>
       <c r="K105" s="7"/>
@@ -5158,11 +5210,11 @@
       </c>
       <c r="B106">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-15</v>
+        <v>15-12</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -5172,7 +5224,7 @@
         <v>111</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="7"/>
@@ -5186,11 +5238,11 @@
       </c>
       <c r="B107">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C107" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-16</v>
+        <v>15-13</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -5200,25 +5252,25 @@
         <v>111</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
+      <c r="L107" s="1"/>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13" ht="30">
       <c r="A108">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B108">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C108" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-17</v>
+        <v>15-14</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -5228,25 +5280,25 @@
         <v>111</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="7"/>
       <c r="L108" s="8"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13" ht="30">
       <c r="A109">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B109">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C109" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-18</v>
+        <v>15-15</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -5256,25 +5308,25 @@
         <v>111</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="7"/>
       <c r="L109" s="8"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13" ht="30">
       <c r="A110">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B110">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-19</v>
+        <v>15-16</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -5284,7 +5336,7 @@
         <v>111</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="7"/>
@@ -5298,11 +5350,11 @@
       </c>
       <c r="B111">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C111" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-20</v>
+        <v>15-17</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -5312,7 +5364,7 @@
         <v>111</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="7"/>
@@ -5326,11 +5378,11 @@
       </c>
       <c r="B112">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C112" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-21</v>
+        <v>15-18</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -5340,7 +5392,7 @@
         <v>111</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="7"/>
@@ -5354,11 +5406,11 @@
       </c>
       <c r="B113">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C113" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-22</v>
+        <v>15-19</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -5368,7 +5420,7 @@
         <v>111</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="7"/>
@@ -5382,11 +5434,11 @@
       </c>
       <c r="B114">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C114" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-23</v>
+        <v>15-20</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -5396,7 +5448,7 @@
         <v>111</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="7"/>
@@ -5410,11 +5462,11 @@
       </c>
       <c r="B115">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C115" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-24</v>
+        <v>15-21</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -5424,7 +5476,7 @@
         <v>111</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="7"/>
@@ -5438,11 +5490,11 @@
       </c>
       <c r="B116">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C116" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-25</v>
+        <v>15-22</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -5452,7 +5504,7 @@
         <v>111</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="7"/>
@@ -5466,11 +5518,11 @@
       </c>
       <c r="B117">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C117" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-26</v>
+        <v>15-23</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -5480,7 +5532,7 @@
         <v>111</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="7"/>
@@ -5494,11 +5546,11 @@
       </c>
       <c r="B118">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C118" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-27</v>
+        <v>15-24</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -5508,7 +5560,7 @@
         <v>111</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="7"/>
@@ -5522,11 +5574,11 @@
       </c>
       <c r="B119">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C119" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-28</v>
+        <v>15-25</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -5536,7 +5588,7 @@
         <v>111</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="7"/>
@@ -5550,11 +5602,11 @@
       </c>
       <c r="B120">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C120" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-29</v>
+        <v>15-26</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5564,49 +5616,53 @@
         <v>111</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="7"/>
       <c r="L120" s="8"/>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" ht="30">
+    <row r="121" spans="1:13" ht="15">
       <c r="A121">
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B121">
-        <v>30</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="C121" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>15-27</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="I121" s="8" t="s">
-        <v>230</v>
+      <c r="I121" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J121" s="8"/>
-      <c r="K121" s="9"/>
+      <c r="K121" s="7"/>
       <c r="L121" s="8"/>
       <c r="M121" s="6"/>
     </row>
     <row r="122" spans="1:13" ht="15">
       <c r="A122">
-        <f>A120</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B122">
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="C122" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-31</v>
+        <v>15-28</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -5616,25 +5672,25 @@
         <v>111</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="7"/>
       <c r="L122" s="8"/>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="1:13" ht="30">
+    <row r="123" spans="1:13" ht="15">
       <c r="A123">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B123">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C123" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-32</v>
+        <v>15-29</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -5644,53 +5700,49 @@
         <v>111</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="7"/>
-      <c r="L123" s="1"/>
+      <c r="L123" s="8"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" ht="15">
+    <row r="124" spans="1:13" ht="30">
       <c r="A124">
-        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B124">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="C124" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>15-33</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>143</v>
+      <c r="I124" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="J124" s="8"/>
-      <c r="K124" s="7"/>
+      <c r="K124" s="9"/>
       <c r="L124" s="8"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" ht="30">
+    <row r="125" spans="1:13" ht="15">
       <c r="A125">
-        <f t="shared" si="9"/>
+        <f>A123</f>
         <v>15</v>
       </c>
       <c r="B125">
-        <f t="shared" si="7"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C125" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-34</v>
+        <v>15-31</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -5700,7 +5752,7 @@
         <v>111</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
@@ -5714,11 +5766,11 @@
       </c>
       <c r="B126">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C126" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-35</v>
+        <v>15-32</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -5728,11 +5780,11 @@
         <v>111</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="8"/>
+      <c r="L126" s="1"/>
       <c r="M126" s="6"/>
     </row>
     <row r="127" spans="1:13" ht="15">
@@ -5742,11 +5794,11 @@
       </c>
       <c r="B127">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C127" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-36</v>
+        <v>15-33</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -5756,25 +5808,25 @@
         <v>111</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
       <c r="L127" s="8"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" ht="15">
+    <row r="128" spans="1:13" ht="30">
       <c r="A128">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B128">
         <f t="shared" si="7"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C128" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-37</v>
+        <v>15-34</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5784,25 +5836,25 @@
         <v>111</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="8"/>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="1:13" ht="15">
+    <row r="129" spans="1:13" ht="30">
       <c r="A129">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B129">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C129" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-38</v>
+        <v>15-35</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -5812,7 +5864,7 @@
         <v>111</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
@@ -5826,11 +5878,11 @@
       </c>
       <c r="B130">
         <f t="shared" si="7"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C130" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-39</v>
+        <v>15-36</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -5840,7 +5892,7 @@
         <v>111</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
@@ -5854,11 +5906,11 @@
       </c>
       <c r="B131">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C131" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-40</v>
+        <v>15-37</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -5868,7 +5920,7 @@
         <v>111</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
@@ -5882,11 +5934,11 @@
       </c>
       <c r="B132">
         <f t="shared" si="7"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C132" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-41</v>
+        <v>15-38</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5896,7 +5948,7 @@
         <v>111</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="7"/>
@@ -5910,11 +5962,11 @@
       </c>
       <c r="B133">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C133" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-42</v>
+        <v>15-39</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5924,7 +5976,7 @@
         <v>111</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="7"/>
@@ -5938,11 +5990,11 @@
       </c>
       <c r="B134">
         <f t="shared" si="7"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C134" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>15-43</v>
+        <v>15-40</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -5952,7 +6004,7 @@
         <v>111</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="7"/>
@@ -5965,12 +6017,12 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <f t="shared" ref="B135:B215" si="12">IF(A135=A134,B134+1,1)</f>
-        <v>44</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" ref="C135:C215" si="13">CONCATENATE(A135,"-",B135)</f>
-        <v>15-44</v>
+        <f t="shared" si="8"/>
+        <v>15-41</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5980,7 +6032,7 @@
         <v>111</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="7"/>
@@ -5989,16 +6041,16 @@
     </row>
     <row r="136" spans="1:13" ht="15">
       <c r="A136">
-        <f t="shared" ref="A136:A216" si="14">A135</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B136">
-        <f t="shared" si="12"/>
-        <v>45</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>15-45</v>
+        <f t="shared" si="8"/>
+        <v>15-42</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -6008,7 +6060,7 @@
         <v>111</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="7"/>
@@ -6017,16 +6069,16 @@
     </row>
     <row r="137" spans="1:13" ht="15">
       <c r="A137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B137">
-        <f t="shared" si="12"/>
-        <v>46</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>15-46</v>
+        <f t="shared" si="8"/>
+        <v>15-43</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -6036,25 +6088,25 @@
         <v>111</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="7"/>
       <c r="L137" s="8"/>
       <c r="M137" s="6"/>
     </row>
-    <row r="138" spans="1:13" ht="120">
+    <row r="138" spans="1:13" ht="15">
       <c r="A138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B138">
-        <f t="shared" si="12"/>
-        <v>47</v>
+        <f t="shared" ref="B138:B218" si="12">IF(A138=A137,B137+1,1)</f>
+        <v>44</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v>15-47</v>
+        <f t="shared" ref="C138:C218" si="13">CONCATENATE(A138,"-",B138)</f>
+        <v>15-44</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -6064,25 +6116,25 @@
         <v>111</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="7"/>
-      <c r="L138" s="1"/>
+      <c r="L138" s="8"/>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" ht="30">
+    <row r="139" spans="1:13" ht="15">
       <c r="A139">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A139:A219" si="14">A138</f>
         <v>15</v>
       </c>
       <c r="B139">
         <f t="shared" si="12"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C139" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>15-48</v>
+        <v>15-45</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -6092,109 +6144,109 @@
         <v>111</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J139" s="8"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="16"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="8"/>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" ht="45">
+    <row r="140" spans="1:13" ht="15">
       <c r="A140">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B140">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C140" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>15-49</v>
+        <v>15-46</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7"/>
       <c r="L140" s="8"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="120">
       <c r="A141">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B141">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C141" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>15-50</v>
+        <v>15-47</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c r="H141" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="7"/>
       <c r="L141" s="1"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="1:13" ht="15">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B142">
         <f t="shared" si="12"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C142" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>15-51</v>
+        <v>15-48</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c r="H142" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J142" s="8"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="8"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="16"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="45">
       <c r="A143">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="B143">
         <f t="shared" si="12"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C143" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>15-52</v>
+        <v>15-49</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -6204,113 +6256,108 @@
         <v>159</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="7"/>
       <c r="L143" s="8"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="1:13" ht="15">
+    <row r="144" spans="1:13" ht="30">
       <c r="A144">
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="B144">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C144" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-1</v>
+        <v>15-50</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
+      <c r="L144" s="1"/>
       <c r="M144" s="6"/>
     </row>
     <row r="145" spans="1:13" ht="15">
       <c r="A145">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C145" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-2</v>
+        <v>15-51</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="7"/>
       <c r="L145" s="8"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" ht="15">
+    <row r="146" spans="1:13" ht="30">
       <c r="A146">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C146" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-3</v>
+        <v>15-52</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="7"/>
-      <c r="L146" s="11"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="6"/>
     </row>
     <row r="147" spans="1:13" ht="15">
       <c r="A147">
-        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B147">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C147" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-4</v>
+        <v>16-1</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -6322,7 +6369,7 @@
         <v>100</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="7"/>
@@ -6336,23 +6383,23 @@
       </c>
       <c r="B148">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C148" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-5</v>
+        <v>16-2</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7" t="s">
+      <c r="F148" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G148" s="7"/>
       <c r="H148" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J148" s="8"/>
       <c r="K148" s="7"/>
@@ -6366,28 +6413,27 @@
       </c>
       <c r="B149">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C149" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-6</v>
+        <v>16-3</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7" t="s">
+      <c r="F149" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="6"/>
+      <c r="L149" s="11"/>
     </row>
     <row r="150" spans="1:13" ht="15">
       <c r="A150">
@@ -6396,23 +6442,23 @@
       </c>
       <c r="B150">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C150" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-7</v>
+        <v>16-4</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7" t="s">
+      <c r="F150" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="7"/>
@@ -6426,11 +6472,11 @@
       </c>
       <c r="B151">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-8</v>
+        <v>16-5</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -6442,24 +6488,25 @@
         <v>100</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="7"/>
       <c r="L151" s="8"/>
-    </row>
-    <row r="152" spans="1:13" ht="30">
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="1:13" ht="15">
       <c r="A152">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B152">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C152" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-9</v>
+        <v>16-6</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -6471,25 +6518,25 @@
         <v>100</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="7"/>
-      <c r="L152" s="1"/>
+      <c r="L152" s="8"/>
       <c r="M152" s="6"/>
     </row>
-    <row r="153" spans="1:13" ht="45">
+    <row r="153" spans="1:13" ht="15">
       <c r="A153">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B153">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-10</v>
+        <v>16-7</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -6501,25 +6548,25 @@
         <v>100</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="7"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" ht="30">
+    <row r="154" spans="1:13" ht="15">
       <c r="A154">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B154">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C154" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-11</v>
+        <v>16-8</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6531,25 +6578,24 @@
         <v>100</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
-      <c r="M154" s="6"/>
-    </row>
-    <row r="155" spans="1:13" ht="45">
+    </row>
+    <row r="155" spans="1:13" ht="30">
       <c r="A155">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B155">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C155" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-12</v>
+        <v>16-9</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6561,11 +6607,11 @@
         <v>100</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="7"/>
-      <c r="L155" s="8"/>
+      <c r="L155" s="1"/>
       <c r="M155" s="6"/>
     </row>
     <row r="156" spans="1:13" ht="45">
@@ -6575,11 +6621,11 @@
       </c>
       <c r="B156">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C156" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-13</v>
+        <v>16-10</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6591,25 +6637,25 @@
         <v>100</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="7"/>
       <c r="L156" s="8"/>
       <c r="M156" s="6"/>
     </row>
-    <row r="157" spans="1:13" ht="60">
+    <row r="157" spans="1:13" ht="30">
       <c r="A157">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B157">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C157" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-14</v>
+        <v>16-11</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6621,25 +6667,25 @@
         <v>100</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="7"/>
       <c r="L157" s="8"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="15">
+    <row r="158" spans="1:13" ht="45">
       <c r="A158">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B158">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C158" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-15</v>
+        <v>16-12</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6651,25 +6697,25 @@
         <v>100</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" ht="15">
+    <row r="159" spans="1:13" ht="45">
       <c r="A159">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B159">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C159" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-16</v>
+        <v>16-13</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6681,85 +6727,85 @@
         <v>100</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="7"/>
       <c r="L159" s="8"/>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" ht="30">
+    <row r="160" spans="1:13" ht="60">
       <c r="A160">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B160">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C160" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-17</v>
+        <v>16-14</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="7"/>
+      <c r="G160" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G160" s="7"/>
       <c r="H160" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="7"/>
-      <c r="L160" s="1"/>
+      <c r="L160" s="8"/>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" ht="30">
+    <row r="161" spans="1:13" ht="15">
       <c r="A161">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B161">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C161" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-18</v>
+        <v>16-15</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>100</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" ht="30">
+    <row r="162" spans="1:13" ht="15">
       <c r="A162">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B162">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C162" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-19</v>
+        <v>16-16</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6768,10 +6814,10 @@
         <v>65</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="7"/>
@@ -6785,71 +6831,71 @@
       </c>
       <c r="B163">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C163" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-20</v>
+        <v>16-17</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7" t="s">
+      <c r="F163" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G163" s="7"/>
       <c r="H163" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
-      <c r="L163" s="8"/>
+      <c r="L163" s="1"/>
       <c r="M163" s="6"/>
     </row>
-    <row r="164" spans="1:13" ht="15">
+    <row r="164" spans="1:13" ht="30">
       <c r="A164">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B164">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C164" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-21</v>
+        <v>16-18</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="7"/>
       <c r="G164" s="7" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
       <c r="L164" s="8"/>
       <c r="M164" s="6"/>
     </row>
-    <row r="165" spans="1:13" ht="15">
+    <row r="165" spans="1:13" ht="30">
       <c r="A165">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="B165">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C165" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>16-22</v>
+        <v>16-19</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6861,24 +6907,25 @@
         <v>183</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
       <c r="L165" s="8"/>
       <c r="M165" s="6"/>
     </row>
-    <row r="166" spans="1:13" ht="15">
+    <row r="166" spans="1:13" ht="30">
       <c r="A166">
-        <v>17</v>
+        <f t="shared" si="14"/>
+        <v>16</v>
       </c>
       <c r="B166">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C166" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>17-1</v>
+        <v>16-20</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6887,27 +6934,28 @@
         <v>65</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
-      <c r="L166" s="11"/>
-    </row>
-    <row r="167" spans="1:13" ht="30">
+      <c r="L166" s="8"/>
+      <c r="M166" s="6"/>
+    </row>
+    <row r="167" spans="1:13" ht="15">
       <c r="A167">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B167">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C167" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>17-2</v>
+        <v>16-21</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6916,28 +6964,28 @@
         <v>65</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
-      <c r="L167" s="1"/>
+      <c r="L167" s="8"/>
       <c r="M167" s="6"/>
     </row>
     <row r="168" spans="1:13" ht="15">
       <c r="A168">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B168">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C168" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>17-3</v>
+        <v>16-22</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6946,10 +6994,10 @@
         <v>65</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
@@ -6958,16 +7006,15 @@
     </row>
     <row r="169" spans="1:13" ht="15">
       <c r="A169">
-        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="B169">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C169" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>17-4</v>
+        <v>17-1</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6979,24 +7026,24 @@
         <v>188</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
-      <c r="L169" s="8"/>
-      <c r="M169" s="6"/>
-    </row>
-    <row r="170" spans="1:13" ht="15">
+      <c r="L169" s="11"/>
+    </row>
+    <row r="170" spans="1:13" ht="30">
       <c r="A170">
-        <v>18</v>
+        <f t="shared" si="14"/>
+        <v>17</v>
       </c>
       <c r="B170">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>18-1</v>
+        <v>17-2</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -7005,27 +7052,28 @@
         <v>65</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
-      <c r="L170" s="11"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="6"/>
     </row>
     <row r="171" spans="1:13" ht="15">
       <c r="A171">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B171">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>18-2</v>
+        <v>17-3</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7034,10 +7082,10 @@
         <v>65</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
@@ -7047,15 +7095,15 @@
     <row r="172" spans="1:13" ht="15">
       <c r="A172">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B172">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C172" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>18-3</v>
+        <v>17-4</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -7064,19 +7112,19 @@
         <v>65</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
       <c r="L172" s="8"/>
       <c r="M172" s="6"/>
     </row>
-    <row r="173" spans="1:13" ht="30">
+    <row r="173" spans="1:13" ht="15">
       <c r="A173">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B173">
         <f t="shared" si="12"/>
@@ -7084,7 +7132,7 @@
       </c>
       <c r="C173" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>19-1</v>
+        <v>18-1</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -7093,20 +7141,19 @@
         <v>65</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
-      <c r="L173" s="8"/>
-      <c r="M173" s="6"/>
-    </row>
-    <row r="174" spans="1:13" ht="30">
+      <c r="L173" s="11"/>
+    </row>
+    <row r="174" spans="1:13" ht="15">
       <c r="A174">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B174">
         <f t="shared" si="12"/>
@@ -7114,7 +7161,7 @@
       </c>
       <c r="C174" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>19-2</v>
+        <v>18-2</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -7123,19 +7170,20 @@
         <v>65</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
-      <c r="L174" s="19"/>
-    </row>
-    <row r="175" spans="1:13" ht="30">
+      <c r="L174" s="8"/>
+      <c r="M174" s="6"/>
+    </row>
+    <row r="175" spans="1:13" ht="15">
       <c r="A175">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B175">
         <f t="shared" si="12"/>
@@ -7143,7 +7191,7 @@
       </c>
       <c r="C175" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>19-3</v>
+        <v>18-3</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -7152,28 +7200,27 @@
         <v>65</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="20"/>
+      <c r="L175" s="8"/>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" ht="45">
+    <row r="176" spans="1:13" ht="30">
       <c r="A176">
-        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="B176">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>19-4</v>
+        <v>19-1</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -7185,11 +7232,11 @@
         <v>197</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="20"/>
+      <c r="L176" s="8"/>
       <c r="M176" s="6"/>
     </row>
     <row r="177" spans="1:13" ht="30">
@@ -7199,11 +7246,11 @@
       </c>
       <c r="B177">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C177" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>19-5</v>
+        <v>19-2</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -7215,203 +7262,202 @@
         <v>197</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="6"/>
+      <c r="L177" s="31"/>
     </row>
     <row r="178" spans="1:13" ht="30">
       <c r="A178">
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="B178">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C178" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>20-1</v>
+        <v>19-3</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="7"/>
       <c r="G178" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="8"/>
+      <c r="L178" s="32"/>
       <c r="M178" s="6"/>
     </row>
     <row r="179" spans="1:13" ht="45">
       <c r="A179">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B179">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C179" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>20-2</v>
+        <v>19-4</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="7"/>
       <c r="G179" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="8"/>
+      <c r="L179" s="32"/>
       <c r="M179" s="6"/>
     </row>
-    <row r="180" spans="1:13" ht="26.25">
+    <row r="180" spans="1:13" ht="30">
       <c r="A180">
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="B180">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C180" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-1</v>
-      </c>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="7" t="s">
+        <v>19-5</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G180" s="15"/>
-      <c r="H180" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I180" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="J180" s="12"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="12"/>
+      <c r="H180" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J180" s="8"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="33"/>
       <c r="M180" s="6"/>
     </row>
-    <row r="181" spans="1:13" ht="26.25">
+    <row r="181" spans="1:13" ht="30">
       <c r="A181">
-        <f t="shared" si="14"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B181">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-2</v>
-      </c>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H181" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I181" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J181" s="12"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="12"/>
+        <v>20-1</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J181" s="8"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="8"/>
       <c r="M181" s="6"/>
     </row>
-    <row r="182" spans="1:13" ht="39">
+    <row r="182" spans="1:13" ht="45">
       <c r="A182">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B182">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-3</v>
-      </c>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I182" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="J182" s="12"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="11"/>
+        <v>20-2</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J182" s="8"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="8"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" ht="39">
+    <row r="183" spans="1:13" ht="26.25">
       <c r="A183">
-        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B183">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C183" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-4</v>
+        <v>21-1</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="10" t="s">
+      <c r="F183" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="G183" s="15"/>
       <c r="H183" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I183" s="12" t="s">
-        <v>209</v>
+      <c r="I183" s="11" t="s">
+        <v>206</v>
       </c>
       <c r="J183" s="12"/>
       <c r="K183" s="10"/>
       <c r="L183" s="12"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" ht="51.75">
+    <row r="184" spans="1:13" ht="26.25">
       <c r="A184">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B184">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C184" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-5</v>
+        <v>21-2</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
@@ -7422,26 +7468,26 @@
       <c r="H184" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I184" s="12" t="s">
-        <v>210</v>
+      <c r="I184" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J184" s="12"/>
       <c r="K184" s="10"/>
       <c r="L184" s="12"/>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" ht="26.25">
+    <row r="185" spans="1:13" ht="39">
       <c r="A185">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B185">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C185" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>21-6</v>
+        <v>21-3</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
@@ -7452,76 +7498,72 @@
       <c r="H185" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I185" s="12" t="s">
-        <v>211</v>
+      <c r="I185" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="10"/>
-      <c r="L185" s="12"/>
+      <c r="L185" s="11"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" ht="26.25">
+    <row r="186" spans="1:13" ht="39">
       <c r="A186">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B186">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" ref="C186" si="15">CONCATENATE(A186,"-",B186)</f>
-        <v>21-7</v>
+        <f t="shared" si="13"/>
+        <v>21-4</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
       <c r="G186" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I186" s="12" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="10"/>
-      <c r="L186" s="12" t="s">
-        <v>231</v>
-      </c>
+      <c r="L186" s="12"/>
       <c r="M186" s="6"/>
     </row>
-    <row r="187" spans="1:13" ht="26.25">
+    <row r="187" spans="1:13" ht="51.75">
       <c r="A187">
         <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B187">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" ref="C187" si="16">CONCATENATE(A187,"-",B187)</f>
-        <v>21-8</v>
+        <f t="shared" si="13"/>
+        <v>21-5</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I187" s="12" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="10"/>
-      <c r="L187" s="12" t="s">
-        <v>231</v>
-      </c>
+      <c r="L187" s="12"/>
       <c r="M187" s="6"/>
     </row>
     <row r="188" spans="1:13" ht="26.25">
@@ -7531,43 +7573,41 @@
       </c>
       <c r="B188">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" ref="C188" si="17">CONCATENATE(A188,"-",B188)</f>
-        <v>21-9</v>
+        <f t="shared" si="13"/>
+        <v>21-6</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
       <c r="G188" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="10"/>
-      <c r="L188" s="12" t="s">
-        <v>231</v>
-      </c>
+      <c r="L188" s="12"/>
       <c r="M188" s="6"/>
     </row>
     <row r="189" spans="1:13" ht="26.25">
       <c r="A189">
-        <f>A188</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B189">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" ref="C189:C191" si="18">CONCATENATE(A189,"-",B189)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C189" si="15">CONCATENATE(A189,"-",B189)</f>
+        <v>21-7</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -7579,7 +7619,7 @@
         <v>15</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="10"/>
@@ -7590,16 +7630,16 @@
     </row>
     <row r="190" spans="1:13" ht="26.25">
       <c r="A190">
-        <f>A189</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B190">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" ref="C190" si="19">CONCATENATE(A190,"-",B190)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C190" si="16">CONCATENATE(A190,"-",B190)</f>
+        <v>21-8</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
@@ -7611,7 +7651,7 @@
         <v>15</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="10"/>
@@ -7622,16 +7662,16 @@
     </row>
     <row r="191" spans="1:13" ht="26.25">
       <c r="A191">
-        <f>A189</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B191">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>21-12</v>
+        <f t="shared" ref="C191" si="17">CONCATENATE(A191,"-",B191)</f>
+        <v>21-9</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -7643,7 +7683,7 @@
         <v>15</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="10"/>
@@ -7654,16 +7694,16 @@
     </row>
     <row r="192" spans="1:13" ht="26.25">
       <c r="A192">
-        <f t="shared" si="14"/>
+        <f>A191</f>
         <v>21</v>
       </c>
       <c r="B192">
         <f t="shared" si="12"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" ref="C192" si="20">CONCATENATE(A192,"-",B192)</f>
-        <v>21-13</v>
+        <f t="shared" ref="C192:C194" si="18">CONCATENATE(A192,"-",B192)</f>
+        <v>21-10</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -7675,7 +7715,7 @@
         <v>15</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="10"/>
@@ -7686,16 +7726,16 @@
     </row>
     <row r="193" spans="1:13" ht="26.25">
       <c r="A193">
-        <f>A191</f>
+        <f>A192</f>
         <v>21</v>
       </c>
       <c r="B193">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" ref="C193" si="21">CONCATENATE(A193,"-",B193)</f>
-        <v>21-14</v>
+        <f t="shared" ref="C193" si="19">CONCATENATE(A193,"-",B193)</f>
+        <v>21-11</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -7707,7 +7747,7 @@
         <v>15</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="10"/>
@@ -7723,11 +7763,11 @@
       </c>
       <c r="B194">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" ref="C194" si="22">CONCATENATE(A194,"-",B194)</f>
-        <v>21-15</v>
+        <f t="shared" si="18"/>
+        <v>21-12</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -7739,7 +7779,7 @@
         <v>15</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
@@ -7750,16 +7790,16 @@
     </row>
     <row r="195" spans="1:13" ht="26.25">
       <c r="A195">
-        <f>A193</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B195">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" ref="C195:C196" si="23">CONCATENATE(A195,"-",B195)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C195" si="20">CONCATENATE(A195,"-",B195)</f>
+        <v>21-13</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -7771,7 +7811,7 @@
         <v>15</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
@@ -7780,18 +7820,18 @@
       </c>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" ht="39">
+    <row r="196" spans="1:13" ht="26.25">
       <c r="A196">
-        <f t="shared" si="14"/>
+        <f>A194</f>
         <v>21</v>
       </c>
       <c r="B196">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" si="23"/>
-        <v>21-17</v>
+        <f t="shared" ref="C196" si="21">CONCATENATE(A196,"-",B196)</f>
+        <v>21-14</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -7803,7 +7843,7 @@
         <v>15</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
@@ -7812,17 +7852,18 @@
       </c>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="39">
+    <row r="197" spans="1:13" ht="26.25">
       <c r="A197">
-        <f t="shared" si="14"/>
+        <f>A195</f>
         <v>21</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" ref="C197" si="24">CONCATENATE(A197,"-",B197)</f>
-        <v>21-18</v>
+        <f t="shared" ref="C197" si="22">CONCATENATE(A197,"-",B197)</f>
+        <v>21-15</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -7834,7 +7875,7 @@
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
@@ -7850,11 +7891,11 @@
       </c>
       <c r="B198">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" ref="C198:C200" si="25">CONCATENATE(A198,"-",B198)</f>
-        <v>21-19</v>
+        <f t="shared" ref="C198:C199" si="23">CONCATENATE(A198,"-",B198)</f>
+        <v>21-16</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -7866,7 +7907,7 @@
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
@@ -7875,18 +7916,18 @@
       </c>
       <c r="M198" s="6"/>
     </row>
-    <row r="199" spans="1:13" ht="26.25">
+    <row r="199" spans="1:13" ht="39">
       <c r="A199">
-        <f>A197</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B199">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199" si="26">CONCATENATE(A199,"-",B199)</f>
-        <v>21-20</v>
+        <f t="shared" si="23"/>
+        <v>21-17</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -7898,7 +7939,7 @@
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
@@ -7907,18 +7948,17 @@
       </c>
       <c r="M199" s="6"/>
     </row>
-    <row r="200" spans="1:13" ht="26.25">
+    <row r="200" spans="1:13" ht="39">
       <c r="A200">
-        <f>A198</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="12"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v>21-21</v>
+        <f t="shared" ref="C200" si="24">CONCATENATE(A200,"-",B200)</f>
+        <v>21-18</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -7930,7 +7970,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
@@ -7946,11 +7986,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="12"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" ref="C201" si="27">CONCATENATE(A201,"-",B201)</f>
-        <v>21-22</v>
+        <f t="shared" ref="C201:C203" si="25">CONCATENATE(A201,"-",B201)</f>
+        <v>21-19</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -7962,7 +8002,7 @@
         <v>15</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="10"/>
@@ -7971,266 +8011,314 @@
       </c>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" ht="39">
+    <row r="202" spans="1:13" ht="26.25">
       <c r="A202">
         <f>A200</f>
         <v>21</v>
       </c>
       <c r="B202">
         <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="C202" s="22" t="str">
-        <f t="shared" ref="C202:C203" si="28">CONCATENATE(A202,"-",B202)</f>
-        <v>21-23</v>
-      </c>
-      <c r="D202" s="23"/>
-      <c r="E202" s="23"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" s="3" t="str">
+        <f t="shared" ref="C202" si="26">CONCATENATE(A202,"-",B202)</f>
+        <v>21-20</v>
+      </c>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H202" s="24" t="s">
+      <c r="H202" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I202" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="J202" s="18"/>
-      <c r="K202" s="24"/>
-      <c r="L202" s="18" t="s">
+      <c r="I202" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J202" s="12"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="12" t="s">
         <v>231</v>
       </c>
       <c r="M202" s="6"/>
     </row>
     <row r="203" spans="1:13" ht="26.25">
       <c r="A203">
+        <f>A201</f>
+        <v>21</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="C203" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>21-21</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H203" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="J203" s="12"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="M203" s="6"/>
+    </row>
+    <row r="204" spans="1:13" ht="26.25">
+      <c r="A204">
+        <f>A202</f>
+        <v>21</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="B203">
+      <c r="C204" s="3" t="str">
+        <f t="shared" ref="C204" si="27">CONCATENATE(A204,"-",B204)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H204" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J204" s="12"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="M204" s="6"/>
+    </row>
+    <row r="205" spans="1:13" ht="39">
+      <c r="A205">
+        <f>A203</f>
+        <v>21</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="C205" s="19" t="str">
+        <f t="shared" ref="C205" si="28">CONCATENATE(A205,"-",B205)</f>
+        <v>21-23</v>
+      </c>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H205" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I205" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="J205" s="18"/>
+      <c r="K205" s="21"/>
+      <c r="L205" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="M205" s="6"/>
+    </row>
+    <row r="206" spans="1:13" ht="26.25">
+      <c r="A206">
+        <v>22</v>
+      </c>
+      <c r="B206">
         <v>1</v>
       </c>
-      <c r="C203" s="26" t="str">
-        <f>CONCATENATE(A203,"-",B203)</f>
+      <c r="C206" s="23" t="str">
+        <f>CONCATENATE(A206,"-",B206)</f>
         <v>22-1</v>
       </c>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="27"/>
-      <c r="G203" s="28"/>
-      <c r="H203" s="28" t="s">
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+      <c r="G206" s="25"/>
+      <c r="H206" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="I203" s="29" t="s">
+      <c r="I206" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="J203" s="27"/>
-      <c r="K203" s="27"/>
-      <c r="L203" s="30"/>
-      <c r="M203" s="6"/>
-    </row>
-    <row r="204" spans="1:13" ht="39">
-      <c r="A204">
-        <f>A203</f>
+      <c r="J206" s="24"/>
+      <c r="K206" s="24"/>
+      <c r="L206" s="27"/>
+      <c r="M206" s="6"/>
+    </row>
+    <row r="207" spans="1:13" ht="39">
+      <c r="A207">
+        <f>A206</f>
         <v>22</v>
       </c>
-      <c r="B204">
-        <f>IF(A204=A203,B203+1,1)</f>
+      <c r="B207">
+        <f>IF(A207=A206,B206+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C204" s="26" t="str">
+      <c r="C207" s="23" t="str">
         <f t="shared" si="13"/>
         <v>22-2</v>
       </c>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="28" t="s">
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="24"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="I204" s="29" t="s">
+      <c r="I207" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="J204" s="27"/>
-      <c r="K204" s="27"/>
-      <c r="L204" s="30"/>
-      <c r="M204" s="6"/>
-    </row>
-    <row r="205" spans="1:13" ht="26.25">
-      <c r="A205">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="B205">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C205" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>22-3</v>
-      </c>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I205" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="J205" s="27"/>
-      <c r="K205" s="27"/>
-      <c r="L205" s="30"/>
-      <c r="M205" s="6"/>
-    </row>
-    <row r="206" spans="1:13" ht="15">
-      <c r="A206">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="B206">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C206" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>22-4</v>
-      </c>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I206" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="J206" s="27"/>
-      <c r="K206" s="27"/>
-      <c r="L206" s="30"/>
-      <c r="M206" s="6"/>
-    </row>
-    <row r="207" spans="1:13" ht="15">
-      <c r="A207">
-        <f t="shared" si="14"/>
-        <v>22</v>
-      </c>
-      <c r="B207">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="C207" s="26" t="str">
-        <f t="shared" si="13"/>
-        <v>22-5</v>
-      </c>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="I207" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="J207" s="27"/>
-      <c r="K207" s="27"/>
-      <c r="L207" s="30"/>
+      <c r="J207" s="24"/>
+      <c r="K207" s="24"/>
+      <c r="L207" s="27"/>
       <c r="M207" s="6"/>
     </row>
-    <row r="208" spans="1:13" ht="15">
+    <row r="208" spans="1:13" ht="26.25">
       <c r="A208">
         <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="B208">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C208" s="26" t="str">
+        <v>3</v>
+      </c>
+      <c r="C208" s="23" t="str">
         <f t="shared" si="13"/>
-        <v>22-6</v>
-      </c>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="32" t="s">
+        <v>22-3</v>
+      </c>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="24"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="I208" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="J208" s="27"/>
-      <c r="K208" s="27"/>
-      <c r="L208" s="30"/>
+      <c r="I208" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="J208" s="24"/>
+      <c r="K208" s="24"/>
+      <c r="L208" s="27"/>
       <c r="M208" s="6"/>
     </row>
     <row r="209" spans="1:13" ht="15">
       <c r="A209">
-        <v>23</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="B209">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="C209" s="25" t="str">
+        <v>4</v>
+      </c>
+      <c r="C209" s="23" t="str">
         <f t="shared" si="13"/>
-        <v>23-1</v>
-      </c>
-      <c r="H209" s="33"/>
-      <c r="I209" s="31"/>
-      <c r="L209" s="6"/>
+        <v>22-4</v>
+      </c>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="24"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I209" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="J209" s="24"/>
+      <c r="K209" s="24"/>
+      <c r="L209" s="27"/>
       <c r="M209" s="6"/>
     </row>
     <row r="210" spans="1:13" ht="15">
       <c r="A210">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B210">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="C210" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="C210" s="23" t="str">
         <f t="shared" si="13"/>
-        <v>23-2</v>
-      </c>
-      <c r="L210" s="6"/>
+        <v>22-5</v>
+      </c>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="24"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="I210" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="J210" s="24"/>
+      <c r="K210" s="24"/>
+      <c r="L210" s="27"/>
       <c r="M210" s="6"/>
     </row>
     <row r="211" spans="1:13" ht="15">
       <c r="A211">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B211">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C211" s="3" t="str">
+        <v>6</v>
+      </c>
+      <c r="C211" s="23" t="str">
         <f t="shared" si="13"/>
-        <v>23-3</v>
-      </c>
-      <c r="L211" s="6"/>
+        <v>22-6</v>
+      </c>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="J211" s="24"/>
+      <c r="K211" s="24"/>
+      <c r="L211" s="27"/>
       <c r="M211" s="6"/>
     </row>
     <row r="212" spans="1:13" ht="15">
       <c r="A212">
-        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="B212">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C212" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C212" s="22" t="str">
         <f t="shared" si="13"/>
-        <v>23-4</v>
-      </c>
+        <v>23-1</v>
+      </c>
+      <c r="H212" s="30"/>
+      <c r="I212" s="28"/>
       <c r="L212" s="6"/>
       <c r="M212" s="6"/>
     </row>
@@ -8241,11 +8329,11 @@
       </c>
       <c r="B213">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C213" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>23-5</v>
+        <v>23-2</v>
       </c>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
@@ -8257,11 +8345,11 @@
       </c>
       <c r="B214">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C214" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>23-6</v>
+        <v>23-3</v>
       </c>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
@@ -8273,11 +8361,11 @@
       </c>
       <c r="B215">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C215" s="3" t="str">
         <f t="shared" si="13"/>
-        <v>23-7</v>
+        <v>23-4</v>
       </c>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
@@ -8288,76 +8376,76 @@
         <v>23</v>
       </c>
       <c r="B216">
-        <f t="shared" ref="B216:B279" si="29">IF(A216=A215,B215+1,1)</f>
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="C216" s="3" t="str">
-        <f t="shared" ref="C216:C279" si="30">CONCATENATE(A216,"-",B216)</f>
-        <v>23-8</v>
+        <f t="shared" si="13"/>
+        <v>23-5</v>
       </c>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
     </row>
     <row r="217" spans="1:13" ht="15">
       <c r="A217">
-        <f t="shared" ref="A217:A280" si="31">A216</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="B217">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="C217" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>23-6</v>
+      </c>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+    </row>
+    <row r="218" spans="1:13" ht="15">
+      <c r="A218">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="C218" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>23-7</v>
+      </c>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="1:13" ht="15">
+      <c r="A219">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="B219">
+        <f t="shared" ref="B219:B282" si="29">IF(A219=A218,B218+1,1)</f>
+        <v>8</v>
+      </c>
+      <c r="C219" s="3" t="str">
+        <f t="shared" ref="C219:C282" si="30">CONCATENATE(A219,"-",B219)</f>
+        <v>23-8</v>
+      </c>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+    </row>
+    <row r="220" spans="1:13" ht="15">
+      <c r="A220">
+        <f t="shared" ref="A220:A283" si="31">A219</f>
+        <v>23</v>
+      </c>
+      <c r="B220">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
-      <c r="C217" s="3" t="str">
+      <c r="C220" s="3" t="str">
         <f t="shared" si="30"/>
         <v>23-9</v>
-      </c>
-      <c r="L217" s="6"/>
-      <c r="M217" s="6"/>
-    </row>
-    <row r="218" spans="1:13" ht="15">
-      <c r="A218">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="B218">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="C218" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>23-10</v>
-      </c>
-      <c r="L218" s="6"/>
-      <c r="M218" s="6"/>
-    </row>
-    <row r="219" spans="1:13" ht="15">
-      <c r="A219">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="B219">
-        <f t="shared" si="29"/>
-        <v>11</v>
-      </c>
-      <c r="C219" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>23-11</v>
-      </c>
-      <c r="L219" s="6"/>
-      <c r="M219" s="6"/>
-    </row>
-    <row r="220" spans="1:13" ht="15">
-      <c r="A220">
-        <f t="shared" si="31"/>
-        <v>23</v>
-      </c>
-      <c r="B220">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="C220" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>23-12</v>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
@@ -8369,11 +8457,11 @@
       </c>
       <c r="B221">
         <f t="shared" si="29"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C221" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-13</v>
+        <v>23-10</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
@@ -8385,11 +8473,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C222" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-14</v>
+        <v>23-11</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
@@ -8401,11 +8489,11 @@
       </c>
       <c r="B223">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C223" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-15</v>
+        <v>23-12</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -8417,11 +8505,11 @@
       </c>
       <c r="B224">
         <f t="shared" si="29"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C224" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-16</v>
+        <v>23-13</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -8433,11 +8521,11 @@
       </c>
       <c r="B225">
         <f t="shared" si="29"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C225" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-17</v>
+        <v>23-14</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
@@ -8449,11 +8537,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="29"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-18</v>
+        <v>23-15</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
@@ -8465,11 +8553,11 @@
       </c>
       <c r="B227">
         <f t="shared" si="29"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C227" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-19</v>
+        <v>23-16</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
@@ -8481,11 +8569,11 @@
       </c>
       <c r="B228">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C228" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-20</v>
+        <v>23-17</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
@@ -8497,11 +8585,11 @@
       </c>
       <c r="B229">
         <f t="shared" si="29"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C229" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-21</v>
+        <v>23-18</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
@@ -8513,11 +8601,11 @@
       </c>
       <c r="B230">
         <f t="shared" si="29"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C230" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-22</v>
+        <v>23-19</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
@@ -8529,11 +8617,11 @@
       </c>
       <c r="B231">
         <f t="shared" si="29"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C231" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-23</v>
+        <v>23-20</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -8545,11 +8633,11 @@
       </c>
       <c r="B232">
         <f t="shared" si="29"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C232" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-24</v>
+        <v>23-21</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
@@ -8561,11 +8649,11 @@
       </c>
       <c r="B233">
         <f t="shared" si="29"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C233" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-25</v>
+        <v>23-22</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
@@ -8577,11 +8665,11 @@
       </c>
       <c r="B234">
         <f t="shared" si="29"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C234" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-26</v>
+        <v>23-23</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
@@ -8593,11 +8681,11 @@
       </c>
       <c r="B235">
         <f t="shared" si="29"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C235" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-27</v>
+        <v>23-24</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
@@ -8609,11 +8697,11 @@
       </c>
       <c r="B236">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C236" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-28</v>
+        <v>23-25</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
@@ -8625,11 +8713,11 @@
       </c>
       <c r="B237">
         <f t="shared" si="29"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C237" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-29</v>
+        <v>23-26</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
@@ -8641,11 +8729,11 @@
       </c>
       <c r="B238">
         <f t="shared" si="29"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C238" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-30</v>
+        <v>23-27</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
@@ -8657,11 +8745,11 @@
       </c>
       <c r="B239">
         <f t="shared" si="29"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C239" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-31</v>
+        <v>23-28</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
@@ -8673,11 +8761,11 @@
       </c>
       <c r="B240">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C240" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-32</v>
+        <v>23-29</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
@@ -8689,11 +8777,11 @@
       </c>
       <c r="B241">
         <f t="shared" si="29"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C241" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-33</v>
+        <v>23-30</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
@@ -8705,11 +8793,11 @@
       </c>
       <c r="B242">
         <f t="shared" si="29"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C242" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-34</v>
+        <v>23-31</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
@@ -8721,11 +8809,11 @@
       </c>
       <c r="B243">
         <f t="shared" si="29"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C243" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-35</v>
+        <v>23-32</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -8737,11 +8825,11 @@
       </c>
       <c r="B244">
         <f t="shared" si="29"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C244" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-36</v>
+        <v>23-33</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
@@ -8753,11 +8841,11 @@
       </c>
       <c r="B245">
         <f t="shared" si="29"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C245" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-37</v>
+        <v>23-34</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
@@ -8769,11 +8857,11 @@
       </c>
       <c r="B246">
         <f t="shared" si="29"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C246" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-38</v>
+        <v>23-35</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
@@ -8785,11 +8873,11 @@
       </c>
       <c r="B247">
         <f t="shared" si="29"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C247" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-39</v>
+        <v>23-36</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
@@ -8801,11 +8889,11 @@
       </c>
       <c r="B248">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C248" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-40</v>
+        <v>23-37</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
@@ -8817,11 +8905,11 @@
       </c>
       <c r="B249">
         <f t="shared" si="29"/>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C249" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-41</v>
+        <v>23-38</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
@@ -8833,11 +8921,11 @@
       </c>
       <c r="B250">
         <f t="shared" si="29"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C250" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-42</v>
+        <v>23-39</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -8849,11 +8937,11 @@
       </c>
       <c r="B251">
         <f t="shared" si="29"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C251" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-43</v>
+        <v>23-40</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
@@ -8865,11 +8953,11 @@
       </c>
       <c r="B252">
         <f t="shared" si="29"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C252" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-44</v>
+        <v>23-41</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
@@ -8881,11 +8969,11 @@
       </c>
       <c r="B253">
         <f t="shared" si="29"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C253" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-45</v>
+        <v>23-42</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
@@ -8897,11 +8985,11 @@
       </c>
       <c r="B254">
         <f t="shared" si="29"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C254" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-46</v>
+        <v>23-43</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
@@ -8913,11 +9001,11 @@
       </c>
       <c r="B255">
         <f t="shared" si="29"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C255" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-47</v>
+        <v>23-44</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
@@ -8929,11 +9017,11 @@
       </c>
       <c r="B256">
         <f t="shared" si="29"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C256" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-48</v>
+        <v>23-45</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
@@ -8945,11 +9033,11 @@
       </c>
       <c r="B257">
         <f t="shared" si="29"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C257" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-49</v>
+        <v>23-46</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -8961,11 +9049,11 @@
       </c>
       <c r="B258">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C258" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-50</v>
+        <v>23-47</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
@@ -8977,11 +9065,11 @@
       </c>
       <c r="B259">
         <f t="shared" si="29"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C259" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-51</v>
+        <v>23-48</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
@@ -8993,11 +9081,11 @@
       </c>
       <c r="B260">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C260" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-52</v>
+        <v>23-49</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
@@ -9009,11 +9097,11 @@
       </c>
       <c r="B261">
         <f t="shared" si="29"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C261" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-53</v>
+        <v>23-50</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
@@ -9025,11 +9113,11 @@
       </c>
       <c r="B262">
         <f t="shared" si="29"/>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C262" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-54</v>
+        <v>23-51</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -9041,11 +9129,11 @@
       </c>
       <c r="B263">
         <f t="shared" si="29"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C263" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-55</v>
+        <v>23-52</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -9057,11 +9145,11 @@
       </c>
       <c r="B264">
         <f t="shared" si="29"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C264" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-56</v>
+        <v>23-53</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
@@ -9073,11 +9161,11 @@
       </c>
       <c r="B265">
         <f t="shared" si="29"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C265" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-57</v>
+        <v>23-54</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
@@ -9089,11 +9177,11 @@
       </c>
       <c r="B266">
         <f t="shared" si="29"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C266" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-58</v>
+        <v>23-55</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -9105,11 +9193,11 @@
       </c>
       <c r="B267">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C267" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-59</v>
+        <v>23-56</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
@@ -9121,11 +9209,11 @@
       </c>
       <c r="B268">
         <f t="shared" si="29"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C268" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-60</v>
+        <v>23-57</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
@@ -9137,11 +9225,11 @@
       </c>
       <c r="B269">
         <f t="shared" si="29"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C269" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-61</v>
+        <v>23-58</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -9153,11 +9241,11 @@
       </c>
       <c r="B270">
         <f t="shared" si="29"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C270" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-62</v>
+        <v>23-59</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
@@ -9169,11 +9257,11 @@
       </c>
       <c r="B271">
         <f t="shared" si="29"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C271" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-63</v>
+        <v>23-60</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
@@ -9185,11 +9273,11 @@
       </c>
       <c r="B272">
         <f t="shared" si="29"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C272" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-64</v>
+        <v>23-61</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -9201,11 +9289,11 @@
       </c>
       <c r="B273">
         <f t="shared" si="29"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C273" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-65</v>
+        <v>23-62</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
@@ -9217,11 +9305,11 @@
       </c>
       <c r="B274">
         <f t="shared" si="29"/>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C274" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-66</v>
+        <v>23-63</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
@@ -9233,11 +9321,11 @@
       </c>
       <c r="B275">
         <f t="shared" si="29"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C275" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-67</v>
+        <v>23-64</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
@@ -9249,11 +9337,11 @@
       </c>
       <c r="B276">
         <f t="shared" si="29"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C276" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-68</v>
+        <v>23-65</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
@@ -9265,11 +9353,11 @@
       </c>
       <c r="B277">
         <f t="shared" si="29"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C277" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-69</v>
+        <v>23-66</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
@@ -9281,11 +9369,11 @@
       </c>
       <c r="B278">
         <f t="shared" si="29"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C278" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-70</v>
+        <v>23-67</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -9297,11 +9385,11 @@
       </c>
       <c r="B279">
         <f t="shared" si="29"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C279" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23-71</v>
+        <v>23-68</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
@@ -9312,76 +9400,76 @@
         <v>23</v>
       </c>
       <c r="B280">
-        <f t="shared" ref="B280:B343" si="32">IF(A280=A279,B279+1,1)</f>
-        <v>72</v>
+        <f t="shared" si="29"/>
+        <v>69</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" ref="C280:C343" si="33">CONCATENATE(A280,"-",B280)</f>
-        <v>23-72</v>
+        <f t="shared" si="30"/>
+        <v>23-69</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" ref="A281:A344" si="34">A280</f>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="B281">
+        <f t="shared" si="29"/>
+        <v>70</v>
+      </c>
+      <c r="C281" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>23-70</v>
+      </c>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+    </row>
+    <row r="282" spans="1:13" ht="15">
+      <c r="A282">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="29"/>
+        <v>71</v>
+      </c>
+      <c r="C282" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v>23-71</v>
+      </c>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+    </row>
+    <row r="283" spans="1:13" ht="15">
+      <c r="A283">
+        <f t="shared" si="31"/>
+        <v>23</v>
+      </c>
+      <c r="B283">
+        <f t="shared" ref="B283:B346" si="32">IF(A283=A282,B282+1,1)</f>
+        <v>72</v>
+      </c>
+      <c r="C283" s="3" t="str">
+        <f t="shared" ref="C283:C346" si="33">CONCATENATE(A283,"-",B283)</f>
+        <v>23-72</v>
+      </c>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+    </row>
+    <row r="284" spans="1:13" ht="15">
+      <c r="A284">
+        <f t="shared" ref="A284:A347" si="34">A283</f>
+        <v>23</v>
+      </c>
+      <c r="B284">
         <f t="shared" si="32"/>
         <v>73</v>
       </c>
-      <c r="C281" s="3" t="str">
+      <c r="C284" s="3" t="str">
         <f t="shared" si="33"/>
         <v>23-73</v>
-      </c>
-      <c r="L281" s="6"/>
-      <c r="M281" s="6"/>
-    </row>
-    <row r="282" spans="1:13" ht="15">
-      <c r="A282">
-        <f t="shared" si="34"/>
-        <v>23</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="32"/>
-        <v>74</v>
-      </c>
-      <c r="C282" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>23-74</v>
-      </c>
-      <c r="L282" s="6"/>
-      <c r="M282" s="6"/>
-    </row>
-    <row r="283" spans="1:13" ht="15">
-      <c r="A283">
-        <f t="shared" si="34"/>
-        <v>23</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="32"/>
-        <v>75</v>
-      </c>
-      <c r="C283" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>23-75</v>
-      </c>
-      <c r="L283" s="6"/>
-      <c r="M283" s="6"/>
-    </row>
-    <row r="284" spans="1:13" ht="15">
-      <c r="A284">
-        <f t="shared" si="34"/>
-        <v>23</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="32"/>
-        <v>76</v>
-      </c>
-      <c r="C284" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>23-76</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
@@ -9393,11 +9481,11 @@
       </c>
       <c r="B285">
         <f t="shared" si="32"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C285" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-77</v>
+        <v>23-74</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -9409,11 +9497,11 @@
       </c>
       <c r="B286">
         <f t="shared" si="32"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C286" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-78</v>
+        <v>23-75</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
@@ -9425,11 +9513,11 @@
       </c>
       <c r="B287">
         <f t="shared" si="32"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C287" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-79</v>
+        <v>23-76</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
@@ -9441,11 +9529,11 @@
       </c>
       <c r="B288">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C288" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-80</v>
+        <v>23-77</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
@@ -9457,11 +9545,11 @@
       </c>
       <c r="B289">
         <f t="shared" si="32"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C289" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-81</v>
+        <v>23-78</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
@@ -9473,11 +9561,11 @@
       </c>
       <c r="B290">
         <f t="shared" si="32"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C290" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-82</v>
+        <v>23-79</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
@@ -9489,11 +9577,11 @@
       </c>
       <c r="B291">
         <f t="shared" si="32"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C291" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-83</v>
+        <v>23-80</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
@@ -9505,11 +9593,11 @@
       </c>
       <c r="B292">
         <f t="shared" si="32"/>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C292" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-84</v>
+        <v>23-81</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -9521,11 +9609,11 @@
       </c>
       <c r="B293">
         <f t="shared" si="32"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C293" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-85</v>
+        <v>23-82</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
@@ -9537,11 +9625,11 @@
       </c>
       <c r="B294">
         <f t="shared" si="32"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C294" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-86</v>
+        <v>23-83</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
@@ -9553,11 +9641,11 @@
       </c>
       <c r="B295">
         <f t="shared" si="32"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C295" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-87</v>
+        <v>23-84</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -9569,11 +9657,11 @@
       </c>
       <c r="B296">
         <f t="shared" si="32"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C296" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-88</v>
+        <v>23-85</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
@@ -9585,11 +9673,11 @@
       </c>
       <c r="B297">
         <f t="shared" si="32"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C297" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-89</v>
+        <v>23-86</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
@@ -9601,11 +9689,11 @@
       </c>
       <c r="B298">
         <f t="shared" si="32"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C298" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-90</v>
+        <v>23-87</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -9617,11 +9705,11 @@
       </c>
       <c r="B299">
         <f t="shared" si="32"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C299" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-91</v>
+        <v>23-88</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
@@ -9633,11 +9721,11 @@
       </c>
       <c r="B300">
         <f t="shared" si="32"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C300" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-92</v>
+        <v>23-89</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
@@ -9649,11 +9737,11 @@
       </c>
       <c r="B301">
         <f t="shared" si="32"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C301" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-93</v>
+        <v>23-90</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
@@ -9665,11 +9753,11 @@
       </c>
       <c r="B302">
         <f t="shared" si="32"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C302" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-94</v>
+        <v>23-91</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
@@ -9681,11 +9769,11 @@
       </c>
       <c r="B303">
         <f t="shared" si="32"/>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C303" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-95</v>
+        <v>23-92</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
@@ -9697,11 +9785,11 @@
       </c>
       <c r="B304">
         <f t="shared" si="32"/>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C304" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-96</v>
+        <v>23-93</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
@@ -9713,11 +9801,11 @@
       </c>
       <c r="B305">
         <f t="shared" si="32"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C305" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-97</v>
+        <v>23-94</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
@@ -9729,11 +9817,11 @@
       </c>
       <c r="B306">
         <f t="shared" si="32"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C306" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-98</v>
+        <v>23-95</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
@@ -9745,11 +9833,11 @@
       </c>
       <c r="B307">
         <f t="shared" si="32"/>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C307" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-99</v>
+        <v>23-96</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
@@ -9761,11 +9849,11 @@
       </c>
       <c r="B308">
         <f t="shared" si="32"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C308" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-100</v>
+        <v>23-97</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
@@ -9777,11 +9865,11 @@
       </c>
       <c r="B309">
         <f t="shared" si="32"/>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C309" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-101</v>
+        <v>23-98</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
@@ -9793,11 +9881,11 @@
       </c>
       <c r="B310">
         <f t="shared" si="32"/>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C310" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-102</v>
+        <v>23-99</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
@@ -9809,11 +9897,11 @@
       </c>
       <c r="B311">
         <f t="shared" si="32"/>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C311" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-103</v>
+        <v>23-100</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
@@ -9825,11 +9913,11 @@
       </c>
       <c r="B312">
         <f t="shared" si="32"/>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C312" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-104</v>
+        <v>23-101</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
@@ -9841,11 +9929,11 @@
       </c>
       <c r="B313">
         <f t="shared" si="32"/>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C313" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-105</v>
+        <v>23-102</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
@@ -9857,11 +9945,11 @@
       </c>
       <c r="B314">
         <f t="shared" si="32"/>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C314" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-106</v>
+        <v>23-103</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -9873,11 +9961,11 @@
       </c>
       <c r="B315">
         <f t="shared" si="32"/>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C315" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-107</v>
+        <v>23-104</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
@@ -9889,11 +9977,11 @@
       </c>
       <c r="B316">
         <f t="shared" si="32"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C316" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-108</v>
+        <v>23-105</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
@@ -9905,11 +9993,11 @@
       </c>
       <c r="B317">
         <f t="shared" si="32"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C317" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-109</v>
+        <v>23-106</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
@@ -9921,11 +10009,11 @@
       </c>
       <c r="B318">
         <f t="shared" si="32"/>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C318" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-110</v>
+        <v>23-107</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
@@ -9937,11 +10025,11 @@
       </c>
       <c r="B319">
         <f t="shared" si="32"/>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C319" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-111</v>
+        <v>23-108</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
@@ -9953,11 +10041,11 @@
       </c>
       <c r="B320">
         <f t="shared" si="32"/>
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C320" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-112</v>
+        <v>23-109</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
@@ -9969,11 +10057,11 @@
       </c>
       <c r="B321">
         <f t="shared" si="32"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C321" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-113</v>
+        <v>23-110</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
@@ -9985,11 +10073,11 @@
       </c>
       <c r="B322">
         <f t="shared" si="32"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C322" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-114</v>
+        <v>23-111</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
@@ -10001,11 +10089,11 @@
       </c>
       <c r="B323">
         <f t="shared" si="32"/>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C323" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-115</v>
+        <v>23-112</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
@@ -10017,11 +10105,11 @@
       </c>
       <c r="B324">
         <f t="shared" si="32"/>
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C324" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-116</v>
+        <v>23-113</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
@@ -10033,11 +10121,11 @@
       </c>
       <c r="B325">
         <f t="shared" si="32"/>
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C325" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-117</v>
+        <v>23-114</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
@@ -10049,11 +10137,11 @@
       </c>
       <c r="B326">
         <f t="shared" si="32"/>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C326" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-118</v>
+        <v>23-115</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
@@ -10065,11 +10153,11 @@
       </c>
       <c r="B327">
         <f t="shared" si="32"/>
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C327" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-119</v>
+        <v>23-116</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
@@ -10081,11 +10169,11 @@
       </c>
       <c r="B328">
         <f t="shared" si="32"/>
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C328" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-120</v>
+        <v>23-117</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
@@ -10097,11 +10185,11 @@
       </c>
       <c r="B329">
         <f t="shared" si="32"/>
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C329" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-121</v>
+        <v>23-118</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
@@ -10113,11 +10201,11 @@
       </c>
       <c r="B330">
         <f t="shared" si="32"/>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C330" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-122</v>
+        <v>23-119</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -10129,11 +10217,11 @@
       </c>
       <c r="B331">
         <f t="shared" si="32"/>
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C331" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-123</v>
+        <v>23-120</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
@@ -10145,11 +10233,11 @@
       </c>
       <c r="B332">
         <f t="shared" si="32"/>
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C332" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-124</v>
+        <v>23-121</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
@@ -10161,11 +10249,11 @@
       </c>
       <c r="B333">
         <f t="shared" si="32"/>
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C333" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-125</v>
+        <v>23-122</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
@@ -10177,11 +10265,11 @@
       </c>
       <c r="B334">
         <f t="shared" si="32"/>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C334" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-126</v>
+        <v>23-123</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
@@ -10193,11 +10281,11 @@
       </c>
       <c r="B335">
         <f t="shared" si="32"/>
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C335" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-127</v>
+        <v>23-124</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
@@ -10209,11 +10297,11 @@
       </c>
       <c r="B336">
         <f t="shared" si="32"/>
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C336" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-128</v>
+        <v>23-125</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
@@ -10225,11 +10313,11 @@
       </c>
       <c r="B337">
         <f t="shared" si="32"/>
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C337" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-129</v>
+        <v>23-126</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
@@ -10241,11 +10329,11 @@
       </c>
       <c r="B338">
         <f t="shared" si="32"/>
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C338" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-130</v>
+        <v>23-127</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
@@ -10257,11 +10345,11 @@
       </c>
       <c r="B339">
         <f t="shared" si="32"/>
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C339" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-131</v>
+        <v>23-128</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
@@ -10273,11 +10361,11 @@
       </c>
       <c r="B340">
         <f t="shared" si="32"/>
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C340" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-132</v>
+        <v>23-129</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
@@ -10289,11 +10377,11 @@
       </c>
       <c r="B341">
         <f t="shared" si="32"/>
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C341" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-133</v>
+        <v>23-130</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
@@ -10305,11 +10393,11 @@
       </c>
       <c r="B342">
         <f t="shared" si="32"/>
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C342" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-134</v>
+        <v>23-131</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
@@ -10321,11 +10409,11 @@
       </c>
       <c r="B343">
         <f t="shared" si="32"/>
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C343" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23-135</v>
+        <v>23-132</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
@@ -10336,76 +10424,76 @@
         <v>23</v>
       </c>
       <c r="B344">
-        <f t="shared" ref="B344:B365" si="35">IF(A344=A343,B343+1,1)</f>
-        <v>136</v>
+        <f t="shared" si="32"/>
+        <v>133</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" ref="C344:C365" si="36">CONCATENATE(A344,"-",B344)</f>
-        <v>23-136</v>
+        <f t="shared" si="33"/>
+        <v>23-133</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" ref="A345:A365" si="37">A344</f>
+        <f t="shared" si="34"/>
         <v>23</v>
       </c>
       <c r="B345">
+        <f t="shared" si="32"/>
+        <v>134</v>
+      </c>
+      <c r="C345" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>23-134</v>
+      </c>
+      <c r="L345" s="6"/>
+      <c r="M345" s="6"/>
+    </row>
+    <row r="346" spans="1:13" ht="15">
+      <c r="A346">
+        <f t="shared" si="34"/>
+        <v>23</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="32"/>
+        <v>135</v>
+      </c>
+      <c r="C346" s="3" t="str">
+        <f t="shared" si="33"/>
+        <v>23-135</v>
+      </c>
+      <c r="L346" s="6"/>
+      <c r="M346" s="6"/>
+    </row>
+    <row r="347" spans="1:13" ht="15">
+      <c r="A347">
+        <f t="shared" si="34"/>
+        <v>23</v>
+      </c>
+      <c r="B347">
+        <f t="shared" ref="B347:B368" si="35">IF(A347=A346,B346+1,1)</f>
+        <v>136</v>
+      </c>
+      <c r="C347" s="3" t="str">
+        <f t="shared" ref="C347:C368" si="36">CONCATENATE(A347,"-",B347)</f>
+        <v>23-136</v>
+      </c>
+      <c r="L347" s="6"/>
+      <c r="M347" s="6"/>
+    </row>
+    <row r="348" spans="1:13" ht="15">
+      <c r="A348">
+        <f t="shared" ref="A348:A368" si="37">A347</f>
+        <v>23</v>
+      </c>
+      <c r="B348">
         <f t="shared" si="35"/>
         <v>137</v>
       </c>
-      <c r="C345" s="3" t="str">
+      <c r="C348" s="3" t="str">
         <f t="shared" si="36"/>
         <v>23-137</v>
-      </c>
-      <c r="L345" s="6"/>
-      <c r="M345" s="6"/>
-    </row>
-    <row r="346" spans="1:13" ht="15">
-      <c r="A346">
-        <f t="shared" si="37"/>
-        <v>23</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="35"/>
-        <v>138</v>
-      </c>
-      <c r="C346" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>23-138</v>
-      </c>
-      <c r="L346" s="6"/>
-      <c r="M346" s="6"/>
-    </row>
-    <row r="347" spans="1:13" ht="15">
-      <c r="A347">
-        <f t="shared" si="37"/>
-        <v>23</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="35"/>
-        <v>139</v>
-      </c>
-      <c r="C347" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>23-139</v>
-      </c>
-      <c r="L347" s="6"/>
-      <c r="M347" s="6"/>
-    </row>
-    <row r="348" spans="1:13" ht="15">
-      <c r="A348">
-        <f t="shared" si="37"/>
-        <v>23</v>
-      </c>
-      <c r="B348">
-        <f t="shared" si="35"/>
-        <v>140</v>
-      </c>
-      <c r="C348" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>23-140</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
@@ -10417,11 +10505,11 @@
       </c>
       <c r="B349">
         <f t="shared" si="35"/>
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C349" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-141</v>
+        <v>23-138</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
@@ -10433,11 +10521,11 @@
       </c>
       <c r="B350">
         <f t="shared" si="35"/>
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C350" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-142</v>
+        <v>23-139</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
@@ -10449,11 +10537,11 @@
       </c>
       <c r="B351">
         <f t="shared" si="35"/>
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C351" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-143</v>
+        <v>23-140</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
@@ -10465,11 +10553,11 @@
       </c>
       <c r="B352">
         <f t="shared" si="35"/>
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C352" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-144</v>
+        <v>23-141</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
@@ -10481,11 +10569,11 @@
       </c>
       <c r="B353">
         <f t="shared" si="35"/>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C353" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-145</v>
+        <v>23-142</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
@@ -10497,11 +10585,11 @@
       </c>
       <c r="B354">
         <f t="shared" si="35"/>
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C354" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-146</v>
+        <v>23-143</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
@@ -10513,11 +10601,11 @@
       </c>
       <c r="B355">
         <f t="shared" si="35"/>
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C355" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-147</v>
+        <v>23-144</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
@@ -10529,11 +10617,11 @@
       </c>
       <c r="B356">
         <f t="shared" si="35"/>
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C356" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-148</v>
+        <v>23-145</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
@@ -10545,11 +10633,11 @@
       </c>
       <c r="B357">
         <f t="shared" si="35"/>
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C357" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-149</v>
+        <v>23-146</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
@@ -10561,11 +10649,11 @@
       </c>
       <c r="B358">
         <f t="shared" si="35"/>
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C358" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-150</v>
+        <v>23-147</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
@@ -10577,11 +10665,11 @@
       </c>
       <c r="B359">
         <f t="shared" si="35"/>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C359" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-151</v>
+        <v>23-148</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
@@ -10593,11 +10681,11 @@
       </c>
       <c r="B360">
         <f t="shared" si="35"/>
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C360" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-152</v>
+        <v>23-149</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
@@ -10609,11 +10697,11 @@
       </c>
       <c r="B361">
         <f t="shared" si="35"/>
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C361" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-153</v>
+        <v>23-150</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
@@ -10625,11 +10713,11 @@
       </c>
       <c r="B362">
         <f t="shared" si="35"/>
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C362" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-154</v>
+        <v>23-151</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
@@ -10641,11 +10729,11 @@
       </c>
       <c r="B363">
         <f t="shared" si="35"/>
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C363" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-155</v>
+        <v>23-152</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
@@ -10657,11 +10745,11 @@
       </c>
       <c r="B364">
         <f t="shared" si="35"/>
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C364" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-156</v>
+        <v>23-153</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
@@ -10673,24 +10761,60 @@
       </c>
       <c r="B365">
         <f t="shared" si="35"/>
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C365" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23-157</v>
+        <v>23-154</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
-    <row r="366" spans="1:13" ht="12.75">
+    <row r="366" spans="1:13" ht="15">
+      <c r="A366">
+        <f t="shared" si="37"/>
+        <v>23</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="35"/>
+        <v>155</v>
+      </c>
+      <c r="C366" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>23-155</v>
+      </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
-    <row r="367" spans="1:13" ht="12.75">
+    <row r="367" spans="1:13" ht="15">
+      <c r="A367">
+        <f t="shared" si="37"/>
+        <v>23</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="35"/>
+        <v>156</v>
+      </c>
+      <c r="C367" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>23-156</v>
+      </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
-    <row r="368" spans="1:13" ht="12.75">
+    <row r="368" spans="1:13" ht="15">
+      <c r="A368">
+        <f t="shared" si="37"/>
+        <v>23</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="35"/>
+        <v>157</v>
+      </c>
+      <c r="C368" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>23-157</v>
+      </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
@@ -13430,278 +13554,290 @@
       <c r="L1052" s="6"/>
       <c r="M1052" s="6"/>
     </row>
+    <row r="1053" spans="12:13" ht="12.75">
+      <c r="L1053" s="6"/>
+      <c r="M1053" s="6"/>
+    </row>
+    <row r="1054" spans="12:13" ht="12.75">
+      <c r="L1054" s="6"/>
+      <c r="M1054" s="6"/>
+    </row>
+    <row r="1055" spans="12:13" ht="12.75">
+      <c r="L1055" s="6"/>
+      <c r="M1055" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L174:L177"/>
+    <mergeCell ref="L177:L180"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K185">
+  <conditionalFormatting sqref="K2:K188">
     <cfRule type="containsBlanks" dxfId="53" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K185">
+  <conditionalFormatting sqref="K2:K188">
     <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K185">
+  <conditionalFormatting sqref="K2:K188">
     <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K186">
+  <conditionalFormatting sqref="K189">
     <cfRule type="containsBlanks" dxfId="50" priority="55">
-      <formula>LEN(TRIM(K186))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K186))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K186">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K186))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K187">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
-      <formula>LEN(TRIM(K187))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K187">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K187))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K187">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K187))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
-      <formula>LEN(TRIM(K188))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K188))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K188">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K188))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K189">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
       <formula>LEN(TRIM(K189))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K189))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K189">
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K189))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
+      <formula>LEN(TRIM(K190))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K190">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsBlanks" dxfId="38" priority="40">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
       <formula>LEN(TRIM(K191))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K193">
-    <cfRule type="containsBlanks" dxfId="37" priority="37">
-      <formula>LEN(TRIM(K193))=0</formula>
+  <conditionalFormatting sqref="K191">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K195">
-    <cfRule type="containsBlanks" dxfId="36" priority="34">
-      <formula>LEN(TRIM(K195))=0</formula>
+  <conditionalFormatting sqref="K191">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
+      <formula>LEN(TRIM(K192))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K192">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
+      <formula>LEN(TRIM(K194))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsBlanks" dxfId="35" priority="31">
+    <cfRule type="containsBlanks" dxfId="37" priority="37">
       <formula>LEN(TRIM(K196))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="34" priority="28">
+    <cfRule type="containsBlanks" dxfId="36" priority="34">
       <formula>LEN(TRIM(K198))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsBlanks" dxfId="35" priority="31">
+      <formula>LEN(TRIM(K199))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsBlanks" dxfId="34" priority="28">
+      <formula>LEN(TRIM(K201))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsBlanks" dxfId="33" priority="25">
+      <formula>LEN(TRIM(K203))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsBlanks" dxfId="32" priority="22">
+      <formula>LEN(TRIM(K205))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K195))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K197))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K193">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
+      <formula>LEN(TRIM(K193))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="33" priority="25">
+    <cfRule type="containsBlanks" dxfId="22" priority="7">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="32" priority="22">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K192">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
-      <formula>LEN(TRIM(K192))=0</formula>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
-      <formula>LEN(TRIM(K194))=0</formula>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K195">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
-      <formula>LEN(TRIM(K190))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
-      <formula>LEN(TRIM(K197))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
-      <formula>LEN(TRIM(K199))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
-      <formula>LEN(TRIM(K201))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
+  <conditionalFormatting sqref="K204">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="277">
   <si>
     <t>Test Number</t>
   </si>
@@ -821,6 +821,33 @@
   </si>
   <si>
     <t>Contents of Experiment Setup sub-tabs are enabled when instrument is NOT running</t>
+  </si>
+  <si>
+    <t>Config Version Control</t>
+  </si>
+  <si>
+    <t>New configurations get added to the local repository if on a branch named after your system</t>
+  </si>
+  <si>
+    <t>Config changes get committed to the local repository if on a branch named after your system</t>
+  </si>
+  <si>
+    <t>Config changes get pushed to remote repository if on a branch named after your system</t>
+  </si>
+  <si>
+    <t>Config changes do not get committed if on a branch starting with ND that is not your system name</t>
+  </si>
+  <si>
+    <t>Configs starting with rcptt_ are not added to a repo</t>
+  </si>
+  <si>
+    <t>Read-only access</t>
+  </si>
+  <si>
+    <t>Current configuration can be viewed on instruments where you do not have write access</t>
+  </si>
+  <si>
+    <t>Right-click edit block does not work on read-only instruments</t>
   </si>
 </sst>
 </file>
@@ -890,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -966,15 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -988,19 +1006,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1049,9 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1063,11 +1080,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1083,19 +1096,113 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2152,8 +2259,8 @@
   <dimension ref="A1:N1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3346,35 +3453,35 @@
       <c r="L41" s="8"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="32" customFormat="1" ht="45">
-      <c r="A42" s="32">
+    <row r="42" spans="1:13" s="29" customFormat="1" ht="45">
+      <c r="A42" s="29">
         <f>A40</f>
         <v>6</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="29">
         <f>IF(A42=A41,B41+1,1)</f>
         <v>14</v>
       </c>
-      <c r="C42" s="31" t="str">
+      <c r="C42" s="28" t="str">
         <f t="shared" si="1"/>
         <v>6-14</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
     </row>
     <row r="43" spans="1:13" ht="45">
       <c r="A43">
@@ -3395,7 +3502,7 @@
       <c r="G43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3425,7 +3532,7 @@
       <c r="G44" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -3455,7 +3562,7 @@
       <c r="G45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3485,7 +3592,7 @@
       <c r="G46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="34" t="s">
+      <c r="H46" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -3515,7 +3622,7 @@
       <c r="G47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -3535,7 +3642,7 @@
         <f>IF(A48=A47,B47+1,1)</f>
         <v>20</v>
       </c>
-      <c r="C48" s="37" t="str">
+      <c r="C48" s="34" t="str">
         <f>CONCATENATE(A48,"-",B48)</f>
         <v>6-20</v>
       </c>
@@ -3545,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="9"/>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="8" t="s">
@@ -3577,7 +3684,7 @@
         <v>47</v>
       </c>
       <c r="G49" s="9"/>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="31" t="s">
         <v>46</v>
       </c>
       <c r="I49" s="8" t="s">
@@ -6387,7 +6494,7 @@
       <c r="H147" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I147" s="41" t="s">
+      <c r="I147" s="35" t="s">
         <v>265</v>
       </c>
       <c r="J147" s="8"/>
@@ -7314,7 +7421,7 @@
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="38"/>
+      <c r="L178" s="40"/>
     </row>
     <row r="179" spans="1:13" ht="30">
       <c r="A179">
@@ -7343,7 +7450,7 @@
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="39"/>
+      <c r="L179" s="41"/>
       <c r="M179" s="6"/>
     </row>
     <row r="180" spans="1:13" ht="45">
@@ -7373,7 +7480,7 @@
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="39"/>
+      <c r="L180" s="41"/>
       <c r="M180" s="6"/>
     </row>
     <row r="181" spans="1:13" ht="30">
@@ -7403,7 +7510,7 @@
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="40"/>
+      <c r="L181" s="42"/>
       <c r="M181" s="6"/>
     </row>
     <row r="182" spans="1:13" ht="30">
@@ -8194,23 +8301,23 @@
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207" s="23" t="str">
+      <c r="C207" s="22" t="str">
         <f>CONCATENATE(A207,"-",B207)</f>
         <v>22-1</v>
       </c>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24"/>
-      <c r="G207" s="25"/>
-      <c r="H207" s="25" t="s">
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I207" s="26" t="s">
+      <c r="I207" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="J207" s="24"/>
-      <c r="K207" s="24"/>
-      <c r="L207" s="27"/>
+      <c r="J207" s="23"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="26"/>
       <c r="M207" s="6"/>
     </row>
     <row r="208" spans="1:13" ht="39">
@@ -8222,23 +8329,23 @@
         <f>IF(A208=A207,B207+1,1)</f>
         <v>2</v>
       </c>
-      <c r="C208" s="23" t="str">
+      <c r="C208" s="22" t="str">
         <f t="shared" si="12"/>
         <v>22-2</v>
       </c>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24"/>
-      <c r="G208" s="24"/>
-      <c r="H208" s="25" t="s">
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I208" s="26" t="s">
+      <c r="I208" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="J208" s="24"/>
-      <c r="K208" s="24"/>
-      <c r="L208" s="27"/>
+      <c r="J208" s="23"/>
+      <c r="K208" s="21"/>
+      <c r="L208" s="26"/>
       <c r="M208" s="6"/>
     </row>
     <row r="209" spans="1:13" ht="26.25">
@@ -8250,23 +8357,23 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="C209" s="23" t="str">
+      <c r="C209" s="22" t="str">
         <f t="shared" si="12"/>
         <v>22-3</v>
       </c>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24"/>
-      <c r="G209" s="24"/>
-      <c r="H209" s="25" t="s">
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I209" s="26" t="s">
+      <c r="I209" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="J209" s="24"/>
-      <c r="K209" s="24"/>
-      <c r="L209" s="27"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="21"/>
+      <c r="L209" s="26"/>
       <c r="M209" s="6"/>
     </row>
     <row r="210" spans="1:13" ht="15">
@@ -8278,23 +8385,23 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="C210" s="23" t="str">
+      <c r="C210" s="22" t="str">
         <f t="shared" si="12"/>
         <v>22-4</v>
       </c>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24"/>
-      <c r="G210" s="24"/>
-      <c r="H210" s="25" t="s">
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
+      <c r="H210" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I210" s="26" t="s">
+      <c r="I210" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="J210" s="24"/>
-      <c r="K210" s="24"/>
-      <c r="L210" s="27"/>
+      <c r="J210" s="23"/>
+      <c r="K210" s="21"/>
+      <c r="L210" s="26"/>
       <c r="M210" s="6"/>
     </row>
     <row r="211" spans="1:13" ht="15">
@@ -8306,23 +8413,23 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="C211" s="23" t="str">
+      <c r="C211" s="22" t="str">
         <f t="shared" si="12"/>
         <v>22-5</v>
       </c>
-      <c r="D211" s="24"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="24"/>
-      <c r="G211" s="24"/>
-      <c r="H211" s="25" t="s">
+      <c r="D211" s="23"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="I211" s="26" t="s">
+      <c r="I211" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="J211" s="24"/>
-      <c r="K211" s="24"/>
-      <c r="L211" s="27"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="21"/>
+      <c r="L211" s="26"/>
       <c r="M211" s="6"/>
     </row>
     <row r="212" spans="1:13" ht="15">
@@ -8334,26 +8441,26 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="C212" s="23" t="str">
+      <c r="C212" s="22" t="str">
         <f t="shared" si="12"/>
         <v>22-6</v>
       </c>
-      <c r="D212" s="24"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="24"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="29" t="s">
+      <c r="D212" s="37"/>
+      <c r="E212" s="37"/>
+      <c r="F212" s="37"/>
+      <c r="G212" s="37"/>
+      <c r="H212" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="I212" s="26" t="s">
+      <c r="I212" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="J212" s="24"/>
-      <c r="K212" s="24"/>
-      <c r="L212" s="27"/>
+      <c r="J212" s="37"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="39"/>
       <c r="M212" s="6"/>
     </row>
-    <row r="213" spans="1:13" ht="15">
+    <row r="213" spans="1:13" ht="26.25">
       <c r="A213">
         <v>23</v>
       </c>
@@ -8361,16 +8468,28 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="C213" s="22" t="str">
+      <c r="C213" s="36" t="str">
         <f t="shared" si="12"/>
         <v>23-1</v>
       </c>
-      <c r="H213" s="30"/>
-      <c r="I213" s="28"/>
-      <c r="L213" s="6"/>
+      <c r="D213" s="23"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H213" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I213" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="J213" s="23"/>
+      <c r="K213" s="21"/>
+      <c r="L213" s="26"/>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="1:13" ht="15">
+    <row r="214" spans="1:13" ht="26.25">
       <c r="A214">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -8383,10 +8502,24 @@
         <f t="shared" si="12"/>
         <v>23-2</v>
       </c>
-      <c r="L214" s="6"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H214" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I214" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="J214" s="23"/>
+      <c r="K214" s="21"/>
+      <c r="L214" s="26"/>
       <c r="M214" s="6"/>
     </row>
-    <row r="215" spans="1:13" ht="15">
+    <row r="215" spans="1:13" ht="26.25">
       <c r="A215">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -8399,10 +8532,24 @@
         <f t="shared" si="12"/>
         <v>23-3</v>
       </c>
-      <c r="L215" s="6"/>
+      <c r="D215" s="23"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H215" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I215" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="J215" s="23"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="26"/>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="1:13" ht="15">
+    <row r="216" spans="1:13" ht="39">
       <c r="A216">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -8415,7 +8562,21 @@
         <f t="shared" si="12"/>
         <v>23-4</v>
       </c>
-      <c r="L216" s="6"/>
+      <c r="D216" s="23"/>
+      <c r="E216" s="23"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H216" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I216" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="J216" s="23"/>
+      <c r="K216" s="21"/>
+      <c r="L216" s="26"/>
       <c r="M216" s="6"/>
     </row>
     <row r="217" spans="1:13" ht="15">
@@ -8431,2437 +8592,2478 @@
         <f t="shared" si="12"/>
         <v>23-5</v>
       </c>
-      <c r="L217" s="6"/>
+      <c r="D217" s="23"/>
+      <c r="E217" s="23"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H217" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="I217" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J217" s="23"/>
+      <c r="K217" s="21"/>
+      <c r="L217" s="26"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="1:13" ht="15">
+    <row r="218" spans="1:13" ht="26.25">
       <c r="A218">
-        <f t="shared" si="13"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B218">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C218" s="3" t="str">
         <f t="shared" si="12"/>
-        <v>23-6</v>
-      </c>
-      <c r="L218" s="6"/>
+        <v>24-1</v>
+      </c>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H218" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I218" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="J218" s="23"/>
+      <c r="K218" s="21"/>
+      <c r="L218" s="26"/>
       <c r="M218" s="6"/>
     </row>
-    <row r="219" spans="1:13" ht="15">
+    <row r="219" spans="1:13" ht="26.25">
       <c r="A219">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B219">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23-7</v>
-      </c>
-      <c r="L219" s="6"/>
+        <f t="shared" ref="C219" si="28">CONCATENATE(A219,"-",B219)</f>
+        <v>24-2</v>
+      </c>
+      <c r="D219" s="23"/>
+      <c r="E219" s="23"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H219" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="I219" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="J219" s="23"/>
+      <c r="K219" s="21"/>
+      <c r="L219" s="26"/>
       <c r="M219" s="6"/>
     </row>
     <row r="220" spans="1:13" ht="15">
       <c r="A220">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B220">
-        <f t="shared" ref="B220:B283" si="28">IF(A220=A219,B219+1,1)</f>
-        <v>8</v>
+        <f t="shared" ref="B220:B283" si="29">IF(A220=A219,B219+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f t="shared" ref="C220:C283" si="29">CONCATENATE(A220,"-",B220)</f>
-        <v>23-8</v>
+        <f t="shared" ref="C220:C283" si="30">CONCATENATE(A220,"-",B220)</f>
+        <v>24-3</v>
       </c>
       <c r="L220" s="6"/>
       <c r="M220" s="6"/>
     </row>
     <row r="221" spans="1:13" ht="15">
       <c r="A221">
-        <f t="shared" ref="A221:A284" si="30">A220</f>
-        <v>23</v>
+        <f t="shared" ref="A221:A284" si="31">A220</f>
+        <v>24</v>
       </c>
       <c r="B221">
-        <f t="shared" si="28"/>
-        <v>9</v>
+        <f t="shared" si="29"/>
+        <v>4</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-9</v>
+        <f t="shared" si="30"/>
+        <v>24-4</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="C222" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B222">
-        <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="C222" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-10</v>
+        <v>24-5</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
     </row>
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="C223" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B223">
-        <f t="shared" si="28"/>
-        <v>11</v>
-      </c>
-      <c r="C223" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-11</v>
+        <v>24-6</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
+      <c r="C224" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="28"/>
-        <v>12</v>
-      </c>
-      <c r="C224" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-12</v>
+        <v>24-7</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
     </row>
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="29"/>
+        <v>8</v>
+      </c>
+      <c r="C225" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="C225" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-13</v>
+        <v>24-8</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
     </row>
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="C226" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B226">
-        <f t="shared" si="28"/>
-        <v>14</v>
-      </c>
-      <c r="C226" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-14</v>
+        <v>24-9</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
     </row>
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="C227" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B227">
-        <f t="shared" si="28"/>
-        <v>15</v>
-      </c>
-      <c r="C227" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-15</v>
+        <v>24-10</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
     </row>
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="C228" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B228">
-        <f t="shared" si="28"/>
-        <v>16</v>
-      </c>
-      <c r="C228" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-16</v>
+        <v>24-11</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="C229" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B229">
-        <f t="shared" si="28"/>
-        <v>17</v>
-      </c>
-      <c r="C229" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-17</v>
+        <v>24-12</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="C230" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B230">
-        <f t="shared" si="28"/>
-        <v>18</v>
-      </c>
-      <c r="C230" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-18</v>
+        <v>24-13</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="C231" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B231">
-        <f t="shared" si="28"/>
-        <v>19</v>
-      </c>
-      <c r="C231" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-19</v>
+        <v>24-14</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="C232" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B232">
-        <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="C232" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-20</v>
+        <v>24-15</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="C233" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B233">
-        <f t="shared" si="28"/>
-        <v>21</v>
-      </c>
-      <c r="C233" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-21</v>
+        <v>24-16</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="C234" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="28"/>
-        <v>22</v>
-      </c>
-      <c r="C234" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-22</v>
+        <v>24-17</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="29"/>
+        <v>18</v>
+      </c>
+      <c r="C235" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="28"/>
-        <v>23</v>
-      </c>
-      <c r="C235" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-23</v>
+        <v>24-18</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="29"/>
+        <v>19</v>
+      </c>
+      <c r="C236" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="28"/>
-        <v>24</v>
-      </c>
-      <c r="C236" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-24</v>
+        <v>24-19</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+      <c r="C237" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="28"/>
-        <v>25</v>
-      </c>
-      <c r="C237" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-25</v>
+        <v>24-20</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+      <c r="C238" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="28"/>
-        <v>26</v>
-      </c>
-      <c r="C238" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-26</v>
+        <v>24-21</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="29"/>
+        <v>22</v>
+      </c>
+      <c r="C239" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="28"/>
-        <v>27</v>
-      </c>
-      <c r="C239" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-27</v>
+        <v>24-22</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="29"/>
+        <v>23</v>
+      </c>
+      <c r="C240" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="28"/>
-        <v>28</v>
-      </c>
-      <c r="C240" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-28</v>
+        <v>24-23</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="29"/>
+        <v>24</v>
+      </c>
+      <c r="C241" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="28"/>
-        <v>29</v>
-      </c>
-      <c r="C241" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-29</v>
+        <v>24-24</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="29"/>
+        <v>25</v>
+      </c>
+      <c r="C242" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="28"/>
-        <v>30</v>
-      </c>
-      <c r="C242" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-30</v>
+        <v>24-25</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+      <c r="C243" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="28"/>
-        <v>31</v>
-      </c>
-      <c r="C243" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-31</v>
+        <v>24-26</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+      <c r="C244" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="28"/>
-        <v>32</v>
-      </c>
-      <c r="C244" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-32</v>
+        <v>24-27</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+      <c r="C245" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="28"/>
-        <v>33</v>
-      </c>
-      <c r="C245" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-33</v>
+        <v>24-28</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="29"/>
+        <v>29</v>
+      </c>
+      <c r="C246" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="28"/>
-        <v>34</v>
-      </c>
-      <c r="C246" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-34</v>
+        <v>24-29</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+      <c r="C247" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="28"/>
-        <v>35</v>
-      </c>
-      <c r="C247" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-35</v>
+        <v>24-30</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="29"/>
+        <v>31</v>
+      </c>
+      <c r="C248" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="28"/>
-        <v>36</v>
-      </c>
-      <c r="C248" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-36</v>
+        <v>24-31</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+      <c r="C249" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="28"/>
-        <v>37</v>
-      </c>
-      <c r="C249" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-37</v>
+        <v>24-32</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="29"/>
+        <v>33</v>
+      </c>
+      <c r="C250" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="28"/>
-        <v>38</v>
-      </c>
-      <c r="C250" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-38</v>
+        <v>24-33</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="29"/>
+        <v>34</v>
+      </c>
+      <c r="C251" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="28"/>
-        <v>39</v>
-      </c>
-      <c r="C251" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-39</v>
+        <v>24-34</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="29"/>
+        <v>35</v>
+      </c>
+      <c r="C252" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="28"/>
-        <v>40</v>
-      </c>
-      <c r="C252" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-40</v>
+        <v>24-35</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="29"/>
+        <v>36</v>
+      </c>
+      <c r="C253" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="28"/>
-        <v>41</v>
-      </c>
-      <c r="C253" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-41</v>
+        <v>24-36</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="29"/>
+        <v>37</v>
+      </c>
+      <c r="C254" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="28"/>
-        <v>42</v>
-      </c>
-      <c r="C254" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-42</v>
+        <v>24-37</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="29"/>
+        <v>38</v>
+      </c>
+      <c r="C255" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="28"/>
-        <v>43</v>
-      </c>
-      <c r="C255" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-43</v>
+        <v>24-38</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="29"/>
+        <v>39</v>
+      </c>
+      <c r="C256" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="28"/>
-        <v>44</v>
-      </c>
-      <c r="C256" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-44</v>
+        <v>24-39</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="29"/>
+        <v>40</v>
+      </c>
+      <c r="C257" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="28"/>
-        <v>45</v>
-      </c>
-      <c r="C257" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-45</v>
+        <v>24-40</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="29"/>
+        <v>41</v>
+      </c>
+      <c r="C258" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B258">
-        <f t="shared" si="28"/>
-        <v>46</v>
-      </c>
-      <c r="C258" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-46</v>
+        <v>24-41</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="29"/>
+        <v>42</v>
+      </c>
+      <c r="C259" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="28"/>
-        <v>47</v>
-      </c>
-      <c r="C259" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-47</v>
+        <v>24-42</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="29"/>
+        <v>43</v>
+      </c>
+      <c r="C260" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="28"/>
-        <v>48</v>
-      </c>
-      <c r="C260" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-48</v>
+        <v>24-43</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="29"/>
+        <v>44</v>
+      </c>
+      <c r="C261" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="28"/>
-        <v>49</v>
-      </c>
-      <c r="C261" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-49</v>
+        <v>24-44</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="29"/>
+        <v>45</v>
+      </c>
+      <c r="C262" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="28"/>
-        <v>50</v>
-      </c>
-      <c r="C262" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-50</v>
+        <v>24-45</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="29"/>
+        <v>46</v>
+      </c>
+      <c r="C263" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="28"/>
-        <v>51</v>
-      </c>
-      <c r="C263" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-51</v>
+        <v>24-46</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="29"/>
+        <v>47</v>
+      </c>
+      <c r="C264" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="28"/>
-        <v>52</v>
-      </c>
-      <c r="C264" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-52</v>
+        <v>24-47</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="29"/>
+        <v>48</v>
+      </c>
+      <c r="C265" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="28"/>
-        <v>53</v>
-      </c>
-      <c r="C265" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-53</v>
+        <v>24-48</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="29"/>
+        <v>49</v>
+      </c>
+      <c r="C266" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="28"/>
-        <v>54</v>
-      </c>
-      <c r="C266" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-54</v>
+        <v>24-49</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="C267" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B267">
-        <f t="shared" si="28"/>
-        <v>55</v>
-      </c>
-      <c r="C267" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-55</v>
+        <v>24-50</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="29"/>
+        <v>51</v>
+      </c>
+      <c r="C268" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="28"/>
-        <v>56</v>
-      </c>
-      <c r="C268" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-56</v>
+        <v>24-51</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="29"/>
+        <v>52</v>
+      </c>
+      <c r="C269" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="28"/>
-        <v>57</v>
-      </c>
-      <c r="C269" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-57</v>
+        <v>24-52</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="29"/>
+        <v>53</v>
+      </c>
+      <c r="C270" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="28"/>
-        <v>58</v>
-      </c>
-      <c r="C270" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-58</v>
+        <v>24-53</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="29"/>
+        <v>54</v>
+      </c>
+      <c r="C271" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="28"/>
-        <v>59</v>
-      </c>
-      <c r="C271" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-59</v>
+        <v>24-54</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="29"/>
+        <v>55</v>
+      </c>
+      <c r="C272" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="28"/>
-        <v>60</v>
-      </c>
-      <c r="C272" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-60</v>
+        <v>24-55</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="29"/>
+        <v>56</v>
+      </c>
+      <c r="C273" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="28"/>
-        <v>61</v>
-      </c>
-      <c r="C273" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-61</v>
+        <v>24-56</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="C274" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="28"/>
-        <v>62</v>
-      </c>
-      <c r="C274" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-62</v>
+        <v>24-57</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="29"/>
+        <v>58</v>
+      </c>
+      <c r="C275" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="28"/>
-        <v>63</v>
-      </c>
-      <c r="C275" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-63</v>
+        <v>24-58</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="29"/>
+        <v>59</v>
+      </c>
+      <c r="C276" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="28"/>
-        <v>64</v>
-      </c>
-      <c r="C276" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-64</v>
+        <v>24-59</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="C277" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="28"/>
-        <v>65</v>
-      </c>
-      <c r="C277" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-65</v>
+        <v>24-60</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="29"/>
+        <v>61</v>
+      </c>
+      <c r="C278" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="28"/>
-        <v>66</v>
-      </c>
-      <c r="C278" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-66</v>
+        <v>24-61</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="29"/>
+        <v>62</v>
+      </c>
+      <c r="C279" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="28"/>
-        <v>67</v>
-      </c>
-      <c r="C279" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-67</v>
+        <v>24-62</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="29"/>
+        <v>63</v>
+      </c>
+      <c r="C280" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="28"/>
-        <v>68</v>
-      </c>
-      <c r="C280" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-68</v>
+        <v>24-63</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="29"/>
+        <v>64</v>
+      </c>
+      <c r="C281" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="28"/>
-        <v>69</v>
-      </c>
-      <c r="C281" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-69</v>
+        <v>24-64</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="29"/>
+        <v>65</v>
+      </c>
+      <c r="C282" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="28"/>
-        <v>70</v>
-      </c>
-      <c r="C282" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-70</v>
+        <v>24-65</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="29"/>
+        <v>66</v>
+      </c>
+      <c r="C283" s="3" t="str">
         <f t="shared" si="30"/>
-        <v>23</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="28"/>
-        <v>71</v>
-      </c>
-      <c r="C283" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>23-71</v>
+        <v>24-66</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="30"/>
-        <v>23</v>
+        <f t="shared" si="31"/>
+        <v>24</v>
       </c>
       <c r="B284">
-        <f t="shared" ref="B284:B347" si="31">IF(A284=A283,B283+1,1)</f>
-        <v>72</v>
+        <f t="shared" ref="B284:B347" si="32">IF(A284=A283,B283+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" ref="C284:C347" si="32">CONCATENATE(A284,"-",B284)</f>
-        <v>23-72</v>
+        <f t="shared" ref="C284:C347" si="33">CONCATENATE(A284,"-",B284)</f>
+        <v>24-67</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" ref="A285:A348" si="33">A284</f>
-        <v>23</v>
+        <f t="shared" ref="A285:A348" si="34">A284</f>
+        <v>24</v>
       </c>
       <c r="B285">
-        <f t="shared" si="31"/>
-        <v>73</v>
+        <f t="shared" si="32"/>
+        <v>68</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-73</v>
+        <f t="shared" si="33"/>
+        <v>24-68</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="32"/>
+        <v>69</v>
+      </c>
+      <c r="C286" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B286">
-        <f t="shared" si="31"/>
-        <v>74</v>
-      </c>
-      <c r="C286" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-74</v>
+        <v>24-69</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="32"/>
+        <v>70</v>
+      </c>
+      <c r="C287" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="31"/>
-        <v>75</v>
-      </c>
-      <c r="C287" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-75</v>
+        <v>24-70</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="C288" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="31"/>
-        <v>76</v>
-      </c>
-      <c r="C288" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-76</v>
+        <v>24-71</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="C289" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="31"/>
-        <v>77</v>
-      </c>
-      <c r="C289" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-77</v>
+        <v>24-72</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="32"/>
+        <v>73</v>
+      </c>
+      <c r="C290" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="31"/>
-        <v>78</v>
-      </c>
-      <c r="C290" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-78</v>
+        <v>24-73</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="32"/>
+        <v>74</v>
+      </c>
+      <c r="C291" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="31"/>
-        <v>79</v>
-      </c>
-      <c r="C291" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-79</v>
+        <v>24-74</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="32"/>
+        <v>75</v>
+      </c>
+      <c r="C292" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="31"/>
-        <v>80</v>
-      </c>
-      <c r="C292" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-80</v>
+        <v>24-75</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="32"/>
+        <v>76</v>
+      </c>
+      <c r="C293" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B293">
-        <f t="shared" si="31"/>
-        <v>81</v>
-      </c>
-      <c r="C293" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-81</v>
+        <v>24-76</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="32"/>
+        <v>77</v>
+      </c>
+      <c r="C294" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B294">
-        <f t="shared" si="31"/>
-        <v>82</v>
-      </c>
-      <c r="C294" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-82</v>
+        <v>24-77</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="32"/>
+        <v>78</v>
+      </c>
+      <c r="C295" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B295">
-        <f t="shared" si="31"/>
-        <v>83</v>
-      </c>
-      <c r="C295" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-83</v>
+        <v>24-78</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="32"/>
+        <v>79</v>
+      </c>
+      <c r="C296" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B296">
-        <f t="shared" si="31"/>
-        <v>84</v>
-      </c>
-      <c r="C296" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-84</v>
+        <v>24-79</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="32"/>
+        <v>80</v>
+      </c>
+      <c r="C297" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B297">
-        <f t="shared" si="31"/>
-        <v>85</v>
-      </c>
-      <c r="C297" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-85</v>
+        <v>24-80</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="32"/>
+        <v>81</v>
+      </c>
+      <c r="C298" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B298">
-        <f t="shared" si="31"/>
-        <v>86</v>
-      </c>
-      <c r="C298" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-86</v>
+        <v>24-81</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="32"/>
+        <v>82</v>
+      </c>
+      <c r="C299" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B299">
-        <f t="shared" si="31"/>
-        <v>87</v>
-      </c>
-      <c r="C299" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-87</v>
+        <v>24-82</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="32"/>
+        <v>83</v>
+      </c>
+      <c r="C300" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B300">
-        <f t="shared" si="31"/>
-        <v>88</v>
-      </c>
-      <c r="C300" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-88</v>
+        <v>24-83</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="32"/>
+        <v>84</v>
+      </c>
+      <c r="C301" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B301">
-        <f t="shared" si="31"/>
-        <v>89</v>
-      </c>
-      <c r="C301" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-89</v>
+        <v>24-84</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="32"/>
+        <v>85</v>
+      </c>
+      <c r="C302" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="31"/>
-        <v>90</v>
-      </c>
-      <c r="C302" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-90</v>
+        <v>24-85</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="32"/>
+        <v>86</v>
+      </c>
+      <c r="C303" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="31"/>
-        <v>91</v>
-      </c>
-      <c r="C303" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-91</v>
+        <v>24-86</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="32"/>
+        <v>87</v>
+      </c>
+      <c r="C304" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="31"/>
-        <v>92</v>
-      </c>
-      <c r="C304" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-92</v>
+        <v>24-87</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="32"/>
+        <v>88</v>
+      </c>
+      <c r="C305" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B305">
-        <f t="shared" si="31"/>
-        <v>93</v>
-      </c>
-      <c r="C305" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-93</v>
+        <v>24-88</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="32"/>
+        <v>89</v>
+      </c>
+      <c r="C306" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B306">
-        <f t="shared" si="31"/>
-        <v>94</v>
-      </c>
-      <c r="C306" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-94</v>
+        <v>24-89</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="32"/>
+        <v>90</v>
+      </c>
+      <c r="C307" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B307">
-        <f t="shared" si="31"/>
-        <v>95</v>
-      </c>
-      <c r="C307" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-95</v>
+        <v>24-90</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="32"/>
+        <v>91</v>
+      </c>
+      <c r="C308" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B308">
-        <f t="shared" si="31"/>
-        <v>96</v>
-      </c>
-      <c r="C308" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-96</v>
+        <v>24-91</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="32"/>
+        <v>92</v>
+      </c>
+      <c r="C309" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B309">
-        <f t="shared" si="31"/>
-        <v>97</v>
-      </c>
-      <c r="C309" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-97</v>
+        <v>24-92</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="32"/>
+        <v>93</v>
+      </c>
+      <c r="C310" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B310">
-        <f t="shared" si="31"/>
-        <v>98</v>
-      </c>
-      <c r="C310" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-98</v>
+        <v>24-93</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="32"/>
+        <v>94</v>
+      </c>
+      <c r="C311" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B311">
-        <f t="shared" si="31"/>
-        <v>99</v>
-      </c>
-      <c r="C311" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-99</v>
+        <v>24-94</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="32"/>
+        <v>95</v>
+      </c>
+      <c r="C312" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B312">
-        <f t="shared" si="31"/>
-        <v>100</v>
-      </c>
-      <c r="C312" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-100</v>
+        <v>24-95</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="32"/>
+        <v>96</v>
+      </c>
+      <c r="C313" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B313">
-        <f t="shared" si="31"/>
-        <v>101</v>
-      </c>
-      <c r="C313" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-101</v>
+        <v>24-96</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="32"/>
+        <v>97</v>
+      </c>
+      <c r="C314" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B314">
-        <f t="shared" si="31"/>
-        <v>102</v>
-      </c>
-      <c r="C314" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-102</v>
+        <v>24-97</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="32"/>
+        <v>98</v>
+      </c>
+      <c r="C315" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B315">
-        <f t="shared" si="31"/>
-        <v>103</v>
-      </c>
-      <c r="C315" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-103</v>
+        <v>24-98</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="32"/>
+        <v>99</v>
+      </c>
+      <c r="C316" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B316">
-        <f t="shared" si="31"/>
-        <v>104</v>
-      </c>
-      <c r="C316" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-104</v>
+        <v>24-99</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="C317" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B317">
-        <f t="shared" si="31"/>
-        <v>105</v>
-      </c>
-      <c r="C317" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-105</v>
+        <v>24-100</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="32"/>
+        <v>101</v>
+      </c>
+      <c r="C318" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B318">
-        <f t="shared" si="31"/>
-        <v>106</v>
-      </c>
-      <c r="C318" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-106</v>
+        <v>24-101</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="32"/>
+        <v>102</v>
+      </c>
+      <c r="C319" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B319">
-        <f t="shared" si="31"/>
-        <v>107</v>
-      </c>
-      <c r="C319" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-107</v>
+        <v>24-102</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="32"/>
+        <v>103</v>
+      </c>
+      <c r="C320" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B320">
-        <f t="shared" si="31"/>
-        <v>108</v>
-      </c>
-      <c r="C320" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-108</v>
+        <v>24-103</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="32"/>
+        <v>104</v>
+      </c>
+      <c r="C321" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B321">
-        <f t="shared" si="31"/>
-        <v>109</v>
-      </c>
-      <c r="C321" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-109</v>
+        <v>24-104</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="32"/>
+        <v>105</v>
+      </c>
+      <c r="C322" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B322">
-        <f t="shared" si="31"/>
-        <v>110</v>
-      </c>
-      <c r="C322" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-110</v>
+        <v>24-105</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="32"/>
+        <v>106</v>
+      </c>
+      <c r="C323" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B323">
-        <f t="shared" si="31"/>
-        <v>111</v>
-      </c>
-      <c r="C323" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-111</v>
+        <v>24-106</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="32"/>
+        <v>107</v>
+      </c>
+      <c r="C324" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B324">
-        <f t="shared" si="31"/>
-        <v>112</v>
-      </c>
-      <c r="C324" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-112</v>
+        <v>24-107</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="32"/>
+        <v>108</v>
+      </c>
+      <c r="C325" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B325">
-        <f t="shared" si="31"/>
-        <v>113</v>
-      </c>
-      <c r="C325" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-113</v>
+        <v>24-108</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="32"/>
+        <v>109</v>
+      </c>
+      <c r="C326" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="31"/>
-        <v>114</v>
-      </c>
-      <c r="C326" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-114</v>
+        <v>24-109</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="32"/>
+        <v>110</v>
+      </c>
+      <c r="C327" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B327">
-        <f t="shared" si="31"/>
-        <v>115</v>
-      </c>
-      <c r="C327" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-115</v>
+        <v>24-110</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="32"/>
+        <v>111</v>
+      </c>
+      <c r="C328" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B328">
-        <f t="shared" si="31"/>
-        <v>116</v>
-      </c>
-      <c r="C328" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-116</v>
+        <v>24-111</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="32"/>
+        <v>112</v>
+      </c>
+      <c r="C329" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B329">
-        <f t="shared" si="31"/>
-        <v>117</v>
-      </c>
-      <c r="C329" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-117</v>
+        <v>24-112</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="32"/>
+        <v>113</v>
+      </c>
+      <c r="C330" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B330">
-        <f t="shared" si="31"/>
-        <v>118</v>
-      </c>
-      <c r="C330" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-118</v>
+        <v>24-113</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="32"/>
+        <v>114</v>
+      </c>
+      <c r="C331" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B331">
-        <f t="shared" si="31"/>
-        <v>119</v>
-      </c>
-      <c r="C331" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-119</v>
+        <v>24-114</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="32"/>
+        <v>115</v>
+      </c>
+      <c r="C332" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B332">
-        <f t="shared" si="31"/>
-        <v>120</v>
-      </c>
-      <c r="C332" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-120</v>
+        <v>24-115</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="32"/>
+        <v>116</v>
+      </c>
+      <c r="C333" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="31"/>
-        <v>121</v>
-      </c>
-      <c r="C333" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-121</v>
+        <v>24-116</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="32"/>
+        <v>117</v>
+      </c>
+      <c r="C334" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B334">
-        <f t="shared" si="31"/>
-        <v>122</v>
-      </c>
-      <c r="C334" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-122</v>
+        <v>24-117</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="32"/>
+        <v>118</v>
+      </c>
+      <c r="C335" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B335">
-        <f t="shared" si="31"/>
-        <v>123</v>
-      </c>
-      <c r="C335" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-123</v>
+        <v>24-118</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="32"/>
+        <v>119</v>
+      </c>
+      <c r="C336" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B336">
-        <f t="shared" si="31"/>
-        <v>124</v>
-      </c>
-      <c r="C336" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-124</v>
+        <v>24-119</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="32"/>
+        <v>120</v>
+      </c>
+      <c r="C337" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B337">
-        <f t="shared" si="31"/>
-        <v>125</v>
-      </c>
-      <c r="C337" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-125</v>
+        <v>24-120</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="32"/>
+        <v>121</v>
+      </c>
+      <c r="C338" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B338">
-        <f t="shared" si="31"/>
-        <v>126</v>
-      </c>
-      <c r="C338" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-126</v>
+        <v>24-121</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="32"/>
+        <v>122</v>
+      </c>
+      <c r="C339" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B339">
-        <f t="shared" si="31"/>
-        <v>127</v>
-      </c>
-      <c r="C339" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-127</v>
+        <v>24-122</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="32"/>
+        <v>123</v>
+      </c>
+      <c r="C340" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B340">
-        <f t="shared" si="31"/>
-        <v>128</v>
-      </c>
-      <c r="C340" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-128</v>
+        <v>24-123</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="32"/>
+        <v>124</v>
+      </c>
+      <c r="C341" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B341">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="C341" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-129</v>
+        <v>24-124</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="32"/>
+        <v>125</v>
+      </c>
+      <c r="C342" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B342">
-        <f t="shared" si="31"/>
-        <v>130</v>
-      </c>
-      <c r="C342" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-130</v>
+        <v>24-125</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="32"/>
+        <v>126</v>
+      </c>
+      <c r="C343" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="31"/>
-        <v>131</v>
-      </c>
-      <c r="C343" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-131</v>
+        <v>24-126</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="32"/>
+        <v>127</v>
+      </c>
+      <c r="C344" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B344">
-        <f t="shared" si="31"/>
-        <v>132</v>
-      </c>
-      <c r="C344" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-132</v>
+        <v>24-127</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="32"/>
+        <v>128</v>
+      </c>
+      <c r="C345" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B345">
-        <f t="shared" si="31"/>
-        <v>133</v>
-      </c>
-      <c r="C345" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-133</v>
+        <v>24-128</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="32"/>
+        <v>129</v>
+      </c>
+      <c r="C346" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="31"/>
-        <v>134</v>
-      </c>
-      <c r="C346" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-134</v>
+        <v>24-129</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="32"/>
+        <v>130</v>
+      </c>
+      <c r="C347" s="3" t="str">
         <f t="shared" si="33"/>
-        <v>23</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="31"/>
-        <v>135</v>
-      </c>
-      <c r="C347" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>23-135</v>
+        <v>24-130</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
-        <f t="shared" si="33"/>
-        <v>23</v>
+        <f t="shared" si="34"/>
+        <v>24</v>
       </c>
       <c r="B348">
-        <f t="shared" ref="B348:B369" si="34">IF(A348=A347,B347+1,1)</f>
-        <v>136</v>
+        <f t="shared" ref="B348:B369" si="35">IF(A348=A347,B347+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" ref="C348:C369" si="35">CONCATENATE(A348,"-",B348)</f>
-        <v>23-136</v>
+        <f t="shared" ref="C348:C369" si="36">CONCATENATE(A348,"-",B348)</f>
+        <v>24-131</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
-        <f t="shared" ref="A349:A369" si="36">A348</f>
-        <v>23</v>
+        <f t="shared" ref="A349:A369" si="37">A348</f>
+        <v>24</v>
       </c>
       <c r="B349">
-        <f t="shared" si="34"/>
-        <v>137</v>
+        <f t="shared" si="35"/>
+        <v>132</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-137</v>
+        <f t="shared" si="36"/>
+        <v>24-132</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="35"/>
+        <v>133</v>
+      </c>
+      <c r="C350" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B350">
-        <f t="shared" si="34"/>
-        <v>138</v>
-      </c>
-      <c r="C350" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-138</v>
+        <v>24-133</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="35"/>
+        <v>134</v>
+      </c>
+      <c r="C351" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B351">
-        <f t="shared" si="34"/>
-        <v>139</v>
-      </c>
-      <c r="C351" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-139</v>
+        <v>24-134</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="35"/>
+        <v>135</v>
+      </c>
+      <c r="C352" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B352">
-        <f t="shared" si="34"/>
-        <v>140</v>
-      </c>
-      <c r="C352" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-140</v>
+        <v>24-135</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="35"/>
+        <v>136</v>
+      </c>
+      <c r="C353" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B353">
-        <f t="shared" si="34"/>
-        <v>141</v>
-      </c>
-      <c r="C353" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-141</v>
+        <v>24-136</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="35"/>
+        <v>137</v>
+      </c>
+      <c r="C354" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B354">
-        <f t="shared" si="34"/>
-        <v>142</v>
-      </c>
-      <c r="C354" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-142</v>
+        <v>24-137</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="35"/>
+        <v>138</v>
+      </c>
+      <c r="C355" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B355">
-        <f t="shared" si="34"/>
-        <v>143</v>
-      </c>
-      <c r="C355" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-143</v>
+        <v>24-138</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="35"/>
+        <v>139</v>
+      </c>
+      <c r="C356" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B356">
-        <f t="shared" si="34"/>
-        <v>144</v>
-      </c>
-      <c r="C356" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-144</v>
+        <v>24-139</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="35"/>
+        <v>140</v>
+      </c>
+      <c r="C357" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B357">
-        <f t="shared" si="34"/>
-        <v>145</v>
-      </c>
-      <c r="C357" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-145</v>
+        <v>24-140</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="35"/>
+        <v>141</v>
+      </c>
+      <c r="C358" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B358">
-        <f t="shared" si="34"/>
-        <v>146</v>
-      </c>
-      <c r="C358" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-146</v>
+        <v>24-141</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="35"/>
+        <v>142</v>
+      </c>
+      <c r="C359" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="34"/>
-        <v>147</v>
-      </c>
-      <c r="C359" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-147</v>
+        <v>24-142</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="35"/>
+        <v>143</v>
+      </c>
+      <c r="C360" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B360">
-        <f t="shared" si="34"/>
-        <v>148</v>
-      </c>
-      <c r="C360" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-148</v>
+        <v>24-143</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="35"/>
+        <v>144</v>
+      </c>
+      <c r="C361" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B361">
-        <f t="shared" si="34"/>
-        <v>149</v>
-      </c>
-      <c r="C361" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-149</v>
+        <v>24-144</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="35"/>
+        <v>145</v>
+      </c>
+      <c r="C362" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B362">
-        <f t="shared" si="34"/>
-        <v>150</v>
-      </c>
-      <c r="C362" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-150</v>
+        <v>24-145</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="35"/>
+        <v>146</v>
+      </c>
+      <c r="C363" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B363">
-        <f t="shared" si="34"/>
-        <v>151</v>
-      </c>
-      <c r="C363" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-151</v>
+        <v>24-146</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="35"/>
+        <v>147</v>
+      </c>
+      <c r="C364" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B364">
-        <f t="shared" si="34"/>
-        <v>152</v>
-      </c>
-      <c r="C364" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-152</v>
+        <v>24-147</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="35"/>
+        <v>148</v>
+      </c>
+      <c r="C365" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B365">
-        <f t="shared" si="34"/>
-        <v>153</v>
-      </c>
-      <c r="C365" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-153</v>
+        <v>24-148</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="35"/>
+        <v>149</v>
+      </c>
+      <c r="C366" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B366">
-        <f t="shared" si="34"/>
-        <v>154</v>
-      </c>
-      <c r="C366" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-154</v>
+        <v>24-149</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="35"/>
+        <v>150</v>
+      </c>
+      <c r="C367" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B367">
-        <f t="shared" si="34"/>
-        <v>155</v>
-      </c>
-      <c r="C367" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-155</v>
+        <v>24-150</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="35"/>
+        <v>151</v>
+      </c>
+      <c r="C368" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B368">
-        <f t="shared" si="34"/>
-        <v>156</v>
-      </c>
-      <c r="C368" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-156</v>
+        <v>24-151</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
+        <f t="shared" si="37"/>
+        <v>24</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="35"/>
+        <v>152</v>
+      </c>
+      <c r="C369" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>23</v>
-      </c>
-      <c r="B369">
-        <f t="shared" si="34"/>
-        <v>157</v>
-      </c>
-      <c r="C369" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>23-157</v>
+        <v>24-152</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
@@ -13619,272 +13821,272 @@
     <mergeCell ref="L178:L181"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsBlanks" dxfId="53" priority="58">
+    <cfRule type="containsBlanks" dxfId="59" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="containsBlanks" dxfId="50" priority="55">
+    <cfRule type="containsBlanks" dxfId="56" priority="55">
       <formula>LEN(TRIM(K190))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
+    <cfRule type="containsBlanks" dxfId="53" priority="49">
       <formula>LEN(TRIM(K191))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
+    <cfRule type="containsBlanks" dxfId="50" priority="46">
       <formula>LEN(TRIM(K192))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="47" priority="43">
       <formula>LEN(TRIM(K193))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsBlanks" dxfId="38" priority="40">
+    <cfRule type="containsBlanks" dxfId="44" priority="40">
       <formula>LEN(TRIM(K195))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="37" priority="37">
+    <cfRule type="containsBlanks" dxfId="43" priority="37">
       <formula>LEN(TRIM(K197))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="36" priority="34">
+    <cfRule type="containsBlanks" dxfId="42" priority="34">
       <formula>LEN(TRIM(K199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="35" priority="31">
+    <cfRule type="containsBlanks" dxfId="41" priority="31">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="34" priority="28">
+    <cfRule type="containsBlanks" dxfId="40" priority="28">
       <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="33" priority="25">
+    <cfRule type="containsBlanks" dxfId="39" priority="25">
       <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="32" priority="22">
+  <conditionalFormatting sqref="K206:K219">
+    <cfRule type="containsBlanks" dxfId="38" priority="22">
       <formula>LEN(TRIM(K206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
+    <cfRule type="containsBlanks" dxfId="37" priority="16">
       <formula>LEN(TRIM(K196))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
+    <cfRule type="containsBlanks" dxfId="34" priority="13">
       <formula>LEN(TRIM(K198))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
+    <cfRule type="containsBlanks" dxfId="31" priority="10">
       <formula>LEN(TRIM(K194))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
+    <cfRule type="containsBlanks" dxfId="28" priority="7">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="25" priority="4">
       <formula>LEN(TRIM(K203))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="22" priority="1">
       <formula>LEN(TRIM(K205))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K206:K219">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K206:K219">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="277">
   <si>
     <t>Test Number</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Edit the current config (select a component) and cancel, no changes seen</t>
   </si>
   <si>
-    <t>Edit the current config (set IOC macro), and save it, changes stored</t>
-  </si>
-  <si>
     <t>Edit the current config (set IOC macro) and cancel, no changes seen</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t>Value returned as "*** diconnected ***"</t>
   </si>
   <si>
-    <t>15-30</t>
-  </si>
-  <si>
     <t>New block log settings default to enabled and 30 s rate</t>
   </si>
   <si>
@@ -848,6 +842,12 @@
   </si>
   <si>
     <t>Right-click edit block does not work on read-only instruments</t>
+  </si>
+  <si>
+    <t>Edit the current config (set IOC macro), and save it, changes stored. Verify that the changes have been applied at the IOC level</t>
+  </si>
+  <si>
+    <t>Edit a config (not current) by setting some IOC macros. Load the config. Verify the new macro values are displayed in the config and that they are applied to the respective IOCs</t>
   </si>
 </sst>
 </file>
@@ -1118,91 +1118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2256,11 +2172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1056"/>
+  <dimension ref="A1:N1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I220" sqref="I220"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2281,10 +2197,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="57">
       <c r="A1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2308,7 +2224,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2338,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
@@ -3097,28 +3013,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="8"/>
@@ -3417,7 +3333,7 @@
         <v>46</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="7"/>
@@ -3446,7 +3362,7 @@
         <v>46</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="9"/>
@@ -3656,10 +3572,10 @@
         <v>46</v>
       </c>
       <c r="I48" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="8"/>
@@ -3688,10 +3604,10 @@
         <v>46</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="8"/>
@@ -4185,28 +4101,28 @@
         <v>11</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="8"/>
@@ -4228,7 +4144,7 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>63</v>
@@ -4237,10 +4153,10 @@
         <v>71</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="8"/>
@@ -4263,23 +4179,23 @@
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>71</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M68" s="6"/>
     </row>
@@ -4376,11 +4292,11 @@
         <v>10</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B137" si="6">IF(A72=A71,B71+1,1)</f>
+        <f t="shared" ref="B72:B138" si="6">IF(A72=A71,B71+1,1)</f>
         <v>2</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" ref="C72:C137" si="7">CONCATENATE(A72,"-",B72)</f>
+        <f t="shared" ref="C72:C138" si="7">CONCATENATE(A72,"-",B72)</f>
         <v>10-2</v>
       </c>
       <c r="D72" s="5"/>
@@ -4400,7 +4316,7 @@
     </row>
     <row r="73" spans="1:13" ht="15">
       <c r="A73">
-        <f t="shared" ref="A73:A138" si="8">A72</f>
+        <f t="shared" ref="A73:A139" si="8">A72</f>
         <v>10</v>
       </c>
       <c r="B73">
@@ -4530,10 +4446,10 @@
         <v>90</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J77" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="K77" s="7"/>
       <c r="L77" s="8"/>
@@ -4563,7 +4479,7 @@
         <v>92</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78" s="1"/>
@@ -4590,10 +4506,10 @@
         <v>90</v>
       </c>
       <c r="I79" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J79" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="8"/>
@@ -4617,10 +4533,10 @@
         <v>90</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="8"/>
@@ -4649,10 +4565,10 @@
         <v>90</v>
       </c>
       <c r="I81" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="8"/>
@@ -5246,13 +5162,13 @@
       <c r="L102" s="8"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:13" ht="30">
+    <row r="103" spans="1:13" ht="45">
       <c r="A103">
-        <f t="shared" si="8"/>
+        <f>A102</f>
         <v>15</v>
       </c>
       <c r="B103">
-        <f t="shared" si="6"/>
+        <f>IF(A103=A102,B102+1,1)</f>
         <v>9</v>
       </c>
       <c r="C103" s="3" t="str">
@@ -5267,7 +5183,7 @@
         <v>109</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="J103" s="8"/>
       <c r="K103" s="7"/>
@@ -5295,38 +5211,38 @@
         <v>109</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J104" s="8"/>
       <c r="K104" s="7"/>
       <c r="L104" s="8"/>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="1:13" ht="30">
+    <row r="105" spans="1:13" ht="60">
       <c r="A105">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B105">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B105:B106" si="11">IF(A105=A104,B104+1,1)</f>
         <v>11</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C105:C106" si="12">CONCATENATE(A105,"-",B105)</f>
         <v>15-11</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7" t="s">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>120</v>
+      <c r="I105" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="J105" s="8"/>
-      <c r="K105" s="7"/>
+      <c r="K105" s="9"/>
       <c r="L105" s="8"/>
       <c r="M105" s="6"/>
     </row>
@@ -5336,11 +5252,11 @@
         <v>15</v>
       </c>
       <c r="B106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>15-12</v>
       </c>
       <c r="D106" s="5"/>
@@ -5351,7 +5267,7 @@
         <v>109</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J106" s="8"/>
       <c r="K106" s="7"/>
@@ -5364,11 +5280,11 @@
         <v>15</v>
       </c>
       <c r="B107">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B107:B148" si="13">IF(A107=A106,B106+1,1)</f>
         <v>13</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C107:C148" si="14">CONCATENATE(A107,"-",B107)</f>
         <v>15-13</v>
       </c>
       <c r="D107" s="5"/>
@@ -5379,11 +5295,11 @@
         <v>109</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J107" s="8"/>
       <c r="K107" s="7"/>
-      <c r="L107" s="1"/>
+      <c r="L107" s="8"/>
       <c r="M107" s="6"/>
     </row>
     <row r="108" spans="1:13" ht="30">
@@ -5392,11 +5308,11 @@
         <v>15</v>
       </c>
       <c r="B108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-14</v>
       </c>
       <c r="D108" s="5"/>
@@ -5407,11 +5323,11 @@
         <v>109</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J108" s="8"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
+      <c r="L108" s="1"/>
       <c r="M108" s="6"/>
     </row>
     <row r="109" spans="1:13" ht="30">
@@ -5420,11 +5336,11 @@
         <v>15</v>
       </c>
       <c r="B109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-15</v>
       </c>
       <c r="D109" s="5"/>
@@ -5435,7 +5351,7 @@
         <v>109</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J109" s="8"/>
       <c r="K109" s="7"/>
@@ -5448,11 +5364,11 @@
         <v>15</v>
       </c>
       <c r="B110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-16</v>
       </c>
       <c r="D110" s="5"/>
@@ -5463,24 +5379,24 @@
         <v>109</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="7"/>
       <c r="L110" s="8"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13" ht="30">
       <c r="A111">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-17</v>
       </c>
       <c r="D111" s="5"/>
@@ -5491,7 +5407,7 @@
         <v>109</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J111" s="8"/>
       <c r="K111" s="7"/>
@@ -5504,11 +5420,11 @@
         <v>15</v>
       </c>
       <c r="B112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-18</v>
       </c>
       <c r="D112" s="5"/>
@@ -5519,7 +5435,7 @@
         <v>109</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J112" s="8"/>
       <c r="K112" s="7"/>
@@ -5532,11 +5448,11 @@
         <v>15</v>
       </c>
       <c r="B113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-19</v>
       </c>
       <c r="D113" s="5"/>
@@ -5547,7 +5463,7 @@
         <v>109</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="7"/>
@@ -5560,11 +5476,11 @@
         <v>15</v>
       </c>
       <c r="B114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-20</v>
       </c>
       <c r="D114" s="5"/>
@@ -5575,7 +5491,7 @@
         <v>109</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="7"/>
@@ -5588,11 +5504,11 @@
         <v>15</v>
       </c>
       <c r="B115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-21</v>
       </c>
       <c r="D115" s="5"/>
@@ -5603,7 +5519,7 @@
         <v>109</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="7"/>
@@ -5616,11 +5532,11 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-22</v>
       </c>
       <c r="D116" s="5"/>
@@ -5631,7 +5547,7 @@
         <v>109</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="7"/>
@@ -5644,11 +5560,11 @@
         <v>15</v>
       </c>
       <c r="B117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-23</v>
       </c>
       <c r="D117" s="5"/>
@@ -5659,7 +5575,7 @@
         <v>109</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="7"/>
@@ -5672,11 +5588,11 @@
         <v>15</v>
       </c>
       <c r="B118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-24</v>
       </c>
       <c r="D118" s="5"/>
@@ -5687,7 +5603,7 @@
         <v>109</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="7"/>
@@ -5700,11 +5616,11 @@
         <v>15</v>
       </c>
       <c r="B119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-25</v>
       </c>
       <c r="D119" s="5"/>
@@ -5715,7 +5631,7 @@
         <v>109</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="7"/>
@@ -5728,11 +5644,11 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-26</v>
       </c>
       <c r="D120" s="5"/>
@@ -5743,7 +5659,7 @@
         <v>109</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="7"/>
@@ -5756,11 +5672,11 @@
         <v>15</v>
       </c>
       <c r="B121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-27</v>
       </c>
       <c r="D121" s="5"/>
@@ -5771,7 +5687,7 @@
         <v>109</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="7"/>
@@ -5784,11 +5700,11 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-28</v>
       </c>
       <c r="D122" s="5"/>
@@ -5799,7 +5715,7 @@
         <v>109</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="7"/>
@@ -5812,11 +5728,11 @@
         <v>15</v>
       </c>
       <c r="B123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-29</v>
       </c>
       <c r="D123" s="5"/>
@@ -5827,76 +5743,80 @@
         <v>109</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="7"/>
       <c r="L123" s="8"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" ht="30">
+    <row r="124" spans="1:13" ht="15">
       <c r="A124">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B124">
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9" t="s">
+      <c r="C124" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>15-30</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I124" s="8" t="s">
-        <v>227</v>
+      <c r="I124" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="J124" s="8"/>
-      <c r="K124" s="9"/>
+      <c r="K124" s="7"/>
       <c r="L124" s="8"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" ht="15">
+    <row r="125" spans="1:13" ht="30">
       <c r="A125">
-        <f>A123</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B125">
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-31</v>
       </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7" t="s">
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>139</v>
+      <c r="I125" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="J125" s="8"/>
-      <c r="K125" s="7"/>
+      <c r="K125" s="9"/>
       <c r="L125" s="8"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:13" ht="30">
+    <row r="126" spans="1:13" ht="15">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-32</v>
       </c>
       <c r="D126" s="5"/>
@@ -5907,24 +5827,24 @@
         <v>109</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
-      <c r="L126" s="1"/>
+      <c r="L126" s="8"/>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="1:13" ht="15">
+    <row r="127" spans="1:13" ht="30">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-33</v>
       </c>
       <c r="D127" s="5"/>
@@ -5935,24 +5855,24 @@
         <v>109</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
-      <c r="L127" s="8"/>
+      <c r="L127" s="1"/>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" ht="30">
+    <row r="128" spans="1:13" ht="15">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-34</v>
       </c>
       <c r="D128" s="5"/>
@@ -5963,7 +5883,7 @@
         <v>109</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
@@ -5976,11 +5896,11 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-35</v>
       </c>
       <c r="D129" s="5"/>
@@ -5991,24 +5911,24 @@
         <v>109</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="8"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" ht="15">
+    <row r="130" spans="1:13" ht="30">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-36</v>
       </c>
       <c r="D130" s="5"/>
@@ -6019,7 +5939,7 @@
         <v>109</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J130" s="8"/>
       <c r="K130" s="7"/>
@@ -6032,11 +5952,11 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-37</v>
       </c>
       <c r="D131" s="5"/>
@@ -6047,7 +5967,7 @@
         <v>109</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
@@ -6060,11 +5980,11 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-38</v>
       </c>
       <c r="D132" s="5"/>
@@ -6075,7 +5995,7 @@
         <v>109</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J132" s="8"/>
       <c r="K132" s="7"/>
@@ -6088,11 +6008,11 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-39</v>
       </c>
       <c r="D133" s="5"/>
@@ -6103,7 +6023,7 @@
         <v>109</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="7"/>
@@ -6116,11 +6036,11 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-40</v>
       </c>
       <c r="D134" s="5"/>
@@ -6131,7 +6051,7 @@
         <v>109</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="7"/>
@@ -6144,11 +6064,11 @@
         <v>15</v>
       </c>
       <c r="B135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-41</v>
       </c>
       <c r="D135" s="5"/>
@@ -6159,7 +6079,7 @@
         <v>109</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="7"/>
@@ -6172,11 +6092,11 @@
         <v>15</v>
       </c>
       <c r="B136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-42</v>
       </c>
       <c r="D136" s="5"/>
@@ -6187,7 +6107,7 @@
         <v>109</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="7"/>
@@ -6200,11 +6120,11 @@
         <v>15</v>
       </c>
       <c r="B137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>15-43</v>
       </c>
       <c r="D137" s="5"/>
@@ -6215,7 +6135,7 @@
         <v>109</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="7"/>
@@ -6228,11 +6148,11 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B219" si="11">IF(A138=A137,B137+1,1)</f>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" ref="C138:C219" si="12">CONCATENATE(A138,"-",B138)</f>
+        <f t="shared" si="14"/>
         <v>15-44</v>
       </c>
       <c r="D138" s="5"/>
@@ -6243,7 +6163,7 @@
         <v>109</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="7"/>
@@ -6252,15 +6172,15 @@
     </row>
     <row r="139" spans="1:13" ht="15">
       <c r="A139">
-        <f t="shared" ref="A139:A220" si="13">A138</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-45</v>
       </c>
       <c r="D139" s="5"/>
@@ -6271,7 +6191,7 @@
         <v>109</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="7"/>
@@ -6280,15 +6200,15 @@
     </row>
     <row r="140" spans="1:13" ht="15">
       <c r="A140">
+        <f t="shared" ref="A140:A148" si="15">A139</f>
+        <v>15</v>
+      </c>
+      <c r="B140">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-46</v>
       </c>
       <c r="D140" s="5"/>
@@ -6299,24 +6219,24 @@
         <v>109</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7"/>
       <c r="L140" s="8"/>
       <c r="M140" s="6"/>
     </row>
-    <row r="141" spans="1:13" ht="120">
+    <row r="141" spans="1:13" ht="15">
       <c r="A141">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B141">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B141">
-        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-47</v>
       </c>
       <c r="D141" s="5"/>
@@ -6327,24 +6247,24 @@
         <v>109</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="7"/>
-      <c r="L141" s="1"/>
+      <c r="L141" s="8"/>
       <c r="M141" s="6"/>
     </row>
-    <row r="142" spans="1:13" ht="30">
+    <row r="142" spans="1:13" ht="120">
       <c r="A142">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B142">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B142">
-        <f t="shared" si="11"/>
         <v>48</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-48</v>
       </c>
       <c r="D142" s="5"/>
@@ -6355,24 +6275,24 @@
         <v>109</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J142" s="8"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="16"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="1"/>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" ht="60">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B143">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B143">
-        <f t="shared" si="11"/>
         <v>49</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-49</v>
       </c>
       <c r="D143" s="5"/>
@@ -6380,27 +6300,27 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c r="H143" s="7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="J143" s="8"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="16"/>
       <c r="M143" s="6"/>
     </row>
-    <row r="144" spans="1:13" ht="30">
+    <row r="144" spans="1:13" ht="60">
       <c r="A144">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B144">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B144">
-        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-50</v>
       </c>
       <c r="D144" s="5"/>
@@ -6408,27 +6328,27 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="7"/>
-      <c r="L144" s="1"/>
+      <c r="L144" s="8"/>
       <c r="M144" s="6"/>
     </row>
-    <row r="145" spans="1:13" ht="15">
+    <row r="145" spans="1:13" ht="30">
       <c r="A145">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B145">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B145">
-        <f t="shared" si="11"/>
         <v>51</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-51</v>
       </c>
       <c r="D145" s="5"/>
@@ -6436,27 +6356,27 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c r="H145" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
+      <c r="L145" s="1"/>
       <c r="M145" s="6"/>
     </row>
-    <row r="146" spans="1:13" ht="30">
+    <row r="146" spans="1:13" ht="15">
       <c r="A146">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B146">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-52</v>
       </c>
       <c r="D146" s="5"/>
@@ -6464,85 +6384,83 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="7"/>
       <c r="L146" s="8"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" ht="50.25" customHeight="1">
+    <row r="147" spans="1:13" ht="30">
       <c r="A147">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="B147">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="B147">
-        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15-53</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I147" s="35" t="s">
-        <v>265</v>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="J147" s="8"/>
-      <c r="K147" s="9"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="8"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" ht="15">
+    <row r="148" spans="1:13" ht="50.25" customHeight="1">
       <c r="A148">
-        <v>16</v>
+        <f t="shared" si="15"/>
+        <v>15</v>
       </c>
       <c r="B148">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-1</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>161</v>
+        <f t="shared" si="14"/>
+        <v>15-54</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I148" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="J148" s="8"/>
-      <c r="K148" s="7"/>
+      <c r="K148" s="9"/>
       <c r="L148" s="8"/>
       <c r="M148" s="6"/>
     </row>
     <row r="149" spans="1:13" ht="15">
       <c r="A149">
-        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="B149">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" ref="B139:B220" si="16">IF(A149=A148,B148+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-2</v>
+        <f t="shared" ref="C139:C219" si="17">CONCATENATE(A149,"-",B149)</f>
+        <v>16-1</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -6554,7 +6472,7 @@
         <v>98</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="7"/>
@@ -6563,16 +6481,16 @@
     </row>
     <row r="150" spans="1:13" ht="15">
       <c r="A150">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A140:A221" si="18">A149</f>
         <v>16</v>
       </c>
       <c r="B150">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-3</v>
+        <f t="shared" si="17"/>
+        <v>16-2</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -6584,24 +6502,25 @@
         <v>98</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="7"/>
-      <c r="L150" s="11"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="6"/>
     </row>
     <row r="151" spans="1:13" ht="15">
       <c r="A151">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B151">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-4</v>
+        <f t="shared" si="17"/>
+        <v>16-3</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -6613,37 +6532,36 @@
         <v>98</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="7"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="6"/>
+      <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:13" ht="15">
       <c r="A152">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B152">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-5</v>
+        <f t="shared" si="17"/>
+        <v>16-4</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7" t="s">
+      <c r="F152" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G152" s="7"/>
       <c r="H152" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="7"/>
@@ -6652,16 +6570,16 @@
     </row>
     <row r="153" spans="1:13" ht="15">
       <c r="A153">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B153">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-6</v>
+        <f t="shared" si="17"/>
+        <v>16-5</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -6673,7 +6591,7 @@
         <v>98</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="7"/>
@@ -6682,16 +6600,16 @@
     </row>
     <row r="154" spans="1:13" ht="15">
       <c r="A154">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B154">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-7</v>
+        <f t="shared" si="17"/>
+        <v>16-6</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6703,7 +6621,7 @@
         <v>98</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="7"/>
@@ -6712,16 +6630,16 @@
     </row>
     <row r="155" spans="1:13" ht="15">
       <c r="A155">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B155">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-8</v>
+        <f t="shared" si="17"/>
+        <v>16-7</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6733,24 +6651,25 @@
         <v>98</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J155" s="8"/>
       <c r="K155" s="7"/>
       <c r="L155" s="8"/>
-    </row>
-    <row r="156" spans="1:13" ht="30">
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="1:13" ht="15">
       <c r="A156">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B156">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-9</v>
+        <f t="shared" si="17"/>
+        <v>16-8</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6762,25 +6681,24 @@
         <v>98</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="7"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="6"/>
-    </row>
-    <row r="157" spans="1:13" ht="45">
+      <c r="L156" s="8"/>
+    </row>
+    <row r="157" spans="1:13" ht="30">
       <c r="A157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B157">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-10</v>
+        <f t="shared" si="17"/>
+        <v>16-9</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6792,25 +6710,25 @@
         <v>98</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="7"/>
-      <c r="L157" s="8"/>
+      <c r="L157" s="1"/>
       <c r="M157" s="6"/>
     </row>
-    <row r="158" spans="1:13" ht="30">
+    <row r="158" spans="1:13" ht="45">
       <c r="A158">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B158">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-11</v>
+        <f t="shared" si="17"/>
+        <v>16-10</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6822,25 +6740,25 @@
         <v>98</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
       <c r="M158" s="6"/>
     </row>
-    <row r="159" spans="1:13" ht="45">
+    <row r="159" spans="1:13" ht="30">
       <c r="A159">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B159">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-12</v>
+        <f t="shared" si="17"/>
+        <v>16-11</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6852,7 +6770,7 @@
         <v>98</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="7"/>
@@ -6861,16 +6779,16 @@
     </row>
     <row r="160" spans="1:13" ht="45">
       <c r="A160">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B160">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-13</v>
+        <f t="shared" si="17"/>
+        <v>16-12</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6882,25 +6800,25 @@
         <v>98</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="7"/>
       <c r="L160" s="8"/>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" ht="60">
+    <row r="161" spans="1:13" ht="45">
       <c r="A161">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B161">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-14</v>
+        <f t="shared" si="17"/>
+        <v>16-13</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6912,25 +6830,25 @@
         <v>98</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" ht="15">
+    <row r="162" spans="1:13" ht="60">
       <c r="A162">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B162">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-15</v>
+        <f t="shared" si="17"/>
+        <v>16-14</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6942,7 +6860,7 @@
         <v>98</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="7"/>
@@ -6951,16 +6869,16 @@
     </row>
     <row r="163" spans="1:13" ht="15">
       <c r="A163">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B163">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-16</v>
+        <f t="shared" si="17"/>
+        <v>16-15</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6972,97 +6890,97 @@
         <v>98</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
       <c r="L163" s="8"/>
       <c r="M163" s="6"/>
     </row>
-    <row r="164" spans="1:13" ht="30">
+    <row r="164" spans="1:13" ht="15">
       <c r="A164">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B164">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="C164" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-17</v>
+        <f t="shared" si="17"/>
+        <v>16-16</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="7"/>
+      <c r="G164" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G164" s="7"/>
       <c r="H164" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="1"/>
+      <c r="L164" s="8"/>
       <c r="M164" s="6"/>
     </row>
     <row r="165" spans="1:13" ht="30">
       <c r="A165">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B165">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-18</v>
+        <f t="shared" si="17"/>
+        <v>16-17</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7" t="s">
-        <v>178</v>
-      </c>
+      <c r="F165" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G165" s="7"/>
       <c r="H165" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
-      <c r="L165" s="8"/>
+      <c r="L165" s="1"/>
       <c r="M165" s="6"/>
     </row>
     <row r="166" spans="1:13" ht="30">
       <c r="A166">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B166">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f t="shared" si="16"/>
+        <v>18</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-19</v>
+        <f t="shared" si="17"/>
+        <v>16-18</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="7"/>
       <c r="G166" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
@@ -7071,16 +6989,16 @@
     </row>
     <row r="167" spans="1:13" ht="30">
       <c r="A167">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B167">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>19</v>
       </c>
       <c r="C167" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-20</v>
+        <f t="shared" si="17"/>
+        <v>16-19</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7089,28 +7007,28 @@
         <v>63</v>
       </c>
       <c r="H167" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
       <c r="L167" s="8"/>
       <c r="M167" s="6"/>
     </row>
-    <row r="168" spans="1:13" ht="15">
+    <row r="168" spans="1:13" ht="30">
       <c r="A168">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B168">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="C168" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-21</v>
+        <f t="shared" si="17"/>
+        <v>16-20</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7119,10 +7037,10 @@
         <v>63</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
@@ -7131,16 +7049,16 @@
     </row>
     <row r="169" spans="1:13" ht="15">
       <c r="A169">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="B169">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f t="shared" si="16"/>
+        <v>21</v>
       </c>
       <c r="C169" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>16-22</v>
+        <f t="shared" si="17"/>
+        <v>16-21</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7149,10 +7067,10 @@
         <v>63</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
@@ -7161,15 +7079,16 @@
     </row>
     <row r="170" spans="1:13" ht="15">
       <c r="A170">
-        <v>17</v>
+        <f t="shared" si="18"/>
+        <v>16</v>
       </c>
       <c r="B170">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>22</v>
       </c>
       <c r="C170" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17-1</v>
+        <f t="shared" si="17"/>
+        <v>16-22</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -7178,27 +7097,27 @@
         <v>63</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
-      <c r="L170" s="11"/>
-    </row>
-    <row r="171" spans="1:13" ht="30">
+      <c r="L170" s="8"/>
+      <c r="M170" s="6"/>
+    </row>
+    <row r="171" spans="1:13" ht="15">
       <c r="A171">
-        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="B171">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C171" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17-2</v>
+        <f t="shared" si="17"/>
+        <v>17-1</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7207,28 +7126,27 @@
         <v>63</v>
       </c>
       <c r="H171" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I171" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="6"/>
-    </row>
-    <row r="172" spans="1:13" ht="15">
+      <c r="L171" s="11"/>
+    </row>
+    <row r="172" spans="1:13" ht="30">
       <c r="A172">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="B172">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C172" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17-3</v>
+        <f t="shared" si="17"/>
+        <v>17-2</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -7237,28 +7155,28 @@
         <v>63</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
-      <c r="L172" s="8"/>
+      <c r="L172" s="1"/>
       <c r="M172" s="6"/>
     </row>
     <row r="173" spans="1:13" ht="15">
       <c r="A173">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="B173">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>17-4</v>
+        <f t="shared" si="17"/>
+        <v>17-3</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -7267,10 +7185,10 @@
         <v>63</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
@@ -7279,15 +7197,16 @@
     </row>
     <row r="174" spans="1:13" ht="15">
       <c r="A174">
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="B174">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C174" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>18-1</v>
+        <f t="shared" si="17"/>
+        <v>17-4</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -7296,27 +7215,27 @@
         <v>63</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
-      <c r="L174" s="11"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="6"/>
     </row>
     <row r="175" spans="1:13" ht="15">
       <c r="A175">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="B175">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C175" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>18-2</v>
+        <f t="shared" si="17"/>
+        <v>18-1</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -7325,28 +7244,27 @@
         <v>63</v>
       </c>
       <c r="H175" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I175" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="6"/>
+      <c r="L175" s="11"/>
     </row>
     <row r="176" spans="1:13" ht="15">
       <c r="A176">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="B176">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>18-3</v>
+        <f t="shared" si="17"/>
+        <v>18-2</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -7355,27 +7273,28 @@
         <v>63</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
       <c r="L176" s="8"/>
       <c r="M176" s="6"/>
     </row>
-    <row r="177" spans="1:13" ht="30">
+    <row r="177" spans="1:13" ht="15">
       <c r="A177">
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="B177">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19-1</v>
+        <f t="shared" si="17"/>
+        <v>18-3</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -7384,10 +7303,10 @@
         <v>63</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
@@ -7396,16 +7315,15 @@
     </row>
     <row r="178" spans="1:13" ht="30">
       <c r="A178">
-        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="B178">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C178" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19-2</v>
+        <f t="shared" si="17"/>
+        <v>19-1</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -7414,27 +7332,28 @@
         <v>63</v>
       </c>
       <c r="H178" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I178" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="40"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="6"/>
     </row>
     <row r="179" spans="1:13" ht="30">
       <c r="A179">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="B179">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C179" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19-3</v>
+        <f t="shared" si="17"/>
+        <v>19-2</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -7443,28 +7362,27 @@
         <v>63</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="41"/>
-      <c r="M179" s="6"/>
-    </row>
-    <row r="180" spans="1:13" ht="45">
+      <c r="L179" s="40"/>
+    </row>
+    <row r="180" spans="1:13" ht="30">
       <c r="A180">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="B180">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C180" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19-4</v>
+        <f t="shared" si="17"/>
+        <v>19-3</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7473,28 +7391,28 @@
         <v>63</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="7"/>
       <c r="L180" s="41"/>
       <c r="M180" s="6"/>
     </row>
-    <row r="181" spans="1:13" ht="30">
+    <row r="181" spans="1:13" ht="45">
       <c r="A181">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="B181">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C181" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>19-5</v>
+        <f t="shared" si="17"/>
+        <v>19-4</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7503,57 +7421,57 @@
         <v>63</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="42"/>
+      <c r="L181" s="41"/>
       <c r="M181" s="6"/>
     </row>
     <row r="182" spans="1:13" ht="30">
       <c r="A182">
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="B182">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>20-1</v>
+        <f t="shared" si="17"/>
+        <v>19-5</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="7"/>
       <c r="G182" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J182" s="8"/>
       <c r="K182" s="7"/>
-      <c r="L182" s="8"/>
+      <c r="L182" s="42"/>
       <c r="M182" s="6"/>
     </row>
-    <row r="183" spans="1:13" ht="45">
+    <row r="183" spans="1:13" ht="30">
       <c r="A183">
-        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="B183">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>20-2</v>
+        <f t="shared" si="17"/>
+        <v>20-1</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -7562,87 +7480,87 @@
         <v>69</v>
       </c>
       <c r="H183" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I183" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J183" s="8"/>
       <c r="K183" s="7"/>
       <c r="L183" s="8"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" ht="26.25">
+    <row r="184" spans="1:13" ht="45">
       <c r="A184">
-        <v>21</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="B184">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-1</v>
-      </c>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G184" s="15"/>
-      <c r="H184" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I184" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J184" s="12"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="12"/>
+        <f t="shared" si="17"/>
+        <v>20-2</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J184" s="8"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="8"/>
       <c r="M184" s="6"/>
     </row>
     <row r="185" spans="1:13" ht="26.25">
       <c r="A185">
-        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="B185">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-2</v>
+        <f t="shared" si="17"/>
+        <v>21-1</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="10" t="s">
+      <c r="F185" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G185" s="15"/>
       <c r="H185" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="10"/>
       <c r="L185" s="12"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" ht="39">
+    <row r="186" spans="1:13" ht="26.25">
       <c r="A186">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B186">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-3</v>
+        <f t="shared" si="17"/>
+        <v>21-2</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
@@ -7654,25 +7572,25 @@
         <v>15</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J186" s="12"/>
       <c r="K186" s="10"/>
-      <c r="L186" s="11"/>
+      <c r="L186" s="12"/>
       <c r="M186" s="6"/>
     </row>
     <row r="187" spans="1:13" ht="39">
       <c r="A187">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B187">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-4</v>
+        <f t="shared" si="17"/>
+        <v>21-3</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
@@ -7683,26 +7601,26 @@
       <c r="H187" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I187" s="12" t="s">
-        <v>206</v>
+      <c r="I187" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J187" s="12"/>
       <c r="K187" s="10"/>
-      <c r="L187" s="12"/>
+      <c r="L187" s="11"/>
       <c r="M187" s="6"/>
     </row>
-    <row r="188" spans="1:13" ht="51.75">
+    <row r="188" spans="1:13" ht="39">
       <c r="A188">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B188">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-5</v>
+        <f t="shared" si="17"/>
+        <v>21-4</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
@@ -7714,25 +7632,25 @@
         <v>15</v>
       </c>
       <c r="I188" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="10"/>
       <c r="L188" s="12"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" ht="26.25">
+    <row r="189" spans="1:13" ht="51.75">
       <c r="A189">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B189">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>21-6</v>
+        <f t="shared" si="17"/>
+        <v>21-5</v>
       </c>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
@@ -7744,7 +7662,7 @@
         <v>15</v>
       </c>
       <c r="I189" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="10"/>
@@ -7753,48 +7671,46 @@
     </row>
     <row r="190" spans="1:13" ht="26.25">
       <c r="A190">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B190">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" ref="C190" si="14">CONCATENATE(A190,"-",B190)</f>
-        <v>21-7</v>
+        <f t="shared" si="17"/>
+        <v>21-6</v>
       </c>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="10"/>
-      <c r="L190" s="12" t="s">
-        <v>228</v>
-      </c>
+      <c r="L190" s="12"/>
       <c r="M190" s="6"/>
     </row>
     <row r="191" spans="1:13" ht="26.25">
       <c r="A191">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B191">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f t="shared" ref="C191" si="15">CONCATENATE(A191,"-",B191)</f>
-        <v>21-8</v>
+        <f t="shared" ref="C191" si="19">CONCATENATE(A191,"-",B191)</f>
+        <v>21-7</v>
       </c>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
@@ -7806,27 +7722,27 @@
         <v>15</v>
       </c>
       <c r="I191" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="10"/>
       <c r="L191" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M191" s="6"/>
     </row>
     <row r="192" spans="1:13" ht="26.25">
       <c r="A192">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B192">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" ref="C192" si="16">CONCATENATE(A192,"-",B192)</f>
-        <v>21-9</v>
+        <f t="shared" ref="C192" si="20">CONCATENATE(A192,"-",B192)</f>
+        <v>21-8</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
@@ -7838,27 +7754,27 @@
         <v>15</v>
       </c>
       <c r="I192" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="10"/>
       <c r="L192" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M192" s="6"/>
     </row>
     <row r="193" spans="1:13" ht="26.25">
       <c r="A193">
-        <f>A192</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B193">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" ref="C193:C195" si="17">CONCATENATE(A193,"-",B193)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C193" si="21">CONCATENATE(A193,"-",B193)</f>
+        <v>21-9</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -7870,12 +7786,12 @@
         <v>15</v>
       </c>
       <c r="I193" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="10"/>
       <c r="L193" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M193" s="6"/>
     </row>
@@ -7885,12 +7801,12 @@
         <v>21</v>
       </c>
       <c r="B194">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" ref="C194" si="18">CONCATENATE(A194,"-",B194)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C194:C196" si="22">CONCATENATE(A194,"-",B194)</f>
+        <v>21-10</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -7902,27 +7818,27 @@
         <v>15</v>
       </c>
       <c r="I194" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
       <c r="L194" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M194" s="6"/>
     </row>
     <row r="195" spans="1:13" ht="26.25">
       <c r="A195">
-        <f>A193</f>
+        <f>A194</f>
         <v>21</v>
       </c>
       <c r="B195">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>21-12</v>
+        <f t="shared" ref="C195" si="23">CONCATENATE(A195,"-",B195)</f>
+        <v>21-11</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -7934,27 +7850,27 @@
         <v>15</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
       <c r="L195" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M195" s="6"/>
     </row>
     <row r="196" spans="1:13" ht="26.25">
       <c r="A196">
-        <f t="shared" si="13"/>
+        <f>A194</f>
         <v>21</v>
       </c>
       <c r="B196">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" ref="C196" si="19">CONCATENATE(A196,"-",B196)</f>
-        <v>21-13</v>
+        <f t="shared" si="22"/>
+        <v>21-12</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -7966,27 +7882,27 @@
         <v>15</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
       <c r="L196" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M196" s="6"/>
     </row>
     <row r="197" spans="1:13" ht="26.25">
       <c r="A197">
-        <f>A195</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B197">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" ref="C197" si="20">CONCATENATE(A197,"-",B197)</f>
-        <v>21-14</v>
+        <f t="shared" ref="C197" si="24">CONCATENATE(A197,"-",B197)</f>
+        <v>21-13</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -7998,12 +7914,12 @@
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
       <c r="L197" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M197" s="6"/>
     </row>
@@ -8013,12 +7929,12 @@
         <v>21</v>
       </c>
       <c r="B198">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" ref="C198" si="21">CONCATENATE(A198,"-",B198)</f>
-        <v>21-15</v>
+        <f t="shared" ref="C198" si="25">CONCATENATE(A198,"-",B198)</f>
+        <v>21-14</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8030,12 +7946,12 @@
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
       <c r="L198" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M198" s="6"/>
     </row>
@@ -8045,12 +7961,12 @@
         <v>21</v>
       </c>
       <c r="B199">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199:C200" si="22">CONCATENATE(A199,"-",B199)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C199" si="26">CONCATENATE(A199,"-",B199)</f>
+        <v>21-15</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8062,27 +7978,27 @@
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
       <c r="L199" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M199" s="6"/>
     </row>
-    <row r="200" spans="1:13" ht="39">
+    <row r="200" spans="1:13" ht="26.25">
       <c r="A200">
-        <f t="shared" si="13"/>
+        <f>A198</f>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>21-17</v>
+        <f t="shared" ref="C200:C201" si="27">CONCATENATE(A200,"-",B200)</f>
+        <v>21-16</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8094,26 +8010,27 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
       <c r="L200" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M200" s="6"/>
     </row>
     <row r="201" spans="1:13" ht="39">
       <c r="A201">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B201">
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" ref="C201" si="23">CONCATENATE(A201,"-",B201)</f>
-        <v>21-18</v>
+        <f t="shared" si="27"/>
+        <v>21-17</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -8125,27 +8042,26 @@
         <v>15</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="10"/>
       <c r="L201" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M201" s="6"/>
     </row>
-    <row r="202" spans="1:13" ht="26.25">
+    <row r="202" spans="1:13" ht="39">
       <c r="A202">
-        <f>A200</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="B202">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" ref="C202:C204" si="24">CONCATENATE(A202,"-",B202)</f>
-        <v>21-19</v>
+        <f t="shared" ref="C202" si="28">CONCATENATE(A202,"-",B202)</f>
+        <v>21-18</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -8157,12 +8073,12 @@
         <v>15</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="10"/>
       <c r="L202" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M202" s="6"/>
     </row>
@@ -8172,12 +8088,12 @@
         <v>21</v>
       </c>
       <c r="B203">
-        <f t="shared" si="11"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>19</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" ref="C203" si="25">CONCATENATE(A203,"-",B203)</f>
-        <v>21-20</v>
+        <f t="shared" ref="C203:C205" si="29">CONCATENATE(A203,"-",B203)</f>
+        <v>21-19</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -8189,12 +8105,12 @@
         <v>15</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="J203" s="12"/>
       <c r="K203" s="10"/>
       <c r="L203" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M203" s="6"/>
     </row>
@@ -8204,12 +8120,12 @@
         <v>21</v>
       </c>
       <c r="B204">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-21</v>
+        <f t="shared" ref="C204" si="30">CONCATENATE(A204,"-",B204)</f>
+        <v>21-20</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -8221,12 +8137,12 @@
         <v>15</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="J204" s="12"/>
       <c r="K204" s="10"/>
       <c r="L204" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M204" s="6"/>
     </row>
@@ -8236,12 +8152,12 @@
         <v>21</v>
       </c>
       <c r="B205">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f t="shared" si="16"/>
+        <v>21</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" ref="C205" si="26">CONCATENATE(A205,"-",B205)</f>
-        <v>21-22</v>
+        <f t="shared" si="29"/>
+        <v>21-21</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -8253,151 +8169,155 @@
         <v>15</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J205" s="12"/>
       <c r="K205" s="10"/>
       <c r="L205" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M205" s="6"/>
     </row>
-    <row r="206" spans="1:13" ht="39">
+    <row r="206" spans="1:13" ht="26.25">
       <c r="A206">
         <f>A204</f>
         <v>21</v>
       </c>
       <c r="B206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="C206" s="3" t="str">
+        <f t="shared" ref="C206" si="31">CONCATENATE(A206,"-",B206)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J206" s="12"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M206" s="6"/>
+    </row>
+    <row r="207" spans="1:13" ht="39">
+      <c r="A207">
+        <f>A205</f>
+        <v>21</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="C206" s="19" t="str">
-        <f t="shared" ref="C206" si="27">CONCATENATE(A206,"-",B206)</f>
+      <c r="C207" s="19" t="str">
+        <f t="shared" ref="C207" si="32">CONCATENATE(A207,"-",B207)</f>
         <v>21-23</v>
       </c>
-      <c r="D206" s="20"/>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="21" t="s">
+      <c r="D207" s="20"/>
+      <c r="E207" s="20"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H206" s="21" t="s">
+      <c r="H207" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I206" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="J206" s="18"/>
-      <c r="K206" s="21"/>
-      <c r="L206" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="M206" s="6"/>
-    </row>
-    <row r="207" spans="1:13" ht="26.25">
-      <c r="A207">
+      <c r="I207" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J207" s="18"/>
+      <c r="K207" s="21"/>
+      <c r="L207" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="M207" s="6"/>
+    </row>
+    <row r="208" spans="1:13" ht="26.25">
+      <c r="A208">
         <v>22</v>
       </c>
-      <c r="B207">
+      <c r="B208">
         <v>1</v>
       </c>
-      <c r="C207" s="22" t="str">
-        <f>CONCATENATE(A207,"-",B207)</f>
+      <c r="C208" s="22" t="str">
+        <f>CONCATENATE(A208,"-",B208)</f>
         <v>22-1</v>
-      </c>
-      <c r="D207" s="23"/>
-      <c r="E207" s="23"/>
-      <c r="F207" s="23"/>
-      <c r="G207" s="24"/>
-      <c r="H207" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="I207" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J207" s="23"/>
-      <c r="K207" s="21"/>
-      <c r="L207" s="26"/>
-      <c r="M207" s="6"/>
-    </row>
-    <row r="208" spans="1:13" ht="39">
-      <c r="A208">
-        <f>A207</f>
-        <v>22</v>
-      </c>
-      <c r="B208">
-        <f>IF(A208=A207,B207+1,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C208" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>22-2</v>
       </c>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
       <c r="F208" s="23"/>
-      <c r="G208" s="23"/>
+      <c r="G208" s="24"/>
       <c r="H208" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I208" s="25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J208" s="23"/>
       <c r="K208" s="21"/>
       <c r="L208" s="26"/>
       <c r="M208" s="6"/>
     </row>
-    <row r="209" spans="1:13" ht="26.25">
+    <row r="209" spans="1:13" ht="39">
       <c r="A209">
-        <f t="shared" si="13"/>
+        <f>A208</f>
         <v>22</v>
       </c>
       <c r="B209">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f>IF(A209=A208,B208+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C209" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>22-3</v>
+        <f t="shared" si="17"/>
+        <v>22-2</v>
       </c>
       <c r="D209" s="23"/>
       <c r="E209" s="23"/>
       <c r="F209" s="23"/>
       <c r="G209" s="23"/>
       <c r="H209" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I209" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J209" s="23"/>
       <c r="K209" s="21"/>
       <c r="L209" s="26"/>
       <c r="M209" s="6"/>
     </row>
-    <row r="210" spans="1:13" ht="15">
+    <row r="210" spans="1:13" ht="26.25">
       <c r="A210">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="B210">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C210" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>22-4</v>
+        <f t="shared" si="17"/>
+        <v>22-3</v>
       </c>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
       <c r="H210" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I210" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="I210" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="J210" s="23"/>
       <c r="K210" s="21"/>
@@ -8406,26 +8326,26 @@
     </row>
     <row r="211" spans="1:13" ht="15">
       <c r="A211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="B211">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C211" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>22-5</v>
+        <f t="shared" si="17"/>
+        <v>22-4</v>
       </c>
       <c r="D211" s="23"/>
       <c r="E211" s="23"/>
       <c r="F211" s="23"/>
       <c r="G211" s="23"/>
       <c r="H211" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I211" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J211" s="23"/>
       <c r="K211" s="21"/>
@@ -8434,73 +8354,71 @@
     </row>
     <row r="212" spans="1:13" ht="15">
       <c r="A212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="B212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="C212" s="22" t="str">
+        <f t="shared" si="17"/>
+        <v>22-5</v>
+      </c>
+      <c r="D212" s="23"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I212" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J212" s="23"/>
+      <c r="K212" s="21"/>
+      <c r="L212" s="26"/>
+      <c r="M212" s="6"/>
+    </row>
+    <row r="213" spans="1:13" ht="15">
+      <c r="A213">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="C212" s="22" t="str">
-        <f t="shared" si="12"/>
+      <c r="C213" s="22" t="str">
+        <f t="shared" si="17"/>
         <v>22-6</v>
       </c>
-      <c r="D212" s="37"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="I212" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="J212" s="37"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="39"/>
-      <c r="M212" s="6"/>
-    </row>
-    <row r="213" spans="1:13" ht="26.25">
-      <c r="A213">
-        <v>23</v>
-      </c>
-      <c r="B213">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="C213" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>23-1</v>
-      </c>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
-      <c r="G213" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H213" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="I213" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="J213" s="23"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="37"/>
+      <c r="G213" s="37"/>
+      <c r="H213" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I213" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J213" s="37"/>
       <c r="K213" s="21"/>
-      <c r="L213" s="26"/>
+      <c r="L213" s="39"/>
       <c r="M213" s="6"/>
     </row>
     <row r="214" spans="1:13" ht="26.25">
       <c r="A214">
-        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="B214">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="C214" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23-2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="C214" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v>23-1</v>
       </c>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
@@ -8509,10 +8427,10 @@
         <v>63</v>
       </c>
       <c r="H214" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I214" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J214" s="23"/>
       <c r="K214" s="21"/>
@@ -8521,16 +8439,16 @@
     </row>
     <row r="215" spans="1:13" ht="26.25">
       <c r="A215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="B215">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C215" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23-3</v>
+        <f t="shared" si="17"/>
+        <v>23-2</v>
       </c>
       <c r="D215" s="23"/>
       <c r="E215" s="23"/>
@@ -8539,28 +8457,28 @@
         <v>63</v>
       </c>
       <c r="H215" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="I215" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="I215" s="25" t="s">
-        <v>271</v>
       </c>
       <c r="J215" s="23"/>
       <c r="K215" s="21"/>
       <c r="L215" s="26"/>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="1:13" ht="39">
+    <row r="216" spans="1:13" ht="26.25">
       <c r="A216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="B216">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="C216" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23-4</v>
+        <f t="shared" si="17"/>
+        <v>23-3</v>
       </c>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
@@ -8569,28 +8487,28 @@
         <v>63</v>
       </c>
       <c r="H216" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I216" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="J216" s="23"/>
       <c r="K216" s="21"/>
       <c r="L216" s="26"/>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="1:13" ht="15">
+    <row r="217" spans="1:13" ht="39">
       <c r="A217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="B217">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>4</v>
       </c>
       <c r="C217" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>23-5</v>
+        <f t="shared" si="17"/>
+        <v>23-4</v>
       </c>
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
@@ -8599,27 +8517,28 @@
         <v>63</v>
       </c>
       <c r="H217" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I217" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J217" s="23"/>
       <c r="K217" s="21"/>
       <c r="L217" s="26"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="1:13" ht="26.25">
+    <row r="218" spans="1:13" ht="15">
       <c r="A218">
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>23</v>
       </c>
       <c r="B218">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="C218" s="3" t="str">
-        <f t="shared" si="12"/>
-        <v>24-1</v>
+        <f t="shared" si="17"/>
+        <v>23-5</v>
       </c>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
@@ -8628,10 +8547,10 @@
         <v>63</v>
       </c>
       <c r="H218" s="24" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I218" s="25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J218" s="23"/>
       <c r="K218" s="21"/>
@@ -8640,16 +8559,15 @@
     </row>
     <row r="219" spans="1:13" ht="26.25">
       <c r="A219">
-        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="B219">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f t="shared" ref="C219" si="28">CONCATENATE(A219,"-",B219)</f>
-        <v>24-2</v>
+        <f t="shared" si="17"/>
+        <v>24-1</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
@@ -8658,2417 +8576,2443 @@
         <v>63</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
       <c r="L219" s="26"/>
       <c r="M219" s="6"/>
     </row>
-    <row r="220" spans="1:13" ht="15">
+    <row r="220" spans="1:13" ht="26.25">
       <c r="A220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="B220">
-        <f t="shared" ref="B220:B283" si="29">IF(A220=A219,B219+1,1)</f>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f t="shared" ref="C220:C283" si="30">CONCATENATE(A220,"-",B220)</f>
-        <v>24-3</v>
-      </c>
-      <c r="L220" s="6"/>
+        <f t="shared" ref="C220" si="33">CONCATENATE(A220,"-",B220)</f>
+        <v>24-2</v>
+      </c>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H220" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I220" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J220" s="23"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="26"/>
       <c r="M220" s="6"/>
     </row>
     <row r="221" spans="1:13" ht="15">
       <c r="A221">
-        <f t="shared" ref="A221:A284" si="31">A220</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="B221">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" ref="B221:B284" si="34">IF(A221=A220,B220+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-4</v>
+        <f t="shared" ref="C221:C284" si="35">CONCATENATE(A221,"-",B221)</f>
+        <v>24-3</v>
       </c>
       <c r="L221" s="6"/>
       <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="A222:A285" si="36">A221</f>
         <v>24</v>
       </c>
       <c r="B222">
-        <f t="shared" si="29"/>
-        <v>5</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-5</v>
+        <f t="shared" si="35"/>
+        <v>24-4</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
     </row>
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B223">
-        <f t="shared" si="29"/>
-        <v>6</v>
+        <f t="shared" si="34"/>
+        <v>5</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-6</v>
+        <f t="shared" si="35"/>
+        <v>24-5</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B224">
-        <f t="shared" si="29"/>
-        <v>7</v>
+        <f t="shared" si="34"/>
+        <v>6</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-7</v>
+        <f t="shared" si="35"/>
+        <v>24-6</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
     </row>
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B225">
-        <f t="shared" si="29"/>
-        <v>8</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="C225" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-8</v>
+        <f t="shared" si="35"/>
+        <v>24-7</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
     </row>
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B226">
-        <f t="shared" si="29"/>
-        <v>9</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-9</v>
+        <f t="shared" si="35"/>
+        <v>24-8</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
     </row>
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B227">
-        <f t="shared" si="29"/>
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>9</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-10</v>
+        <f t="shared" si="35"/>
+        <v>24-9</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
     </row>
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B228">
-        <f t="shared" si="29"/>
-        <v>11</v>
+        <f t="shared" si="34"/>
+        <v>10</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-11</v>
+        <f t="shared" si="35"/>
+        <v>24-10</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B229">
-        <f t="shared" si="29"/>
-        <v>12</v>
+        <f t="shared" si="34"/>
+        <v>11</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-12</v>
+        <f t="shared" si="35"/>
+        <v>24-11</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B230">
-        <f t="shared" si="29"/>
-        <v>13</v>
+        <f t="shared" si="34"/>
+        <v>12</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-13</v>
+        <f t="shared" si="35"/>
+        <v>24-12</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B231">
-        <f t="shared" si="29"/>
-        <v>14</v>
+        <f t="shared" si="34"/>
+        <v>13</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-14</v>
+        <f t="shared" si="35"/>
+        <v>24-13</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B232">
-        <f t="shared" si="29"/>
-        <v>15</v>
+        <f t="shared" si="34"/>
+        <v>14</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-15</v>
+        <f t="shared" si="35"/>
+        <v>24-14</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B233">
-        <f t="shared" si="29"/>
-        <v>16</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-16</v>
+        <f t="shared" si="35"/>
+        <v>24-15</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B234">
-        <f t="shared" si="29"/>
-        <v>17</v>
+        <f t="shared" si="34"/>
+        <v>16</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-17</v>
+        <f t="shared" si="35"/>
+        <v>24-16</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B235">
-        <f t="shared" si="29"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>17</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-18</v>
+        <f t="shared" si="35"/>
+        <v>24-17</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B236">
-        <f t="shared" si="29"/>
-        <v>19</v>
+        <f t="shared" si="34"/>
+        <v>18</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-19</v>
+        <f t="shared" si="35"/>
+        <v>24-18</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B237">
-        <f t="shared" si="29"/>
-        <v>20</v>
+        <f t="shared" si="34"/>
+        <v>19</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-20</v>
+        <f t="shared" si="35"/>
+        <v>24-19</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B238">
-        <f t="shared" si="29"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>20</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-21</v>
+        <f t="shared" si="35"/>
+        <v>24-20</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B239">
-        <f t="shared" si="29"/>
-        <v>22</v>
+        <f t="shared" si="34"/>
+        <v>21</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-22</v>
+        <f t="shared" si="35"/>
+        <v>24-21</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B240">
-        <f t="shared" si="29"/>
-        <v>23</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-23</v>
+        <f t="shared" si="35"/>
+        <v>24-22</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B241">
-        <f t="shared" si="29"/>
-        <v>24</v>
+        <f t="shared" si="34"/>
+        <v>23</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-24</v>
+        <f t="shared" si="35"/>
+        <v>24-23</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B242">
-        <f t="shared" si="29"/>
-        <v>25</v>
+        <f t="shared" si="34"/>
+        <v>24</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-25</v>
+        <f t="shared" si="35"/>
+        <v>24-24</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B243">
-        <f t="shared" si="29"/>
-        <v>26</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-26</v>
+        <f t="shared" si="35"/>
+        <v>24-25</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B244">
-        <f t="shared" si="29"/>
-        <v>27</v>
+        <f t="shared" si="34"/>
+        <v>26</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-27</v>
+        <f t="shared" si="35"/>
+        <v>24-26</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B245">
-        <f t="shared" si="29"/>
-        <v>28</v>
+        <f t="shared" si="34"/>
+        <v>27</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-28</v>
+        <f t="shared" si="35"/>
+        <v>24-27</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B246">
-        <f t="shared" si="29"/>
-        <v>29</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-29</v>
+        <f t="shared" si="35"/>
+        <v>24-28</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B247">
-        <f t="shared" si="29"/>
-        <v>30</v>
+        <f t="shared" si="34"/>
+        <v>29</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-30</v>
+        <f t="shared" si="35"/>
+        <v>24-29</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B248">
-        <f t="shared" si="29"/>
-        <v>31</v>
+        <f t="shared" si="34"/>
+        <v>30</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-31</v>
+        <f t="shared" si="35"/>
+        <v>24-30</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B249">
-        <f t="shared" si="29"/>
-        <v>32</v>
+        <f t="shared" si="34"/>
+        <v>31</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-32</v>
+        <f t="shared" si="35"/>
+        <v>24-31</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B250">
-        <f t="shared" si="29"/>
-        <v>33</v>
+        <f t="shared" si="34"/>
+        <v>32</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-33</v>
+        <f t="shared" si="35"/>
+        <v>24-32</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B251">
-        <f t="shared" si="29"/>
-        <v>34</v>
+        <f t="shared" si="34"/>
+        <v>33</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-34</v>
+        <f t="shared" si="35"/>
+        <v>24-33</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B252">
-        <f t="shared" si="29"/>
-        <v>35</v>
+        <f t="shared" si="34"/>
+        <v>34</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-35</v>
+        <f t="shared" si="35"/>
+        <v>24-34</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B253">
-        <f t="shared" si="29"/>
-        <v>36</v>
+        <f t="shared" si="34"/>
+        <v>35</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-36</v>
+        <f t="shared" si="35"/>
+        <v>24-35</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B254">
-        <f t="shared" si="29"/>
-        <v>37</v>
+        <f t="shared" si="34"/>
+        <v>36</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-37</v>
+        <f t="shared" si="35"/>
+        <v>24-36</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B255">
-        <f t="shared" si="29"/>
-        <v>38</v>
+        <f t="shared" si="34"/>
+        <v>37</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-38</v>
+        <f t="shared" si="35"/>
+        <v>24-37</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B256">
-        <f t="shared" si="29"/>
-        <v>39</v>
+        <f t="shared" si="34"/>
+        <v>38</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-39</v>
+        <f t="shared" si="35"/>
+        <v>24-38</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B257">
-        <f t="shared" si="29"/>
-        <v>40</v>
+        <f t="shared" si="34"/>
+        <v>39</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-40</v>
+        <f t="shared" si="35"/>
+        <v>24-39</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B258">
-        <f t="shared" si="29"/>
-        <v>41</v>
+        <f t="shared" si="34"/>
+        <v>40</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-41</v>
+        <f t="shared" si="35"/>
+        <v>24-40</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B259">
-        <f t="shared" si="29"/>
-        <v>42</v>
+        <f t="shared" si="34"/>
+        <v>41</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-42</v>
+        <f t="shared" si="35"/>
+        <v>24-41</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B260">
-        <f t="shared" si="29"/>
-        <v>43</v>
+        <f t="shared" si="34"/>
+        <v>42</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-43</v>
+        <f t="shared" si="35"/>
+        <v>24-42</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B261">
-        <f t="shared" si="29"/>
-        <v>44</v>
+        <f t="shared" si="34"/>
+        <v>43</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-44</v>
+        <f t="shared" si="35"/>
+        <v>24-43</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B262">
-        <f t="shared" si="29"/>
-        <v>45</v>
+        <f t="shared" si="34"/>
+        <v>44</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-45</v>
+        <f t="shared" si="35"/>
+        <v>24-44</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B263">
-        <f t="shared" si="29"/>
-        <v>46</v>
+        <f t="shared" si="34"/>
+        <v>45</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-46</v>
+        <f t="shared" si="35"/>
+        <v>24-45</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B264">
-        <f t="shared" si="29"/>
-        <v>47</v>
+        <f t="shared" si="34"/>
+        <v>46</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-47</v>
+        <f t="shared" si="35"/>
+        <v>24-46</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B265">
-        <f t="shared" si="29"/>
-        <v>48</v>
+        <f t="shared" si="34"/>
+        <v>47</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-48</v>
+        <f t="shared" si="35"/>
+        <v>24-47</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B266">
-        <f t="shared" si="29"/>
-        <v>49</v>
+        <f t="shared" si="34"/>
+        <v>48</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-49</v>
+        <f t="shared" si="35"/>
+        <v>24-48</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B267">
-        <f t="shared" si="29"/>
-        <v>50</v>
+        <f t="shared" si="34"/>
+        <v>49</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-50</v>
+        <f t="shared" si="35"/>
+        <v>24-49</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B268">
-        <f t="shared" si="29"/>
-        <v>51</v>
+        <f t="shared" si="34"/>
+        <v>50</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-51</v>
+        <f t="shared" si="35"/>
+        <v>24-50</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B269">
-        <f t="shared" si="29"/>
-        <v>52</v>
+        <f t="shared" si="34"/>
+        <v>51</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-52</v>
+        <f t="shared" si="35"/>
+        <v>24-51</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B270">
-        <f t="shared" si="29"/>
-        <v>53</v>
+        <f t="shared" si="34"/>
+        <v>52</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-53</v>
+        <f t="shared" si="35"/>
+        <v>24-52</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B271">
-        <f t="shared" si="29"/>
-        <v>54</v>
+        <f t="shared" si="34"/>
+        <v>53</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-54</v>
+        <f t="shared" si="35"/>
+        <v>24-53</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B272">
-        <f t="shared" si="29"/>
-        <v>55</v>
+        <f t="shared" si="34"/>
+        <v>54</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-55</v>
+        <f t="shared" si="35"/>
+        <v>24-54</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B273">
-        <f t="shared" si="29"/>
-        <v>56</v>
+        <f t="shared" si="34"/>
+        <v>55</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-56</v>
+        <f t="shared" si="35"/>
+        <v>24-55</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B274">
-        <f t="shared" si="29"/>
-        <v>57</v>
+        <f t="shared" si="34"/>
+        <v>56</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-57</v>
+        <f t="shared" si="35"/>
+        <v>24-56</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B275">
-        <f t="shared" si="29"/>
-        <v>58</v>
+        <f t="shared" si="34"/>
+        <v>57</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-58</v>
+        <f t="shared" si="35"/>
+        <v>24-57</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B276">
-        <f t="shared" si="29"/>
-        <v>59</v>
+        <f t="shared" si="34"/>
+        <v>58</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-59</v>
+        <f t="shared" si="35"/>
+        <v>24-58</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B277">
-        <f t="shared" si="29"/>
-        <v>60</v>
+        <f t="shared" si="34"/>
+        <v>59</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-60</v>
+        <f t="shared" si="35"/>
+        <v>24-59</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B278">
-        <f t="shared" si="29"/>
-        <v>61</v>
+        <f t="shared" si="34"/>
+        <v>60</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-61</v>
+        <f t="shared" si="35"/>
+        <v>24-60</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B279">
-        <f t="shared" si="29"/>
-        <v>62</v>
+        <f t="shared" si="34"/>
+        <v>61</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-62</v>
+        <f t="shared" si="35"/>
+        <v>24-61</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B280">
-        <f t="shared" si="29"/>
-        <v>63</v>
+        <f t="shared" si="34"/>
+        <v>62</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-63</v>
+        <f t="shared" si="35"/>
+        <v>24-62</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B281">
-        <f t="shared" si="29"/>
-        <v>64</v>
+        <f t="shared" si="34"/>
+        <v>63</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-64</v>
+        <f t="shared" si="35"/>
+        <v>24-63</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B282">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" si="34"/>
+        <v>64</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-65</v>
+        <f t="shared" si="35"/>
+        <v>24-64</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B283">
-        <f t="shared" si="29"/>
-        <v>66</v>
+        <f t="shared" si="34"/>
+        <v>65</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v>24-66</v>
+        <f t="shared" si="35"/>
+        <v>24-65</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B284">
-        <f t="shared" ref="B284:B347" si="32">IF(A284=A283,B283+1,1)</f>
-        <v>67</v>
+        <f t="shared" si="34"/>
+        <v>66</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" ref="C284:C347" si="33">CONCATENATE(A284,"-",B284)</f>
-        <v>24-67</v>
+        <f t="shared" si="35"/>
+        <v>24-66</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" ref="A285:A348" si="34">A284</f>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="B285">
-        <f t="shared" si="32"/>
-        <v>68</v>
+        <f t="shared" ref="B285:B348" si="37">IF(A285=A284,B284+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-68</v>
+        <f t="shared" ref="C285:C348" si="38">CONCATENATE(A285,"-",B285)</f>
+        <v>24-67</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="A286:A349" si="39">A285</f>
         <v>24</v>
       </c>
       <c r="B286">
-        <f t="shared" si="32"/>
-        <v>69</v>
+        <f t="shared" si="37"/>
+        <v>68</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-69</v>
+        <f t="shared" si="38"/>
+        <v>24-68</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B287">
-        <f t="shared" si="32"/>
-        <v>70</v>
+        <f t="shared" si="37"/>
+        <v>69</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-70</v>
+        <f t="shared" si="38"/>
+        <v>24-69</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B288">
-        <f t="shared" si="32"/>
-        <v>71</v>
+        <f t="shared" si="37"/>
+        <v>70</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-71</v>
+        <f t="shared" si="38"/>
+        <v>24-70</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B289">
-        <f t="shared" si="32"/>
-        <v>72</v>
+        <f t="shared" si="37"/>
+        <v>71</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-72</v>
+        <f t="shared" si="38"/>
+        <v>24-71</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B290">
-        <f t="shared" si="32"/>
-        <v>73</v>
+        <f t="shared" si="37"/>
+        <v>72</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-73</v>
+        <f t="shared" si="38"/>
+        <v>24-72</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B291">
-        <f t="shared" si="32"/>
-        <v>74</v>
+        <f t="shared" si="37"/>
+        <v>73</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-74</v>
+        <f t="shared" si="38"/>
+        <v>24-73</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B292">
-        <f t="shared" si="32"/>
-        <v>75</v>
+        <f t="shared" si="37"/>
+        <v>74</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-75</v>
+        <f t="shared" si="38"/>
+        <v>24-74</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B293">
-        <f t="shared" si="32"/>
-        <v>76</v>
+        <f t="shared" si="37"/>
+        <v>75</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-76</v>
+        <f t="shared" si="38"/>
+        <v>24-75</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B294">
-        <f t="shared" si="32"/>
-        <v>77</v>
+        <f t="shared" si="37"/>
+        <v>76</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-77</v>
+        <f t="shared" si="38"/>
+        <v>24-76</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B295">
-        <f t="shared" si="32"/>
-        <v>78</v>
+        <f t="shared" si="37"/>
+        <v>77</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-78</v>
+        <f t="shared" si="38"/>
+        <v>24-77</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B296">
-        <f t="shared" si="32"/>
-        <v>79</v>
+        <f t="shared" si="37"/>
+        <v>78</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-79</v>
+        <f t="shared" si="38"/>
+        <v>24-78</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B297">
-        <f t="shared" si="32"/>
-        <v>80</v>
+        <f t="shared" si="37"/>
+        <v>79</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-80</v>
+        <f t="shared" si="38"/>
+        <v>24-79</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B298">
-        <f t="shared" si="32"/>
-        <v>81</v>
+        <f t="shared" si="37"/>
+        <v>80</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-81</v>
+        <f t="shared" si="38"/>
+        <v>24-80</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B299">
-        <f t="shared" si="32"/>
-        <v>82</v>
+        <f t="shared" si="37"/>
+        <v>81</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-82</v>
+        <f t="shared" si="38"/>
+        <v>24-81</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B300">
-        <f t="shared" si="32"/>
-        <v>83</v>
+        <f t="shared" si="37"/>
+        <v>82</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-83</v>
+        <f t="shared" si="38"/>
+        <v>24-82</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B301">
-        <f t="shared" si="32"/>
-        <v>84</v>
+        <f t="shared" si="37"/>
+        <v>83</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-84</v>
+        <f t="shared" si="38"/>
+        <v>24-83</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B302">
-        <f t="shared" si="32"/>
-        <v>85</v>
+        <f t="shared" si="37"/>
+        <v>84</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-85</v>
+        <f t="shared" si="38"/>
+        <v>24-84</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B303">
-        <f t="shared" si="32"/>
-        <v>86</v>
+        <f t="shared" si="37"/>
+        <v>85</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-86</v>
+        <f t="shared" si="38"/>
+        <v>24-85</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B304">
-        <f t="shared" si="32"/>
-        <v>87</v>
+        <f t="shared" si="37"/>
+        <v>86</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-87</v>
+        <f t="shared" si="38"/>
+        <v>24-86</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B305">
-        <f t="shared" si="32"/>
-        <v>88</v>
+        <f t="shared" si="37"/>
+        <v>87</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-88</v>
+        <f t="shared" si="38"/>
+        <v>24-87</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B306">
-        <f t="shared" si="32"/>
-        <v>89</v>
+        <f t="shared" si="37"/>
+        <v>88</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-89</v>
+        <f t="shared" si="38"/>
+        <v>24-88</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B307">
-        <f t="shared" si="32"/>
-        <v>90</v>
+        <f t="shared" si="37"/>
+        <v>89</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-90</v>
+        <f t="shared" si="38"/>
+        <v>24-89</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B308">
-        <f t="shared" si="32"/>
-        <v>91</v>
+        <f t="shared" si="37"/>
+        <v>90</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-91</v>
+        <f t="shared" si="38"/>
+        <v>24-90</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B309">
-        <f t="shared" si="32"/>
-        <v>92</v>
+        <f t="shared" si="37"/>
+        <v>91</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-92</v>
+        <f t="shared" si="38"/>
+        <v>24-91</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B310">
-        <f t="shared" si="32"/>
-        <v>93</v>
+        <f t="shared" si="37"/>
+        <v>92</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-93</v>
+        <f t="shared" si="38"/>
+        <v>24-92</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B311">
-        <f t="shared" si="32"/>
-        <v>94</v>
+        <f t="shared" si="37"/>
+        <v>93</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-94</v>
+        <f t="shared" si="38"/>
+        <v>24-93</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B312">
-        <f t="shared" si="32"/>
-        <v>95</v>
+        <f t="shared" si="37"/>
+        <v>94</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-95</v>
+        <f t="shared" si="38"/>
+        <v>24-94</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B313">
-        <f t="shared" si="32"/>
-        <v>96</v>
+        <f t="shared" si="37"/>
+        <v>95</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-96</v>
+        <f t="shared" si="38"/>
+        <v>24-95</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B314">
-        <f t="shared" si="32"/>
-        <v>97</v>
+        <f t="shared" si="37"/>
+        <v>96</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-97</v>
+        <f t="shared" si="38"/>
+        <v>24-96</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B315">
-        <f t="shared" si="32"/>
-        <v>98</v>
+        <f t="shared" si="37"/>
+        <v>97</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-98</v>
+        <f t="shared" si="38"/>
+        <v>24-97</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B316">
-        <f t="shared" si="32"/>
-        <v>99</v>
+        <f t="shared" si="37"/>
+        <v>98</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-99</v>
+        <f t="shared" si="38"/>
+        <v>24-98</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B317">
-        <f t="shared" si="32"/>
-        <v>100</v>
+        <f t="shared" si="37"/>
+        <v>99</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-100</v>
+        <f t="shared" si="38"/>
+        <v>24-99</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B318">
-        <f t="shared" si="32"/>
-        <v>101</v>
+        <f t="shared" si="37"/>
+        <v>100</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-101</v>
+        <f t="shared" si="38"/>
+        <v>24-100</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B319">
-        <f t="shared" si="32"/>
-        <v>102</v>
+        <f t="shared" si="37"/>
+        <v>101</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-102</v>
+        <f t="shared" si="38"/>
+        <v>24-101</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B320">
-        <f t="shared" si="32"/>
-        <v>103</v>
+        <f t="shared" si="37"/>
+        <v>102</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-103</v>
+        <f t="shared" si="38"/>
+        <v>24-102</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B321">
-        <f t="shared" si="32"/>
-        <v>104</v>
+        <f t="shared" si="37"/>
+        <v>103</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-104</v>
+        <f t="shared" si="38"/>
+        <v>24-103</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B322">
-        <f t="shared" si="32"/>
-        <v>105</v>
+        <f t="shared" si="37"/>
+        <v>104</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-105</v>
+        <f t="shared" si="38"/>
+        <v>24-104</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B323">
-        <f t="shared" si="32"/>
-        <v>106</v>
+        <f t="shared" si="37"/>
+        <v>105</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-106</v>
+        <f t="shared" si="38"/>
+        <v>24-105</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B324">
-        <f t="shared" si="32"/>
-        <v>107</v>
+        <f t="shared" si="37"/>
+        <v>106</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-107</v>
+        <f t="shared" si="38"/>
+        <v>24-106</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B325">
-        <f t="shared" si="32"/>
-        <v>108</v>
+        <f t="shared" si="37"/>
+        <v>107</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-108</v>
+        <f t="shared" si="38"/>
+        <v>24-107</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B326">
-        <f t="shared" si="32"/>
-        <v>109</v>
+        <f t="shared" si="37"/>
+        <v>108</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-109</v>
+        <f t="shared" si="38"/>
+        <v>24-108</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B327">
-        <f t="shared" si="32"/>
-        <v>110</v>
+        <f t="shared" si="37"/>
+        <v>109</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-110</v>
+        <f t="shared" si="38"/>
+        <v>24-109</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B328">
-        <f t="shared" si="32"/>
-        <v>111</v>
+        <f t="shared" si="37"/>
+        <v>110</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-111</v>
+        <f t="shared" si="38"/>
+        <v>24-110</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B329">
-        <f t="shared" si="32"/>
-        <v>112</v>
+        <f t="shared" si="37"/>
+        <v>111</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-112</v>
+        <f t="shared" si="38"/>
+        <v>24-111</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B330">
-        <f t="shared" si="32"/>
-        <v>113</v>
+        <f t="shared" si="37"/>
+        <v>112</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-113</v>
+        <f t="shared" si="38"/>
+        <v>24-112</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B331">
-        <f t="shared" si="32"/>
-        <v>114</v>
+        <f t="shared" si="37"/>
+        <v>113</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-114</v>
+        <f t="shared" si="38"/>
+        <v>24-113</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B332">
-        <f t="shared" si="32"/>
-        <v>115</v>
+        <f t="shared" si="37"/>
+        <v>114</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-115</v>
+        <f t="shared" si="38"/>
+        <v>24-114</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B333">
-        <f t="shared" si="32"/>
-        <v>116</v>
+        <f t="shared" si="37"/>
+        <v>115</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-116</v>
+        <f t="shared" si="38"/>
+        <v>24-115</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B334">
-        <f t="shared" si="32"/>
-        <v>117</v>
+        <f t="shared" si="37"/>
+        <v>116</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-117</v>
+        <f t="shared" si="38"/>
+        <v>24-116</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B335">
-        <f t="shared" si="32"/>
-        <v>118</v>
+        <f t="shared" si="37"/>
+        <v>117</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-118</v>
+        <f t="shared" si="38"/>
+        <v>24-117</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B336">
-        <f t="shared" si="32"/>
-        <v>119</v>
+        <f t="shared" si="37"/>
+        <v>118</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-119</v>
+        <f t="shared" si="38"/>
+        <v>24-118</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B337">
-        <f t="shared" si="32"/>
-        <v>120</v>
+        <f t="shared" si="37"/>
+        <v>119</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-120</v>
+        <f t="shared" si="38"/>
+        <v>24-119</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B338">
-        <f t="shared" si="32"/>
-        <v>121</v>
+        <f t="shared" si="37"/>
+        <v>120</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-121</v>
+        <f t="shared" si="38"/>
+        <v>24-120</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B339">
-        <f t="shared" si="32"/>
-        <v>122</v>
+        <f t="shared" si="37"/>
+        <v>121</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-122</v>
+        <f t="shared" si="38"/>
+        <v>24-121</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B340">
-        <f t="shared" si="32"/>
-        <v>123</v>
+        <f t="shared" si="37"/>
+        <v>122</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-123</v>
+        <f t="shared" si="38"/>
+        <v>24-122</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B341">
-        <f t="shared" si="32"/>
-        <v>124</v>
+        <f t="shared" si="37"/>
+        <v>123</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-124</v>
+        <f t="shared" si="38"/>
+        <v>24-123</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B342">
-        <f t="shared" si="32"/>
-        <v>125</v>
+        <f t="shared" si="37"/>
+        <v>124</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-125</v>
+        <f t="shared" si="38"/>
+        <v>24-124</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B343">
-        <f t="shared" si="32"/>
-        <v>126</v>
+        <f t="shared" si="37"/>
+        <v>125</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-126</v>
+        <f t="shared" si="38"/>
+        <v>24-125</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B344">
-        <f t="shared" si="32"/>
-        <v>127</v>
+        <f t="shared" si="37"/>
+        <v>126</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-127</v>
+        <f t="shared" si="38"/>
+        <v>24-126</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B345">
-        <f t="shared" si="32"/>
-        <v>128</v>
+        <f t="shared" si="37"/>
+        <v>127</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-128</v>
+        <f t="shared" si="38"/>
+        <v>24-127</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B346">
-        <f t="shared" si="32"/>
-        <v>129</v>
+        <f t="shared" si="37"/>
+        <v>128</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-129</v>
+        <f t="shared" si="38"/>
+        <v>24-128</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B347">
-        <f t="shared" si="32"/>
-        <v>130</v>
+        <f t="shared" si="37"/>
+        <v>129</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>24-130</v>
+        <f t="shared" si="38"/>
+        <v>24-129</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B348">
-        <f t="shared" ref="B348:B369" si="35">IF(A348=A347,B347+1,1)</f>
-        <v>131</v>
+        <f t="shared" si="37"/>
+        <v>130</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" ref="C348:C369" si="36">CONCATENATE(A348,"-",B348)</f>
-        <v>24-131</v>
+        <f t="shared" si="38"/>
+        <v>24-130</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
-        <f t="shared" ref="A349:A369" si="37">A348</f>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="B349">
-        <f t="shared" si="35"/>
-        <v>132</v>
+        <f t="shared" ref="B349:B370" si="40">IF(A349=A348,B348+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-132</v>
+        <f t="shared" ref="C349:C370" si="41">CONCATENATE(A349,"-",B349)</f>
+        <v>24-131</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="A350:A370" si="42">A349</f>
         <v>24</v>
       </c>
       <c r="B350">
-        <f t="shared" si="35"/>
-        <v>133</v>
+        <f t="shared" si="40"/>
+        <v>132</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-133</v>
+        <f t="shared" si="41"/>
+        <v>24-132</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B351">
-        <f t="shared" si="35"/>
-        <v>134</v>
+        <f t="shared" si="40"/>
+        <v>133</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-134</v>
+        <f t="shared" si="41"/>
+        <v>24-133</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B352">
-        <f t="shared" si="35"/>
-        <v>135</v>
+        <f t="shared" si="40"/>
+        <v>134</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-135</v>
+        <f t="shared" si="41"/>
+        <v>24-134</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B353">
-        <f t="shared" si="35"/>
-        <v>136</v>
+        <f t="shared" si="40"/>
+        <v>135</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-136</v>
+        <f t="shared" si="41"/>
+        <v>24-135</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B354">
-        <f t="shared" si="35"/>
-        <v>137</v>
+        <f t="shared" si="40"/>
+        <v>136</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-137</v>
+        <f t="shared" si="41"/>
+        <v>24-136</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B355">
-        <f t="shared" si="35"/>
-        <v>138</v>
+        <f t="shared" si="40"/>
+        <v>137</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-138</v>
+        <f t="shared" si="41"/>
+        <v>24-137</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B356">
-        <f t="shared" si="35"/>
-        <v>139</v>
+        <f t="shared" si="40"/>
+        <v>138</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-139</v>
+        <f t="shared" si="41"/>
+        <v>24-138</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B357">
-        <f t="shared" si="35"/>
-        <v>140</v>
+        <f t="shared" si="40"/>
+        <v>139</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-140</v>
+        <f t="shared" si="41"/>
+        <v>24-139</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B358">
-        <f t="shared" si="35"/>
-        <v>141</v>
+        <f t="shared" si="40"/>
+        <v>140</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-141</v>
+        <f t="shared" si="41"/>
+        <v>24-140</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B359">
-        <f t="shared" si="35"/>
-        <v>142</v>
+        <f t="shared" si="40"/>
+        <v>141</v>
       </c>
       <c r="C359" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-142</v>
+        <f t="shared" si="41"/>
+        <v>24-141</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B360">
-        <f t="shared" si="35"/>
-        <v>143</v>
+        <f t="shared" si="40"/>
+        <v>142</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-143</v>
+        <f t="shared" si="41"/>
+        <v>24-142</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B361">
-        <f t="shared" si="35"/>
-        <v>144</v>
+        <f t="shared" si="40"/>
+        <v>143</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-144</v>
+        <f t="shared" si="41"/>
+        <v>24-143</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B362">
-        <f t="shared" si="35"/>
-        <v>145</v>
+        <f t="shared" si="40"/>
+        <v>144</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-145</v>
+        <f t="shared" si="41"/>
+        <v>24-144</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B363">
-        <f t="shared" si="35"/>
-        <v>146</v>
+        <f t="shared" si="40"/>
+        <v>145</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-146</v>
+        <f t="shared" si="41"/>
+        <v>24-145</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B364">
-        <f t="shared" si="35"/>
-        <v>147</v>
+        <f t="shared" si="40"/>
+        <v>146</v>
       </c>
       <c r="C364" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-147</v>
+        <f t="shared" si="41"/>
+        <v>24-146</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B365">
-        <f t="shared" si="35"/>
-        <v>148</v>
+        <f t="shared" si="40"/>
+        <v>147</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-148</v>
+        <f t="shared" si="41"/>
+        <v>24-147</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B366">
-        <f t="shared" si="35"/>
-        <v>149</v>
+        <f t="shared" si="40"/>
+        <v>148</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-149</v>
+        <f t="shared" si="41"/>
+        <v>24-148</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B367">
-        <f t="shared" si="35"/>
-        <v>150</v>
+        <f t="shared" si="40"/>
+        <v>149</v>
       </c>
       <c r="C367" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-150</v>
+        <f t="shared" si="41"/>
+        <v>24-149</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B368">
-        <f t="shared" si="35"/>
-        <v>151</v>
+        <f t="shared" si="40"/>
+        <v>150</v>
       </c>
       <c r="C368" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-151</v>
+        <f t="shared" si="41"/>
+        <v>24-150</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>24</v>
       </c>
       <c r="B369">
-        <f t="shared" si="35"/>
-        <v>152</v>
+        <f t="shared" si="40"/>
+        <v>151</v>
       </c>
       <c r="C369" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>24-152</v>
+        <f t="shared" si="41"/>
+        <v>24-151</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
-    <row r="370" spans="1:13" ht="12.75">
+    <row r="370" spans="1:13" ht="15">
+      <c r="A370">
+        <f t="shared" si="42"/>
+        <v>24</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="40"/>
+        <v>152</v>
+      </c>
+      <c r="C370" s="3" t="str">
+        <f t="shared" si="41"/>
+        <v>24-152</v>
+      </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
@@ -13816,278 +13760,282 @@
       <c r="L1056" s="6"/>
       <c r="M1056" s="6"/>
     </row>
+    <row r="1057" spans="12:13" ht="12.75">
+      <c r="L1057" s="6"/>
+      <c r="M1057" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L178:L181"/>
+    <mergeCell ref="L179:L182"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsBlanks" dxfId="59" priority="58">
+  <conditionalFormatting sqref="K2:K190">
+    <cfRule type="containsBlanks" dxfId="53" priority="58">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K2:K190">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K189">
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K2:K190">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsBlanks" dxfId="56" priority="55">
-      <formula>LEN(TRIM(K190))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K190))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K190">
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K190))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsBlanks" dxfId="53" priority="49">
+    <cfRule type="containsBlanks" dxfId="50" priority="55">
       <formula>LEN(TRIM(K191))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsBlanks" dxfId="50" priority="46">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
       <formula>LEN(TRIM(K192))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsBlanks" dxfId="47" priority="43">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
       <formula>LEN(TRIM(K193))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
+      <formula>LEN(TRIM(K194))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K194">
+    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsBlanks" dxfId="38" priority="40">
+      <formula>LEN(TRIM(K196))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsBlanks" dxfId="37" priority="37">
+      <formula>LEN(TRIM(K198))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsBlanks" dxfId="36" priority="34">
+      <formula>LEN(TRIM(K200))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsBlanks" dxfId="35" priority="31">
+      <formula>LEN(TRIM(K201))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsBlanks" dxfId="34" priority="28">
+      <formula>LEN(TRIM(K203))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsBlanks" dxfId="33" priority="25">
+      <formula>LEN(TRIM(K205))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207:K220">
+    <cfRule type="containsBlanks" dxfId="32" priority="22">
+      <formula>LEN(TRIM(K207))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K197))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K196">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K199))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K198">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsBlanks" dxfId="44" priority="40">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
       <formula>LEN(TRIM(K195))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsBlanks" dxfId="22" priority="7">
+      <formula>LEN(TRIM(K202))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(K204))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsBlanks" dxfId="16" priority="1">
+      <formula>LEN(TRIM(K206))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207:K220">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207:K220">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="43" priority="37">
-      <formula>LEN(TRIM(K197))=0</formula>
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K197">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="42" priority="34">
-      <formula>LEN(TRIM(K199))=0</formula>
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="41" priority="31">
-      <formula>LEN(TRIM(K200))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="40" priority="28">
-      <formula>LEN(TRIM(K202))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="39" priority="25">
-      <formula>LEN(TRIM(K204))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K206:K219">
-    <cfRule type="containsBlanks" dxfId="38" priority="22">
-      <formula>LEN(TRIM(K206))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsBlanks" dxfId="37" priority="16">
-      <formula>LEN(TRIM(K196))=0</formula>
+  <conditionalFormatting sqref="K199">
+    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="34" priority="13">
-      <formula>LEN(TRIM(K198))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsBlanks" dxfId="31" priority="10">
-      <formula>LEN(TRIM(K194))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="28" priority="7">
-      <formula>LEN(TRIM(K201))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="25" priority="4">
-      <formula>LEN(TRIM(K203))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="22" priority="1">
-      <formula>LEN(TRIM(K205))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206:K219">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206:K219">
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14115,19 +14063,19 @@
   <sheetData>
     <row r="1" spans="1:28" ht="25.5">
       <c r="A1" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="278">
   <si>
     <t>Test Number</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>Edit a config (not current) by setting some IOC macros. Load the config. Verify the new macro values are displayed in the config and that they are applied to the respective IOCs</t>
+  </si>
+  <si>
+    <t>Synoptics starting with rcptt_ are not added to a repo</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1121,91 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2172,11 +2259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1057"/>
+  <dimension ref="A1:N1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I223" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4292,11 +4379,11 @@
         <v>10</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B138" si="6">IF(A72=A71,B71+1,1)</f>
+        <f t="shared" ref="B72:B104" si="6">IF(A72=A71,B71+1,1)</f>
         <v>2</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f t="shared" ref="C72:C138" si="7">CONCATENATE(A72,"-",B72)</f>
+        <f t="shared" ref="C72:C104" si="7">CONCATENATE(A72,"-",B72)</f>
         <v>10-2</v>
       </c>
       <c r="D72" s="5"/>
@@ -6455,11 +6542,11 @@
         <v>16</v>
       </c>
       <c r="B149">
-        <f t="shared" ref="B139:B220" si="16">IF(A149=A148,B148+1,1)</f>
+        <f t="shared" ref="B149:B221" si="16">IF(A149=A148,B148+1,1)</f>
         <v>1</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f t="shared" ref="C139:C219" si="17">CONCATENATE(A149,"-",B149)</f>
+        <f t="shared" ref="C149:C220" si="17">CONCATENATE(A149,"-",B149)</f>
         <v>16-1</v>
       </c>
       <c r="D149" s="5"/>
@@ -6481,7 +6568,7 @@
     </row>
     <row r="150" spans="1:13" ht="15">
       <c r="A150">
-        <f t="shared" ref="A140:A221" si="18">A149</f>
+        <f t="shared" ref="A150:A222" si="18">A149</f>
         <v>16</v>
       </c>
       <c r="B150">
@@ -8562,12 +8649,11 @@
         <v>24</v>
       </c>
       <c r="B219">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v>24-1</v>
+        <f t="shared" ref="C219" si="33">CONCATENATE(A219,"-",B219)</f>
+        <v>24-6</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
@@ -8576,10 +8662,10 @@
         <v>63</v>
       </c>
       <c r="H219" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
@@ -8588,16 +8674,15 @@
     </row>
     <row r="220" spans="1:13" ht="26.25">
       <c r="A220">
-        <f t="shared" si="18"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B220">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f>IF(A220=A218,B218+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f t="shared" ref="C220" si="33">CONCATENATE(A220,"-",B220)</f>
-        <v>24-2</v>
+        <f t="shared" si="17"/>
+        <v>25-1</v>
       </c>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
@@ -8609,2414 +8694,2440 @@
         <v>272</v>
       </c>
       <c r="I220" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J220" s="23"/>
       <c r="K220" s="21"/>
       <c r="L220" s="26"/>
       <c r="M220" s="6"/>
     </row>
-    <row r="221" spans="1:13" ht="15">
+    <row r="221" spans="1:13" ht="26.25">
       <c r="A221">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B221">
-        <f t="shared" ref="B221:B284" si="34">IF(A221=A220,B220+1,1)</f>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f t="shared" ref="C221:C284" si="35">CONCATENATE(A221,"-",B221)</f>
-        <v>24-3</v>
-      </c>
-      <c r="L221" s="6"/>
+        <f t="shared" ref="C221" si="34">CONCATENATE(A221,"-",B221)</f>
+        <v>25-2</v>
+      </c>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H221" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I221" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J221" s="23"/>
+      <c r="K221" s="21"/>
+      <c r="L221" s="26"/>
       <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="15">
       <c r="A222">
-        <f t="shared" ref="A222:A285" si="36">A221</f>
-        <v>24</v>
+        <f t="shared" si="18"/>
+        <v>25</v>
       </c>
       <c r="B222">
-        <f t="shared" si="34"/>
-        <v>4</v>
+        <f t="shared" ref="B222:B285" si="35">IF(A222=A221,B221+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-4</v>
+        <f t="shared" ref="C222:C285" si="36">CONCATENATE(A222,"-",B222)</f>
+        <v>25-3</v>
       </c>
       <c r="L222" s="6"/>
       <c r="M222" s="6"/>
     </row>
     <row r="223" spans="1:13" ht="15">
       <c r="A223">
+        <f t="shared" ref="A223:A286" si="37">A222</f>
+        <v>25</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="C223" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B223">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="C223" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-5</v>
+        <v>25-4</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="15">
       <c r="A224">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="35"/>
+        <v>5</v>
+      </c>
+      <c r="C224" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="C224" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-6</v>
+        <v>25-5</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
     </row>
     <row r="225" spans="1:13" ht="15">
       <c r="A225">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="C225" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="34"/>
-        <v>7</v>
-      </c>
-      <c r="C225" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-7</v>
+        <v>25-6</v>
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
     </row>
     <row r="226" spans="1:13" ht="15">
       <c r="A226">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="35"/>
+        <v>7</v>
+      </c>
+      <c r="C226" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B226">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="C226" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-8</v>
+        <v>25-7</v>
       </c>
       <c r="L226" s="6"/>
       <c r="M226" s="6"/>
     </row>
     <row r="227" spans="1:13" ht="15">
       <c r="A227">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="C227" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B227">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="C227" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-9</v>
+        <v>25-8</v>
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
     </row>
     <row r="228" spans="1:13" ht="15">
       <c r="A228">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="C228" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B228">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="C228" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-10</v>
+        <v>25-9</v>
       </c>
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="C229" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B229">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="C229" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-11</v>
+        <v>25-10</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="35"/>
+        <v>11</v>
+      </c>
+      <c r="C230" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B230">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="C230" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-12</v>
+        <v>25-11</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="35"/>
+        <v>12</v>
+      </c>
+      <c r="C231" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B231">
-        <f t="shared" si="34"/>
-        <v>13</v>
-      </c>
-      <c r="C231" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-13</v>
+        <v>25-12</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="35"/>
+        <v>13</v>
+      </c>
+      <c r="C232" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B232">
-        <f t="shared" si="34"/>
-        <v>14</v>
-      </c>
-      <c r="C232" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-14</v>
+        <v>25-13</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="35"/>
+        <v>14</v>
+      </c>
+      <c r="C233" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B233">
-        <f t="shared" si="34"/>
-        <v>15</v>
-      </c>
-      <c r="C233" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-15</v>
+        <v>25-14</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="35"/>
+        <v>15</v>
+      </c>
+      <c r="C234" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="34"/>
-        <v>16</v>
-      </c>
-      <c r="C234" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-16</v>
+        <v>25-15</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="C235" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="34"/>
-        <v>17</v>
-      </c>
-      <c r="C235" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-17</v>
+        <v>25-16</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="35"/>
+        <v>17</v>
+      </c>
+      <c r="C236" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="34"/>
-        <v>18</v>
-      </c>
-      <c r="C236" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-18</v>
+        <v>25-17</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="35"/>
+        <v>18</v>
+      </c>
+      <c r="C237" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="34"/>
-        <v>19</v>
-      </c>
-      <c r="C237" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-19</v>
+        <v>25-18</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="35"/>
+        <v>19</v>
+      </c>
+      <c r="C238" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="34"/>
-        <v>20</v>
-      </c>
-      <c r="C238" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-20</v>
+        <v>25-19</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="35"/>
+        <v>20</v>
+      </c>
+      <c r="C239" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="34"/>
-        <v>21</v>
-      </c>
-      <c r="C239" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-21</v>
+        <v>25-20</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="35"/>
+        <v>21</v>
+      </c>
+      <c r="C240" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="34"/>
-        <v>22</v>
-      </c>
-      <c r="C240" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-22</v>
+        <v>25-21</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="35"/>
+        <v>22</v>
+      </c>
+      <c r="C241" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="34"/>
-        <v>23</v>
-      </c>
-      <c r="C241" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-23</v>
+        <v>25-22</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="35"/>
+        <v>23</v>
+      </c>
+      <c r="C242" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="34"/>
-        <v>24</v>
-      </c>
-      <c r="C242" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-24</v>
+        <v>25-23</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="35"/>
+        <v>24</v>
+      </c>
+      <c r="C243" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="34"/>
-        <v>25</v>
-      </c>
-      <c r="C243" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-25</v>
+        <v>25-24</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="35"/>
+        <v>25</v>
+      </c>
+      <c r="C244" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="34"/>
-        <v>26</v>
-      </c>
-      <c r="C244" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-26</v>
+        <v>25-25</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="35"/>
+        <v>26</v>
+      </c>
+      <c r="C245" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="34"/>
-        <v>27</v>
-      </c>
-      <c r="C245" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-27</v>
+        <v>25-26</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="35"/>
+        <v>27</v>
+      </c>
+      <c r="C246" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="34"/>
-        <v>28</v>
-      </c>
-      <c r="C246" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-28</v>
+        <v>25-27</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="35"/>
+        <v>28</v>
+      </c>
+      <c r="C247" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="34"/>
-        <v>29</v>
-      </c>
-      <c r="C247" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-29</v>
+        <v>25-28</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="35"/>
+        <v>29</v>
+      </c>
+      <c r="C248" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="C248" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-30</v>
+        <v>25-29</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="35"/>
+        <v>30</v>
+      </c>
+      <c r="C249" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="34"/>
-        <v>31</v>
-      </c>
-      <c r="C249" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-31</v>
+        <v>25-30</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="35"/>
+        <v>31</v>
+      </c>
+      <c r="C250" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="34"/>
-        <v>32</v>
-      </c>
-      <c r="C250" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-32</v>
+        <v>25-31</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="35"/>
+        <v>32</v>
+      </c>
+      <c r="C251" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="34"/>
-        <v>33</v>
-      </c>
-      <c r="C251" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-33</v>
+        <v>25-32</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="35"/>
+        <v>33</v>
+      </c>
+      <c r="C252" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="34"/>
-        <v>34</v>
-      </c>
-      <c r="C252" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-34</v>
+        <v>25-33</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="35"/>
+        <v>34</v>
+      </c>
+      <c r="C253" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="34"/>
-        <v>35</v>
-      </c>
-      <c r="C253" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-35</v>
+        <v>25-34</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="35"/>
+        <v>35</v>
+      </c>
+      <c r="C254" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="34"/>
-        <v>36</v>
-      </c>
-      <c r="C254" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-36</v>
+        <v>25-35</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="35"/>
+        <v>36</v>
+      </c>
+      <c r="C255" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="34"/>
-        <v>37</v>
-      </c>
-      <c r="C255" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-37</v>
+        <v>25-36</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="35"/>
+        <v>37</v>
+      </c>
+      <c r="C256" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="34"/>
-        <v>38</v>
-      </c>
-      <c r="C256" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-38</v>
+        <v>25-37</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="35"/>
+        <v>38</v>
+      </c>
+      <c r="C257" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="34"/>
-        <v>39</v>
-      </c>
-      <c r="C257" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-39</v>
+        <v>25-38</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="35"/>
+        <v>39</v>
+      </c>
+      <c r="C258" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B258">
-        <f t="shared" si="34"/>
-        <v>40</v>
-      </c>
-      <c r="C258" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-40</v>
+        <v>25-39</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="35"/>
+        <v>40</v>
+      </c>
+      <c r="C259" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="34"/>
-        <v>41</v>
-      </c>
-      <c r="C259" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-41</v>
+        <v>25-40</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="35"/>
+        <v>41</v>
+      </c>
+      <c r="C260" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="34"/>
-        <v>42</v>
-      </c>
-      <c r="C260" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-42</v>
+        <v>25-41</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="35"/>
+        <v>42</v>
+      </c>
+      <c r="C261" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="34"/>
-        <v>43</v>
-      </c>
-      <c r="C261" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-43</v>
+        <v>25-42</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="35"/>
+        <v>43</v>
+      </c>
+      <c r="C262" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="34"/>
-        <v>44</v>
-      </c>
-      <c r="C262" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-44</v>
+        <v>25-43</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="35"/>
+        <v>44</v>
+      </c>
+      <c r="C263" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="34"/>
-        <v>45</v>
-      </c>
-      <c r="C263" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-45</v>
+        <v>25-44</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="35"/>
+        <v>45</v>
+      </c>
+      <c r="C264" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="34"/>
-        <v>46</v>
-      </c>
-      <c r="C264" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-46</v>
+        <v>25-45</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="35"/>
+        <v>46</v>
+      </c>
+      <c r="C265" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="34"/>
-        <v>47</v>
-      </c>
-      <c r="C265" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-47</v>
+        <v>25-46</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="35"/>
+        <v>47</v>
+      </c>
+      <c r="C266" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="34"/>
-        <v>48</v>
-      </c>
-      <c r="C266" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-48</v>
+        <v>25-47</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="35"/>
+        <v>48</v>
+      </c>
+      <c r="C267" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B267">
-        <f t="shared" si="34"/>
-        <v>49</v>
-      </c>
-      <c r="C267" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-49</v>
+        <v>25-48</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="35"/>
+        <v>49</v>
+      </c>
+      <c r="C268" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="34"/>
-        <v>50</v>
-      </c>
-      <c r="C268" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-50</v>
+        <v>25-49</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="35"/>
+        <v>50</v>
+      </c>
+      <c r="C269" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="34"/>
-        <v>51</v>
-      </c>
-      <c r="C269" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-51</v>
+        <v>25-50</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="35"/>
+        <v>51</v>
+      </c>
+      <c r="C270" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="34"/>
-        <v>52</v>
-      </c>
-      <c r="C270" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-52</v>
+        <v>25-51</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="35"/>
+        <v>52</v>
+      </c>
+      <c r="C271" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="34"/>
-        <v>53</v>
-      </c>
-      <c r="C271" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-53</v>
+        <v>25-52</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="35"/>
+        <v>53</v>
+      </c>
+      <c r="C272" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="34"/>
-        <v>54</v>
-      </c>
-      <c r="C272" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-54</v>
+        <v>25-53</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="35"/>
+        <v>54</v>
+      </c>
+      <c r="C273" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="34"/>
-        <v>55</v>
-      </c>
-      <c r="C273" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-55</v>
+        <v>25-54</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="35"/>
+        <v>55</v>
+      </c>
+      <c r="C274" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="34"/>
-        <v>56</v>
-      </c>
-      <c r="C274" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-56</v>
+        <v>25-55</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="35"/>
+        <v>56</v>
+      </c>
+      <c r="C275" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="34"/>
-        <v>57</v>
-      </c>
-      <c r="C275" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-57</v>
+        <v>25-56</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="35"/>
+        <v>57</v>
+      </c>
+      <c r="C276" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="34"/>
-        <v>58</v>
-      </c>
-      <c r="C276" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-58</v>
+        <v>25-57</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="35"/>
+        <v>58</v>
+      </c>
+      <c r="C277" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="34"/>
-        <v>59</v>
-      </c>
-      <c r="C277" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-59</v>
+        <v>25-58</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="35"/>
+        <v>59</v>
+      </c>
+      <c r="C278" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="34"/>
-        <v>60</v>
-      </c>
-      <c r="C278" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-60</v>
+        <v>25-59</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="35"/>
+        <v>60</v>
+      </c>
+      <c r="C279" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="34"/>
-        <v>61</v>
-      </c>
-      <c r="C279" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-61</v>
+        <v>25-60</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="35"/>
+        <v>61</v>
+      </c>
+      <c r="C280" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="34"/>
-        <v>62</v>
-      </c>
-      <c r="C280" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-62</v>
+        <v>25-61</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="35"/>
+        <v>62</v>
+      </c>
+      <c r="C281" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="34"/>
-        <v>63</v>
-      </c>
-      <c r="C281" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-63</v>
+        <v>25-62</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="35"/>
+        <v>63</v>
+      </c>
+      <c r="C282" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="34"/>
-        <v>64</v>
-      </c>
-      <c r="C282" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-64</v>
+        <v>25-63</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="35"/>
+        <v>64</v>
+      </c>
+      <c r="C283" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="34"/>
-        <v>65</v>
-      </c>
-      <c r="C283" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-65</v>
+        <v>25-64</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="35"/>
+        <v>65</v>
+      </c>
+      <c r="C284" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="34"/>
-        <v>66</v>
-      </c>
-      <c r="C284" s="3" t="str">
-        <f t="shared" si="35"/>
-        <v>24-66</v>
+        <v>25-65</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="35"/>
+        <v>66</v>
+      </c>
+      <c r="C285" s="3" t="str">
         <f t="shared" si="36"/>
-        <v>24</v>
-      </c>
-      <c r="B285">
-        <f t="shared" ref="B285:B348" si="37">IF(A285=A284,B284+1,1)</f>
-        <v>67</v>
-      </c>
-      <c r="C285" s="3" t="str">
-        <f t="shared" ref="C285:C348" si="38">CONCATENATE(A285,"-",B285)</f>
-        <v>24-67</v>
+        <v>25-66</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" ref="A286:A349" si="39">A285</f>
-        <v>24</v>
+        <f t="shared" si="37"/>
+        <v>25</v>
       </c>
       <c r="B286">
-        <f t="shared" si="37"/>
-        <v>68</v>
+        <f t="shared" ref="B286:B349" si="38">IF(A286=A285,B285+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-68</v>
+        <f t="shared" ref="C286:C349" si="39">CONCATENATE(A286,"-",B286)</f>
+        <v>25-67</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
+        <f t="shared" ref="A287:A350" si="40">A286</f>
+        <v>25</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="38"/>
+        <v>68</v>
+      </c>
+      <c r="C287" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="37"/>
-        <v>69</v>
-      </c>
-      <c r="C287" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-69</v>
+        <v>25-68</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="38"/>
+        <v>69</v>
+      </c>
+      <c r="C288" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="37"/>
-        <v>70</v>
-      </c>
-      <c r="C288" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-70</v>
+        <v>25-69</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="38"/>
+        <v>70</v>
+      </c>
+      <c r="C289" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="37"/>
-        <v>71</v>
-      </c>
-      <c r="C289" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-71</v>
+        <v>25-70</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="38"/>
+        <v>71</v>
+      </c>
+      <c r="C290" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="37"/>
-        <v>72</v>
-      </c>
-      <c r="C290" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-72</v>
+        <v>25-71</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="38"/>
+        <v>72</v>
+      </c>
+      <c r="C291" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="37"/>
-        <v>73</v>
-      </c>
-      <c r="C291" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-73</v>
+        <v>25-72</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="38"/>
+        <v>73</v>
+      </c>
+      <c r="C292" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="37"/>
-        <v>74</v>
-      </c>
-      <c r="C292" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-74</v>
+        <v>25-73</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="38"/>
+        <v>74</v>
+      </c>
+      <c r="C293" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B293">
-        <f t="shared" si="37"/>
-        <v>75</v>
-      </c>
-      <c r="C293" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-75</v>
+        <v>25-74</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="38"/>
+        <v>75</v>
+      </c>
+      <c r="C294" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B294">
-        <f t="shared" si="37"/>
-        <v>76</v>
-      </c>
-      <c r="C294" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-76</v>
+        <v>25-75</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="38"/>
+        <v>76</v>
+      </c>
+      <c r="C295" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B295">
-        <f t="shared" si="37"/>
-        <v>77</v>
-      </c>
-      <c r="C295" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-77</v>
+        <v>25-76</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="38"/>
+        <v>77</v>
+      </c>
+      <c r="C296" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B296">
-        <f t="shared" si="37"/>
-        <v>78</v>
-      </c>
-      <c r="C296" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-78</v>
+        <v>25-77</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="38"/>
+        <v>78</v>
+      </c>
+      <c r="C297" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B297">
-        <f t="shared" si="37"/>
-        <v>79</v>
-      </c>
-      <c r="C297" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-79</v>
+        <v>25-78</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="38"/>
+        <v>79</v>
+      </c>
+      <c r="C298" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B298">
-        <f t="shared" si="37"/>
-        <v>80</v>
-      </c>
-      <c r="C298" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-80</v>
+        <v>25-79</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="38"/>
+        <v>80</v>
+      </c>
+      <c r="C299" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B299">
-        <f t="shared" si="37"/>
-        <v>81</v>
-      </c>
-      <c r="C299" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-81</v>
+        <v>25-80</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="38"/>
+        <v>81</v>
+      </c>
+      <c r="C300" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B300">
-        <f t="shared" si="37"/>
-        <v>82</v>
-      </c>
-      <c r="C300" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-82</v>
+        <v>25-81</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="38"/>
+        <v>82</v>
+      </c>
+      <c r="C301" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B301">
-        <f t="shared" si="37"/>
-        <v>83</v>
-      </c>
-      <c r="C301" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-83</v>
+        <v>25-82</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="38"/>
+        <v>83</v>
+      </c>
+      <c r="C302" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="37"/>
-        <v>84</v>
-      </c>
-      <c r="C302" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-84</v>
+        <v>25-83</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="38"/>
+        <v>84</v>
+      </c>
+      <c r="C303" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="37"/>
-        <v>85</v>
-      </c>
-      <c r="C303" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-85</v>
+        <v>25-84</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="38"/>
+        <v>85</v>
+      </c>
+      <c r="C304" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="37"/>
-        <v>86</v>
-      </c>
-      <c r="C304" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-86</v>
+        <v>25-85</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="38"/>
+        <v>86</v>
+      </c>
+      <c r="C305" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B305">
-        <f t="shared" si="37"/>
-        <v>87</v>
-      </c>
-      <c r="C305" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-87</v>
+        <v>25-86</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="38"/>
+        <v>87</v>
+      </c>
+      <c r="C306" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B306">
-        <f t="shared" si="37"/>
-        <v>88</v>
-      </c>
-      <c r="C306" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-88</v>
+        <v>25-87</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="38"/>
+        <v>88</v>
+      </c>
+      <c r="C307" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B307">
-        <f t="shared" si="37"/>
-        <v>89</v>
-      </c>
-      <c r="C307" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-89</v>
+        <v>25-88</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="38"/>
+        <v>89</v>
+      </c>
+      <c r="C308" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B308">
-        <f t="shared" si="37"/>
-        <v>90</v>
-      </c>
-      <c r="C308" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-90</v>
+        <v>25-89</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="38"/>
+        <v>90</v>
+      </c>
+      <c r="C309" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B309">
-        <f t="shared" si="37"/>
-        <v>91</v>
-      </c>
-      <c r="C309" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-91</v>
+        <v>25-90</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="38"/>
+        <v>91</v>
+      </c>
+      <c r="C310" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B310">
-        <f t="shared" si="37"/>
-        <v>92</v>
-      </c>
-      <c r="C310" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-92</v>
+        <v>25-91</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="38"/>
+        <v>92</v>
+      </c>
+      <c r="C311" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B311">
-        <f t="shared" si="37"/>
-        <v>93</v>
-      </c>
-      <c r="C311" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-93</v>
+        <v>25-92</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="38"/>
+        <v>93</v>
+      </c>
+      <c r="C312" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B312">
-        <f t="shared" si="37"/>
-        <v>94</v>
-      </c>
-      <c r="C312" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-94</v>
+        <v>25-93</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="38"/>
+        <v>94</v>
+      </c>
+      <c r="C313" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B313">
-        <f t="shared" si="37"/>
-        <v>95</v>
-      </c>
-      <c r="C313" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-95</v>
+        <v>25-94</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="38"/>
+        <v>95</v>
+      </c>
+      <c r="C314" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B314">
-        <f t="shared" si="37"/>
-        <v>96</v>
-      </c>
-      <c r="C314" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-96</v>
+        <v>25-95</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="38"/>
+        <v>96</v>
+      </c>
+      <c r="C315" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B315">
-        <f t="shared" si="37"/>
-        <v>97</v>
-      </c>
-      <c r="C315" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-97</v>
+        <v>25-96</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="38"/>
+        <v>97</v>
+      </c>
+      <c r="C316" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B316">
-        <f t="shared" si="37"/>
-        <v>98</v>
-      </c>
-      <c r="C316" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-98</v>
+        <v>25-97</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="38"/>
+        <v>98</v>
+      </c>
+      <c r="C317" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B317">
-        <f t="shared" si="37"/>
-        <v>99</v>
-      </c>
-      <c r="C317" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-99</v>
+        <v>25-98</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="38"/>
+        <v>99</v>
+      </c>
+      <c r="C318" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B318">
-        <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-      <c r="C318" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-100</v>
+        <v>25-99</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+      <c r="C319" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B319">
-        <f t="shared" si="37"/>
-        <v>101</v>
-      </c>
-      <c r="C319" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-101</v>
+        <v>25-100</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="38"/>
+        <v>101</v>
+      </c>
+      <c r="C320" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B320">
-        <f t="shared" si="37"/>
-        <v>102</v>
-      </c>
-      <c r="C320" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-102</v>
+        <v>25-101</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="38"/>
+        <v>102</v>
+      </c>
+      <c r="C321" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B321">
-        <f t="shared" si="37"/>
-        <v>103</v>
-      </c>
-      <c r="C321" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-103</v>
+        <v>25-102</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="C322" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B322">
-        <f t="shared" si="37"/>
-        <v>104</v>
-      </c>
-      <c r="C322" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-104</v>
+        <v>25-103</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="38"/>
+        <v>104</v>
+      </c>
+      <c r="C323" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B323">
-        <f t="shared" si="37"/>
-        <v>105</v>
-      </c>
-      <c r="C323" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-105</v>
+        <v>25-104</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="38"/>
+        <v>105</v>
+      </c>
+      <c r="C324" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B324">
-        <f t="shared" si="37"/>
-        <v>106</v>
-      </c>
-      <c r="C324" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-106</v>
+        <v>25-105</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="38"/>
+        <v>106</v>
+      </c>
+      <c r="C325" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B325">
-        <f t="shared" si="37"/>
-        <v>107</v>
-      </c>
-      <c r="C325" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-107</v>
+        <v>25-106</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="38"/>
+        <v>107</v>
+      </c>
+      <c r="C326" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="37"/>
-        <v>108</v>
-      </c>
-      <c r="C326" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-108</v>
+        <v>25-107</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="38"/>
+        <v>108</v>
+      </c>
+      <c r="C327" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B327">
-        <f t="shared" si="37"/>
-        <v>109</v>
-      </c>
-      <c r="C327" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-109</v>
+        <v>25-108</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="38"/>
+        <v>109</v>
+      </c>
+      <c r="C328" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B328">
-        <f t="shared" si="37"/>
-        <v>110</v>
-      </c>
-      <c r="C328" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-110</v>
+        <v>25-109</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="38"/>
+        <v>110</v>
+      </c>
+      <c r="C329" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B329">
-        <f t="shared" si="37"/>
-        <v>111</v>
-      </c>
-      <c r="C329" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-111</v>
+        <v>25-110</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="38"/>
+        <v>111</v>
+      </c>
+      <c r="C330" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B330">
-        <f t="shared" si="37"/>
-        <v>112</v>
-      </c>
-      <c r="C330" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-112</v>
+        <v>25-111</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="38"/>
+        <v>112</v>
+      </c>
+      <c r="C331" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B331">
-        <f t="shared" si="37"/>
-        <v>113</v>
-      </c>
-      <c r="C331" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-113</v>
+        <v>25-112</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="38"/>
+        <v>113</v>
+      </c>
+      <c r="C332" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B332">
-        <f t="shared" si="37"/>
-        <v>114</v>
-      </c>
-      <c r="C332" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-114</v>
+        <v>25-113</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="38"/>
+        <v>114</v>
+      </c>
+      <c r="C333" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="37"/>
-        <v>115</v>
-      </c>
-      <c r="C333" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-115</v>
+        <v>25-114</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="38"/>
+        <v>115</v>
+      </c>
+      <c r="C334" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B334">
-        <f t="shared" si="37"/>
-        <v>116</v>
-      </c>
-      <c r="C334" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-116</v>
+        <v>25-115</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="38"/>
+        <v>116</v>
+      </c>
+      <c r="C335" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B335">
-        <f t="shared" si="37"/>
-        <v>117</v>
-      </c>
-      <c r="C335" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-117</v>
+        <v>25-116</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="38"/>
+        <v>117</v>
+      </c>
+      <c r="C336" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B336">
-        <f t="shared" si="37"/>
-        <v>118</v>
-      </c>
-      <c r="C336" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-118</v>
+        <v>25-117</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="38"/>
+        <v>118</v>
+      </c>
+      <c r="C337" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B337">
-        <f t="shared" si="37"/>
-        <v>119</v>
-      </c>
-      <c r="C337" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-119</v>
+        <v>25-118</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="38"/>
+        <v>119</v>
+      </c>
+      <c r="C338" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B338">
-        <f t="shared" si="37"/>
-        <v>120</v>
-      </c>
-      <c r="C338" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-120</v>
+        <v>25-119</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="38"/>
+        <v>120</v>
+      </c>
+      <c r="C339" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B339">
-        <f t="shared" si="37"/>
-        <v>121</v>
-      </c>
-      <c r="C339" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-121</v>
+        <v>25-120</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="38"/>
+        <v>121</v>
+      </c>
+      <c r="C340" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B340">
-        <f t="shared" si="37"/>
-        <v>122</v>
-      </c>
-      <c r="C340" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-122</v>
+        <v>25-121</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="38"/>
+        <v>122</v>
+      </c>
+      <c r="C341" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B341">
-        <f t="shared" si="37"/>
-        <v>123</v>
-      </c>
-      <c r="C341" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-123</v>
+        <v>25-122</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="38"/>
+        <v>123</v>
+      </c>
+      <c r="C342" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B342">
-        <f t="shared" si="37"/>
-        <v>124</v>
-      </c>
-      <c r="C342" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-124</v>
+        <v>25-123</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="38"/>
+        <v>124</v>
+      </c>
+      <c r="C343" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="37"/>
-        <v>125</v>
-      </c>
-      <c r="C343" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-125</v>
+        <v>25-124</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="38"/>
+        <v>125</v>
+      </c>
+      <c r="C344" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B344">
-        <f t="shared" si="37"/>
-        <v>126</v>
-      </c>
-      <c r="C344" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-126</v>
+        <v>25-125</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="38"/>
+        <v>126</v>
+      </c>
+      <c r="C345" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B345">
-        <f t="shared" si="37"/>
-        <v>127</v>
-      </c>
-      <c r="C345" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-127</v>
+        <v>25-126</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="38"/>
+        <v>127</v>
+      </c>
+      <c r="C346" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="37"/>
-        <v>128</v>
-      </c>
-      <c r="C346" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-128</v>
+        <v>25-127</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="38"/>
+        <v>128</v>
+      </c>
+      <c r="C347" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="37"/>
-        <v>129</v>
-      </c>
-      <c r="C347" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-129</v>
+        <v>25-128</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="38"/>
+        <v>129</v>
+      </c>
+      <c r="C348" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B348">
-        <f t="shared" si="37"/>
-        <v>130</v>
-      </c>
-      <c r="C348" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>24-130</v>
+        <v>25-129</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
+        <f t="shared" si="40"/>
+        <v>25</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="38"/>
+        <v>130</v>
+      </c>
+      <c r="C349" s="3" t="str">
         <f t="shared" si="39"/>
-        <v>24</v>
-      </c>
-      <c r="B349">
-        <f t="shared" ref="B349:B370" si="40">IF(A349=A348,B348+1,1)</f>
-        <v>131</v>
-      </c>
-      <c r="C349" s="3" t="str">
-        <f t="shared" ref="C349:C370" si="41">CONCATENATE(A349,"-",B349)</f>
-        <v>24-131</v>
+        <v>25-130</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
-        <f t="shared" ref="A350:A370" si="42">A349</f>
-        <v>24</v>
+        <f t="shared" si="40"/>
+        <v>25</v>
       </c>
       <c r="B350">
-        <f t="shared" si="40"/>
-        <v>132</v>
+        <f t="shared" ref="B350:B371" si="41">IF(A350=A349,B349+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-132</v>
+        <f t="shared" ref="C350:C371" si="42">CONCATENATE(A350,"-",B350)</f>
+        <v>25-131</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
+        <f t="shared" ref="A351:A371" si="43">A350</f>
+        <v>25</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="41"/>
+        <v>132</v>
+      </c>
+      <c r="C351" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B351">
-        <f t="shared" si="40"/>
-        <v>133</v>
-      </c>
-      <c r="C351" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-133</v>
+        <v>25-132</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="41"/>
+        <v>133</v>
+      </c>
+      <c r="C352" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B352">
-        <f t="shared" si="40"/>
-        <v>134</v>
-      </c>
-      <c r="C352" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-134</v>
+        <v>25-133</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="41"/>
+        <v>134</v>
+      </c>
+      <c r="C353" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B353">
-        <f t="shared" si="40"/>
-        <v>135</v>
-      </c>
-      <c r="C353" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-135</v>
+        <v>25-134</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="41"/>
+        <v>135</v>
+      </c>
+      <c r="C354" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B354">
-        <f t="shared" si="40"/>
-        <v>136</v>
-      </c>
-      <c r="C354" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-136</v>
+        <v>25-135</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="41"/>
+        <v>136</v>
+      </c>
+      <c r="C355" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B355">
-        <f t="shared" si="40"/>
-        <v>137</v>
-      </c>
-      <c r="C355" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-137</v>
+        <v>25-136</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="41"/>
+        <v>137</v>
+      </c>
+      <c r="C356" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B356">
-        <f t="shared" si="40"/>
-        <v>138</v>
-      </c>
-      <c r="C356" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-138</v>
+        <v>25-137</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="41"/>
+        <v>138</v>
+      </c>
+      <c r="C357" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B357">
-        <f t="shared" si="40"/>
-        <v>139</v>
-      </c>
-      <c r="C357" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-139</v>
+        <v>25-138</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="41"/>
+        <v>139</v>
+      </c>
+      <c r="C358" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B358">
-        <f t="shared" si="40"/>
-        <v>140</v>
-      </c>
-      <c r="C358" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-140</v>
+        <v>25-139</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="41"/>
+        <v>140</v>
+      </c>
+      <c r="C359" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="40"/>
-        <v>141</v>
-      </c>
-      <c r="C359" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-141</v>
+        <v>25-140</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="41"/>
+        <v>141</v>
+      </c>
+      <c r="C360" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B360">
-        <f t="shared" si="40"/>
-        <v>142</v>
-      </c>
-      <c r="C360" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-142</v>
+        <v>25-141</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="41"/>
+        <v>142</v>
+      </c>
+      <c r="C361" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B361">
-        <f t="shared" si="40"/>
-        <v>143</v>
-      </c>
-      <c r="C361" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-143</v>
+        <v>25-142</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="41"/>
+        <v>143</v>
+      </c>
+      <c r="C362" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B362">
-        <f t="shared" si="40"/>
-        <v>144</v>
-      </c>
-      <c r="C362" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-144</v>
+        <v>25-143</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="41"/>
+        <v>144</v>
+      </c>
+      <c r="C363" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B363">
-        <f t="shared" si="40"/>
-        <v>145</v>
-      </c>
-      <c r="C363" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-145</v>
+        <v>25-144</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="41"/>
+        <v>145</v>
+      </c>
+      <c r="C364" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B364">
-        <f t="shared" si="40"/>
-        <v>146</v>
-      </c>
-      <c r="C364" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-146</v>
+        <v>25-145</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="41"/>
+        <v>146</v>
+      </c>
+      <c r="C365" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B365">
-        <f t="shared" si="40"/>
-        <v>147</v>
-      </c>
-      <c r="C365" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-147</v>
+        <v>25-146</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="41"/>
+        <v>147</v>
+      </c>
+      <c r="C366" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B366">
-        <f t="shared" si="40"/>
-        <v>148</v>
-      </c>
-      <c r="C366" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-148</v>
+        <v>25-147</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="41"/>
+        <v>148</v>
+      </c>
+      <c r="C367" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B367">
-        <f t="shared" si="40"/>
-        <v>149</v>
-      </c>
-      <c r="C367" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-149</v>
+        <v>25-148</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="41"/>
+        <v>149</v>
+      </c>
+      <c r="C368" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B368">
-        <f t="shared" si="40"/>
-        <v>150</v>
-      </c>
-      <c r="C368" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-150</v>
+        <v>25-149</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="41"/>
+        <v>150</v>
+      </c>
+      <c r="C369" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B369">
-        <f t="shared" si="40"/>
-        <v>151</v>
-      </c>
-      <c r="C369" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-151</v>
+        <v>25-150</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="41"/>
+        <v>151</v>
+      </c>
+      <c r="C370" s="3" t="str">
         <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="B370">
-        <f t="shared" si="40"/>
-        <v>152</v>
-      </c>
-      <c r="C370" s="3" t="str">
-        <f t="shared" si="41"/>
-        <v>24-152</v>
+        <v>25-151</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
-    <row r="371" spans="1:13" ht="12.75">
+    <row r="371" spans="1:13" ht="15">
+      <c r="A371">
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="B371">
+        <f t="shared" si="41"/>
+        <v>152</v>
+      </c>
+      <c r="C371" s="3" t="str">
+        <f t="shared" si="42"/>
+        <v>25-152</v>
+      </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
@@ -13763,279 +13874,298 @@
     <row r="1057" spans="12:13" ht="12.75">
       <c r="L1057" s="6"/>
       <c r="M1057" s="6"/>
+    </row>
+    <row r="1058" spans="12:13" ht="12.75">
+      <c r="L1058" s="6"/>
+      <c r="M1058" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L179:L182"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K190">
-    <cfRule type="containsBlanks" dxfId="53" priority="58">
+    <cfRule type="containsBlanks" dxfId="59" priority="61">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K190">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K190">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsBlanks" dxfId="50" priority="55">
+    <cfRule type="containsBlanks" dxfId="56" priority="58">
       <formula>LEN(TRIM(K191))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K191">
-    <cfRule type="containsText" dxfId="48" priority="57" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K191))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
+    <cfRule type="containsBlanks" dxfId="53" priority="52">
       <formula>LEN(TRIM(K192))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K192">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K192))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
+    <cfRule type="containsBlanks" dxfId="50" priority="49">
       <formula>LEN(TRIM(K193))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K193">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K193))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="47" priority="46">
       <formula>LEN(TRIM(K194))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K194">
-    <cfRule type="containsText" dxfId="39" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsBlanks" dxfId="38" priority="40">
+    <cfRule type="containsBlanks" dxfId="44" priority="43">
       <formula>LEN(TRIM(K196))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="37" priority="37">
+    <cfRule type="containsBlanks" dxfId="43" priority="40">
       <formula>LEN(TRIM(K198))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="36" priority="34">
+    <cfRule type="containsBlanks" dxfId="42" priority="37">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="35" priority="31">
+    <cfRule type="containsBlanks" dxfId="41" priority="34">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="34" priority="28">
+    <cfRule type="containsBlanks" dxfId="40" priority="31">
       <formula>LEN(TRIM(K203))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="33" priority="25">
+    <cfRule type="containsBlanks" dxfId="39" priority="28">
       <formula>LEN(TRIM(K205))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K207:K220">
-    <cfRule type="containsBlanks" dxfId="32" priority="22">
+  <conditionalFormatting sqref="K207:K218 K220:K221">
+    <cfRule type="containsBlanks" dxfId="38" priority="25">
       <formula>LEN(TRIM(K207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
+    <cfRule type="containsBlanks" dxfId="37" priority="19">
       <formula>LEN(TRIM(K197))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
+    <cfRule type="containsBlanks" dxfId="34" priority="16">
       <formula>LEN(TRIM(K199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="33" priority="41" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="32" priority="42" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
+    <cfRule type="containsBlanks" dxfId="31" priority="13">
       <formula>LEN(TRIM(K195))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
+    <cfRule type="containsBlanks" dxfId="28" priority="10">
       <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="25" priority="7">
       <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="24" priority="32" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="22" priority="4">
       <formula>LEN(TRIM(K206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="20" priority="30" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K207:K220">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K207:K218 K220:K221">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K207:K220">
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K207:K218 K220:K221">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K195">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K219">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(K219))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K219">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K219))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K219">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K219))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="291">
   <si>
     <t>Test Number</t>
   </si>
@@ -884,6 +884,12 @@
   </si>
   <si>
     <t>Has failed in the past</t>
+  </si>
+  <si>
+    <t>Create a new config. Click save. Enter the name of another configuration. When you click ok, a confirmation box appears asking whether you want to overwrite the existing configuration</t>
+  </si>
+  <si>
+    <t>Create a new config. Click save. Enter the name of the current configuration. An error message appears saying the operation is invalid and the save button remains disabled</t>
   </si>
 </sst>
 </file>
@@ -2250,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1063"/>
+  <dimension ref="A1:N1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3944,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f t="shared" ref="C57:C61" si="6">CONCATENATE(A58,"-",B58)</f>
+        <f t="shared" ref="C58:C61" si="6">CONCATENATE(A58,"-",B58)</f>
         <v>7-9</v>
       </c>
       <c r="D58" s="9"/>
@@ -4528,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f t="shared" ref="C77:C109" si="11">CONCATENATE(A77,"-",B77)</f>
+        <f t="shared" ref="C77:C112" si="11">CONCATENATE(A77,"-",B77)</f>
         <v>10-2</v>
       </c>
       <c r="D77" s="5"/>
@@ -4548,7 +4554,7 @@
     </row>
     <row r="78" spans="1:13" ht="15">
       <c r="A78">
-        <f t="shared" ref="A78:A144" si="12">A77</f>
+        <f t="shared" ref="A78:A146" si="12">A77</f>
         <v>10</v>
       </c>
       <c r="B78">
@@ -5471,14 +5477,14 @@
         <v>109</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J110" s="8"/>
       <c r="K110" s="9"/>
       <c r="L110" s="8"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="60">
       <c r="A111">
         <f t="shared" si="12"/>
         <v>15</v>
@@ -5491,46 +5497,46 @@
         <f t="shared" si="16"/>
         <v>15-12</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>119</v>
+      <c r="I111" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="J111" s="8"/>
-      <c r="K111" s="7"/>
+      <c r="K111" s="9"/>
       <c r="L111" s="8"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="1:13" ht="30">
+    <row r="112" spans="1:13" ht="60">
       <c r="A112">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B112">
-        <f t="shared" ref="B112:B153" si="17">IF(A112=A111,B111+1,1)</f>
+        <f t="shared" ref="B112" si="17">IF(A112=A111,B111+1,1)</f>
         <v>13</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f t="shared" ref="C112:C153" si="18">CONCATENATE(A112,"-",B112)</f>
+        <f t="shared" si="11"/>
         <v>15-13</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7" t="s">
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>120</v>
+      <c r="I112" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="J112" s="8"/>
-      <c r="K112" s="7"/>
+      <c r="K112" s="9"/>
       <c r="L112" s="8"/>
       <c r="M112" s="6"/>
     </row>
@@ -5540,11 +5546,11 @@
         <v>15</v>
       </c>
       <c r="B113">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B113" si="18">IF(A113=A112,B112+1,1)</f>
         <v>14</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C113" si="19">CONCATENATE(A113,"-",B113)</f>
         <v>15-14</v>
       </c>
       <c r="D113" s="5"/>
@@ -5555,11 +5561,11 @@
         <v>109</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J113" s="8"/>
       <c r="K113" s="7"/>
-      <c r="L113" s="1"/>
+      <c r="L113" s="8"/>
       <c r="M113" s="6"/>
     </row>
     <row r="114" spans="1:13" ht="30">
@@ -5568,11 +5574,11 @@
         <v>15</v>
       </c>
       <c r="B114">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B114:B155" si="20">IF(A114=A113,B113+1,1)</f>
         <v>15</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C114:C155" si="21">CONCATENATE(A114,"-",B114)</f>
         <v>15-15</v>
       </c>
       <c r="D114" s="5"/>
@@ -5583,7 +5589,7 @@
         <v>109</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J114" s="8"/>
       <c r="K114" s="7"/>
@@ -5596,11 +5602,11 @@
         <v>15</v>
       </c>
       <c r="B115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-16</v>
       </c>
       <c r="D115" s="5"/>
@@ -5611,11 +5617,11 @@
         <v>109</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J115" s="8"/>
       <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
+      <c r="L115" s="1"/>
       <c r="M115" s="6"/>
     </row>
     <row r="116" spans="1:13" ht="30">
@@ -5624,11 +5630,11 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-17</v>
       </c>
       <c r="D116" s="5"/>
@@ -5639,24 +5645,24 @@
         <v>109</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J116" s="8"/>
       <c r="K116" s="7"/>
       <c r="L116" s="8"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="1:13" ht="15">
+    <row r="117" spans="1:13" ht="30">
       <c r="A117">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-18</v>
       </c>
       <c r="D117" s="5"/>
@@ -5667,24 +5673,24 @@
         <v>109</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J117" s="8"/>
       <c r="K117" s="7"/>
       <c r="L117" s="8"/>
       <c r="M117" s="6"/>
     </row>
-    <row r="118" spans="1:13" ht="15">
+    <row r="118" spans="1:13" ht="30">
       <c r="A118">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-19</v>
       </c>
       <c r="D118" s="5"/>
@@ -5695,7 +5701,7 @@
         <v>109</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J118" s="8"/>
       <c r="K118" s="7"/>
@@ -5708,11 +5714,11 @@
         <v>15</v>
       </c>
       <c r="B119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-20</v>
       </c>
       <c r="D119" s="5"/>
@@ -5723,7 +5729,7 @@
         <v>109</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J119" s="8"/>
       <c r="K119" s="7"/>
@@ -5736,11 +5742,11 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-21</v>
       </c>
       <c r="D120" s="5"/>
@@ -5751,7 +5757,7 @@
         <v>109</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J120" s="8"/>
       <c r="K120" s="7"/>
@@ -5764,11 +5770,11 @@
         <v>15</v>
       </c>
       <c r="B121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-22</v>
       </c>
       <c r="D121" s="5"/>
@@ -5779,7 +5785,7 @@
         <v>109</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J121" s="8"/>
       <c r="K121" s="7"/>
@@ -5792,11 +5798,11 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-23</v>
       </c>
       <c r="D122" s="5"/>
@@ -5807,7 +5813,7 @@
         <v>109</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J122" s="8"/>
       <c r="K122" s="7"/>
@@ -5820,11 +5826,11 @@
         <v>15</v>
       </c>
       <c r="B123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-24</v>
       </c>
       <c r="D123" s="5"/>
@@ -5835,7 +5841,7 @@
         <v>109</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J123" s="8"/>
       <c r="K123" s="7"/>
@@ -5848,11 +5854,11 @@
         <v>15</v>
       </c>
       <c r="B124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-25</v>
       </c>
       <c r="D124" s="5"/>
@@ -5863,7 +5869,7 @@
         <v>109</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J124" s="8"/>
       <c r="K124" s="7"/>
@@ -5876,11 +5882,11 @@
         <v>15</v>
       </c>
       <c r="B125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-26</v>
       </c>
       <c r="D125" s="5"/>
@@ -5891,7 +5897,7 @@
         <v>109</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J125" s="8"/>
       <c r="K125" s="7"/>
@@ -5904,11 +5910,11 @@
         <v>15</v>
       </c>
       <c r="B126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-27</v>
       </c>
       <c r="D126" s="5"/>
@@ -5919,7 +5925,7 @@
         <v>109</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J126" s="8"/>
       <c r="K126" s="7"/>
@@ -5932,11 +5938,11 @@
         <v>15</v>
       </c>
       <c r="B127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-28</v>
       </c>
       <c r="D127" s="5"/>
@@ -5947,7 +5953,7 @@
         <v>109</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J127" s="8"/>
       <c r="K127" s="7"/>
@@ -5960,11 +5966,11 @@
         <v>15</v>
       </c>
       <c r="B128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-29</v>
       </c>
       <c r="D128" s="5"/>
@@ -5975,7 +5981,7 @@
         <v>109</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J128" s="8"/>
       <c r="K128" s="7"/>
@@ -5988,11 +5994,11 @@
         <v>15</v>
       </c>
       <c r="B129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-30</v>
       </c>
       <c r="D129" s="5"/>
@@ -6003,38 +6009,38 @@
         <v>109</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="8"/>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" ht="30">
+    <row r="130" spans="1:13" ht="15">
       <c r="A130">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-31</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9" t="s">
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>225</v>
+      <c r="I130" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="J130" s="8"/>
-      <c r="K130" s="9"/>
+      <c r="K130" s="7"/>
       <c r="L130" s="8"/>
       <c r="M130" s="6"/>
     </row>
@@ -6044,11 +6050,11 @@
         <v>15</v>
       </c>
       <c r="B131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-32</v>
       </c>
       <c r="D131" s="5"/>
@@ -6059,7 +6065,7 @@
         <v>109</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J131" s="8"/>
       <c r="K131" s="7"/>
@@ -6072,26 +6078,26 @@
         <v>15</v>
       </c>
       <c r="B132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-33</v>
       </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7" t="s">
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>139</v>
+      <c r="I132" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="J132" s="8"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="1"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="8"/>
       <c r="M132" s="6"/>
     </row>
     <row r="133" spans="1:13" ht="15">
@@ -6100,11 +6106,11 @@
         <v>15</v>
       </c>
       <c r="B133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-34</v>
       </c>
       <c r="D133" s="5"/>
@@ -6115,7 +6121,7 @@
         <v>109</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="7"/>
@@ -6128,11 +6134,11 @@
         <v>15</v>
       </c>
       <c r="B134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-35</v>
       </c>
       <c r="D134" s="5"/>
@@ -6143,24 +6149,24 @@
         <v>109</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J134" s="8"/>
       <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
+      <c r="L134" s="1"/>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="1:13" ht="30">
+    <row r="135" spans="1:13" ht="15">
       <c r="A135">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-36</v>
       </c>
       <c r="D135" s="5"/>
@@ -6171,24 +6177,24 @@
         <v>109</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J135" s="8"/>
       <c r="K135" s="7"/>
       <c r="L135" s="8"/>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" ht="15">
+    <row r="136" spans="1:13" ht="30">
       <c r="A136">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-37</v>
       </c>
       <c r="D136" s="5"/>
@@ -6199,24 +6205,24 @@
         <v>109</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J136" s="8"/>
       <c r="K136" s="7"/>
       <c r="L136" s="8"/>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" ht="15">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-38</v>
       </c>
       <c r="D137" s="5"/>
@@ -6227,7 +6233,7 @@
         <v>109</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J137" s="8"/>
       <c r="K137" s="7"/>
@@ -6240,11 +6246,11 @@
         <v>15</v>
       </c>
       <c r="B138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-39</v>
       </c>
       <c r="D138" s="5"/>
@@ -6255,7 +6261,7 @@
         <v>109</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J138" s="8"/>
       <c r="K138" s="7"/>
@@ -6268,11 +6274,11 @@
         <v>15</v>
       </c>
       <c r="B139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-40</v>
       </c>
       <c r="D139" s="5"/>
@@ -6283,7 +6289,7 @@
         <v>109</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J139" s="8"/>
       <c r="K139" s="7"/>
@@ -6296,11 +6302,11 @@
         <v>15</v>
       </c>
       <c r="B140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-41</v>
       </c>
       <c r="D140" s="5"/>
@@ -6311,7 +6317,7 @@
         <v>109</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="7"/>
@@ -6324,11 +6330,11 @@
         <v>15</v>
       </c>
       <c r="B141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-42</v>
       </c>
       <c r="D141" s="5"/>
@@ -6339,7 +6345,7 @@
         <v>109</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J141" s="8"/>
       <c r="K141" s="7"/>
@@ -6352,11 +6358,11 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-43</v>
       </c>
       <c r="D142" s="5"/>
@@ -6367,7 +6373,7 @@
         <v>109</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J142" s="8"/>
       <c r="K142" s="7"/>
@@ -6380,11 +6386,11 @@
         <v>15</v>
       </c>
       <c r="B143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-44</v>
       </c>
       <c r="D143" s="5"/>
@@ -6395,7 +6401,7 @@
         <v>109</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J143" s="8"/>
       <c r="K143" s="7"/>
@@ -6408,11 +6414,11 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-45</v>
       </c>
       <c r="D144" s="5"/>
@@ -6423,7 +6429,7 @@
         <v>109</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J144" s="8"/>
       <c r="K144" s="7"/>
@@ -6432,15 +6438,15 @@
     </row>
     <row r="145" spans="1:13" ht="15">
       <c r="A145">
-        <f t="shared" ref="A145:A153" si="19">A144</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-46</v>
       </c>
       <c r="D145" s="5"/>
@@ -6451,7 +6457,7 @@
         <v>109</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="7"/>
@@ -6460,15 +6466,15 @@
     </row>
     <row r="146" spans="1:13" ht="15">
       <c r="A146">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="B146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-47</v>
       </c>
       <c r="D146" s="5"/>
@@ -6479,24 +6485,24 @@
         <v>109</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J146" s="8"/>
       <c r="K146" s="7"/>
       <c r="L146" s="8"/>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" ht="120">
+    <row r="147" spans="1:13" ht="15">
       <c r="A147">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="A147:A155" si="22">A146</f>
         <v>15</v>
       </c>
       <c r="B147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-48</v>
       </c>
       <c r="D147" s="5"/>
@@ -6507,24 +6513,24 @@
         <v>109</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J147" s="8"/>
       <c r="K147" s="7"/>
-      <c r="L147" s="1"/>
+      <c r="L147" s="8"/>
       <c r="M147" s="6"/>
     </row>
-    <row r="148" spans="1:13" ht="30">
+    <row r="148" spans="1:13" ht="15">
       <c r="A148">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-49</v>
       </c>
       <c r="D148" s="5"/>
@@ -6535,24 +6541,24 @@
         <v>109</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J148" s="8"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="16"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="8"/>
       <c r="M148" s="6"/>
     </row>
-    <row r="149" spans="1:13" ht="60">
+    <row r="149" spans="1:13" ht="120">
       <c r="A149">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-50</v>
       </c>
       <c r="D149" s="5"/>
@@ -6560,27 +6566,27 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
+      <c r="L149" s="1"/>
       <c r="M149" s="6"/>
     </row>
     <row r="150" spans="1:13" ht="30">
       <c r="A150">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-51</v>
       </c>
       <c r="D150" s="5"/>
@@ -6588,27 +6594,27 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J150" s="8"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="1"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="16"/>
       <c r="M150" s="6"/>
     </row>
-    <row r="151" spans="1:13" ht="15">
+    <row r="151" spans="1:13" ht="60">
       <c r="A151">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>52</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-52</v>
       </c>
       <c r="D151" s="5"/>
@@ -6619,7 +6625,7 @@
         <v>156</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>158</v>
+        <v>262</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="7"/>
@@ -6628,15 +6634,15 @@
     </row>
     <row r="152" spans="1:13" ht="30">
       <c r="A152">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>53</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-53</v>
       </c>
       <c r="D152" s="5"/>
@@ -6647,112 +6653,108 @@
         <v>156</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
+      <c r="L152" s="1"/>
       <c r="M152" s="6"/>
     </row>
-    <row r="153" spans="1:13" ht="50.25" customHeight="1">
+    <row r="153" spans="1:13" ht="15">
       <c r="A153">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="B153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>54</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15-54</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9" t="s">
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="I153" s="35" t="s">
-        <v>263</v>
+      <c r="I153" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J153" s="8"/>
-      <c r="K153" s="9"/>
+      <c r="K153" s="7"/>
       <c r="L153" s="8"/>
       <c r="M153" s="6"/>
     </row>
-    <row r="154" spans="1:13" ht="15">
+    <row r="154" spans="1:13" ht="30">
       <c r="A154">
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="B154">
-        <f t="shared" ref="B154:B226" si="20">IF(A154=A153,B153+1,1)</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>55</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f t="shared" ref="C154:C225" si="21">CONCATENATE(A154,"-",B154)</f>
-        <v>16-1</v>
+        <f t="shared" si="21"/>
+        <v>15-55</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" ht="15">
+    <row r="155" spans="1:13" ht="50.25" customHeight="1">
       <c r="A155">
-        <f t="shared" ref="A155:A227" si="22">A154</f>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="B155">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C155" s="3" t="str">
         <f t="shared" si="21"/>
-        <v>16-2</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>161</v>
+        <v>15-56</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I155" s="35" t="s">
+        <v>263</v>
       </c>
       <c r="J155" s="8"/>
-      <c r="K155" s="7"/>
+      <c r="K155" s="9"/>
       <c r="L155" s="8"/>
       <c r="M155" s="6"/>
     </row>
     <row r="156" spans="1:13" ht="15">
       <c r="A156">
-        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="B156">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" ref="B156:B228" si="23">IF(A156=A155,B155+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-3</v>
+        <f t="shared" ref="C156:C227" si="24">CONCATENATE(A156,"-",B156)</f>
+        <v>16-1</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6764,24 +6766,25 @@
         <v>98</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J156" s="8"/>
       <c r="K156" s="7"/>
-      <c r="L156" s="11"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="6"/>
     </row>
     <row r="157" spans="1:13" ht="15">
       <c r="A157">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A157:A229" si="25">A156</f>
         <v>16</v>
       </c>
       <c r="B157">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-4</v>
+        <f t="shared" si="24"/>
+        <v>16-2</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6793,7 +6796,7 @@
         <v>98</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J157" s="8"/>
       <c r="K157" s="7"/>
@@ -6802,58 +6805,57 @@
     </row>
     <row r="158" spans="1:13" ht="15">
       <c r="A158">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B158">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-5</v>
+        <f t="shared" si="24"/>
+        <v>16-3</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7" t="s">
+      <c r="F158" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G158" s="7"/>
       <c r="H158" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J158" s="8"/>
       <c r="K158" s="7"/>
-      <c r="L158" s="8"/>
-      <c r="M158" s="6"/>
+      <c r="L158" s="11"/>
     </row>
     <row r="159" spans="1:13" ht="15">
       <c r="A159">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B159">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-6</v>
+        <f t="shared" si="24"/>
+        <v>16-4</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7" t="s">
+      <c r="F159" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G159" s="7"/>
       <c r="H159" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J159" s="8"/>
       <c r="K159" s="7"/>
@@ -6862,16 +6864,16 @@
     </row>
     <row r="160" spans="1:13" ht="15">
       <c r="A160">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B160">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-7</v>
+        <f t="shared" si="24"/>
+        <v>16-5</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6883,7 +6885,7 @@
         <v>98</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J160" s="8"/>
       <c r="K160" s="7"/>
@@ -6892,16 +6894,16 @@
     </row>
     <row r="161" spans="1:13" ht="15">
       <c r="A161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B161">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-8</v>
+        <f t="shared" si="24"/>
+        <v>16-6</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6913,24 +6915,25 @@
         <v>98</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J161" s="8"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
-    </row>
-    <row r="162" spans="1:13" ht="30">
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:13" ht="15">
       <c r="A162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B162">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-9</v>
+        <f t="shared" si="24"/>
+        <v>16-7</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6942,25 +6945,25 @@
         <v>98</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J162" s="8"/>
       <c r="K162" s="7"/>
-      <c r="L162" s="1"/>
+      <c r="L162" s="8"/>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" ht="45">
+    <row r="163" spans="1:13" ht="15">
       <c r="A163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B163">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-10</v>
+        <f t="shared" si="24"/>
+        <v>16-8</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6972,25 +6975,24 @@
         <v>98</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="6"/>
     </row>
     <row r="164" spans="1:13" ht="30">
       <c r="A164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B164">
-        <f t="shared" si="20"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="C164" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-11</v>
+        <f t="shared" si="24"/>
+        <v>16-9</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -7002,25 +7004,25 @@
         <v>98</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="8"/>
+      <c r="L164" s="1"/>
       <c r="M164" s="6"/>
     </row>
     <row r="165" spans="1:13" ht="45">
       <c r="A165">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B165">
-        <f t="shared" si="20"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-12</v>
+        <f t="shared" si="24"/>
+        <v>16-10</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -7032,25 +7034,25 @@
         <v>98</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
       <c r="L165" s="8"/>
       <c r="M165" s="6"/>
     </row>
-    <row r="166" spans="1:13" ht="45">
+    <row r="166" spans="1:13" ht="30">
       <c r="A166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B166">
-        <f t="shared" si="20"/>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-13</v>
+        <f t="shared" si="24"/>
+        <v>16-11</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -7062,25 +7064,25 @@
         <v>98</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
       <c r="L166" s="8"/>
       <c r="M166" s="6"/>
     </row>
-    <row r="167" spans="1:13" ht="60">
+    <row r="167" spans="1:13" ht="45">
       <c r="A167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B167">
-        <f t="shared" si="20"/>
-        <v>14</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="C167" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-14</v>
+        <f t="shared" si="24"/>
+        <v>16-12</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7092,25 +7094,25 @@
         <v>98</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
       <c r="L167" s="8"/>
       <c r="M167" s="6"/>
     </row>
-    <row r="168" spans="1:13" ht="15">
+    <row r="168" spans="1:13" ht="45">
       <c r="A168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B168">
-        <f t="shared" si="20"/>
-        <v>15</v>
+        <f t="shared" si="23"/>
+        <v>13</v>
       </c>
       <c r="C168" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-15</v>
+        <f t="shared" si="24"/>
+        <v>16-13</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7122,25 +7124,25 @@
         <v>98</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
       <c r="L168" s="8"/>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" ht="15">
+    <row r="169" spans="1:13" ht="60">
       <c r="A169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B169">
-        <f t="shared" si="20"/>
-        <v>16</v>
+        <f t="shared" si="23"/>
+        <v>14</v>
       </c>
       <c r="C169" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-16</v>
+        <f t="shared" si="24"/>
+        <v>16-14</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7152,67 +7154,67 @@
         <v>98</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
       <c r="L169" s="8"/>
       <c r="M169" s="6"/>
     </row>
-    <row r="170" spans="1:13" ht="30">
+    <row r="170" spans="1:13" ht="15">
       <c r="A170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B170">
-        <f t="shared" si="20"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>15</v>
       </c>
       <c r="C170" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-17</v>
+        <f t="shared" si="24"/>
+        <v>16-15</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="7"/>
+      <c r="G170" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G170" s="7"/>
       <c r="H170" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
-      <c r="L170" s="1"/>
+      <c r="L170" s="8"/>
       <c r="M170" s="6"/>
     </row>
-    <row r="171" spans="1:13" ht="30">
+    <row r="171" spans="1:13" ht="15">
       <c r="A171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B171">
-        <f t="shared" si="20"/>
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>16</v>
       </c>
       <c r="C171" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-18</v>
+        <f t="shared" si="24"/>
+        <v>16-16</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="7"/>
       <c r="G171" s="7" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
@@ -7221,76 +7223,76 @@
     </row>
     <row r="172" spans="1:13" ht="30">
       <c r="A172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B172">
-        <f t="shared" si="20"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>17</v>
       </c>
       <c r="C172" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-19</v>
+        <f t="shared" si="24"/>
+        <v>16-17</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7" t="s">
+      <c r="F172" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G172" s="7"/>
       <c r="H172" s="7" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
-      <c r="L172" s="8"/>
+      <c r="L172" s="1"/>
       <c r="M172" s="6"/>
     </row>
     <row r="173" spans="1:13" ht="30">
       <c r="A173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B173">
-        <f t="shared" si="20"/>
-        <v>20</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-20</v>
+        <f t="shared" si="24"/>
+        <v>16-18</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="7"/>
       <c r="G173" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
       <c r="L173" s="8"/>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" ht="15">
+    <row r="174" spans="1:13" ht="30">
       <c r="A174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B174">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="23"/>
+        <v>19</v>
       </c>
       <c r="C174" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-21</v>
+        <f t="shared" si="24"/>
+        <v>16-19</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -7302,25 +7304,25 @@
         <v>179</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
       <c r="L174" s="8"/>
       <c r="M174" s="6"/>
     </row>
-    <row r="175" spans="1:13" ht="15">
+    <row r="175" spans="1:13" ht="30">
       <c r="A175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B175">
-        <f t="shared" si="20"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
       <c r="C175" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>16-22</v>
+        <f t="shared" si="24"/>
+        <v>16-20</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -7332,7 +7334,7 @@
         <v>179</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
@@ -7341,15 +7343,16 @@
     </row>
     <row r="176" spans="1:13" ht="15">
       <c r="A176">
-        <v>17</v>
+        <f t="shared" si="25"/>
+        <v>16</v>
       </c>
       <c r="B176">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>21</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>17-1</v>
+        <f t="shared" si="24"/>
+        <v>16-21</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -7358,27 +7361,28 @@
         <v>63</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
-      <c r="L176" s="11"/>
-    </row>
-    <row r="177" spans="1:13" ht="30">
+      <c r="L176" s="8"/>
+      <c r="M176" s="6"/>
+    </row>
+    <row r="177" spans="1:13" ht="15">
       <c r="A177">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="25"/>
+        <v>16</v>
       </c>
       <c r="B177">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>22</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>17-2</v>
+        <f t="shared" si="24"/>
+        <v>16-22</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -7387,28 +7391,27 @@
         <v>63</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
-      <c r="L177" s="1"/>
+      <c r="L177" s="8"/>
       <c r="M177" s="6"/>
     </row>
     <row r="178" spans="1:13" ht="15">
       <c r="A178">
-        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="B178">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="C178" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>17-3</v>
+        <f t="shared" si="24"/>
+        <v>17-1</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -7420,25 +7423,24 @@
         <v>184</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="8"/>
-      <c r="M178" s="6"/>
-    </row>
-    <row r="179" spans="1:13" ht="15">
+      <c r="L178" s="11"/>
+    </row>
+    <row r="179" spans="1:13" ht="30">
       <c r="A179">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="B179">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C179" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>17-4</v>
+        <f t="shared" si="24"/>
+        <v>17-2</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -7450,24 +7452,25 @@
         <v>184</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="8"/>
+      <c r="L179" s="1"/>
       <c r="M179" s="6"/>
     </row>
     <row r="180" spans="1:13" ht="15">
       <c r="A180">
-        <v>18</v>
+        <f t="shared" si="25"/>
+        <v>17</v>
       </c>
       <c r="B180">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C180" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>18-1</v>
+        <f t="shared" si="24"/>
+        <v>17-3</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7476,27 +7479,28 @@
         <v>63</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="11"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="6"/>
     </row>
     <row r="181" spans="1:13" ht="15">
       <c r="A181">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="25"/>
+        <v>17</v>
       </c>
       <c r="B181">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C181" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>18-2</v>
+        <f t="shared" si="24"/>
+        <v>17-4</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7505,10 +7509,10 @@
         <v>63</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="7"/>
@@ -7517,16 +7521,15 @@
     </row>
     <row r="182" spans="1:13" ht="15">
       <c r="A182">
-        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="B182">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>18-3</v>
+        <f t="shared" si="24"/>
+        <v>18-1</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7538,24 +7541,24 @@
         <v>189</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J182" s="8"/>
       <c r="K182" s="7"/>
-      <c r="L182" s="8"/>
-      <c r="M182" s="6"/>
-    </row>
-    <row r="183" spans="1:13" ht="30">
+      <c r="L182" s="11"/>
+    </row>
+    <row r="183" spans="1:13" ht="15">
       <c r="A183">
-        <v>19</v>
+        <f t="shared" si="25"/>
+        <v>18</v>
       </c>
       <c r="B183">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19-1</v>
+        <f t="shared" si="24"/>
+        <v>18-2</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -7564,28 +7567,28 @@
         <v>63</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="J183" s="8"/>
       <c r="K183" s="7"/>
       <c r="L183" s="8"/>
       <c r="M183" s="6"/>
     </row>
-    <row r="184" spans="1:13" ht="30">
+    <row r="184" spans="1:13" ht="15">
       <c r="A184">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="25"/>
+        <v>18</v>
       </c>
       <c r="B184">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19-2</v>
+        <f t="shared" si="24"/>
+        <v>18-3</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -7594,27 +7597,27 @@
         <v>63</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J184" s="8"/>
       <c r="K184" s="7"/>
-      <c r="L184" s="40"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="6"/>
     </row>
     <row r="185" spans="1:13" ht="30">
       <c r="A185">
-        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="B185">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19-3</v>
+        <f t="shared" si="24"/>
+        <v>19-1</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -7626,25 +7629,25 @@
         <v>193</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J185" s="8"/>
       <c r="K185" s="7"/>
-      <c r="L185" s="41"/>
+      <c r="L185" s="8"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" ht="45">
+    <row r="186" spans="1:13" ht="30">
       <c r="A186">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="B186">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19-4</v>
+        <f t="shared" si="24"/>
+        <v>19-2</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -7656,25 +7659,24 @@
         <v>193</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J186" s="8"/>
       <c r="K186" s="7"/>
-      <c r="L186" s="41"/>
-      <c r="M186" s="6"/>
+      <c r="L186" s="40"/>
     </row>
     <row r="187" spans="1:13" ht="30">
       <c r="A187">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="B187">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>19-5</v>
+        <f t="shared" si="24"/>
+        <v>19-3</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -7686,173 +7688,173 @@
         <v>193</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J187" s="8"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="42"/>
+      <c r="L187" s="41"/>
       <c r="M187" s="6"/>
     </row>
-    <row r="188" spans="1:13" ht="30">
+    <row r="188" spans="1:13" ht="45">
       <c r="A188">
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>19</v>
       </c>
       <c r="B188">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20-1</v>
+        <f t="shared" si="24"/>
+        <v>19-4</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="7"/>
       <c r="G188" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J188" s="8"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="8"/>
+      <c r="L188" s="41"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" ht="45">
+    <row r="189" spans="1:13" ht="30">
       <c r="A189">
-        <f t="shared" si="22"/>
-        <v>20</v>
+        <f t="shared" si="25"/>
+        <v>19</v>
       </c>
       <c r="B189">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>20-2</v>
+        <f t="shared" si="24"/>
+        <v>19-5</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="7"/>
       <c r="G189" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="7"/>
-      <c r="L189" s="8"/>
+      <c r="L189" s="42"/>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" ht="26.25">
+    <row r="190" spans="1:13" ht="30">
       <c r="A190">
+        <v>20</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>20-1</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J190" s="8"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="6"/>
+    </row>
+    <row r="191" spans="1:13" ht="45">
+      <c r="A191">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="C191" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v>20-2</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J191" s="8"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="6"/>
+    </row>
+    <row r="192" spans="1:13" ht="26.25">
+      <c r="A192">
         <v>21</v>
       </c>
-      <c r="B190">
-        <f t="shared" si="20"/>
+      <c r="B192">
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="C190" s="3" t="str">
-        <f t="shared" si="21"/>
+      <c r="C192" s="3" t="str">
+        <f t="shared" si="24"/>
         <v>21-1</v>
-      </c>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G190" s="15"/>
-      <c r="H190" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I190" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J190" s="12"/>
-      <c r="K190" s="10"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="6"/>
-    </row>
-    <row r="191" spans="1:13" ht="26.25">
-      <c r="A191">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="B191">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="C191" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-2</v>
-      </c>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I191" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="J191" s="12"/>
-      <c r="K191" s="10"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="6"/>
-    </row>
-    <row r="192" spans="1:13" ht="39">
-      <c r="A192">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="B192">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="C192" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-3</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="10" t="s">
+      <c r="F192" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G192" s="15"/>
       <c r="H192" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J192" s="12"/>
       <c r="K192" s="10"/>
-      <c r="L192" s="11"/>
+      <c r="L192" s="12"/>
       <c r="M192" s="6"/>
     </row>
-    <row r="193" spans="1:13" ht="39">
+    <row r="193" spans="1:13" ht="26.25">
       <c r="A193">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B193">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-4</v>
+        <f t="shared" si="24"/>
+        <v>21-2</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
@@ -7863,26 +7865,26 @@
       <c r="H193" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I193" s="12" t="s">
-        <v>205</v>
+      <c r="I193" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="10"/>
       <c r="L193" s="12"/>
       <c r="M193" s="6"/>
     </row>
-    <row r="194" spans="1:13" ht="51.75">
+    <row r="194" spans="1:13" ht="39">
       <c r="A194">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B194">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-5</v>
+        <f t="shared" si="24"/>
+        <v>21-3</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -7893,26 +7895,26 @@
       <c r="H194" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I194" s="12" t="s">
-        <v>206</v>
+      <c r="I194" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
-      <c r="L194" s="12"/>
+      <c r="L194" s="11"/>
       <c r="M194" s="6"/>
     </row>
-    <row r="195" spans="1:13" ht="26.25">
+    <row r="195" spans="1:13" ht="39">
       <c r="A195">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B195">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>21-6</v>
+        <f t="shared" si="24"/>
+        <v>21-4</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -7924,89 +7926,85 @@
         <v>15</v>
       </c>
       <c r="I195" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
       <c r="L195" s="12"/>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" ht="26.25">
+    <row r="196" spans="1:13" ht="51.75">
       <c r="A196">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B196">
-        <f t="shared" si="20"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f t="shared" ref="C196" si="23">CONCATENATE(A196,"-",B196)</f>
-        <v>21-7</v>
+        <f t="shared" si="24"/>
+        <v>21-5</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
       <c r="G196" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H196" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
-      <c r="L196" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="L196" s="12"/>
       <c r="M196" s="6"/>
     </row>
     <row r="197" spans="1:13" ht="26.25">
       <c r="A197">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B197">
-        <f t="shared" si="20"/>
-        <v>8</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f t="shared" ref="C197" si="24">CONCATENATE(A197,"-",B197)</f>
-        <v>21-8</v>
+        <f t="shared" si="24"/>
+        <v>21-6</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
       <c r="G197" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H197" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
-      <c r="L197" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="L197" s="12"/>
       <c r="M197" s="6"/>
     </row>
     <row r="198" spans="1:13" ht="26.25">
       <c r="A198">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B198">
-        <f t="shared" si="20"/>
-        <v>9</v>
+        <f t="shared" si="23"/>
+        <v>7</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f t="shared" ref="C198" si="25">CONCATENATE(A198,"-",B198)</f>
-        <v>21-9</v>
+        <f t="shared" ref="C198" si="26">CONCATENATE(A198,"-",B198)</f>
+        <v>21-7</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8018,7 +8016,7 @@
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
@@ -8029,16 +8027,16 @@
     </row>
     <row r="199" spans="1:13" ht="26.25">
       <c r="A199">
-        <f>A198</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B199">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f t="shared" si="23"/>
+        <v>8</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199:C201" si="26">CONCATENATE(A199,"-",B199)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C199" si="27">CONCATENATE(A199,"-",B199)</f>
+        <v>21-8</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8050,7 +8048,7 @@
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
@@ -8061,16 +8059,16 @@
     </row>
     <row r="200" spans="1:13" ht="26.25">
       <c r="A200">
-        <f>A199</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="20"/>
-        <v>11</v>
+        <f t="shared" si="23"/>
+        <v>9</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" ref="C200" si="27">CONCATENATE(A200,"-",B200)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C200" si="28">CONCATENATE(A200,"-",B200)</f>
+        <v>21-9</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8082,7 +8080,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
@@ -8093,16 +8091,16 @@
     </row>
     <row r="201" spans="1:13" ht="26.25">
       <c r="A201">
-        <f>A199</f>
+        <f>A200</f>
         <v>21</v>
       </c>
       <c r="B201">
-        <f t="shared" si="20"/>
-        <v>12</v>
+        <f t="shared" si="23"/>
+        <v>10</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v>21-12</v>
+        <f t="shared" ref="C201:C203" si="29">CONCATENATE(A201,"-",B201)</f>
+        <v>21-10</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -8114,7 +8112,7 @@
         <v>15</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="10"/>
@@ -8125,16 +8123,16 @@
     </row>
     <row r="202" spans="1:13" ht="26.25">
       <c r="A202">
-        <f t="shared" si="22"/>
+        <f>A201</f>
         <v>21</v>
       </c>
       <c r="B202">
-        <f t="shared" si="20"/>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>11</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" ref="C202" si="28">CONCATENATE(A202,"-",B202)</f>
-        <v>21-13</v>
+        <f t="shared" ref="C202" si="30">CONCATENATE(A202,"-",B202)</f>
+        <v>21-11</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -8146,7 +8144,7 @@
         <v>15</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="10"/>
@@ -8161,12 +8159,12 @@
         <v>21</v>
       </c>
       <c r="B203">
-        <f t="shared" si="20"/>
-        <v>14</v>
+        <f t="shared" si="23"/>
+        <v>12</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" ref="C203" si="29">CONCATENATE(A203,"-",B203)</f>
-        <v>21-14</v>
+        <f t="shared" si="29"/>
+        <v>21-12</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -8178,7 +8176,7 @@
         <v>15</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J203" s="12"/>
       <c r="K203" s="10"/>
@@ -8189,16 +8187,16 @@
     </row>
     <row r="204" spans="1:13" ht="26.25">
       <c r="A204">
-        <f>A202</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B204">
-        <f t="shared" si="20"/>
-        <v>15</v>
+        <f t="shared" si="23"/>
+        <v>13</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" ref="C204" si="30">CONCATENATE(A204,"-",B204)</f>
-        <v>21-15</v>
+        <f t="shared" ref="C204" si="31">CONCATENATE(A204,"-",B204)</f>
+        <v>21-13</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -8210,7 +8208,7 @@
         <v>15</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J204" s="12"/>
       <c r="K204" s="10"/>
@@ -8225,12 +8223,12 @@
         <v>21</v>
       </c>
       <c r="B205">
-        <f t="shared" si="20"/>
-        <v>16</v>
+        <f t="shared" si="23"/>
+        <v>14</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" ref="C205:C206" si="31">CONCATENATE(A205,"-",B205)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C205" si="32">CONCATENATE(A205,"-",B205)</f>
+        <v>21-14</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -8242,7 +8240,7 @@
         <v>15</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J205" s="12"/>
       <c r="K205" s="10"/>
@@ -8251,18 +8249,18 @@
       </c>
       <c r="M205" s="6"/>
     </row>
-    <row r="206" spans="1:13" ht="39">
+    <row r="206" spans="1:13" ht="26.25">
       <c r="A206">
-        <f t="shared" si="22"/>
+        <f>A204</f>
         <v>21</v>
       </c>
       <c r="B206">
-        <f t="shared" si="20"/>
-        <v>17</v>
+        <f t="shared" si="23"/>
+        <v>15</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f t="shared" si="31"/>
-        <v>21-17</v>
+        <f t="shared" ref="C206" si="33">CONCATENATE(A206,"-",B206)</f>
+        <v>21-15</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -8274,7 +8272,7 @@
         <v>15</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J206" s="12"/>
       <c r="K206" s="10"/>
@@ -8283,17 +8281,18 @@
       </c>
       <c r="M206" s="6"/>
     </row>
-    <row r="207" spans="1:13" ht="39">
+    <row r="207" spans="1:13" ht="26.25">
       <c r="A207">
-        <f t="shared" si="22"/>
+        <f>A205</f>
         <v>21</v>
       </c>
       <c r="B207">
-        <v>18</v>
+        <f t="shared" si="23"/>
+        <v>16</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f t="shared" ref="C207" si="32">CONCATENATE(A207,"-",B207)</f>
-        <v>21-18</v>
+        <f t="shared" ref="C207:C208" si="34">CONCATENATE(A207,"-",B207)</f>
+        <v>21-16</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -8305,7 +8304,7 @@
         <v>15</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J207" s="12"/>
       <c r="K207" s="10"/>
@@ -8314,18 +8313,18 @@
       </c>
       <c r="M207" s="6"/>
     </row>
-    <row r="208" spans="1:13" ht="26.25">
+    <row r="208" spans="1:13" ht="39">
       <c r="A208">
-        <f>A206</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B208">
-        <f t="shared" si="20"/>
-        <v>19</v>
+        <f t="shared" si="23"/>
+        <v>17</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f t="shared" ref="C208:C210" si="33">CONCATENATE(A208,"-",B208)</f>
-        <v>21-19</v>
+        <f t="shared" si="34"/>
+        <v>21-17</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -8337,7 +8336,7 @@
         <v>15</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J208" s="12"/>
       <c r="K208" s="10"/>
@@ -8346,18 +8345,17 @@
       </c>
       <c r="M208" s="6"/>
     </row>
-    <row r="209" spans="1:13" ht="26.25">
+    <row r="209" spans="1:13" ht="39">
       <c r="A209">
-        <f>A207</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="B209">
-        <f t="shared" si="20"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f t="shared" ref="C209" si="34">CONCATENATE(A209,"-",B209)</f>
-        <v>21-20</v>
+        <f t="shared" ref="C209" si="35">CONCATENATE(A209,"-",B209)</f>
+        <v>21-18</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -8369,7 +8367,7 @@
         <v>15</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J209" s="12"/>
       <c r="K209" s="10"/>
@@ -8384,12 +8382,12 @@
         <v>21</v>
       </c>
       <c r="B210">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="23"/>
+        <v>19</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" si="33"/>
-        <v>21-21</v>
+        <f t="shared" ref="C210:C212" si="36">CONCATENATE(A210,"-",B210)</f>
+        <v>21-19</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -8401,7 +8399,7 @@
         <v>15</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="J210" s="12"/>
       <c r="K210" s="10"/>
@@ -8416,12 +8414,12 @@
         <v>21</v>
       </c>
       <c r="B211">
-        <f t="shared" si="20"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>20</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" ref="C211" si="35">CONCATENATE(A211,"-",B211)</f>
-        <v>21-22</v>
+        <f t="shared" ref="C211" si="37">CONCATENATE(A211,"-",B211)</f>
+        <v>21-20</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -8433,7 +8431,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="J211" s="12"/>
       <c r="K211" s="10"/>
@@ -8442,132 +8440,140 @@
       </c>
       <c r="M211" s="6"/>
     </row>
-    <row r="212" spans="1:13" ht="39">
+    <row r="212" spans="1:13" ht="26.25">
       <c r="A212">
         <f>A210</f>
         <v>21</v>
       </c>
       <c r="B212">
-        <f t="shared" si="20"/>
-        <v>23</v>
-      </c>
-      <c r="C212" s="19" t="str">
-        <f t="shared" ref="C212" si="36">CONCATENATE(A212,"-",B212)</f>
-        <v>21-23</v>
-      </c>
-      <c r="D212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="21" t="s">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="C212" s="3" t="str">
+        <f t="shared" si="36"/>
+        <v>21-21</v>
+      </c>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H212" s="21" t="s">
+      <c r="H212" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I212" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J212" s="18"/>
-      <c r="K212" s="21"/>
-      <c r="L212" s="18" t="s">
+      <c r="I212" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J212" s="12"/>
+      <c r="K212" s="10"/>
+      <c r="L212" s="12" t="s">
         <v>226</v>
       </c>
       <c r="M212" s="6"/>
     </row>
     <row r="213" spans="1:13" ht="26.25">
       <c r="A213">
+        <f>A211</f>
+        <v>21</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" s="22" t="str">
-        <f>CONCATENATE(A213,"-",B213)</f>
-        <v>22-1</v>
-      </c>
-      <c r="D213" s="23"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I213" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J213" s="23"/>
-      <c r="K213" s="21"/>
-      <c r="L213" s="26"/>
+      <c r="C213" s="3" t="str">
+        <f t="shared" ref="C213" si="38">CONCATENATE(A213,"-",B213)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J213" s="12"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="12" t="s">
+        <v>226</v>
+      </c>
       <c r="M213" s="6"/>
     </row>
     <row r="214" spans="1:13" ht="39">
       <c r="A214">
-        <f>A213</f>
-        <v>22</v>
+        <f>A212</f>
+        <v>21</v>
       </c>
       <c r="B214">
-        <f>IF(A214=A213,B213+1,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C214" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>22-2</v>
-      </c>
-      <c r="D214" s="23"/>
-      <c r="E214" s="23"/>
-      <c r="F214" s="23"/>
-      <c r="G214" s="23"/>
-      <c r="H214" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I214" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J214" s="23"/>
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="C214" s="19" t="str">
+        <f t="shared" ref="C214" si="39">CONCATENATE(A214,"-",B214)</f>
+        <v>21-23</v>
+      </c>
+      <c r="D214" s="20"/>
+      <c r="E214" s="20"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H214" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J214" s="18"/>
       <c r="K214" s="21"/>
-      <c r="L214" s="26"/>
+      <c r="L214" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="M214" s="6"/>
     </row>
     <row r="215" spans="1:13" ht="26.25">
       <c r="A215">
-        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="B215">
-        <f t="shared" si="20"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C215" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>22-3</v>
+        <f>CONCATENATE(A215,"-",B215)</f>
+        <v>22-1</v>
       </c>
       <c r="D215" s="23"/>
       <c r="E215" s="23"/>
       <c r="F215" s="23"/>
-      <c r="G215" s="23"/>
+      <c r="G215" s="24"/>
       <c r="H215" s="24" t="s">
         <v>249</v>
       </c>
       <c r="I215" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J215" s="23"/>
       <c r="K215" s="21"/>
       <c r="L215" s="26"/>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="1:13" ht="15">
+    <row r="216" spans="1:13" ht="39">
       <c r="A216">
-        <f t="shared" si="22"/>
+        <f>A215</f>
         <v>22</v>
       </c>
       <c r="B216">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f>IF(A216=A215,B215+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C216" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>22-4</v>
+        <f t="shared" si="24"/>
+        <v>22-2</v>
       </c>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
@@ -8577,25 +8583,25 @@
         <v>249</v>
       </c>
       <c r="I216" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J216" s="23"/>
       <c r="K216" s="21"/>
       <c r="L216" s="26"/>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="1:13" ht="15">
+    <row r="217" spans="1:13" ht="26.25">
       <c r="A217">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="B217">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C217" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>22-5</v>
+        <f t="shared" si="24"/>
+        <v>22-3</v>
       </c>
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
@@ -8605,7 +8611,7 @@
         <v>249</v>
       </c>
       <c r="I217" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J217" s="23"/>
       <c r="K217" s="21"/>
@@ -8614,103 +8620,99 @@
     </row>
     <row r="218" spans="1:13" ht="15">
       <c r="A218">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="B218">
-        <f t="shared" si="20"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C218" s="22" t="str">
-        <f t="shared" si="21"/>
-        <v>22-6</v>
-      </c>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
-      <c r="H218" s="27" t="s">
+        <f t="shared" si="24"/>
+        <v>22-4</v>
+      </c>
+      <c r="D218" s="23"/>
+      <c r="E218" s="23"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
+      <c r="H218" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I218" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="J218" s="37"/>
+      <c r="I218" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J218" s="23"/>
       <c r="K218" s="21"/>
-      <c r="L218" s="39"/>
+      <c r="L218" s="26"/>
       <c r="M218" s="6"/>
     </row>
-    <row r="219" spans="1:13" ht="26.25">
+    <row r="219" spans="1:13" ht="15">
       <c r="A219">
-        <v>23</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="B219">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="C219" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>23-1</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="C219" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v>22-5</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
       <c r="F219" s="23"/>
-      <c r="G219" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="G219" s="23"/>
       <c r="H219" s="24" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
       <c r="L219" s="26"/>
       <c r="M219" s="6"/>
     </row>
-    <row r="220" spans="1:13" ht="26.25">
+    <row r="220" spans="1:13" ht="15">
       <c r="A220">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="25"/>
+        <v>22</v>
       </c>
       <c r="B220">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="C220" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>23-2</v>
-      </c>
-      <c r="D220" s="23"/>
-      <c r="E220" s="23"/>
-      <c r="F220" s="23"/>
-      <c r="G220" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H220" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="I220" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="J220" s="23"/>
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="C220" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v>22-6</v>
+      </c>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I220" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="J220" s="37"/>
       <c r="K220" s="21"/>
-      <c r="L220" s="26"/>
+      <c r="L220" s="39"/>
       <c r="M220" s="6"/>
     </row>
     <row r="221" spans="1:13" ht="26.25">
       <c r="A221">
-        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="B221">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="C221" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>23-3</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="C221" s="36" t="str">
+        <f t="shared" si="24"/>
+        <v>23-1</v>
       </c>
       <c r="D221" s="23"/>
       <c r="E221" s="23"/>
@@ -8722,25 +8724,25 @@
         <v>266</v>
       </c>
       <c r="I221" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J221" s="23"/>
       <c r="K221" s="21"/>
       <c r="L221" s="26"/>
       <c r="M221" s="6"/>
     </row>
-    <row r="222" spans="1:13" ht="39">
+    <row r="222" spans="1:13" ht="26.25">
       <c r="A222">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="B222">
-        <f t="shared" si="20"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>23-4</v>
+        <f t="shared" si="24"/>
+        <v>23-2</v>
       </c>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
@@ -8752,25 +8754,25 @@
         <v>266</v>
       </c>
       <c r="I222" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J222" s="23"/>
       <c r="K222" s="21"/>
       <c r="L222" s="26"/>
       <c r="M222" s="6"/>
     </row>
-    <row r="223" spans="1:13" ht="15">
+    <row r="223" spans="1:13" ht="26.25">
       <c r="A223">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="B223">
-        <f t="shared" si="20"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>23-5</v>
+        <f t="shared" si="24"/>
+        <v>23-3</v>
       </c>
       <c r="D223" s="23"/>
       <c r="E223" s="23"/>
@@ -8782,23 +8784,25 @@
         <v>266</v>
       </c>
       <c r="I223" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J223" s="23"/>
       <c r="K223" s="21"/>
       <c r="L223" s="26"/>
       <c r="M223" s="6"/>
     </row>
-    <row r="224" spans="1:13" ht="26.25">
+    <row r="224" spans="1:13" ht="39">
       <c r="A224">
-        <v>24</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="B224">
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f t="shared" ref="C224" si="37">CONCATENATE(A224,"-",B224)</f>
-        <v>24-6</v>
+        <f t="shared" si="24"/>
+        <v>23-4</v>
       </c>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
@@ -8810,24 +8814,25 @@
         <v>266</v>
       </c>
       <c r="I224" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J224" s="23"/>
       <c r="K224" s="21"/>
       <c r="L224" s="26"/>
       <c r="M224" s="6"/>
     </row>
-    <row r="225" spans="1:13" ht="26.25">
+    <row r="225" spans="1:13" ht="15">
       <c r="A225">
-        <v>25</v>
+        <f t="shared" si="25"/>
+        <v>23</v>
       </c>
       <c r="B225">
-        <f>IF(A225=A223,B223+1,1)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="C225" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v>25-1</v>
+        <f t="shared" si="24"/>
+        <v>23-5</v>
       </c>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
@@ -8836,10 +8841,10 @@
         <v>63</v>
       </c>
       <c r="H225" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I225" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J225" s="23"/>
       <c r="K225" s="21"/>
@@ -8848,16 +8853,14 @@
     </row>
     <row r="226" spans="1:13" ht="26.25">
       <c r="A226">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B226">
-        <f t="shared" si="20"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f t="shared" ref="C226" si="38">CONCATENATE(A226,"-",B226)</f>
-        <v>25-2</v>
+        <f t="shared" ref="C226" si="40">CONCATENATE(A226,"-",B226)</f>
+        <v>24-6</v>
       </c>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
@@ -8866,1068 +8869,1095 @@
         <v>63</v>
       </c>
       <c r="H226" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I226" s="25" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J226" s="23"/>
       <c r="K226" s="21"/>
       <c r="L226" s="26"/>
       <c r="M226" s="6"/>
     </row>
-    <row r="227" spans="1:13" ht="15">
+    <row r="227" spans="1:13" ht="26.25">
       <c r="A227">
-        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="B227">
-        <f t="shared" ref="B227:B290" si="39">IF(A227=A226,B226+1,1)</f>
-        <v>3</v>
+        <f>IF(A227=A225,B225+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" ref="C227:C290" si="40">CONCATENATE(A227,"-",B227)</f>
-        <v>25-3</v>
-      </c>
-      <c r="L227" s="6"/>
+        <f t="shared" si="24"/>
+        <v>25-1</v>
+      </c>
+      <c r="D227" s="23"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="23"/>
+      <c r="G227" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H227" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I227" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J227" s="23"/>
+      <c r="K227" s="21"/>
+      <c r="L227" s="26"/>
       <c r="M227" s="6"/>
     </row>
-    <row r="228" spans="1:13" ht="15">
+    <row r="228" spans="1:13" ht="26.25">
       <c r="A228">
-        <f t="shared" ref="A228:A291" si="41">A227</f>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="B228">
-        <f t="shared" si="39"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-4</v>
-      </c>
-      <c r="L228" s="6"/>
+        <f t="shared" ref="C228" si="41">CONCATENATE(A228,"-",B228)</f>
+        <v>25-2</v>
+      </c>
+      <c r="D228" s="23"/>
+      <c r="E228" s="23"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H228" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I228" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J228" s="23"/>
+      <c r="K228" s="21"/>
+      <c r="L228" s="26"/>
       <c r="M228" s="6"/>
     </row>
     <row r="229" spans="1:13" ht="15">
       <c r="A229">
-        <f t="shared" si="41"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="B229">
-        <f t="shared" si="39"/>
-        <v>5</v>
+        <f t="shared" ref="B229:B292" si="42">IF(A229=A228,B228+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-5</v>
+        <f t="shared" ref="C229:C292" si="43">CONCATENATE(A229,"-",B229)</f>
+        <v>25-3</v>
       </c>
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="A230:A293" si="44">A229</f>
         <v>25</v>
       </c>
       <c r="B230">
-        <f t="shared" si="39"/>
-        <v>6</v>
+        <f t="shared" si="42"/>
+        <v>4</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-6</v>
+        <f t="shared" si="43"/>
+        <v>25-4</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B231">
-        <f t="shared" si="39"/>
-        <v>7</v>
+        <f t="shared" si="42"/>
+        <v>5</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-7</v>
+        <f t="shared" si="43"/>
+        <v>25-5</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B232">
-        <f t="shared" si="39"/>
-        <v>8</v>
+        <f t="shared" si="42"/>
+        <v>6</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-8</v>
+        <f t="shared" si="43"/>
+        <v>25-6</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B233">
-        <f t="shared" si="39"/>
-        <v>9</v>
+        <f t="shared" si="42"/>
+        <v>7</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-9</v>
+        <f t="shared" si="43"/>
+        <v>25-7</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B234">
-        <f t="shared" si="39"/>
-        <v>10</v>
+        <f t="shared" si="42"/>
+        <v>8</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-10</v>
+        <f t="shared" si="43"/>
+        <v>25-8</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B235">
-        <f t="shared" si="39"/>
-        <v>11</v>
+        <f t="shared" si="42"/>
+        <v>9</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-11</v>
+        <f t="shared" si="43"/>
+        <v>25-9</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B236">
-        <f t="shared" si="39"/>
-        <v>12</v>
+        <f t="shared" si="42"/>
+        <v>10</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-12</v>
+        <f t="shared" si="43"/>
+        <v>25-10</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B237">
-        <f t="shared" si="39"/>
-        <v>13</v>
+        <f t="shared" si="42"/>
+        <v>11</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-13</v>
+        <f t="shared" si="43"/>
+        <v>25-11</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B238">
-        <f t="shared" si="39"/>
-        <v>14</v>
+        <f t="shared" si="42"/>
+        <v>12</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-14</v>
+        <f t="shared" si="43"/>
+        <v>25-12</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B239">
-        <f t="shared" si="39"/>
-        <v>15</v>
+        <f t="shared" si="42"/>
+        <v>13</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-15</v>
+        <f t="shared" si="43"/>
+        <v>25-13</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B240">
-        <f t="shared" si="39"/>
-        <v>16</v>
+        <f t="shared" si="42"/>
+        <v>14</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-16</v>
+        <f t="shared" si="43"/>
+        <v>25-14</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B241">
-        <f t="shared" si="39"/>
-        <v>17</v>
+        <f t="shared" si="42"/>
+        <v>15</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-17</v>
+        <f t="shared" si="43"/>
+        <v>25-15</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B242">
-        <f t="shared" si="39"/>
-        <v>18</v>
+        <f t="shared" si="42"/>
+        <v>16</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-18</v>
+        <f t="shared" si="43"/>
+        <v>25-16</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B243">
-        <f t="shared" si="39"/>
-        <v>19</v>
+        <f t="shared" si="42"/>
+        <v>17</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-19</v>
+        <f t="shared" si="43"/>
+        <v>25-17</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B244">
-        <f t="shared" si="39"/>
-        <v>20</v>
+        <f t="shared" si="42"/>
+        <v>18</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-20</v>
+        <f t="shared" si="43"/>
+        <v>25-18</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B245">
-        <f t="shared" si="39"/>
-        <v>21</v>
+        <f t="shared" si="42"/>
+        <v>19</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-21</v>
+        <f t="shared" si="43"/>
+        <v>25-19</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B246">
-        <f t="shared" si="39"/>
-        <v>22</v>
+        <f t="shared" si="42"/>
+        <v>20</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-22</v>
+        <f t="shared" si="43"/>
+        <v>25-20</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B247">
-        <f t="shared" si="39"/>
-        <v>23</v>
+        <f t="shared" si="42"/>
+        <v>21</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-23</v>
+        <f t="shared" si="43"/>
+        <v>25-21</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B248">
-        <f t="shared" si="39"/>
-        <v>24</v>
+        <f t="shared" si="42"/>
+        <v>22</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-24</v>
+        <f t="shared" si="43"/>
+        <v>25-22</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B249">
-        <f t="shared" si="39"/>
-        <v>25</v>
+        <f t="shared" si="42"/>
+        <v>23</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-25</v>
+        <f t="shared" si="43"/>
+        <v>25-23</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B250">
-        <f t="shared" si="39"/>
-        <v>26</v>
+        <f t="shared" si="42"/>
+        <v>24</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-26</v>
+        <f t="shared" si="43"/>
+        <v>25-24</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B251">
-        <f t="shared" si="39"/>
-        <v>27</v>
+        <f t="shared" si="42"/>
+        <v>25</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-27</v>
+        <f t="shared" si="43"/>
+        <v>25-25</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B252">
-        <f t="shared" si="39"/>
-        <v>28</v>
+        <f t="shared" si="42"/>
+        <v>26</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-28</v>
+        <f t="shared" si="43"/>
+        <v>25-26</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B253">
-        <f t="shared" si="39"/>
-        <v>29</v>
+        <f t="shared" si="42"/>
+        <v>27</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-29</v>
+        <f t="shared" si="43"/>
+        <v>25-27</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B254">
-        <f t="shared" si="39"/>
-        <v>30</v>
+        <f t="shared" si="42"/>
+        <v>28</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-30</v>
+        <f t="shared" si="43"/>
+        <v>25-28</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B255">
-        <f t="shared" si="39"/>
-        <v>31</v>
+        <f t="shared" si="42"/>
+        <v>29</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-31</v>
+        <f t="shared" si="43"/>
+        <v>25-29</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B256">
-        <f t="shared" si="39"/>
-        <v>32</v>
+        <f t="shared" si="42"/>
+        <v>30</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-32</v>
+        <f t="shared" si="43"/>
+        <v>25-30</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B257">
-        <f t="shared" si="39"/>
-        <v>33</v>
+        <f t="shared" si="42"/>
+        <v>31</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-33</v>
+        <f t="shared" si="43"/>
+        <v>25-31</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B258">
-        <f t="shared" si="39"/>
-        <v>34</v>
+        <f t="shared" si="42"/>
+        <v>32</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-34</v>
+        <f t="shared" si="43"/>
+        <v>25-32</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B259">
-        <f t="shared" si="39"/>
-        <v>35</v>
+        <f t="shared" si="42"/>
+        <v>33</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-35</v>
+        <f t="shared" si="43"/>
+        <v>25-33</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B260">
-        <f t="shared" si="39"/>
-        <v>36</v>
+        <f t="shared" si="42"/>
+        <v>34</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-36</v>
+        <f t="shared" si="43"/>
+        <v>25-34</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B261">
-        <f t="shared" si="39"/>
-        <v>37</v>
+        <f t="shared" si="42"/>
+        <v>35</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-37</v>
+        <f t="shared" si="43"/>
+        <v>25-35</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B262">
-        <f t="shared" si="39"/>
-        <v>38</v>
+        <f t="shared" si="42"/>
+        <v>36</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-38</v>
+        <f t="shared" si="43"/>
+        <v>25-36</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B263">
-        <f t="shared" si="39"/>
-        <v>39</v>
+        <f t="shared" si="42"/>
+        <v>37</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-39</v>
+        <f t="shared" si="43"/>
+        <v>25-37</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B264">
-        <f t="shared" si="39"/>
-        <v>40</v>
+        <f t="shared" si="42"/>
+        <v>38</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-40</v>
+        <f t="shared" si="43"/>
+        <v>25-38</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B265">
-        <f t="shared" si="39"/>
-        <v>41</v>
+        <f t="shared" si="42"/>
+        <v>39</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-41</v>
+        <f t="shared" si="43"/>
+        <v>25-39</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B266">
-        <f t="shared" si="39"/>
-        <v>42</v>
+        <f t="shared" si="42"/>
+        <v>40</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-42</v>
+        <f t="shared" si="43"/>
+        <v>25-40</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B267">
-        <f t="shared" si="39"/>
-        <v>43</v>
+        <f t="shared" si="42"/>
+        <v>41</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-43</v>
+        <f t="shared" si="43"/>
+        <v>25-41</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B268">
-        <f t="shared" si="39"/>
-        <v>44</v>
+        <f t="shared" si="42"/>
+        <v>42</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-44</v>
+        <f t="shared" si="43"/>
+        <v>25-42</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B269">
-        <f t="shared" si="39"/>
-        <v>45</v>
+        <f t="shared" si="42"/>
+        <v>43</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-45</v>
+        <f t="shared" si="43"/>
+        <v>25-43</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B270">
-        <f t="shared" si="39"/>
-        <v>46</v>
+        <f t="shared" si="42"/>
+        <v>44</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-46</v>
+        <f t="shared" si="43"/>
+        <v>25-44</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" si="39"/>
-        <v>47</v>
+        <f t="shared" si="42"/>
+        <v>45</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-47</v>
+        <f t="shared" si="43"/>
+        <v>25-45</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B272">
-        <f t="shared" si="39"/>
-        <v>48</v>
+        <f t="shared" si="42"/>
+        <v>46</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-48</v>
+        <f t="shared" si="43"/>
+        <v>25-46</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B273">
-        <f t="shared" si="39"/>
-        <v>49</v>
+        <f t="shared" si="42"/>
+        <v>47</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-49</v>
+        <f t="shared" si="43"/>
+        <v>25-47</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B274">
-        <f t="shared" si="39"/>
-        <v>50</v>
+        <f t="shared" si="42"/>
+        <v>48</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-50</v>
+        <f t="shared" si="43"/>
+        <v>25-48</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B275">
-        <f t="shared" si="39"/>
-        <v>51</v>
+        <f t="shared" si="42"/>
+        <v>49</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-51</v>
+        <f t="shared" si="43"/>
+        <v>25-49</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B276">
-        <f t="shared" si="39"/>
-        <v>52</v>
+        <f t="shared" si="42"/>
+        <v>50</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-52</v>
+        <f t="shared" si="43"/>
+        <v>25-50</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B277">
-        <f t="shared" si="39"/>
-        <v>53</v>
+        <f t="shared" si="42"/>
+        <v>51</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-53</v>
+        <f t="shared" si="43"/>
+        <v>25-51</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B278">
-        <f t="shared" si="39"/>
-        <v>54</v>
+        <f t="shared" si="42"/>
+        <v>52</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-54</v>
+        <f t="shared" si="43"/>
+        <v>25-52</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B279">
-        <f t="shared" si="39"/>
-        <v>55</v>
+        <f t="shared" si="42"/>
+        <v>53</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-55</v>
+        <f t="shared" si="43"/>
+        <v>25-53</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B280">
-        <f t="shared" si="39"/>
-        <v>56</v>
+        <f t="shared" si="42"/>
+        <v>54</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-56</v>
+        <f t="shared" si="43"/>
+        <v>25-54</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B281">
-        <f t="shared" si="39"/>
-        <v>57</v>
+        <f t="shared" si="42"/>
+        <v>55</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-57</v>
+        <f t="shared" si="43"/>
+        <v>25-55</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B282">
-        <f t="shared" si="39"/>
-        <v>58</v>
+        <f t="shared" si="42"/>
+        <v>56</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-58</v>
+        <f t="shared" si="43"/>
+        <v>25-56</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B283">
-        <f t="shared" si="39"/>
-        <v>59</v>
+        <f t="shared" si="42"/>
+        <v>57</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-59</v>
+        <f t="shared" si="43"/>
+        <v>25-57</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B284">
-        <f t="shared" si="39"/>
-        <v>60</v>
+        <f t="shared" si="42"/>
+        <v>58</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-60</v>
+        <f t="shared" si="43"/>
+        <v>25-58</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B285">
-        <f t="shared" si="39"/>
-        <v>61</v>
+        <f t="shared" si="42"/>
+        <v>59</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-61</v>
+        <f t="shared" si="43"/>
+        <v>25-59</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B286">
-        <f t="shared" si="39"/>
-        <v>62</v>
+        <f t="shared" si="42"/>
+        <v>60</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-62</v>
+        <f t="shared" si="43"/>
+        <v>25-60</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B287">
-        <f t="shared" si="39"/>
-        <v>63</v>
+        <f t="shared" si="42"/>
+        <v>61</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-63</v>
+        <f t="shared" si="43"/>
+        <v>25-61</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B288">
-        <f t="shared" si="39"/>
-        <v>64</v>
+        <f t="shared" si="42"/>
+        <v>62</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-64</v>
+        <f t="shared" si="43"/>
+        <v>25-62</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B289">
-        <f t="shared" si="39"/>
-        <v>65</v>
+        <f t="shared" si="42"/>
+        <v>63</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-65</v>
+        <f t="shared" si="43"/>
+        <v>25-63</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B290">
-        <f t="shared" si="39"/>
-        <v>66</v>
+        <f t="shared" si="42"/>
+        <v>64</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="40"/>
-        <v>25-66</v>
+        <f t="shared" si="43"/>
+        <v>25-64</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B291">
-        <f t="shared" ref="B291:B354" si="42">IF(A291=A290,B290+1,1)</f>
-        <v>67</v>
+        <f t="shared" si="42"/>
+        <v>65</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" ref="C291:C354" si="43">CONCATENATE(A291,"-",B291)</f>
-        <v>25-67</v>
+        <f t="shared" si="43"/>
+        <v>25-65</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
-        <f t="shared" ref="A292:A355" si="44">A291</f>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="B292">
         <f t="shared" si="42"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C292" s="3" t="str">
         <f t="shared" si="43"/>
-        <v>25-68</v>
+        <v>25-66</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -9938,1020 +9968,1020 @@
         <v>25</v>
       </c>
       <c r="B293">
-        <f t="shared" si="42"/>
-        <v>69</v>
+        <f t="shared" ref="B293:B356" si="45">IF(A293=A292,B292+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-69</v>
+        <f t="shared" ref="C293:C356" si="46">CONCATENATE(A293,"-",B293)</f>
+        <v>25-67</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="A294:A357" si="47">A293</f>
         <v>25</v>
       </c>
       <c r="B294">
-        <f t="shared" si="42"/>
-        <v>70</v>
+        <f t="shared" si="45"/>
+        <v>68</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-70</v>
+        <f t="shared" si="46"/>
+        <v>25-68</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B295">
-        <f t="shared" si="42"/>
-        <v>71</v>
+        <f t="shared" si="45"/>
+        <v>69</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-71</v>
+        <f t="shared" si="46"/>
+        <v>25-69</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B296">
-        <f t="shared" si="42"/>
-        <v>72</v>
+        <f t="shared" si="45"/>
+        <v>70</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-72</v>
+        <f t="shared" si="46"/>
+        <v>25-70</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B297">
-        <f t="shared" si="42"/>
-        <v>73</v>
+        <f t="shared" si="45"/>
+        <v>71</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-73</v>
+        <f t="shared" si="46"/>
+        <v>25-71</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B298">
-        <f t="shared" si="42"/>
-        <v>74</v>
+        <f t="shared" si="45"/>
+        <v>72</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-74</v>
+        <f t="shared" si="46"/>
+        <v>25-72</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B299">
-        <f t="shared" si="42"/>
-        <v>75</v>
+        <f t="shared" si="45"/>
+        <v>73</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-75</v>
+        <f t="shared" si="46"/>
+        <v>25-73</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B300">
-        <f t="shared" si="42"/>
-        <v>76</v>
+        <f t="shared" si="45"/>
+        <v>74</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-76</v>
+        <f t="shared" si="46"/>
+        <v>25-74</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B301">
-        <f t="shared" si="42"/>
-        <v>77</v>
+        <f t="shared" si="45"/>
+        <v>75</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-77</v>
+        <f t="shared" si="46"/>
+        <v>25-75</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B302">
-        <f t="shared" si="42"/>
-        <v>78</v>
+        <f t="shared" si="45"/>
+        <v>76</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-78</v>
+        <f t="shared" si="46"/>
+        <v>25-76</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B303">
-        <f t="shared" si="42"/>
-        <v>79</v>
+        <f t="shared" si="45"/>
+        <v>77</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-79</v>
+        <f t="shared" si="46"/>
+        <v>25-77</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B304">
-        <f t="shared" si="42"/>
-        <v>80</v>
+        <f t="shared" si="45"/>
+        <v>78</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-80</v>
+        <f t="shared" si="46"/>
+        <v>25-78</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B305">
-        <f t="shared" si="42"/>
-        <v>81</v>
+        <f t="shared" si="45"/>
+        <v>79</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-81</v>
+        <f t="shared" si="46"/>
+        <v>25-79</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B306">
-        <f t="shared" si="42"/>
-        <v>82</v>
+        <f t="shared" si="45"/>
+        <v>80</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-82</v>
+        <f t="shared" si="46"/>
+        <v>25-80</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B307">
-        <f t="shared" si="42"/>
-        <v>83</v>
+        <f t="shared" si="45"/>
+        <v>81</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-83</v>
+        <f t="shared" si="46"/>
+        <v>25-81</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B308">
-        <f t="shared" si="42"/>
-        <v>84</v>
+        <f t="shared" si="45"/>
+        <v>82</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-84</v>
+        <f t="shared" si="46"/>
+        <v>25-82</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B309">
-        <f t="shared" si="42"/>
-        <v>85</v>
+        <f t="shared" si="45"/>
+        <v>83</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-85</v>
+        <f t="shared" si="46"/>
+        <v>25-83</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B310">
-        <f t="shared" si="42"/>
-        <v>86</v>
+        <f t="shared" si="45"/>
+        <v>84</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-86</v>
+        <f t="shared" si="46"/>
+        <v>25-84</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B311">
-        <f t="shared" si="42"/>
-        <v>87</v>
+        <f t="shared" si="45"/>
+        <v>85</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-87</v>
+        <f t="shared" si="46"/>
+        <v>25-85</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B312">
-        <f t="shared" si="42"/>
-        <v>88</v>
+        <f t="shared" si="45"/>
+        <v>86</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-88</v>
+        <f t="shared" si="46"/>
+        <v>25-86</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B313">
-        <f t="shared" si="42"/>
-        <v>89</v>
+        <f t="shared" si="45"/>
+        <v>87</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-89</v>
+        <f t="shared" si="46"/>
+        <v>25-87</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B314">
-        <f t="shared" si="42"/>
-        <v>90</v>
+        <f t="shared" si="45"/>
+        <v>88</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-90</v>
+        <f t="shared" si="46"/>
+        <v>25-88</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B315">
-        <f t="shared" si="42"/>
-        <v>91</v>
+        <f t="shared" si="45"/>
+        <v>89</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-91</v>
+        <f t="shared" si="46"/>
+        <v>25-89</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B316">
-        <f t="shared" si="42"/>
-        <v>92</v>
+        <f t="shared" si="45"/>
+        <v>90</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-92</v>
+        <f t="shared" si="46"/>
+        <v>25-90</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B317">
-        <f t="shared" si="42"/>
-        <v>93</v>
+        <f t="shared" si="45"/>
+        <v>91</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-93</v>
+        <f t="shared" si="46"/>
+        <v>25-91</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B318">
-        <f t="shared" si="42"/>
-        <v>94</v>
+        <f t="shared" si="45"/>
+        <v>92</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-94</v>
+        <f t="shared" si="46"/>
+        <v>25-92</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B319">
-        <f t="shared" si="42"/>
-        <v>95</v>
+        <f t="shared" si="45"/>
+        <v>93</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-95</v>
+        <f t="shared" si="46"/>
+        <v>25-93</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B320">
-        <f t="shared" si="42"/>
-        <v>96</v>
+        <f t="shared" si="45"/>
+        <v>94</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-96</v>
+        <f t="shared" si="46"/>
+        <v>25-94</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B321">
-        <f t="shared" si="42"/>
-        <v>97</v>
+        <f t="shared" si="45"/>
+        <v>95</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-97</v>
+        <f t="shared" si="46"/>
+        <v>25-95</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B322">
-        <f t="shared" si="42"/>
-        <v>98</v>
+        <f t="shared" si="45"/>
+        <v>96</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-98</v>
+        <f t="shared" si="46"/>
+        <v>25-96</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B323">
-        <f t="shared" si="42"/>
-        <v>99</v>
+        <f t="shared" si="45"/>
+        <v>97</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-99</v>
+        <f t="shared" si="46"/>
+        <v>25-97</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B324">
-        <f t="shared" si="42"/>
-        <v>100</v>
+        <f t="shared" si="45"/>
+        <v>98</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-100</v>
+        <f t="shared" si="46"/>
+        <v>25-98</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B325">
-        <f t="shared" si="42"/>
-        <v>101</v>
+        <f t="shared" si="45"/>
+        <v>99</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-101</v>
+        <f t="shared" si="46"/>
+        <v>25-99</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B326">
-        <f t="shared" si="42"/>
-        <v>102</v>
+        <f t="shared" si="45"/>
+        <v>100</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-102</v>
+        <f t="shared" si="46"/>
+        <v>25-100</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B327">
-        <f t="shared" si="42"/>
-        <v>103</v>
+        <f t="shared" si="45"/>
+        <v>101</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-103</v>
+        <f t="shared" si="46"/>
+        <v>25-101</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B328">
-        <f t="shared" si="42"/>
-        <v>104</v>
+        <f t="shared" si="45"/>
+        <v>102</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-104</v>
+        <f t="shared" si="46"/>
+        <v>25-102</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B329">
-        <f t="shared" si="42"/>
-        <v>105</v>
+        <f t="shared" si="45"/>
+        <v>103</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-105</v>
+        <f t="shared" si="46"/>
+        <v>25-103</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B330">
-        <f t="shared" si="42"/>
-        <v>106</v>
+        <f t="shared" si="45"/>
+        <v>104</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-106</v>
+        <f t="shared" si="46"/>
+        <v>25-104</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B331">
-        <f t="shared" si="42"/>
-        <v>107</v>
+        <f t="shared" si="45"/>
+        <v>105</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-107</v>
+        <f t="shared" si="46"/>
+        <v>25-105</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B332">
-        <f t="shared" si="42"/>
-        <v>108</v>
+        <f t="shared" si="45"/>
+        <v>106</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-108</v>
+        <f t="shared" si="46"/>
+        <v>25-106</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B333">
-        <f t="shared" si="42"/>
-        <v>109</v>
+        <f t="shared" si="45"/>
+        <v>107</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-109</v>
+        <f t="shared" si="46"/>
+        <v>25-107</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B334">
-        <f t="shared" si="42"/>
-        <v>110</v>
+        <f t="shared" si="45"/>
+        <v>108</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-110</v>
+        <f t="shared" si="46"/>
+        <v>25-108</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B335">
-        <f t="shared" si="42"/>
-        <v>111</v>
+        <f t="shared" si="45"/>
+        <v>109</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-111</v>
+        <f t="shared" si="46"/>
+        <v>25-109</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B336">
-        <f t="shared" si="42"/>
-        <v>112</v>
+        <f t="shared" si="45"/>
+        <v>110</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-112</v>
+        <f t="shared" si="46"/>
+        <v>25-110</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B337">
-        <f t="shared" si="42"/>
-        <v>113</v>
+        <f t="shared" si="45"/>
+        <v>111</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-113</v>
+        <f t="shared" si="46"/>
+        <v>25-111</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B338">
-        <f t="shared" si="42"/>
-        <v>114</v>
+        <f t="shared" si="45"/>
+        <v>112</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-114</v>
+        <f t="shared" si="46"/>
+        <v>25-112</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B339">
-        <f t="shared" si="42"/>
-        <v>115</v>
+        <f t="shared" si="45"/>
+        <v>113</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-115</v>
+        <f t="shared" si="46"/>
+        <v>25-113</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B340">
-        <f t="shared" si="42"/>
-        <v>116</v>
+        <f t="shared" si="45"/>
+        <v>114</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-116</v>
+        <f t="shared" si="46"/>
+        <v>25-114</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B341">
-        <f t="shared" si="42"/>
-        <v>117</v>
+        <f t="shared" si="45"/>
+        <v>115</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-117</v>
+        <f t="shared" si="46"/>
+        <v>25-115</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B342">
-        <f t="shared" si="42"/>
-        <v>118</v>
+        <f t="shared" si="45"/>
+        <v>116</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-118</v>
+        <f t="shared" si="46"/>
+        <v>25-116</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B343">
-        <f t="shared" si="42"/>
-        <v>119</v>
+        <f t="shared" si="45"/>
+        <v>117</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-119</v>
+        <f t="shared" si="46"/>
+        <v>25-117</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B344">
-        <f t="shared" si="42"/>
-        <v>120</v>
+        <f t="shared" si="45"/>
+        <v>118</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-120</v>
+        <f t="shared" si="46"/>
+        <v>25-118</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B345">
-        <f t="shared" si="42"/>
-        <v>121</v>
+        <f t="shared" si="45"/>
+        <v>119</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-121</v>
+        <f t="shared" si="46"/>
+        <v>25-119</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B346">
-        <f t="shared" si="42"/>
-        <v>122</v>
+        <f t="shared" si="45"/>
+        <v>120</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-122</v>
+        <f t="shared" si="46"/>
+        <v>25-120</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B347">
-        <f t="shared" si="42"/>
-        <v>123</v>
+        <f t="shared" si="45"/>
+        <v>121</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-123</v>
+        <f t="shared" si="46"/>
+        <v>25-121</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B348">
-        <f t="shared" si="42"/>
-        <v>124</v>
+        <f t="shared" si="45"/>
+        <v>122</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-124</v>
+        <f t="shared" si="46"/>
+        <v>25-122</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B349">
-        <f t="shared" si="42"/>
-        <v>125</v>
+        <f t="shared" si="45"/>
+        <v>123</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-125</v>
+        <f t="shared" si="46"/>
+        <v>25-123</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B350">
-        <f t="shared" si="42"/>
-        <v>126</v>
+        <f t="shared" si="45"/>
+        <v>124</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-126</v>
+        <f t="shared" si="46"/>
+        <v>25-124</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B351">
-        <f t="shared" si="42"/>
-        <v>127</v>
+        <f t="shared" si="45"/>
+        <v>125</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-127</v>
+        <f t="shared" si="46"/>
+        <v>25-125</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B352">
-        <f t="shared" si="42"/>
-        <v>128</v>
+        <f t="shared" si="45"/>
+        <v>126</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-128</v>
+        <f t="shared" si="46"/>
+        <v>25-126</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B353">
-        <f t="shared" si="42"/>
-        <v>129</v>
+        <f t="shared" si="45"/>
+        <v>127</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-129</v>
+        <f t="shared" si="46"/>
+        <v>25-127</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B354">
-        <f t="shared" si="42"/>
-        <v>130</v>
+        <f t="shared" si="45"/>
+        <v>128</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-130</v>
+        <f t="shared" si="46"/>
+        <v>25-128</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B355">
-        <f t="shared" ref="B355:B376" si="45">IF(A355=A354,B354+1,1)</f>
-        <v>131</v>
+        <f t="shared" si="45"/>
+        <v>129</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" ref="C355:C376" si="46">CONCATENATE(A355,"-",B355)</f>
-        <v>25-131</v>
+        <f t="shared" si="46"/>
+        <v>25-129</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
-        <f t="shared" ref="A356:A376" si="47">A355</f>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="B356">
         <f t="shared" si="45"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C356" s="3" t="str">
         <f t="shared" si="46"/>
-        <v>25-132</v>
+        <v>25-130</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
@@ -10962,325 +10992,349 @@
         <v>25</v>
       </c>
       <c r="B357">
-        <f t="shared" si="45"/>
-        <v>133</v>
+        <f t="shared" ref="B357:B378" si="48">IF(A357=A356,B356+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-133</v>
+        <f t="shared" ref="C357:C378" si="49">CONCATENATE(A357,"-",B357)</f>
+        <v>25-131</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="A358:A378" si="50">A357</f>
         <v>25</v>
       </c>
       <c r="B358">
-        <f t="shared" si="45"/>
-        <v>134</v>
+        <f t="shared" si="48"/>
+        <v>132</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-134</v>
+        <f t="shared" si="49"/>
+        <v>25-132</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B359">
-        <f t="shared" si="45"/>
-        <v>135</v>
+        <f t="shared" si="48"/>
+        <v>133</v>
       </c>
       <c r="C359" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-135</v>
+        <f t="shared" si="49"/>
+        <v>25-133</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B360">
-        <f t="shared" si="45"/>
-        <v>136</v>
+        <f t="shared" si="48"/>
+        <v>134</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-136</v>
+        <f t="shared" si="49"/>
+        <v>25-134</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B361">
-        <f t="shared" si="45"/>
-        <v>137</v>
+        <f t="shared" si="48"/>
+        <v>135</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-137</v>
+        <f t="shared" si="49"/>
+        <v>25-135</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B362">
-        <f t="shared" si="45"/>
-        <v>138</v>
+        <f t="shared" si="48"/>
+        <v>136</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-138</v>
+        <f t="shared" si="49"/>
+        <v>25-136</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B363">
-        <f t="shared" si="45"/>
-        <v>139</v>
+        <f t="shared" si="48"/>
+        <v>137</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-139</v>
+        <f t="shared" si="49"/>
+        <v>25-137</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B364">
-        <f t="shared" si="45"/>
-        <v>140</v>
+        <f t="shared" si="48"/>
+        <v>138</v>
       </c>
       <c r="C364" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-140</v>
+        <f t="shared" si="49"/>
+        <v>25-138</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B365">
-        <f t="shared" si="45"/>
-        <v>141</v>
+        <f t="shared" si="48"/>
+        <v>139</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-141</v>
+        <f t="shared" si="49"/>
+        <v>25-139</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B366">
-        <f t="shared" si="45"/>
-        <v>142</v>
+        <f t="shared" si="48"/>
+        <v>140</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-142</v>
+        <f t="shared" si="49"/>
+        <v>25-140</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B367">
-        <f t="shared" si="45"/>
-        <v>143</v>
+        <f t="shared" si="48"/>
+        <v>141</v>
       </c>
       <c r="C367" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-143</v>
+        <f t="shared" si="49"/>
+        <v>25-141</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B368">
-        <f t="shared" si="45"/>
-        <v>144</v>
+        <f t="shared" si="48"/>
+        <v>142</v>
       </c>
       <c r="C368" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-144</v>
+        <f t="shared" si="49"/>
+        <v>25-142</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B369">
-        <f t="shared" si="45"/>
-        <v>145</v>
+        <f t="shared" si="48"/>
+        <v>143</v>
       </c>
       <c r="C369" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-145</v>
+        <f t="shared" si="49"/>
+        <v>25-143</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B370">
-        <f t="shared" si="45"/>
-        <v>146</v>
+        <f t="shared" si="48"/>
+        <v>144</v>
       </c>
       <c r="C370" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-146</v>
+        <f t="shared" si="49"/>
+        <v>25-144</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
     <row r="371" spans="1:13" ht="15">
       <c r="A371">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B371">
-        <f t="shared" si="45"/>
-        <v>147</v>
+        <f t="shared" si="48"/>
+        <v>145</v>
       </c>
       <c r="C371" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-147</v>
+        <f t="shared" si="49"/>
+        <v>25-145</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
     <row r="372" spans="1:13" ht="15">
       <c r="A372">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B372">
-        <f t="shared" si="45"/>
-        <v>148</v>
+        <f t="shared" si="48"/>
+        <v>146</v>
       </c>
       <c r="C372" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-148</v>
+        <f t="shared" si="49"/>
+        <v>25-146</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
     </row>
     <row r="373" spans="1:13" ht="15">
       <c r="A373">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B373">
-        <f t="shared" si="45"/>
-        <v>149</v>
+        <f t="shared" si="48"/>
+        <v>147</v>
       </c>
       <c r="C373" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-149</v>
+        <f t="shared" si="49"/>
+        <v>25-147</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
     </row>
     <row r="374" spans="1:13" ht="15">
       <c r="A374">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B374">
-        <f t="shared" si="45"/>
-        <v>150</v>
+        <f t="shared" si="48"/>
+        <v>148</v>
       </c>
       <c r="C374" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-150</v>
+        <f t="shared" si="49"/>
+        <v>25-148</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
     </row>
     <row r="375" spans="1:13" ht="15">
       <c r="A375">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B375">
-        <f t="shared" si="45"/>
-        <v>151</v>
+        <f t="shared" si="48"/>
+        <v>149</v>
       </c>
       <c r="C375" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-151</v>
+        <f t="shared" si="49"/>
+        <v>25-149</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
     </row>
     <row r="376" spans="1:13" ht="15">
       <c r="A376">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>25</v>
       </c>
       <c r="B376">
-        <f t="shared" si="45"/>
-        <v>152</v>
+        <f t="shared" si="48"/>
+        <v>150</v>
       </c>
       <c r="C376" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-152</v>
+        <f t="shared" si="49"/>
+        <v>25-150</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
     </row>
-    <row r="377" spans="1:13" ht="12.75">
+    <row r="377" spans="1:13" ht="15">
+      <c r="A377">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="B377">
+        <f t="shared" si="48"/>
+        <v>151</v>
+      </c>
+      <c r="C377" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>25-151</v>
+      </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
     </row>
-    <row r="378" spans="1:13" ht="12.75">
+    <row r="378" spans="1:13" ht="15">
+      <c r="A378">
+        <f t="shared" si="50"/>
+        <v>25</v>
+      </c>
+      <c r="B378">
+        <f t="shared" si="48"/>
+        <v>152</v>
+      </c>
+      <c r="C378" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>25-152</v>
+      </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
     </row>
@@ -14024,293 +14078,301 @@
       <c r="L1063" s="6"/>
       <c r="M1063" s="6"/>
     </row>
+    <row r="1064" spans="12:13" ht="12.75">
+      <c r="L1064" s="6"/>
+      <c r="M1064" s="6"/>
+    </row>
+    <row r="1065" spans="12:13" ht="12.75">
+      <c r="L1065" s="6"/>
+      <c r="M1065" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L184:L187"/>
+    <mergeCell ref="L186:L189"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K195">
+  <conditionalFormatting sqref="K2:K197">
     <cfRule type="containsBlanks" dxfId="56" priority="61">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K195">
+  <conditionalFormatting sqref="K2:K197">
     <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K195">
+  <conditionalFormatting sqref="K2:K197">
     <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
+  <conditionalFormatting sqref="K198">
     <cfRule type="containsBlanks" dxfId="53" priority="58">
-      <formula>LEN(TRIM(K196))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K196">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K196))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsBlanks" dxfId="50" priority="52">
-      <formula>LEN(TRIM(K197))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K197">
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K197))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
       <formula>LEN(TRIM(K198))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
+    <cfRule type="containsBlanks" dxfId="50" priority="52">
       <formula>LEN(TRIM(K199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
+      <formula>LEN(TRIM(K200))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K200">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K201">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="40" priority="40">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
       <formula>LEN(TRIM(K203))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="39" priority="37">
+    <cfRule type="containsBlanks" dxfId="40" priority="40">
       <formula>LEN(TRIM(K205))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="38" priority="34">
-      <formula>LEN(TRIM(K206))=0</formula>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsBlanks" dxfId="39" priority="37">
+      <formula>LEN(TRIM(K207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208">
-    <cfRule type="containsBlanks" dxfId="37" priority="31">
+    <cfRule type="containsBlanks" dxfId="38" priority="34">
       <formula>LEN(TRIM(K208))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsBlanks" dxfId="36" priority="28">
+    <cfRule type="containsBlanks" dxfId="37" priority="31">
       <formula>LEN(TRIM(K210))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K212:K223 K225:K226">
-    <cfRule type="containsBlanks" dxfId="35" priority="25">
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsBlanks" dxfId="36" priority="28">
       <formula>LEN(TRIM(K212))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="34" priority="19">
-      <formula>LEN(TRIM(K202))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
+  <conditionalFormatting sqref="K214:K225 K227:K228">
+    <cfRule type="containsBlanks" dxfId="35" priority="25">
+      <formula>LEN(TRIM(K214))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
+    <cfRule type="containsBlanks" dxfId="34" priority="19">
       <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
-      <formula>LEN(TRIM(K200))=0</formula>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K202))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K207">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
     <cfRule type="containsBlanks" dxfId="25" priority="10">
-      <formula>LEN(TRIM(K207))=0</formula>
+      <formula>LEN(TRIM(K209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="containsBlanks" dxfId="22" priority="7">
+      <formula>LEN(TRIM(K211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(K213))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214:K225 K227:K228">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K214))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214:K225 K227:K228">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K214))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
-      <formula>LEN(TRIM(K209))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
-      <formula>LEN(TRIM(K211))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212:K223 K225:K226">
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212:K223 K225:K226">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
+  <conditionalFormatting sqref="K209">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K224">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(K224))=0</formula>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K224">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K224))))</formula>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K224">
+  <conditionalFormatting sqref="K226">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(K226))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K226">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K226))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K226">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K224))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K226))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="292">
   <si>
     <t>Test Number</t>
   </si>
@@ -890,6 +890,9 @@
   </si>
   <si>
     <t>Create a new config. Click save. Enter the name of the current configuration. An error message appears saying the operation is invalid and the save button remains disabled</t>
+  </si>
+  <si>
+    <t>Create a new configuration. Click `save as`. Try adding spaces (start, middle and end of name) and special characters. Name should only support alpha-numeric characters and underscores. Error appears otherwise and config cannot be saved</t>
   </si>
 </sst>
 </file>
@@ -959,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1058,11 +1061,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,9 +1154,6 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1156,6 +1169,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2256,11 +2290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1065"/>
+  <dimension ref="A1:N1066"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6494,7 +6528,7 @@
     </row>
     <row r="147" spans="1:13" ht="15">
       <c r="A147">
-        <f t="shared" ref="A147:A155" si="22">A146</f>
+        <f t="shared" ref="A147:A156" si="22">A146</f>
         <v>15</v>
       </c>
       <c r="B147">
@@ -6669,18 +6703,18 @@
         <f t="shared" si="20"/>
         <v>54</v>
       </c>
-      <c r="C153" s="3" t="str">
+      <c r="C153" s="19" t="str">
         <f t="shared" si="21"/>
         <v>15-54</v>
       </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7" t="s">
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" s="44" t="s">
         <v>158</v>
       </c>
       <c r="J153" s="8"/>
@@ -6697,21 +6731,21 @@
         <f t="shared" si="20"/>
         <v>55</v>
       </c>
-      <c r="C154" s="3" t="str">
+      <c r="C154" s="22" t="str">
         <f t="shared" si="21"/>
         <v>15-55</v>
       </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7" t="s">
+      <c r="D154" s="48"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="48"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="J154" s="8"/>
+      <c r="J154" s="42"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
@@ -6725,274 +6759,273 @@
         <f t="shared" si="20"/>
         <v>56</v>
       </c>
-      <c r="C155" s="3" t="str">
+      <c r="C155" s="22" t="str">
         <f t="shared" si="21"/>
         <v>15-56</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9" t="s">
+      <c r="D155" s="48"/>
+      <c r="E155" s="48"/>
+      <c r="F155" s="48"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I155" s="35" t="s">
+      <c r="I155" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="J155" s="8"/>
+      <c r="J155" s="42"/>
       <c r="K155" s="9"/>
       <c r="L155" s="8"/>
       <c r="M155" s="6"/>
     </row>
-    <row r="156" spans="1:13" ht="15">
+    <row r="156" spans="1:13" ht="64.5">
       <c r="A156">
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="B156">
-        <f t="shared" ref="B156:B228" si="23">IF(A156=A155,B155+1,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C156" s="3" t="str">
-        <f t="shared" ref="C156:C227" si="24">CONCATENATE(A156,"-",B156)</f>
-        <v>16-1</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J156" s="8"/>
-      <c r="K156" s="7"/>
+        <f t="shared" ref="B156" si="23">IF(A156=A155,B155+1,1)</f>
+        <v>57</v>
+      </c>
+      <c r="C156" s="22" t="str">
+        <f t="shared" ref="C156" si="24">CONCATENATE(A156,"-",B156)</f>
+        <v>15-57</v>
+      </c>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+      <c r="H156" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I156" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J156" s="42"/>
+      <c r="K156" s="9"/>
       <c r="L156" s="8"/>
       <c r="M156" s="6"/>
     </row>
     <row r="157" spans="1:13" ht="15">
       <c r="A157">
-        <f t="shared" ref="A157:A229" si="25">A156</f>
         <v>16</v>
       </c>
       <c r="B157">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C157" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-2</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="7" t="s">
+        <f>IF(A157=A155,B155+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C157" s="22" t="str">
+        <f t="shared" ref="C157:C228" si="25">CONCATENATE(A157,"-",B157)</f>
+        <v>16-1</v>
+      </c>
+      <c r="D157" s="48"/>
+      <c r="E157" s="48"/>
+      <c r="F157" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7" t="s">
+      <c r="G157" s="48"/>
+      <c r="H157" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I157" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J157" s="8"/>
+      <c r="I157" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="J157" s="42"/>
       <c r="K157" s="7"/>
       <c r="L157" s="8"/>
       <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" ht="15">
       <c r="A158">
+        <f t="shared" ref="A158:A230" si="26">A157</f>
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ref="B158:B229" si="27">IF(A158=A157,B157+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C158" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B158">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C158" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-3</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="7" t="s">
+        <v>16-2</v>
+      </c>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7" t="s">
+      <c r="G158" s="48"/>
+      <c r="H158" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J158" s="8"/>
+      <c r="I158" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J158" s="42"/>
       <c r="K158" s="7"/>
-      <c r="L158" s="11"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="6"/>
     </row>
     <row r="159" spans="1:13" ht="15">
       <c r="A159">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C159" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B159">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C159" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-4</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="7" t="s">
+        <v>16-3</v>
+      </c>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
+      <c r="F159" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7" t="s">
+      <c r="G159" s="48"/>
+      <c r="H159" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J159" s="8"/>
+      <c r="I159" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="J159" s="42"/>
       <c r="K159" s="7"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="6"/>
+      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:13" ht="15">
       <c r="A160">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C160" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B160">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C160" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-5</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7" t="s">
+        <v>16-4</v>
+      </c>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="G160" s="48"/>
+      <c r="H160" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J160" s="8"/>
+      <c r="I160" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="J160" s="42"/>
       <c r="K160" s="7"/>
       <c r="L160" s="8"/>
       <c r="M160" s="6"/>
     </row>
     <row r="161" spans="1:13" ht="15">
       <c r="A161">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C161" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B161">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="C161" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-6</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7" t="s">
+        <v>16-5</v>
+      </c>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="48"/>
+      <c r="G161" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H161" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J161" s="8"/>
+      <c r="I161" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="J161" s="42"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
       <c r="M161" s="6"/>
     </row>
     <row r="162" spans="1:13" ht="15">
       <c r="A162">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C162" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B162">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="C162" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-7</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7" t="s">
+        <v>16-6</v>
+      </c>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="48"/>
+      <c r="G162" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H162" s="7" t="s">
+      <c r="H162" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I162" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J162" s="8"/>
+      <c r="I162" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J162" s="42"/>
       <c r="K162" s="7"/>
       <c r="L162" s="8"/>
       <c r="M162" s="6"/>
     </row>
     <row r="163" spans="1:13" ht="15">
       <c r="A163">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="C163" s="45" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="C163" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-8</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7" t="s">
+        <v>16-7</v>
+      </c>
+      <c r="D163" s="46"/>
+      <c r="E163" s="46"/>
+      <c r="F163" s="46"/>
+      <c r="G163" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I163" s="1" t="s">
-        <v>167</v>
+      <c r="I163" s="47" t="s">
+        <v>166</v>
       </c>
       <c r="J163" s="8"/>
       <c r="K163" s="7"/>
       <c r="L163" s="8"/>
-    </row>
-    <row r="164" spans="1:13" ht="30">
+      <c r="M163" s="6"/>
+    </row>
+    <row r="164" spans="1:13" ht="15">
       <c r="A164">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="C164" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="C164" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-9</v>
+        <v>16-8</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -7004,25 +7037,24 @@
         <v>98</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J164" s="8"/>
       <c r="K164" s="7"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="6"/>
-    </row>
-    <row r="165" spans="1:13" ht="45">
+      <c r="L164" s="8"/>
+    </row>
+    <row r="165" spans="1:13" ht="30">
       <c r="A165">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="C165" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="C165" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-10</v>
+        <v>16-9</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -7034,25 +7066,25 @@
         <v>98</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J165" s="8"/>
       <c r="K165" s="7"/>
-      <c r="L165" s="8"/>
+      <c r="L165" s="1"/>
       <c r="M165" s="6"/>
     </row>
-    <row r="166" spans="1:13" ht="30">
+    <row r="166" spans="1:13" ht="45">
       <c r="A166">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="C166" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="23"/>
-        <v>11</v>
-      </c>
-      <c r="C166" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-11</v>
+        <v>16-10</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -7064,25 +7096,25 @@
         <v>98</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J166" s="8"/>
       <c r="K166" s="7"/>
       <c r="L166" s="8"/>
       <c r="M166" s="6"/>
     </row>
-    <row r="167" spans="1:13" ht="45">
+    <row r="167" spans="1:13" ht="30">
       <c r="A167">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="C167" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="23"/>
-        <v>12</v>
-      </c>
-      <c r="C167" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-12</v>
+        <v>16-11</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -7094,7 +7126,7 @@
         <v>98</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="7"/>
@@ -7103,16 +7135,16 @@
     </row>
     <row r="168" spans="1:13" ht="45">
       <c r="A168">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="C168" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="23"/>
-        <v>13</v>
-      </c>
-      <c r="C168" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-13</v>
+        <v>16-12</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -7124,25 +7156,25 @@
         <v>98</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J168" s="8"/>
       <c r="K168" s="7"/>
       <c r="L168" s="8"/>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" ht="60">
+    <row r="169" spans="1:13" ht="45">
       <c r="A169">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+      <c r="C169" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B169">
-        <f t="shared" si="23"/>
-        <v>14</v>
-      </c>
-      <c r="C169" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-14</v>
+        <v>16-13</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -7154,25 +7186,25 @@
         <v>98</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
       <c r="L169" s="8"/>
       <c r="M169" s="6"/>
     </row>
-    <row r="170" spans="1:13" ht="15">
+    <row r="170" spans="1:13" ht="60">
       <c r="A170">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="C170" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B170">
-        <f t="shared" si="23"/>
-        <v>15</v>
-      </c>
-      <c r="C170" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-15</v>
+        <v>16-14</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -7184,7 +7216,7 @@
         <v>98</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J170" s="8"/>
       <c r="K170" s="7"/>
@@ -7193,16 +7225,16 @@
     </row>
     <row r="171" spans="1:13" ht="15">
       <c r="A171">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="C171" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B171">
-        <f t="shared" si="23"/>
-        <v>16</v>
-      </c>
-      <c r="C171" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-16</v>
+        <v>16-15</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -7214,97 +7246,97 @@
         <v>98</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J171" s="8"/>
       <c r="K171" s="7"/>
       <c r="L171" s="8"/>
       <c r="M171" s="6"/>
     </row>
-    <row r="172" spans="1:13" ht="30">
+    <row r="172" spans="1:13" ht="15">
       <c r="A172">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="C172" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B172">
-        <f t="shared" si="23"/>
-        <v>17</v>
-      </c>
-      <c r="C172" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-17</v>
+        <v>16-16</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="7"/>
+      <c r="G172" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G172" s="7"/>
       <c r="H172" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="7"/>
-      <c r="L172" s="1"/>
+      <c r="L172" s="8"/>
       <c r="M172" s="6"/>
     </row>
     <row r="173" spans="1:13" ht="30">
       <c r="A173">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+      <c r="C173" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B173">
-        <f t="shared" si="23"/>
-        <v>18</v>
-      </c>
-      <c r="C173" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-18</v>
+        <v>16-17</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7" t="s">
-        <v>177</v>
-      </c>
+      <c r="F173" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G173" s="7"/>
       <c r="H173" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J173" s="8"/>
       <c r="K173" s="7"/>
-      <c r="L173" s="8"/>
+      <c r="L173" s="1"/>
       <c r="M173" s="6"/>
     </row>
     <row r="174" spans="1:13" ht="30">
       <c r="A174">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="C174" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B174">
-        <f t="shared" si="23"/>
-        <v>19</v>
-      </c>
-      <c r="C174" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-19</v>
+        <v>16-18</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="7"/>
       <c r="G174" s="7" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="7"/>
@@ -7313,16 +7345,16 @@
     </row>
     <row r="175" spans="1:13" ht="30">
       <c r="A175">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="27"/>
+        <v>19</v>
+      </c>
+      <c r="C175" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B175">
-        <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="C175" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-20</v>
+        <v>16-19</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -7334,25 +7366,25 @@
         <v>179</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J175" s="8"/>
       <c r="K175" s="7"/>
       <c r="L175" s="8"/>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" ht="15">
+    <row r="176" spans="1:13" ht="30">
       <c r="A176">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="C176" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="23"/>
-        <v>21</v>
-      </c>
-      <c r="C176" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-21</v>
+        <v>16-20</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -7364,7 +7396,7 @@
         <v>179</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J176" s="8"/>
       <c r="K176" s="7"/>
@@ -7373,16 +7405,16 @@
     </row>
     <row r="177" spans="1:13" ht="15">
       <c r="A177">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+      <c r="C177" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="B177">
-        <f t="shared" si="23"/>
-        <v>22</v>
-      </c>
-      <c r="C177" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>16-22</v>
+        <v>16-21</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -7394,7 +7426,7 @@
         <v>179</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J177" s="8"/>
       <c r="K177" s="7"/>
@@ -7403,15 +7435,16 @@
     </row>
     <row r="178" spans="1:13" ht="15">
       <c r="A178">
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="B178">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>22</v>
       </c>
       <c r="C178" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>17-1</v>
+        <f t="shared" si="25"/>
+        <v>16-22</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -7420,27 +7453,27 @@
         <v>63</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="7"/>
-      <c r="L178" s="11"/>
-    </row>
-    <row r="179" spans="1:13" ht="30">
+      <c r="L178" s="8"/>
+      <c r="M178" s="6"/>
+    </row>
+    <row r="179" spans="1:13" ht="15">
       <c r="A179">
+        <v>17</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C179" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="B179">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C179" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>17-2</v>
+        <v>17-1</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -7452,25 +7485,24 @@
         <v>184</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J179" s="8"/>
       <c r="K179" s="7"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="6"/>
-    </row>
-    <row r="180" spans="1:13" ht="15">
+      <c r="L179" s="11"/>
+    </row>
+    <row r="180" spans="1:13" ht="30">
       <c r="A180">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="C180" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C180" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>17-3</v>
+        <v>17-2</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7482,25 +7514,25 @@
         <v>184</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="8"/>
+      <c r="L180" s="1"/>
       <c r="M180" s="6"/>
     </row>
     <row r="181" spans="1:13" ht="15">
       <c r="A181">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C181" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="B181">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C181" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>17-4</v>
+        <v>17-3</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7512,7 +7544,7 @@
         <v>184</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="7"/>
@@ -7521,15 +7553,16 @@
     </row>
     <row r="182" spans="1:13" ht="15">
       <c r="A182">
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="B182">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>18-1</v>
+        <f t="shared" si="25"/>
+        <v>17-4</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7538,27 +7571,27 @@
         <v>63</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J182" s="8"/>
       <c r="K182" s="7"/>
-      <c r="L182" s="11"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="6"/>
     </row>
     <row r="183" spans="1:13" ht="15">
       <c r="A183">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C183" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="B183">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C183" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>18-2</v>
+        <v>18-1</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -7570,25 +7603,24 @@
         <v>189</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J183" s="8"/>
       <c r="K183" s="7"/>
-      <c r="L183" s="8"/>
-      <c r="M183" s="6"/>
+      <c r="L183" s="11"/>
     </row>
     <row r="184" spans="1:13" ht="15">
       <c r="A184">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="C184" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="B184">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C184" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>18-3</v>
+        <v>18-2</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -7600,24 +7632,25 @@
         <v>189</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J184" s="8"/>
       <c r="K184" s="7"/>
       <c r="L184" s="8"/>
       <c r="M184" s="6"/>
     </row>
-    <row r="185" spans="1:13" ht="30">
+    <row r="185" spans="1:13" ht="15">
       <c r="A185">
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="B185">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>3</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>19-1</v>
+        <f t="shared" si="25"/>
+        <v>18-3</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -7626,10 +7659,10 @@
         <v>63</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J185" s="8"/>
       <c r="K185" s="7"/>
@@ -7638,16 +7671,15 @@
     </row>
     <row r="186" spans="1:13" ht="30">
       <c r="A186">
+        <v>19</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C186" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="B186">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C186" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>19-2</v>
+        <v>19-1</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -7659,24 +7691,25 @@
         <v>193</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J186" s="8"/>
       <c r="K186" s="7"/>
-      <c r="L186" s="40"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="6"/>
     </row>
     <row r="187" spans="1:13" ht="30">
       <c r="A187">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="C187" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="B187">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C187" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>19-3</v>
+        <v>19-2</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -7688,25 +7721,24 @@
         <v>193</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J187" s="8"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="41"/>
-      <c r="M187" s="6"/>
-    </row>
-    <row r="188" spans="1:13" ht="45">
+      <c r="L187" s="39"/>
+    </row>
+    <row r="188" spans="1:13" ht="30">
       <c r="A188">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C188" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="B188">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C188" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>19-4</v>
+        <v>19-3</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7718,25 +7750,25 @@
         <v>193</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J188" s="8"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="41"/>
+      <c r="L188" s="40"/>
       <c r="M188" s="6"/>
     </row>
-    <row r="189" spans="1:13" ht="30">
+    <row r="189" spans="1:13" ht="45">
       <c r="A189">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C189" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="B189">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C189" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>19-5</v>
+        <v>19-4</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7748,54 +7780,54 @@
         <v>193</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="7"/>
-      <c r="L189" s="42"/>
+      <c r="L189" s="40"/>
       <c r="M189" s="6"/>
     </row>
     <row r="190" spans="1:13" ht="30">
       <c r="A190">
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="B190">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>20-1</v>
+        <f t="shared" si="25"/>
+        <v>19-5</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="7"/>
       <c r="G190" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J190" s="8"/>
       <c r="K190" s="7"/>
-      <c r="L190" s="8"/>
+      <c r="L190" s="41"/>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="1:13" ht="45">
+    <row r="191" spans="1:13" ht="30">
       <c r="A191">
+        <v>20</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C191" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="B191">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C191" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>20-2</v>
+        <v>20-1</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -7807,84 +7839,84 @@
         <v>199</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J191" s="8"/>
       <c r="K191" s="7"/>
       <c r="L191" s="8"/>
       <c r="M191" s="6"/>
     </row>
-    <row r="192" spans="1:13" ht="26.25">
+    <row r="192" spans="1:13" ht="45">
       <c r="A192">
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="B192">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-1</v>
-      </c>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G192" s="15"/>
-      <c r="H192" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I192" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J192" s="12"/>
-      <c r="K192" s="10"/>
-      <c r="L192" s="12"/>
+        <f t="shared" si="25"/>
+        <v>20-2</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J192" s="8"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="8"/>
       <c r="M192" s="6"/>
     </row>
     <row r="193" spans="1:13" ht="26.25">
       <c r="A193">
+        <v>21</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C193" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B193">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C193" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-2</v>
+        <v>21-1</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="10" t="s">
+      <c r="F193" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G193" s="15"/>
       <c r="H193" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J193" s="12"/>
       <c r="K193" s="10"/>
       <c r="L193" s="12"/>
       <c r="M193" s="6"/>
     </row>
-    <row r="194" spans="1:13" ht="39">
+    <row r="194" spans="1:13" ht="26.25">
       <c r="A194">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="C194" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B194">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C194" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-3</v>
+        <v>21-2</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
@@ -7896,25 +7928,25 @@
         <v>15</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
-      <c r="L194" s="11"/>
+      <c r="L194" s="12"/>
       <c r="M194" s="6"/>
     </row>
     <row r="195" spans="1:13" ht="39">
       <c r="A195">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C195" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B195">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C195" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-4</v>
+        <v>21-3</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -7925,26 +7957,26 @@
       <c r="H195" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I195" s="12" t="s">
-        <v>205</v>
+      <c r="I195" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
-      <c r="L195" s="12"/>
+      <c r="L195" s="11"/>
       <c r="M195" s="6"/>
     </row>
-    <row r="196" spans="1:13" ht="51.75">
+    <row r="196" spans="1:13" ht="39">
       <c r="A196">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C196" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B196">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C196" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-5</v>
+        <v>21-4</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -7956,25 +7988,25 @@
         <v>15</v>
       </c>
       <c r="I196" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
       <c r="L196" s="12"/>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="26.25">
+    <row r="197" spans="1:13" ht="51.75">
       <c r="A197">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C197" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B197">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="C197" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>21-6</v>
+        <v>21-5</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -7986,7 +8018,7 @@
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
@@ -7995,48 +8027,46 @@
     </row>
     <row r="198" spans="1:13" ht="26.25">
       <c r="A198">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C198" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="B198">
-        <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="C198" s="3" t="str">
-        <f t="shared" ref="C198" si="26">CONCATENATE(A198,"-",B198)</f>
-        <v>21-7</v>
+        <v>21-6</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
       <c r="G198" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H198" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
-      <c r="L198" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="L198" s="12"/>
       <c r="M198" s="6"/>
     </row>
     <row r="199" spans="1:13" ht="26.25">
       <c r="A199">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B199">
-        <f t="shared" si="23"/>
-        <v>8</v>
+        <f t="shared" si="27"/>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199" si="27">CONCATENATE(A199,"-",B199)</f>
-        <v>21-8</v>
+        <f t="shared" ref="C199" si="28">CONCATENATE(A199,"-",B199)</f>
+        <v>21-7</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8048,7 +8078,7 @@
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
@@ -8059,16 +8089,16 @@
     </row>
     <row r="200" spans="1:13" ht="26.25">
       <c r="A200">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B200">
-        <f t="shared" si="23"/>
-        <v>9</v>
+        <f t="shared" si="27"/>
+        <v>8</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" ref="C200" si="28">CONCATENATE(A200,"-",B200)</f>
-        <v>21-9</v>
+        <f t="shared" ref="C200" si="29">CONCATENATE(A200,"-",B200)</f>
+        <v>21-8</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8080,7 +8110,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
@@ -8091,16 +8121,16 @@
     </row>
     <row r="201" spans="1:13" ht="26.25">
       <c r="A201">
-        <f>A200</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B201">
-        <f t="shared" si="23"/>
-        <v>10</v>
+        <f t="shared" si="27"/>
+        <v>9</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" ref="C201:C203" si="29">CONCATENATE(A201,"-",B201)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C201" si="30">CONCATENATE(A201,"-",B201)</f>
+        <v>21-9</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -8112,7 +8142,7 @@
         <v>15</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="10"/>
@@ -8127,12 +8157,12 @@
         <v>21</v>
       </c>
       <c r="B202">
-        <f t="shared" si="23"/>
-        <v>11</v>
+        <f t="shared" si="27"/>
+        <v>10</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" ref="C202" si="30">CONCATENATE(A202,"-",B202)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C202:C204" si="31">CONCATENATE(A202,"-",B202)</f>
+        <v>21-10</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -8144,7 +8174,7 @@
         <v>15</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="10"/>
@@ -8155,16 +8185,16 @@
     </row>
     <row r="203" spans="1:13" ht="26.25">
       <c r="A203">
-        <f>A201</f>
+        <f>A202</f>
         <v>21</v>
       </c>
       <c r="B203">
-        <f t="shared" si="23"/>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v>21-12</v>
+        <f t="shared" ref="C203" si="32">CONCATENATE(A203,"-",B203)</f>
+        <v>21-11</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -8176,7 +8206,7 @@
         <v>15</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J203" s="12"/>
       <c r="K203" s="10"/>
@@ -8187,16 +8217,16 @@
     </row>
     <row r="204" spans="1:13" ht="26.25">
       <c r="A204">
-        <f t="shared" si="25"/>
+        <f>A202</f>
         <v>21</v>
       </c>
       <c r="B204">
-        <f t="shared" si="23"/>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>12</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" ref="C204" si="31">CONCATENATE(A204,"-",B204)</f>
-        <v>21-13</v>
+        <f t="shared" si="31"/>
+        <v>21-12</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -8208,7 +8238,7 @@
         <v>15</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J204" s="12"/>
       <c r="K204" s="10"/>
@@ -8219,16 +8249,16 @@
     </row>
     <row r="205" spans="1:13" ht="26.25">
       <c r="A205">
-        <f>A203</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B205">
-        <f t="shared" si="23"/>
-        <v>14</v>
+        <f t="shared" si="27"/>
+        <v>13</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" ref="C205" si="32">CONCATENATE(A205,"-",B205)</f>
-        <v>21-14</v>
+        <f t="shared" ref="C205" si="33">CONCATENATE(A205,"-",B205)</f>
+        <v>21-13</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -8240,7 +8270,7 @@
         <v>15</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J205" s="12"/>
       <c r="K205" s="10"/>
@@ -8255,12 +8285,12 @@
         <v>21</v>
       </c>
       <c r="B206">
-        <f t="shared" si="23"/>
-        <v>15</v>
+        <f t="shared" si="27"/>
+        <v>14</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f t="shared" ref="C206" si="33">CONCATENATE(A206,"-",B206)</f>
-        <v>21-15</v>
+        <f t="shared" ref="C206" si="34">CONCATENATE(A206,"-",B206)</f>
+        <v>21-14</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -8272,7 +8302,7 @@
         <v>15</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J206" s="12"/>
       <c r="K206" s="10"/>
@@ -8287,12 +8317,12 @@
         <v>21</v>
       </c>
       <c r="B207">
-        <f t="shared" si="23"/>
-        <v>16</v>
+        <f t="shared" si="27"/>
+        <v>15</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f t="shared" ref="C207:C208" si="34">CONCATENATE(A207,"-",B207)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C207" si="35">CONCATENATE(A207,"-",B207)</f>
+        <v>21-15</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -8304,7 +8334,7 @@
         <v>15</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J207" s="12"/>
       <c r="K207" s="10"/>
@@ -8313,18 +8343,18 @@
       </c>
       <c r="M207" s="6"/>
     </row>
-    <row r="208" spans="1:13" ht="39">
+    <row r="208" spans="1:13" ht="26.25">
       <c r="A208">
-        <f t="shared" si="25"/>
+        <f>A206</f>
         <v>21</v>
       </c>
       <c r="B208">
-        <f t="shared" si="23"/>
-        <v>17</v>
+        <f t="shared" si="27"/>
+        <v>16</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f t="shared" si="34"/>
-        <v>21-17</v>
+        <f t="shared" ref="C208:C209" si="36">CONCATENATE(A208,"-",B208)</f>
+        <v>21-16</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -8336,7 +8366,7 @@
         <v>15</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J208" s="12"/>
       <c r="K208" s="10"/>
@@ -8347,15 +8377,16 @@
     </row>
     <row r="209" spans="1:13" ht="39">
       <c r="A209">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B209">
-        <v>18</v>
+        <f t="shared" si="27"/>
+        <v>17</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f t="shared" ref="C209" si="35">CONCATENATE(A209,"-",B209)</f>
-        <v>21-18</v>
+        <f t="shared" si="36"/>
+        <v>21-17</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -8367,7 +8398,7 @@
         <v>15</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J209" s="12"/>
       <c r="K209" s="10"/>
@@ -8376,18 +8407,17 @@
       </c>
       <c r="M209" s="6"/>
     </row>
-    <row r="210" spans="1:13" ht="26.25">
+    <row r="210" spans="1:13" ht="39">
       <c r="A210">
-        <f>A208</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B210">
-        <f t="shared" si="23"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" ref="C210:C212" si="36">CONCATENATE(A210,"-",B210)</f>
-        <v>21-19</v>
+        <f t="shared" ref="C210" si="37">CONCATENATE(A210,"-",B210)</f>
+        <v>21-18</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -8399,7 +8429,7 @@
         <v>15</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J210" s="12"/>
       <c r="K210" s="10"/>
@@ -8414,12 +8444,12 @@
         <v>21</v>
       </c>
       <c r="B211">
-        <f t="shared" si="23"/>
-        <v>20</v>
+        <f t="shared" si="27"/>
+        <v>19</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" ref="C211" si="37">CONCATENATE(A211,"-",B211)</f>
-        <v>21-20</v>
+        <f t="shared" ref="C211:C213" si="38">CONCATENATE(A211,"-",B211)</f>
+        <v>21-19</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -8431,7 +8461,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J211" s="12"/>
       <c r="K211" s="10"/>
@@ -8446,12 +8476,12 @@
         <v>21</v>
       </c>
       <c r="B212">
-        <f t="shared" si="23"/>
-        <v>21</v>
+        <f t="shared" si="27"/>
+        <v>20</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>21-21</v>
+        <f t="shared" ref="C212" si="39">CONCATENATE(A212,"-",B212)</f>
+        <v>21-20</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -8463,7 +8493,7 @@
         <v>15</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J212" s="12"/>
       <c r="K212" s="10"/>
@@ -8478,12 +8508,12 @@
         <v>21</v>
       </c>
       <c r="B213">
-        <f t="shared" si="23"/>
-        <v>22</v>
+        <f t="shared" si="27"/>
+        <v>21</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" ref="C213" si="38">CONCATENATE(A213,"-",B213)</f>
-        <v>21-22</v>
+        <f t="shared" si="38"/>
+        <v>21-21</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -8495,7 +8525,7 @@
         <v>15</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J213" s="12"/>
       <c r="K213" s="10"/>
@@ -8504,104 +8534,108 @@
       </c>
       <c r="M213" s="6"/>
     </row>
-    <row r="214" spans="1:13" ht="39">
+    <row r="214" spans="1:13" ht="26.25">
       <c r="A214">
         <f>A212</f>
         <v>21</v>
       </c>
       <c r="B214">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="C214" s="3" t="str">
+        <f t="shared" ref="C214" si="40">CONCATENATE(A214,"-",B214)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H214" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I214" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J214" s="12"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M214" s="6"/>
+    </row>
+    <row r="215" spans="1:13" ht="39">
+      <c r="A215">
+        <f>A213</f>
+        <v>21</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
-      <c r="C214" s="19" t="str">
-        <f t="shared" ref="C214" si="39">CONCATENATE(A214,"-",B214)</f>
+      <c r="C215" s="19" t="str">
+        <f t="shared" ref="C215" si="41">CONCATENATE(A215,"-",B215)</f>
         <v>21-23</v>
       </c>
-      <c r="D214" s="20"/>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="21" t="s">
+      <c r="D215" s="20"/>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H214" s="21" t="s">
+      <c r="H215" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I214" s="18" t="s">
+      <c r="I215" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="J214" s="18"/>
-      <c r="K214" s="21"/>
-      <c r="L214" s="18" t="s">
+      <c r="J215" s="18"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="M214" s="6"/>
-    </row>
-    <row r="215" spans="1:13" ht="26.25">
-      <c r="A215">
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="1:13" ht="26.25">
+      <c r="A216">
         <v>22</v>
       </c>
-      <c r="B215">
+      <c r="B216">
         <v>1</v>
       </c>
-      <c r="C215" s="22" t="str">
-        <f>CONCATENATE(A215,"-",B215)</f>
+      <c r="C216" s="22" t="str">
+        <f>CONCATENATE(A216,"-",B216)</f>
         <v>22-1</v>
-      </c>
-      <c r="D215" s="23"/>
-      <c r="E215" s="23"/>
-      <c r="F215" s="23"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I215" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J215" s="23"/>
-      <c r="K215" s="21"/>
-      <c r="L215" s="26"/>
-      <c r="M215" s="6"/>
-    </row>
-    <row r="216" spans="1:13" ht="39">
-      <c r="A216">
-        <f>A215</f>
-        <v>22</v>
-      </c>
-      <c r="B216">
-        <f>IF(A216=A215,B215+1,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C216" s="22" t="str">
-        <f t="shared" si="24"/>
-        <v>22-2</v>
       </c>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
       <c r="F216" s="23"/>
-      <c r="G216" s="23"/>
+      <c r="G216" s="24"/>
       <c r="H216" s="24" t="s">
         <v>249</v>
       </c>
       <c r="I216" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J216" s="23"/>
       <c r="K216" s="21"/>
       <c r="L216" s="26"/>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="1:13" ht="26.25">
+    <row r="217" spans="1:13" ht="39">
       <c r="A217">
+        <f>A216</f>
+        <v>22</v>
+      </c>
+      <c r="B217">
+        <f>IF(A217=A216,B216+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C217" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="B217">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C217" s="22" t="str">
-        <f t="shared" si="24"/>
-        <v>22-3</v>
+        <v>22-2</v>
       </c>
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
@@ -8611,25 +8645,25 @@
         <v>249</v>
       </c>
       <c r="I217" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J217" s="23"/>
       <c r="K217" s="21"/>
       <c r="L217" s="26"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="1:13" ht="15">
+    <row r="218" spans="1:13" ht="26.25">
       <c r="A218">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C218" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="B218">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C218" s="22" t="str">
-        <f t="shared" si="24"/>
-        <v>22-4</v>
+        <v>22-3</v>
       </c>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
@@ -8639,7 +8673,7 @@
         <v>249</v>
       </c>
       <c r="I218" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J218" s="23"/>
       <c r="K218" s="21"/>
@@ -8648,16 +8682,16 @@
     </row>
     <row r="219" spans="1:13" ht="15">
       <c r="A219">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C219" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="B219">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C219" s="22" t="str">
-        <f t="shared" si="24"/>
-        <v>22-5</v>
+        <v>22-4</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
@@ -8667,7 +8701,7 @@
         <v>249</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
@@ -8676,73 +8710,71 @@
     </row>
     <row r="220" spans="1:13" ht="15">
       <c r="A220">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C220" s="22" t="str">
         <f t="shared" si="25"/>
+        <v>22-5</v>
+      </c>
+      <c r="D220" s="23"/>
+      <c r="E220" s="23"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I220" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J220" s="23"/>
+      <c r="K220" s="21"/>
+      <c r="L220" s="26"/>
+      <c r="M220" s="6"/>
+    </row>
+    <row r="221" spans="1:13" ht="15">
+      <c r="A221">
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
-      <c r="B220">
-        <f t="shared" si="23"/>
+      <c r="B221">
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="C220" s="22" t="str">
-        <f t="shared" si="24"/>
+      <c r="C221" s="22" t="str">
+        <f t="shared" si="25"/>
         <v>22-6</v>
       </c>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
-      <c r="H220" s="27" t="s">
+      <c r="D221" s="36"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="36"/>
+      <c r="G221" s="36"/>
+      <c r="H221" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="I220" s="38" t="s">
+      <c r="I221" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="J220" s="37"/>
-      <c r="K220" s="21"/>
-      <c r="L220" s="39"/>
-      <c r="M220" s="6"/>
-    </row>
-    <row r="221" spans="1:13" ht="26.25">
-      <c r="A221">
-        <v>23</v>
-      </c>
-      <c r="B221">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="C221" s="36" t="str">
-        <f t="shared" si="24"/>
-        <v>23-1</v>
-      </c>
-      <c r="D221" s="23"/>
-      <c r="E221" s="23"/>
-      <c r="F221" s="23"/>
-      <c r="G221" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H221" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="I221" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="J221" s="23"/>
+      <c r="J221" s="36"/>
       <c r="K221" s="21"/>
-      <c r="L221" s="26"/>
+      <c r="L221" s="38"/>
       <c r="M221" s="6"/>
     </row>
     <row r="222" spans="1:13" ht="26.25">
       <c r="A222">
+        <v>23</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="C222" s="35" t="str">
         <f t="shared" si="25"/>
-        <v>23</v>
-      </c>
-      <c r="B222">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C222" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>23-2</v>
+        <v>23-1</v>
       </c>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
@@ -8754,7 +8786,7 @@
         <v>266</v>
       </c>
       <c r="I222" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J222" s="23"/>
       <c r="K222" s="21"/>
@@ -8763,16 +8795,16 @@
     </row>
     <row r="223" spans="1:13" ht="26.25">
       <c r="A223">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="C223" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23</v>
-      </c>
-      <c r="B223">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C223" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>23-3</v>
+        <v>23-2</v>
       </c>
       <c r="D223" s="23"/>
       <c r="E223" s="23"/>
@@ -8784,25 +8816,25 @@
         <v>266</v>
       </c>
       <c r="I223" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J223" s="23"/>
       <c r="K223" s="21"/>
       <c r="L223" s="26"/>
       <c r="M223" s="6"/>
     </row>
-    <row r="224" spans="1:13" ht="39">
+    <row r="224" spans="1:13" ht="26.25">
       <c r="A224">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="C224" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23</v>
-      </c>
-      <c r="B224">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="C224" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>23-4</v>
+        <v>23-3</v>
       </c>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
@@ -8814,25 +8846,25 @@
         <v>266</v>
       </c>
       <c r="I224" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J224" s="23"/>
       <c r="K224" s="21"/>
       <c r="L224" s="26"/>
       <c r="M224" s="6"/>
     </row>
-    <row r="225" spans="1:13" ht="15">
+    <row r="225" spans="1:13" ht="39">
       <c r="A225">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C225" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="C225" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>23-5</v>
+        <v>23-4</v>
       </c>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
@@ -8844,23 +8876,25 @@
         <v>266</v>
       </c>
       <c r="I225" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J225" s="23"/>
       <c r="K225" s="21"/>
       <c r="L225" s="26"/>
       <c r="M225" s="6"/>
     </row>
-    <row r="226" spans="1:13" ht="26.25">
+    <row r="226" spans="1:13" ht="15">
       <c r="A226">
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="B226">
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f t="shared" ref="C226" si="40">CONCATENATE(A226,"-",B226)</f>
-        <v>24-6</v>
+        <f t="shared" si="25"/>
+        <v>23-5</v>
       </c>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
@@ -8872,7 +8906,7 @@
         <v>266</v>
       </c>
       <c r="I226" s="25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J226" s="23"/>
       <c r="K226" s="21"/>
@@ -8881,15 +8915,14 @@
     </row>
     <row r="227" spans="1:13" ht="26.25">
       <c r="A227">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B227">
-        <f>IF(A227=A225,B225+1,1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v>25-1</v>
+        <f t="shared" ref="C227" si="42">CONCATENATE(A227,"-",B227)</f>
+        <v>24-6</v>
       </c>
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
@@ -8898,10 +8931,10 @@
         <v>63</v>
       </c>
       <c r="H227" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I227" s="25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J227" s="23"/>
       <c r="K227" s="21"/>
@@ -8910,16 +8943,15 @@
     </row>
     <row r="228" spans="1:13" ht="26.25">
       <c r="A228">
+        <v>25</v>
+      </c>
+      <c r="B228">
+        <f>IF(A228=A226,B226+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C228" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>25</v>
-      </c>
-      <c r="B228">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="C228" s="3" t="str">
-        <f t="shared" ref="C228" si="41">CONCATENATE(A228,"-",B228)</f>
-        <v>25-2</v>
+        <v>25-1</v>
       </c>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
@@ -8931,2414 +8963,2440 @@
         <v>272</v>
       </c>
       <c r="I228" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J228" s="23"/>
       <c r="K228" s="21"/>
       <c r="L228" s="26"/>
       <c r="M228" s="6"/>
     </row>
-    <row r="229" spans="1:13" ht="15">
+    <row r="229" spans="1:13" ht="26.25">
       <c r="A229">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B229">
-        <f t="shared" ref="B229:B292" si="42">IF(A229=A228,B228+1,1)</f>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" ref="C229:C292" si="43">CONCATENATE(A229,"-",B229)</f>
-        <v>25-3</v>
-      </c>
-      <c r="L229" s="6"/>
+        <f t="shared" ref="C229" si="43">CONCATENATE(A229,"-",B229)</f>
+        <v>25-2</v>
+      </c>
+      <c r="D229" s="23"/>
+      <c r="E229" s="23"/>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H229" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I229" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J229" s="23"/>
+      <c r="K229" s="21"/>
+      <c r="L229" s="26"/>
       <c r="M229" s="6"/>
     </row>
     <row r="230" spans="1:13" ht="15">
       <c r="A230">
-        <f t="shared" ref="A230:A293" si="44">A229</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B230">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <f t="shared" ref="B230:B293" si="44">IF(A230=A229,B229+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-4</v>
+        <f t="shared" ref="C230:C293" si="45">CONCATENATE(A230,"-",B230)</f>
+        <v>25-3</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
     </row>
     <row r="231" spans="1:13" ht="15">
       <c r="A231">
+        <f t="shared" ref="A231:A294" si="46">A230</f>
+        <v>25</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="C231" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-4</v>
+      </c>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+    </row>
+    <row r="232" spans="1:13" ht="15">
+      <c r="A232">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+      <c r="C232" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-5</v>
+      </c>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+    </row>
+    <row r="233" spans="1:13" ht="15">
+      <c r="A233">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="C233" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-6</v>
+      </c>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+    </row>
+    <row r="234" spans="1:13" ht="15">
+      <c r="A234">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="C234" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-7</v>
+      </c>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="1:13" ht="15">
+      <c r="A235">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="44"/>
+        <v>8</v>
+      </c>
+      <c r="C235" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-8</v>
+      </c>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="1:13" ht="15">
+      <c r="A236">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="44"/>
+        <v>9</v>
+      </c>
+      <c r="C236" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-9</v>
+      </c>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="1:13" ht="15">
+      <c r="A237">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="C237" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-10</v>
+      </c>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="1:13" ht="15">
+      <c r="A238">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="44"/>
+        <v>11</v>
+      </c>
+      <c r="C238" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-11</v>
+      </c>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="1:13" ht="15">
+      <c r="A239">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="44"/>
+        <v>12</v>
+      </c>
+      <c r="C239" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-12</v>
+      </c>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="1:13" ht="15">
+      <c r="A240">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="44"/>
+        <v>13</v>
+      </c>
+      <c r="C240" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-13</v>
+      </c>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="1:13" ht="15">
+      <c r="A241">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="44"/>
+        <v>14</v>
+      </c>
+      <c r="C241" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-14</v>
+      </c>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="1:13" ht="15">
+      <c r="A242">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="44"/>
+        <v>15</v>
+      </c>
+      <c r="C242" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-15</v>
+      </c>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="1:13" ht="15">
+      <c r="A243">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="44"/>
+        <v>16</v>
+      </c>
+      <c r="C243" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-16</v>
+      </c>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+    </row>
+    <row r="244" spans="1:13" ht="15">
+      <c r="A244">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="44"/>
+        <v>17</v>
+      </c>
+      <c r="C244" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-17</v>
+      </c>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+    </row>
+    <row r="245" spans="1:13" ht="15">
+      <c r="A245">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="44"/>
+        <v>18</v>
+      </c>
+      <c r="C245" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-18</v>
+      </c>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+    </row>
+    <row r="246" spans="1:13" ht="15">
+      <c r="A246">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="44"/>
+        <v>19</v>
+      </c>
+      <c r="C246" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-19</v>
+      </c>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+    </row>
+    <row r="247" spans="1:13" ht="15">
+      <c r="A247">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+      <c r="C247" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-20</v>
+      </c>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+    </row>
+    <row r="248" spans="1:13" ht="15">
+      <c r="A248">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
+      <c r="C248" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-21</v>
+      </c>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+    </row>
+    <row r="249" spans="1:13" ht="15">
+      <c r="A249">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="44"/>
+        <v>22</v>
+      </c>
+      <c r="C249" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-22</v>
+      </c>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+    </row>
+    <row r="250" spans="1:13" ht="15">
+      <c r="A250">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="44"/>
+        <v>23</v>
+      </c>
+      <c r="C250" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-23</v>
+      </c>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+    </row>
+    <row r="251" spans="1:13" ht="15">
+      <c r="A251">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="C251" s="3" t="str">
+        <f t="shared" si="45"/>
+        <v>25-24</v>
+      </c>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+    </row>
+    <row r="252" spans="1:13" ht="15">
+      <c r="A252">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B252">
         <f t="shared" si="44"/>
         <v>25</v>
       </c>
-      <c r="B231">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="C231" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-5</v>
-      </c>
-      <c r="L231" s="6"/>
-      <c r="M231" s="6"/>
-    </row>
-    <row r="232" spans="1:13" ht="15">
-      <c r="A232">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B232">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
-      <c r="C232" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-6</v>
-      </c>
-      <c r="L232" s="6"/>
-      <c r="M232" s="6"/>
-    </row>
-    <row r="233" spans="1:13" ht="15">
-      <c r="A233">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B233">
-        <f t="shared" si="42"/>
-        <v>7</v>
-      </c>
-      <c r="C233" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-7</v>
-      </c>
-      <c r="L233" s="6"/>
-      <c r="M233" s="6"/>
-    </row>
-    <row r="234" spans="1:13" ht="15">
-      <c r="A234">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B234">
-        <f t="shared" si="42"/>
-        <v>8</v>
-      </c>
-      <c r="C234" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-8</v>
-      </c>
-      <c r="L234" s="6"/>
-      <c r="M234" s="6"/>
-    </row>
-    <row r="235" spans="1:13" ht="15">
-      <c r="A235">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="42"/>
-        <v>9</v>
-      </c>
-      <c r="C235" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-9</v>
-      </c>
-      <c r="L235" s="6"/>
-      <c r="M235" s="6"/>
-    </row>
-    <row r="236" spans="1:13" ht="15">
-      <c r="A236">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="C236" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-10</v>
-      </c>
-      <c r="L236" s="6"/>
-      <c r="M236" s="6"/>
-    </row>
-    <row r="237" spans="1:13" ht="15">
-      <c r="A237">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="42"/>
-        <v>11</v>
-      </c>
-      <c r="C237" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-11</v>
-      </c>
-      <c r="L237" s="6"/>
-      <c r="M237" s="6"/>
-    </row>
-    <row r="238" spans="1:13" ht="15">
-      <c r="A238">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="42"/>
-        <v>12</v>
-      </c>
-      <c r="C238" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-12</v>
-      </c>
-      <c r="L238" s="6"/>
-      <c r="M238" s="6"/>
-    </row>
-    <row r="239" spans="1:13" ht="15">
-      <c r="A239">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="42"/>
-        <v>13</v>
-      </c>
-      <c r="C239" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-13</v>
-      </c>
-      <c r="L239" s="6"/>
-      <c r="M239" s="6"/>
-    </row>
-    <row r="240" spans="1:13" ht="15">
-      <c r="A240">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="42"/>
-        <v>14</v>
-      </c>
-      <c r="C240" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-14</v>
-      </c>
-      <c r="L240" s="6"/>
-      <c r="M240" s="6"/>
-    </row>
-    <row r="241" spans="1:13" ht="15">
-      <c r="A241">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="42"/>
-        <v>15</v>
-      </c>
-      <c r="C241" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-15</v>
-      </c>
-      <c r="L241" s="6"/>
-      <c r="M241" s="6"/>
-    </row>
-    <row r="242" spans="1:13" ht="15">
-      <c r="A242">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="42"/>
-        <v>16</v>
-      </c>
-      <c r="C242" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-16</v>
-      </c>
-      <c r="L242" s="6"/>
-      <c r="M242" s="6"/>
-    </row>
-    <row r="243" spans="1:13" ht="15">
-      <c r="A243">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="42"/>
-        <v>17</v>
-      </c>
-      <c r="C243" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-17</v>
-      </c>
-      <c r="L243" s="6"/>
-      <c r="M243" s="6"/>
-    </row>
-    <row r="244" spans="1:13" ht="15">
-      <c r="A244">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="42"/>
-        <v>18</v>
-      </c>
-      <c r="C244" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-18</v>
-      </c>
-      <c r="L244" s="6"/>
-      <c r="M244" s="6"/>
-    </row>
-    <row r="245" spans="1:13" ht="15">
-      <c r="A245">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="42"/>
-        <v>19</v>
-      </c>
-      <c r="C245" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-19</v>
-      </c>
-      <c r="L245" s="6"/>
-      <c r="M245" s="6"/>
-    </row>
-    <row r="246" spans="1:13" ht="15">
-      <c r="A246">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="42"/>
-        <v>20</v>
-      </c>
-      <c r="C246" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-20</v>
-      </c>
-      <c r="L246" s="6"/>
-      <c r="M246" s="6"/>
-    </row>
-    <row r="247" spans="1:13" ht="15">
-      <c r="A247">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="42"/>
-        <v>21</v>
-      </c>
-      <c r="C247" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-21</v>
-      </c>
-      <c r="L247" s="6"/>
-      <c r="M247" s="6"/>
-    </row>
-    <row r="248" spans="1:13" ht="15">
-      <c r="A248">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="42"/>
-        <v>22</v>
-      </c>
-      <c r="C248" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-22</v>
-      </c>
-      <c r="L248" s="6"/>
-      <c r="M248" s="6"/>
-    </row>
-    <row r="249" spans="1:13" ht="15">
-      <c r="A249">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="42"/>
-        <v>23</v>
-      </c>
-      <c r="C249" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-23</v>
-      </c>
-      <c r="L249" s="6"/>
-      <c r="M249" s="6"/>
-    </row>
-    <row r="250" spans="1:13" ht="15">
-      <c r="A250">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="42"/>
-        <v>24</v>
-      </c>
-      <c r="C250" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-24</v>
-      </c>
-      <c r="L250" s="6"/>
-      <c r="M250" s="6"/>
-    </row>
-    <row r="251" spans="1:13" ht="15">
-      <c r="A251">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="42"/>
-        <v>25</v>
-      </c>
-      <c r="C251" s="3" t="str">
-        <f t="shared" si="43"/>
+      <c r="C252" s="3" t="str">
+        <f t="shared" si="45"/>
         <v>25-25</v>
-      </c>
-      <c r="L251" s="6"/>
-      <c r="M251" s="6"/>
-    </row>
-    <row r="252" spans="1:13" ht="15">
-      <c r="A252">
-        <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="42"/>
-        <v>26</v>
-      </c>
-      <c r="C252" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-26</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B253">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="42"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-27</v>
+        <f t="shared" si="45"/>
+        <v>25-26</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B254">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="42"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-28</v>
+        <f t="shared" si="45"/>
+        <v>25-27</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B255">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="42"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-29</v>
+        <f t="shared" si="45"/>
+        <v>25-28</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B256">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="42"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-30</v>
+        <f t="shared" si="45"/>
+        <v>25-29</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B257">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="42"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-31</v>
+        <f t="shared" si="45"/>
+        <v>25-30</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B258">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B258">
-        <f t="shared" si="42"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-32</v>
+        <f t="shared" si="45"/>
+        <v>25-31</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B259">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="42"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-33</v>
+        <f t="shared" si="45"/>
+        <v>25-32</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B260">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="42"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-34</v>
+        <f t="shared" si="45"/>
+        <v>25-33</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B261">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="42"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-35</v>
+        <f t="shared" si="45"/>
+        <v>25-34</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B262">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="42"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-36</v>
+        <f t="shared" si="45"/>
+        <v>25-35</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B263">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="42"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-37</v>
+        <f t="shared" si="45"/>
+        <v>25-36</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B264">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="42"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-38</v>
+        <f t="shared" si="45"/>
+        <v>25-37</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B265">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="42"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-39</v>
+        <f t="shared" si="45"/>
+        <v>25-38</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B266">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="42"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-40</v>
+        <f t="shared" si="45"/>
+        <v>25-39</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B267">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B267">
-        <f t="shared" si="42"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-41</v>
+        <f t="shared" si="45"/>
+        <v>25-40</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B268">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="42"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-42</v>
+        <f t="shared" si="45"/>
+        <v>25-41</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B269">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="42"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-43</v>
+        <f t="shared" si="45"/>
+        <v>25-42</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B270">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="42"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-44</v>
+        <f t="shared" si="45"/>
+        <v>25-43</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B271">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="42"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-45</v>
+        <f t="shared" si="45"/>
+        <v>25-44</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B272">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="42"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-46</v>
+        <f t="shared" si="45"/>
+        <v>25-45</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B273">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="42"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-47</v>
+        <f t="shared" si="45"/>
+        <v>25-46</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B274">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="42"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-48</v>
+        <f t="shared" si="45"/>
+        <v>25-47</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B275">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="42"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-49</v>
+        <f t="shared" si="45"/>
+        <v>25-48</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B276">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="42"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-50</v>
+        <f t="shared" si="45"/>
+        <v>25-49</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B277">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="42"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-51</v>
+        <f t="shared" si="45"/>
+        <v>25-50</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B278">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="42"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-52</v>
+        <f t="shared" si="45"/>
+        <v>25-51</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B279">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="42"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-53</v>
+        <f t="shared" si="45"/>
+        <v>25-52</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B280">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="42"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-54</v>
+        <f t="shared" si="45"/>
+        <v>25-53</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B281">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="42"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-55</v>
+        <f t="shared" si="45"/>
+        <v>25-54</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B282">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="42"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-56</v>
+        <f t="shared" si="45"/>
+        <v>25-55</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B283">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="42"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-57</v>
+        <f t="shared" si="45"/>
+        <v>25-56</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B284">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="42"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-58</v>
+        <f t="shared" si="45"/>
+        <v>25-57</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B285">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B285">
-        <f t="shared" si="42"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-59</v>
+        <f t="shared" si="45"/>
+        <v>25-58</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B286">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B286">
-        <f t="shared" si="42"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-60</v>
+        <f t="shared" si="45"/>
+        <v>25-59</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B287">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="42"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-61</v>
+        <f t="shared" si="45"/>
+        <v>25-60</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B288">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="42"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-62</v>
+        <f t="shared" si="45"/>
+        <v>25-61</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B289">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="42"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-63</v>
+        <f t="shared" si="45"/>
+        <v>25-62</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B290">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="42"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-64</v>
+        <f t="shared" si="45"/>
+        <v>25-63</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B291">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="42"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-65</v>
+        <f t="shared" si="45"/>
+        <v>25-64</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B292">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="42"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="43"/>
-        <v>25-66</v>
+        <f t="shared" si="45"/>
+        <v>25-65</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
+        <f t="shared" si="46"/>
+        <v>25</v>
+      </c>
+      <c r="B293">
         <f t="shared" si="44"/>
-        <v>25</v>
-      </c>
-      <c r="B293">
-        <f t="shared" ref="B293:B356" si="45">IF(A293=A292,B292+1,1)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" ref="C293:C356" si="46">CONCATENATE(A293,"-",B293)</f>
-        <v>25-67</v>
+        <f t="shared" si="45"/>
+        <v>25-66</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" ref="A294:A357" si="47">A293</f>
+        <f t="shared" si="46"/>
         <v>25</v>
       </c>
       <c r="B294">
-        <f t="shared" si="45"/>
-        <v>68</v>
+        <f t="shared" ref="B294:B357" si="47">IF(A294=A293,B293+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-68</v>
+        <f t="shared" ref="C294:C357" si="48">CONCATENATE(A294,"-",B294)</f>
+        <v>25-67</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
+        <f t="shared" ref="A295:A358" si="49">A294</f>
+        <v>25</v>
+      </c>
+      <c r="B295">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B295">
-        <f t="shared" si="45"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-69</v>
+        <f t="shared" si="48"/>
+        <v>25-68</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B296">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B296">
-        <f t="shared" si="45"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-70</v>
+        <f t="shared" si="48"/>
+        <v>25-69</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B297">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B297">
-        <f t="shared" si="45"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-71</v>
+        <f t="shared" si="48"/>
+        <v>25-70</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B298">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B298">
-        <f t="shared" si="45"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-72</v>
+        <f t="shared" si="48"/>
+        <v>25-71</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B299">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B299">
-        <f t="shared" si="45"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-73</v>
+        <f t="shared" si="48"/>
+        <v>25-72</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B300">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B300">
-        <f t="shared" si="45"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-74</v>
+        <f t="shared" si="48"/>
+        <v>25-73</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B301">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B301">
-        <f t="shared" si="45"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-75</v>
+        <f t="shared" si="48"/>
+        <v>25-74</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B302">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="45"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-76</v>
+        <f t="shared" si="48"/>
+        <v>25-75</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B303">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="45"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-77</v>
+        <f t="shared" si="48"/>
+        <v>25-76</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B304">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="45"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-78</v>
+        <f t="shared" si="48"/>
+        <v>25-77</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B305">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B305">
-        <f t="shared" si="45"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-79</v>
+        <f t="shared" si="48"/>
+        <v>25-78</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B306">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B306">
-        <f t="shared" si="45"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-80</v>
+        <f t="shared" si="48"/>
+        <v>25-79</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B307">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B307">
-        <f t="shared" si="45"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-81</v>
+        <f t="shared" si="48"/>
+        <v>25-80</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B308">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B308">
-        <f t="shared" si="45"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-82</v>
+        <f t="shared" si="48"/>
+        <v>25-81</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B309">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B309">
-        <f t="shared" si="45"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-83</v>
+        <f t="shared" si="48"/>
+        <v>25-82</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B310">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B310">
-        <f t="shared" si="45"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-84</v>
+        <f t="shared" si="48"/>
+        <v>25-83</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B311">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B311">
-        <f t="shared" si="45"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-85</v>
+        <f t="shared" si="48"/>
+        <v>25-84</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B312">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B312">
-        <f t="shared" si="45"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-86</v>
+        <f t="shared" si="48"/>
+        <v>25-85</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B313">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B313">
-        <f t="shared" si="45"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-87</v>
+        <f t="shared" si="48"/>
+        <v>25-86</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B314">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B314">
-        <f t="shared" si="45"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-88</v>
+        <f t="shared" si="48"/>
+        <v>25-87</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B315">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B315">
-        <f t="shared" si="45"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-89</v>
+        <f t="shared" si="48"/>
+        <v>25-88</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B316">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B316">
-        <f t="shared" si="45"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-90</v>
+        <f t="shared" si="48"/>
+        <v>25-89</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B317">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B317">
-        <f t="shared" si="45"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-91</v>
+        <f t="shared" si="48"/>
+        <v>25-90</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B318">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B318">
-        <f t="shared" si="45"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-92</v>
+        <f t="shared" si="48"/>
+        <v>25-91</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B319">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B319">
-        <f t="shared" si="45"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-93</v>
+        <f t="shared" si="48"/>
+        <v>25-92</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B320">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B320">
-        <f t="shared" si="45"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-94</v>
+        <f t="shared" si="48"/>
+        <v>25-93</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B321">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B321">
-        <f t="shared" si="45"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-95</v>
+        <f t="shared" si="48"/>
+        <v>25-94</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B322">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B322">
-        <f t="shared" si="45"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-96</v>
+        <f t="shared" si="48"/>
+        <v>25-95</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B323">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B323">
-        <f t="shared" si="45"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-97</v>
+        <f t="shared" si="48"/>
+        <v>25-96</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B324">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B324">
-        <f t="shared" si="45"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-98</v>
+        <f t="shared" si="48"/>
+        <v>25-97</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B325">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B325">
-        <f t="shared" si="45"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-99</v>
+        <f t="shared" si="48"/>
+        <v>25-98</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B326">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="45"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-100</v>
+        <f t="shared" si="48"/>
+        <v>25-99</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B327">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B327">
-        <f t="shared" si="45"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-101</v>
+        <f t="shared" si="48"/>
+        <v>25-100</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B328">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B328">
-        <f t="shared" si="45"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-102</v>
+        <f t="shared" si="48"/>
+        <v>25-101</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B329">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B329">
-        <f t="shared" si="45"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-103</v>
+        <f t="shared" si="48"/>
+        <v>25-102</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B330">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B330">
-        <f t="shared" si="45"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-104</v>
+        <f t="shared" si="48"/>
+        <v>25-103</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B331">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B331">
-        <f t="shared" si="45"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-105</v>
+        <f t="shared" si="48"/>
+        <v>25-104</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B332">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B332">
-        <f t="shared" si="45"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-106</v>
+        <f t="shared" si="48"/>
+        <v>25-105</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B333">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="45"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-107</v>
+        <f t="shared" si="48"/>
+        <v>25-106</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B334">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B334">
-        <f t="shared" si="45"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-108</v>
+        <f t="shared" si="48"/>
+        <v>25-107</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B335">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B335">
-        <f t="shared" si="45"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-109</v>
+        <f t="shared" si="48"/>
+        <v>25-108</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B336">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B336">
-        <f t="shared" si="45"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-110</v>
+        <f t="shared" si="48"/>
+        <v>25-109</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B337">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B337">
-        <f t="shared" si="45"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-111</v>
+        <f t="shared" si="48"/>
+        <v>25-110</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B338">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B338">
-        <f t="shared" si="45"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-112</v>
+        <f t="shared" si="48"/>
+        <v>25-111</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B339">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B339">
-        <f t="shared" si="45"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-113</v>
+        <f t="shared" si="48"/>
+        <v>25-112</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B340">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B340">
-        <f t="shared" si="45"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-114</v>
+        <f t="shared" si="48"/>
+        <v>25-113</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B341">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B341">
-        <f t="shared" si="45"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-115</v>
+        <f t="shared" si="48"/>
+        <v>25-114</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B342">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B342">
-        <f t="shared" si="45"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-116</v>
+        <f t="shared" si="48"/>
+        <v>25-115</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B343">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="45"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-117</v>
+        <f t="shared" si="48"/>
+        <v>25-116</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B344">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B344">
-        <f t="shared" si="45"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-118</v>
+        <f t="shared" si="48"/>
+        <v>25-117</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B345">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B345">
-        <f t="shared" si="45"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-119</v>
+        <f t="shared" si="48"/>
+        <v>25-118</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B346">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="45"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-120</v>
+        <f t="shared" si="48"/>
+        <v>25-119</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B347">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="45"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-121</v>
+        <f t="shared" si="48"/>
+        <v>25-120</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B348">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B348">
-        <f t="shared" si="45"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-122</v>
+        <f t="shared" si="48"/>
+        <v>25-121</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B349">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B349">
-        <f t="shared" si="45"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-123</v>
+        <f t="shared" si="48"/>
+        <v>25-122</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B350">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B350">
-        <f t="shared" si="45"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-124</v>
+        <f t="shared" si="48"/>
+        <v>25-123</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B351">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B351">
-        <f t="shared" si="45"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-125</v>
+        <f t="shared" si="48"/>
+        <v>25-124</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B352">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B352">
-        <f t="shared" si="45"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-126</v>
+        <f t="shared" si="48"/>
+        <v>25-125</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B353">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B353">
-        <f t="shared" si="45"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-127</v>
+        <f t="shared" si="48"/>
+        <v>25-126</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B354">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B354">
-        <f t="shared" si="45"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-128</v>
+        <f t="shared" si="48"/>
+        <v>25-127</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B355">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B355">
-        <f t="shared" si="45"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-129</v>
+        <f t="shared" si="48"/>
+        <v>25-128</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B356">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B356">
-        <f t="shared" si="45"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="46"/>
-        <v>25-130</v>
+        <f t="shared" si="48"/>
+        <v>25-129</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
+        <f t="shared" si="49"/>
+        <v>25</v>
+      </c>
+      <c r="B357">
         <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="B357">
-        <f t="shared" ref="B357:B378" si="48">IF(A357=A356,B356+1,1)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" ref="C357:C378" si="49">CONCATENATE(A357,"-",B357)</f>
-        <v>25-131</v>
+        <f t="shared" si="48"/>
+        <v>25-130</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
-        <f t="shared" ref="A358:A378" si="50">A357</f>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B358">
-        <f t="shared" si="48"/>
-        <v>132</v>
+        <f t="shared" ref="B358:B379" si="50">IF(A358=A357,B357+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-132</v>
+        <f t="shared" ref="C358:C379" si="51">CONCATENATE(A358,"-",B358)</f>
+        <v>25-131</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
+        <f t="shared" ref="A359:A379" si="52">A358</f>
+        <v>25</v>
+      </c>
+      <c r="B359">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="48"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C359" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-133</v>
+        <f t="shared" si="51"/>
+        <v>25-132</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B360">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B360">
-        <f t="shared" si="48"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-134</v>
+        <f t="shared" si="51"/>
+        <v>25-133</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B361">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B361">
-        <f t="shared" si="48"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-135</v>
+        <f t="shared" si="51"/>
+        <v>25-134</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B362">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B362">
-        <f t="shared" si="48"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-136</v>
+        <f t="shared" si="51"/>
+        <v>25-135</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B363">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B363">
-        <f t="shared" si="48"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-137</v>
+        <f t="shared" si="51"/>
+        <v>25-136</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B364">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B364">
-        <f t="shared" si="48"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C364" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-138</v>
+        <f t="shared" si="51"/>
+        <v>25-137</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B365">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B365">
-        <f t="shared" si="48"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-139</v>
+        <f t="shared" si="51"/>
+        <v>25-138</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B366">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B366">
-        <f t="shared" si="48"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-140</v>
+        <f t="shared" si="51"/>
+        <v>25-139</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B367">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B367">
-        <f t="shared" si="48"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C367" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-141</v>
+        <f t="shared" si="51"/>
+        <v>25-140</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B368">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B368">
-        <f t="shared" si="48"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C368" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-142</v>
+        <f t="shared" si="51"/>
+        <v>25-141</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B369">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B369">
-        <f t="shared" si="48"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C369" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-143</v>
+        <f t="shared" si="51"/>
+        <v>25-142</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B370">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B370">
-        <f t="shared" si="48"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C370" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-144</v>
+        <f t="shared" si="51"/>
+        <v>25-143</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
     <row r="371" spans="1:13" ht="15">
       <c r="A371">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B371">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B371">
-        <f t="shared" si="48"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C371" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-145</v>
+        <f t="shared" si="51"/>
+        <v>25-144</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
     <row r="372" spans="1:13" ht="15">
       <c r="A372">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B372">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B372">
-        <f t="shared" si="48"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C372" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-146</v>
+        <f t="shared" si="51"/>
+        <v>25-145</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
     </row>
     <row r="373" spans="1:13" ht="15">
       <c r="A373">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B373">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B373">
-        <f t="shared" si="48"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C373" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-147</v>
+        <f t="shared" si="51"/>
+        <v>25-146</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
     </row>
     <row r="374" spans="1:13" ht="15">
       <c r="A374">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B374">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B374">
-        <f t="shared" si="48"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C374" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-148</v>
+        <f t="shared" si="51"/>
+        <v>25-147</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
     </row>
     <row r="375" spans="1:13" ht="15">
       <c r="A375">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B375">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B375">
-        <f t="shared" si="48"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C375" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-149</v>
+        <f t="shared" si="51"/>
+        <v>25-148</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
     </row>
     <row r="376" spans="1:13" ht="15">
       <c r="A376">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B376">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B376">
-        <f t="shared" si="48"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C376" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-150</v>
+        <f t="shared" si="51"/>
+        <v>25-149</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
     </row>
     <row r="377" spans="1:13" ht="15">
       <c r="A377">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B377">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B377">
-        <f t="shared" si="48"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C377" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-151</v>
+        <f t="shared" si="51"/>
+        <v>25-150</v>
       </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
     </row>
     <row r="378" spans="1:13" ht="15">
       <c r="A378">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B378">
         <f t="shared" si="50"/>
-        <v>25</v>
-      </c>
-      <c r="B378">
-        <f t="shared" si="48"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C378" s="3" t="str">
-        <f t="shared" si="49"/>
-        <v>25-152</v>
+        <f t="shared" si="51"/>
+        <v>25-151</v>
       </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
     </row>
-    <row r="379" spans="1:13" ht="12.75">
+    <row r="379" spans="1:13" ht="15">
+      <c r="A379">
+        <f t="shared" si="52"/>
+        <v>25</v>
+      </c>
+      <c r="B379">
+        <f t="shared" si="50"/>
+        <v>152</v>
+      </c>
+      <c r="C379" s="3" t="str">
+        <f t="shared" si="51"/>
+        <v>25-152</v>
+      </c>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
     </row>
@@ -14086,293 +14144,297 @@
       <c r="L1065" s="6"/>
       <c r="M1065" s="6"/>
     </row>
+    <row r="1066" spans="12:13" ht="12.75">
+      <c r="L1066" s="6"/>
+      <c r="M1066" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L186:L189"/>
+    <mergeCell ref="L187:L190"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K197">
+  <conditionalFormatting sqref="K2:K198">
     <cfRule type="containsBlanks" dxfId="56" priority="61">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K197">
+  <conditionalFormatting sqref="K2:K198">
     <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K197">
+  <conditionalFormatting sqref="K2:K198">
     <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
+  <conditionalFormatting sqref="K199">
     <cfRule type="containsBlanks" dxfId="53" priority="58">
-      <formula>LEN(TRIM(K198))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K198">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K198))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="50" priority="52">
       <formula>LEN(TRIM(K199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
+    <cfRule type="containsBlanks" dxfId="50" priority="52">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsBlanks" dxfId="44" priority="46">
+      <formula>LEN(TRIM(K202))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K202">
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsBlanks" dxfId="41" priority="43">
+      <formula>LEN(TRIM(K204))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsBlanks" dxfId="40" priority="40">
+      <formula>LEN(TRIM(K206))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsBlanks" dxfId="39" priority="37">
+      <formula>LEN(TRIM(K208))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsBlanks" dxfId="38" priority="34">
+      <formula>LEN(TRIM(K209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="containsBlanks" dxfId="37" priority="31">
+      <formula>LEN(TRIM(K211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsBlanks" dxfId="36" priority="28">
+      <formula>LEN(TRIM(K213))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K215:K226 K228:K229">
+    <cfRule type="containsBlanks" dxfId="35" priority="25">
+      <formula>LEN(TRIM(K215))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsBlanks" dxfId="34" priority="19">
+      <formula>LEN(TRIM(K205))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K204">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K207))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
       <formula>LEN(TRIM(K203))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
+      <formula>LEN(TRIM(K210))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsBlanks" dxfId="22" priority="7">
+      <formula>LEN(TRIM(K212))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K211))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K211))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
+      <formula>LEN(TRIM(K214))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K213))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K213))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K215:K226 K228:K229">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K215))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K215:K226 K228:K229">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K215))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="40" priority="40">
-      <formula>LEN(TRIM(K205))=0</formula>
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207">
-    <cfRule type="containsBlanks" dxfId="39" priority="37">
-      <formula>LEN(TRIM(K207))=0</formula>
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsBlanks" dxfId="38" priority="34">
-      <formula>LEN(TRIM(K208))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsBlanks" dxfId="37" priority="31">
-      <formula>LEN(TRIM(K210))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212">
-    <cfRule type="containsBlanks" dxfId="36" priority="28">
-      <formula>LEN(TRIM(K212))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K214:K225 K227:K228">
-    <cfRule type="containsBlanks" dxfId="35" priority="25">
-      <formula>LEN(TRIM(K214))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="34" priority="19">
-      <formula>LEN(TRIM(K204))=0</formula>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
-      <formula>LEN(TRIM(K206))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
-      <formula>LEN(TRIM(K202))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
-      <formula>LEN(TRIM(K209))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
-      <formula>LEN(TRIM(K211))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
-      <formula>LEN(TRIM(K213))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K214:K225 K227:K228">
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K214))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K214:K225 K227:K228">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K214))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
+  <conditionalFormatting sqref="K227">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(K227))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
+  <conditionalFormatting sqref="K227">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K227))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K211))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K211))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K213))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K213))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K226">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(K226))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K226">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K226))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K226">
+  <conditionalFormatting sqref="K227">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K226))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K227))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="294">
   <si>
     <t>Test Number</t>
   </si>
@@ -893,6 +893,12 @@
   </si>
   <si>
     <t>Create a new configuration. Click `save as`. Try adding spaces (start, middle and end of name) and special characters. Name should only support alpha-numeric characters and underscores. Error appears otherwise and config cannot be saved</t>
+  </si>
+  <si>
+    <t>Create a block. Right click on it in the blocks dashboard and select `Edit block`. Change the block. Click cancel. Verify the changes are not applied</t>
+  </si>
+  <si>
+    <t>Create a block. Right click on it in the blocks dashboard and select `Edit block`. Change the block. Click ok. Verify the changes are applied</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1167,8 +1173,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1190,11 +1194,184 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2290,11 +2467,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1066"/>
+  <dimension ref="A1:N1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6707,14 +6884,14 @@
         <f t="shared" si="21"/>
         <v>15-54</v>
       </c>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43" t="s">
+      <c r="D153" s="41"/>
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="I153" s="44" t="s">
+      <c r="I153" s="42" t="s">
         <v>158</v>
       </c>
       <c r="J153" s="8"/>
@@ -6735,17 +6912,17 @@
         <f t="shared" si="21"/>
         <v>15-55</v>
       </c>
-      <c r="D154" s="48"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="48" t="s">
+      <c r="D154" s="46"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="46"/>
+      <c r="H154" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I154" s="49" t="s">
+      <c r="I154" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="J154" s="42"/>
+      <c r="J154" s="40"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8"/>
       <c r="M154" s="6"/>
@@ -6763,17 +6940,17 @@
         <f t="shared" si="21"/>
         <v>15-56</v>
       </c>
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="48" t="s">
+      <c r="D155" s="46"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="46"/>
+      <c r="H155" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="I155" s="50" t="s">
+      <c r="I155" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="J155" s="42"/>
+      <c r="J155" s="40"/>
       <c r="K155" s="9"/>
       <c r="L155" s="8"/>
       <c r="M155" s="6"/>
@@ -6791,17 +6968,17 @@
         <f t="shared" ref="C156" si="24">CONCATENATE(A156,"-",B156)</f>
         <v>15-57</v>
       </c>
-      <c r="D156" s="48"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="48" t="s">
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="46"/>
+      <c r="H156" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="I156" s="50" t="s">
+      <c r="I156" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="J156" s="42"/>
+      <c r="J156" s="40"/>
       <c r="K156" s="9"/>
       <c r="L156" s="8"/>
       <c r="M156" s="6"/>
@@ -6815,52 +6992,52 @@
         <v>1</v>
       </c>
       <c r="C157" s="22" t="str">
-        <f t="shared" ref="C157:C228" si="25">CONCATENATE(A157,"-",B157)</f>
+        <f t="shared" ref="C157:C230" si="25">CONCATENATE(A157,"-",B157)</f>
         <v>16-1</v>
       </c>
-      <c r="D157" s="48"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="48" t="s">
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G157" s="48"/>
-      <c r="H157" s="48" t="s">
+      <c r="G157" s="46"/>
+      <c r="H157" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I157" s="49" t="s">
+      <c r="I157" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="J157" s="42"/>
+      <c r="J157" s="40"/>
       <c r="K157" s="7"/>
       <c r="L157" s="8"/>
       <c r="M157" s="6"/>
     </row>
     <row r="158" spans="1:13" ht="15">
       <c r="A158">
-        <f t="shared" ref="A158:A230" si="26">A157</f>
+        <f t="shared" ref="A158:A232" si="26">A157</f>
         <v>16</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B229" si="27">IF(A158=A157,B157+1,1)</f>
+        <f t="shared" ref="B158:B231" si="27">IF(A158=A157,B157+1,1)</f>
         <v>2</v>
       </c>
       <c r="C158" s="22" t="str">
         <f t="shared" si="25"/>
         <v>16-2</v>
       </c>
-      <c r="D158" s="48"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48" t="s">
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G158" s="48"/>
-      <c r="H158" s="48" t="s">
+      <c r="G158" s="46"/>
+      <c r="H158" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I158" s="49" t="s">
+      <c r="I158" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="J158" s="42"/>
+      <c r="J158" s="40"/>
       <c r="K158" s="7"/>
       <c r="L158" s="8"/>
       <c r="M158" s="6"/>
@@ -6878,19 +7055,19 @@
         <f t="shared" si="25"/>
         <v>16-3</v>
       </c>
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48" t="s">
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G159" s="48"/>
-      <c r="H159" s="48" t="s">
+      <c r="G159" s="46"/>
+      <c r="H159" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I159" s="49" t="s">
+      <c r="I159" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="J159" s="42"/>
+      <c r="J159" s="40"/>
       <c r="K159" s="7"/>
       <c r="L159" s="11"/>
     </row>
@@ -6907,19 +7084,19 @@
         <f t="shared" si="25"/>
         <v>16-4</v>
       </c>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48" t="s">
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G160" s="48"/>
-      <c r="H160" s="48" t="s">
+      <c r="G160" s="46"/>
+      <c r="H160" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I160" s="49" t="s">
+      <c r="I160" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="J160" s="42"/>
+      <c r="J160" s="40"/>
       <c r="K160" s="7"/>
       <c r="L160" s="8"/>
       <c r="M160" s="6"/>
@@ -6937,19 +7114,19 @@
         <f t="shared" si="25"/>
         <v>16-5</v>
       </c>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="48" t="s">
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H161" s="48" t="s">
+      <c r="H161" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I161" s="49" t="s">
+      <c r="I161" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="J161" s="42"/>
+      <c r="J161" s="40"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8"/>
       <c r="M161" s="6"/>
@@ -6967,19 +7144,19 @@
         <f t="shared" si="25"/>
         <v>16-6</v>
       </c>
-      <c r="D162" s="48"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="48" t="s">
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="H162" s="48" t="s">
+      <c r="H162" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="I162" s="49" t="s">
+      <c r="I162" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="J162" s="42"/>
+      <c r="J162" s="40"/>
       <c r="K162" s="7"/>
       <c r="L162" s="8"/>
       <c r="M162" s="6"/>
@@ -6993,20 +7170,20 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="C163" s="45" t="str">
+      <c r="C163" s="43" t="str">
         <f t="shared" si="25"/>
         <v>16-7</v>
       </c>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46" t="s">
+      <c r="D163" s="44"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="H163" s="46" t="s">
+      <c r="H163" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I163" s="47" t="s">
+      <c r="I163" s="45" t="s">
         <v>166</v>
       </c>
       <c r="J163" s="8"/>
@@ -7725,7 +7902,7 @@
       </c>
       <c r="J187" s="8"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="39"/>
+      <c r="L187" s="49"/>
     </row>
     <row r="188" spans="1:13" ht="30">
       <c r="A188">
@@ -7754,7 +7931,7 @@
       </c>
       <c r="J188" s="8"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="40"/>
+      <c r="L188" s="50"/>
       <c r="M188" s="6"/>
     </row>
     <row r="189" spans="1:13" ht="45">
@@ -7784,7 +7961,7 @@
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="7"/>
-      <c r="L189" s="40"/>
+      <c r="L189" s="50"/>
       <c r="M189" s="6"/>
     </row>
     <row r="190" spans="1:13" ht="30">
@@ -7814,7 +7991,7 @@
       </c>
       <c r="J190" s="8"/>
       <c r="K190" s="7"/>
-      <c r="L190" s="41"/>
+      <c r="L190" s="51"/>
       <c r="M190" s="6"/>
     </row>
     <row r="191" spans="1:13" ht="30">
@@ -8598,100 +8775,100 @@
       </c>
       <c r="M215" s="6"/>
     </row>
-    <row r="216" spans="1:13" ht="26.25">
+    <row r="216" spans="1:13" ht="51.75">
       <c r="A216">
-        <v>22</v>
+        <f t="shared" ref="A216:A217" si="42">A214</f>
+        <v>21</v>
       </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" s="22" t="str">
-        <f>CONCATENATE(A216,"-",B216)</f>
-        <v>22-1</v>
-      </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="23"/>
-      <c r="F216" s="23"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I216" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J216" s="23"/>
+        <f t="shared" ref="B216:B217" si="43">IF(A216=A215,B215+1,1)</f>
+        <v>24</v>
+      </c>
+      <c r="C216" s="19" t="str">
+        <f t="shared" ref="C216:C217" si="44">CONCATENATE(A216,"-",B216)</f>
+        <v>21-24</v>
+      </c>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I216" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="J216" s="39"/>
       <c r="K216" s="21"/>
-      <c r="L216" s="26"/>
+      <c r="L216" s="39"/>
       <c r="M216" s="6"/>
     </row>
     <row r="217" spans="1:13" ht="39">
       <c r="A217">
-        <f>A216</f>
-        <v>22</v>
+        <f t="shared" si="42"/>
+        <v>21</v>
       </c>
       <c r="B217">
-        <f>IF(A217=A216,B216+1,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C217" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>22-2</v>
-      </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="23"/>
-      <c r="H217" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I217" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="J217" s="23"/>
+        <f t="shared" si="43"/>
+        <v>25</v>
+      </c>
+      <c r="C217" s="19" t="str">
+        <f t="shared" si="44"/>
+        <v>21-25</v>
+      </c>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J217" s="39"/>
       <c r="K217" s="21"/>
-      <c r="L217" s="26"/>
+      <c r="L217" s="39"/>
       <c r="M217" s="6"/>
     </row>
     <row r="218" spans="1:13" ht="26.25">
       <c r="A218">
-        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="B218">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C218" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>22-3</v>
+        <f>CONCATENATE(A218,"-",B218)</f>
+        <v>22-1</v>
       </c>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
       <c r="F218" s="23"/>
-      <c r="G218" s="23"/>
+      <c r="G218" s="24"/>
       <c r="H218" s="24" t="s">
         <v>249</v>
       </c>
       <c r="I218" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J218" s="23"/>
       <c r="K218" s="21"/>
       <c r="L218" s="26"/>
       <c r="M218" s="6"/>
     </row>
-    <row r="219" spans="1:13" ht="15">
+    <row r="219" spans="1:13" ht="39">
       <c r="A219">
-        <f t="shared" si="26"/>
+        <f>A218</f>
         <v>22</v>
       </c>
       <c r="B219">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f>IF(A219=A218,B218+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C219" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-4</v>
+        <v>22-2</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
@@ -8701,25 +8878,25 @@
         <v>249</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
       <c r="L219" s="26"/>
       <c r="M219" s="6"/>
     </row>
-    <row r="220" spans="1:13" ht="15">
+    <row r="220" spans="1:13" ht="26.25">
       <c r="A220">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="B220">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C220" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-5</v>
+        <v>22-3</v>
       </c>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
@@ -8729,7 +8906,7 @@
         <v>249</v>
       </c>
       <c r="I220" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J220" s="23"/>
       <c r="K220" s="21"/>
@@ -8743,98 +8920,94 @@
       </c>
       <c r="B221">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C221" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-6</v>
-      </c>
-      <c r="D221" s="36"/>
-      <c r="E221" s="36"/>
-      <c r="F221" s="36"/>
-      <c r="G221" s="36"/>
-      <c r="H221" s="27" t="s">
+        <v>22-4</v>
+      </c>
+      <c r="D221" s="23"/>
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I221" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="J221" s="36"/>
+      <c r="I221" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="J221" s="23"/>
       <c r="K221" s="21"/>
-      <c r="L221" s="38"/>
+      <c r="L221" s="26"/>
       <c r="M221" s="6"/>
     </row>
-    <row r="222" spans="1:13" ht="26.25">
+    <row r="222" spans="1:13" ht="15">
       <c r="A222">
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="B222">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="C222" s="35" t="str">
+        <v>5</v>
+      </c>
+      <c r="C222" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>23-1</v>
+        <v>22-5</v>
       </c>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
       <c r="F222" s="23"/>
-      <c r="G222" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="G222" s="23"/>
       <c r="H222" s="24" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I222" s="25" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="J222" s="23"/>
       <c r="K222" s="21"/>
       <c r="L222" s="26"/>
       <c r="M222" s="6"/>
     </row>
-    <row r="223" spans="1:13" ht="26.25">
+    <row r="223" spans="1:13" ht="15">
       <c r="A223">
         <f t="shared" si="26"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B223">
         <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="C223" s="3" t="str">
+        <v>6</v>
+      </c>
+      <c r="C223" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>23-2</v>
-      </c>
-      <c r="D223" s="23"/>
-      <c r="E223" s="23"/>
-      <c r="F223" s="23"/>
-      <c r="G223" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H223" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="I223" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="J223" s="23"/>
+        <v>22-6</v>
+      </c>
+      <c r="D223" s="36"/>
+      <c r="E223" s="36"/>
+      <c r="F223" s="36"/>
+      <c r="G223" s="36"/>
+      <c r="H223" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I223" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J223" s="36"/>
       <c r="K223" s="21"/>
-      <c r="L223" s="26"/>
+      <c r="L223" s="38"/>
       <c r="M223" s="6"/>
     </row>
     <row r="224" spans="1:13" ht="26.25">
       <c r="A224">
-        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B224">
         <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="C224" s="3" t="str">
+        <v>1</v>
+      </c>
+      <c r="C224" s="35" t="str">
         <f t="shared" si="25"/>
-        <v>23-3</v>
+        <v>23-1</v>
       </c>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
@@ -8846,25 +9019,25 @@
         <v>266</v>
       </c>
       <c r="I224" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J224" s="23"/>
       <c r="K224" s="21"/>
       <c r="L224" s="26"/>
       <c r="M224" s="6"/>
     </row>
-    <row r="225" spans="1:13" ht="39">
+    <row r="225" spans="1:13" ht="26.25">
       <c r="A225">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B225">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C225" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23-4</v>
+        <v>23-2</v>
       </c>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
@@ -8876,25 +9049,25 @@
         <v>266</v>
       </c>
       <c r="I225" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J225" s="23"/>
       <c r="K225" s="21"/>
       <c r="L225" s="26"/>
       <c r="M225" s="6"/>
     </row>
-    <row r="226" spans="1:13" ht="15">
+    <row r="226" spans="1:13" ht="26.25">
       <c r="A226">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B226">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23-5</v>
+        <v>23-3</v>
       </c>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
@@ -8906,23 +9079,25 @@
         <v>266</v>
       </c>
       <c r="I226" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J226" s="23"/>
       <c r="K226" s="21"/>
       <c r="L226" s="26"/>
       <c r="M226" s="6"/>
     </row>
-    <row r="227" spans="1:13" ht="26.25">
+    <row r="227" spans="1:13" ht="39">
       <c r="A227">
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="B227">
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>4</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f t="shared" ref="C227" si="42">CONCATENATE(A227,"-",B227)</f>
-        <v>24-6</v>
+        <f t="shared" si="25"/>
+        <v>23-4</v>
       </c>
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
@@ -8934,24 +9109,25 @@
         <v>266</v>
       </c>
       <c r="I227" s="25" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J227" s="23"/>
       <c r="K227" s="21"/>
       <c r="L227" s="26"/>
       <c r="M227" s="6"/>
     </row>
-    <row r="228" spans="1:13" ht="26.25">
+    <row r="228" spans="1:13" ht="15">
       <c r="A228">
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="B228">
-        <f>IF(A228=A226,B226+1,1)</f>
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C228" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>25-1</v>
+        <v>23-5</v>
       </c>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
@@ -8960,10 +9136,10 @@
         <v>63</v>
       </c>
       <c r="H228" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I228" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J228" s="23"/>
       <c r="K228" s="21"/>
@@ -8972,16 +9148,14 @@
     </row>
     <row r="229" spans="1:13" ht="26.25">
       <c r="A229">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B229">
-        <f t="shared" si="27"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" ref="C229" si="43">CONCATENATE(A229,"-",B229)</f>
-        <v>25-2</v>
+        <f t="shared" ref="C229" si="45">CONCATENATE(A229,"-",B229)</f>
+        <v>24-6</v>
       </c>
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
@@ -8990,1068 +9164,1095 @@
         <v>63</v>
       </c>
       <c r="H229" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I229" s="25" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J229" s="23"/>
       <c r="K229" s="21"/>
       <c r="L229" s="26"/>
       <c r="M229" s="6"/>
     </row>
-    <row r="230" spans="1:13" ht="15">
+    <row r="230" spans="1:13" ht="26.25">
       <c r="A230">
+        <v>25</v>
+      </c>
+      <c r="B230">
+        <f>IF(A230=A228,B228+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C230" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>25-1</v>
+      </c>
+      <c r="D230" s="23"/>
+      <c r="E230" s="23"/>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H230" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I230" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J230" s="23"/>
+      <c r="K230" s="21"/>
+      <c r="L230" s="26"/>
+      <c r="M230" s="6"/>
+    </row>
+    <row r="231" spans="1:13" ht="26.25">
+      <c r="A231">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="B230">
-        <f t="shared" ref="B230:B293" si="44">IF(A230=A229,B229+1,1)</f>
-        <v>3</v>
-      </c>
-      <c r="C230" s="3" t="str">
-        <f t="shared" ref="C230:C293" si="45">CONCATENATE(A230,"-",B230)</f>
-        <v>25-3</v>
-      </c>
-      <c r="L230" s="6"/>
-      <c r="M230" s="6"/>
-    </row>
-    <row r="231" spans="1:13" ht="15">
-      <c r="A231">
-        <f t="shared" ref="A231:A294" si="46">A230</f>
-        <v>25</v>
-      </c>
       <c r="B231">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-4</v>
-      </c>
-      <c r="L231" s="6"/>
+        <f t="shared" ref="C231" si="46">CONCATENATE(A231,"-",B231)</f>
+        <v>25-2</v>
+      </c>
+      <c r="D231" s="23"/>
+      <c r="E231" s="23"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H231" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I231" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J231" s="23"/>
+      <c r="K231" s="21"/>
+      <c r="L231" s="26"/>
       <c r="M231" s="6"/>
     </row>
     <row r="232" spans="1:13" ht="15">
       <c r="A232">
-        <f t="shared" si="46"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B232">
-        <f t="shared" si="44"/>
-        <v>5</v>
+        <f t="shared" ref="B232:B295" si="47">IF(A232=A231,B231+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-5</v>
+        <f t="shared" ref="C232:C295" si="48">CONCATENATE(A232,"-",B232)</f>
+        <v>25-3</v>
       </c>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="A233:A296" si="49">A232</f>
         <v>25</v>
       </c>
       <c r="B233">
-        <f t="shared" si="44"/>
-        <v>6</v>
+        <f t="shared" si="47"/>
+        <v>4</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-6</v>
+        <f t="shared" si="48"/>
+        <v>25-4</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B234">
-        <f t="shared" si="44"/>
-        <v>7</v>
+        <f t="shared" si="47"/>
+        <v>5</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-7</v>
+        <f t="shared" si="48"/>
+        <v>25-5</v>
       </c>
       <c r="L234" s="6"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B235">
-        <f t="shared" si="44"/>
-        <v>8</v>
+        <f t="shared" si="47"/>
+        <v>6</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-8</v>
+        <f t="shared" si="48"/>
+        <v>25-6</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
     </row>
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B236">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="47"/>
+        <v>7</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-9</v>
+        <f t="shared" si="48"/>
+        <v>25-7</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
     </row>
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B237">
-        <f t="shared" si="44"/>
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>8</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-10</v>
+        <f t="shared" si="48"/>
+        <v>25-8</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
     </row>
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B238">
-        <f t="shared" si="44"/>
-        <v>11</v>
+        <f t="shared" si="47"/>
+        <v>9</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-11</v>
+        <f t="shared" si="48"/>
+        <v>25-9</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
     </row>
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B239">
-        <f t="shared" si="44"/>
-        <v>12</v>
+        <f t="shared" si="47"/>
+        <v>10</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-12</v>
+        <f t="shared" si="48"/>
+        <v>25-10</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
     </row>
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B240">
-        <f t="shared" si="44"/>
-        <v>13</v>
+        <f t="shared" si="47"/>
+        <v>11</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-13</v>
+        <f t="shared" si="48"/>
+        <v>25-11</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
     </row>
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B241">
-        <f t="shared" si="44"/>
-        <v>14</v>
+        <f t="shared" si="47"/>
+        <v>12</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-14</v>
+        <f t="shared" si="48"/>
+        <v>25-12</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
     </row>
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B242">
-        <f t="shared" si="44"/>
-        <v>15</v>
+        <f t="shared" si="47"/>
+        <v>13</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-15</v>
+        <f t="shared" si="48"/>
+        <v>25-13</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
     </row>
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B243">
-        <f t="shared" si="44"/>
-        <v>16</v>
+        <f t="shared" si="47"/>
+        <v>14</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-16</v>
+        <f t="shared" si="48"/>
+        <v>25-14</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
     </row>
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B244">
-        <f t="shared" si="44"/>
-        <v>17</v>
+        <f t="shared" si="47"/>
+        <v>15</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-17</v>
+        <f t="shared" si="48"/>
+        <v>25-15</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
     </row>
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B245">
-        <f t="shared" si="44"/>
-        <v>18</v>
+        <f t="shared" si="47"/>
+        <v>16</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-18</v>
+        <f t="shared" si="48"/>
+        <v>25-16</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
     </row>
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B246">
-        <f t="shared" si="44"/>
-        <v>19</v>
+        <f t="shared" si="47"/>
+        <v>17</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-19</v>
+        <f t="shared" si="48"/>
+        <v>25-17</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
     </row>
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B247">
-        <f t="shared" si="44"/>
-        <v>20</v>
+        <f t="shared" si="47"/>
+        <v>18</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-20</v>
+        <f t="shared" si="48"/>
+        <v>25-18</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
     </row>
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B248">
-        <f t="shared" si="44"/>
-        <v>21</v>
+        <f t="shared" si="47"/>
+        <v>19</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-21</v>
+        <f t="shared" si="48"/>
+        <v>25-19</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
     </row>
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B249">
-        <f t="shared" si="44"/>
-        <v>22</v>
+        <f t="shared" si="47"/>
+        <v>20</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-22</v>
+        <f t="shared" si="48"/>
+        <v>25-20</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
     </row>
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B250">
-        <f t="shared" si="44"/>
-        <v>23</v>
+        <f t="shared" si="47"/>
+        <v>21</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-23</v>
+        <f t="shared" si="48"/>
+        <v>25-21</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
     </row>
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B251">
-        <f t="shared" si="44"/>
-        <v>24</v>
+        <f t="shared" si="47"/>
+        <v>22</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-24</v>
+        <f t="shared" si="48"/>
+        <v>25-22</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
     </row>
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B252">
-        <f t="shared" si="44"/>
-        <v>25</v>
+        <f t="shared" si="47"/>
+        <v>23</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-25</v>
+        <f t="shared" si="48"/>
+        <v>25-23</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B253">
-        <f t="shared" si="44"/>
-        <v>26</v>
+        <f t="shared" si="47"/>
+        <v>24</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-26</v>
+        <f t="shared" si="48"/>
+        <v>25-24</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
     </row>
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B254">
-        <f t="shared" si="44"/>
-        <v>27</v>
+        <f t="shared" si="47"/>
+        <v>25</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-27</v>
+        <f t="shared" si="48"/>
+        <v>25-25</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B255">
-        <f t="shared" si="44"/>
-        <v>28</v>
+        <f t="shared" si="47"/>
+        <v>26</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-28</v>
+        <f t="shared" si="48"/>
+        <v>25-26</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B256">
-        <f t="shared" si="44"/>
-        <v>29</v>
+        <f t="shared" si="47"/>
+        <v>27</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-29</v>
+        <f t="shared" si="48"/>
+        <v>25-27</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B257">
-        <f t="shared" si="44"/>
-        <v>30</v>
+        <f t="shared" si="47"/>
+        <v>28</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-30</v>
+        <f t="shared" si="48"/>
+        <v>25-28</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B258">
-        <f t="shared" si="44"/>
-        <v>31</v>
+        <f t="shared" si="47"/>
+        <v>29</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-31</v>
+        <f t="shared" si="48"/>
+        <v>25-29</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B259">
-        <f t="shared" si="44"/>
-        <v>32</v>
+        <f t="shared" si="47"/>
+        <v>30</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-32</v>
+        <f t="shared" si="48"/>
+        <v>25-30</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B260">
-        <f t="shared" si="44"/>
-        <v>33</v>
+        <f t="shared" si="47"/>
+        <v>31</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-33</v>
+        <f t="shared" si="48"/>
+        <v>25-31</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B261">
-        <f t="shared" si="44"/>
-        <v>34</v>
+        <f t="shared" si="47"/>
+        <v>32</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-34</v>
+        <f t="shared" si="48"/>
+        <v>25-32</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B262">
-        <f t="shared" si="44"/>
-        <v>35</v>
+        <f t="shared" si="47"/>
+        <v>33</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-35</v>
+        <f t="shared" si="48"/>
+        <v>25-33</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B263">
-        <f t="shared" si="44"/>
-        <v>36</v>
+        <f t="shared" si="47"/>
+        <v>34</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-36</v>
+        <f t="shared" si="48"/>
+        <v>25-34</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B264">
-        <f t="shared" si="44"/>
-        <v>37</v>
+        <f t="shared" si="47"/>
+        <v>35</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-37</v>
+        <f t="shared" si="48"/>
+        <v>25-35</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B265">
-        <f t="shared" si="44"/>
-        <v>38</v>
+        <f t="shared" si="47"/>
+        <v>36</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-38</v>
+        <f t="shared" si="48"/>
+        <v>25-36</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B266">
-        <f t="shared" si="44"/>
-        <v>39</v>
+        <f t="shared" si="47"/>
+        <v>37</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-39</v>
+        <f t="shared" si="48"/>
+        <v>25-37</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B267">
-        <f t="shared" si="44"/>
-        <v>40</v>
+        <f t="shared" si="47"/>
+        <v>38</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-40</v>
+        <f t="shared" si="48"/>
+        <v>25-38</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B268">
-        <f t="shared" si="44"/>
-        <v>41</v>
+        <f t="shared" si="47"/>
+        <v>39</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-41</v>
+        <f t="shared" si="48"/>
+        <v>25-39</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B269">
-        <f t="shared" si="44"/>
-        <v>42</v>
+        <f t="shared" si="47"/>
+        <v>40</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-42</v>
+        <f t="shared" si="48"/>
+        <v>25-40</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B270">
-        <f t="shared" si="44"/>
-        <v>43</v>
+        <f t="shared" si="47"/>
+        <v>41</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-43</v>
+        <f t="shared" si="48"/>
+        <v>25-41</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" si="44"/>
-        <v>44</v>
+        <f t="shared" si="47"/>
+        <v>42</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-44</v>
+        <f t="shared" si="48"/>
+        <v>25-42</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B272">
-        <f t="shared" si="44"/>
-        <v>45</v>
+        <f t="shared" si="47"/>
+        <v>43</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-45</v>
+        <f t="shared" si="48"/>
+        <v>25-43</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B273">
-        <f t="shared" si="44"/>
-        <v>46</v>
+        <f t="shared" si="47"/>
+        <v>44</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-46</v>
+        <f t="shared" si="48"/>
+        <v>25-44</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B274">
-        <f t="shared" si="44"/>
-        <v>47</v>
+        <f t="shared" si="47"/>
+        <v>45</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-47</v>
+        <f t="shared" si="48"/>
+        <v>25-45</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B275">
-        <f t="shared" si="44"/>
-        <v>48</v>
+        <f t="shared" si="47"/>
+        <v>46</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-48</v>
+        <f t="shared" si="48"/>
+        <v>25-46</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B276">
-        <f t="shared" si="44"/>
-        <v>49</v>
+        <f t="shared" si="47"/>
+        <v>47</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-49</v>
+        <f t="shared" si="48"/>
+        <v>25-47</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B277">
-        <f t="shared" si="44"/>
-        <v>50</v>
+        <f t="shared" si="47"/>
+        <v>48</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-50</v>
+        <f t="shared" si="48"/>
+        <v>25-48</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B278">
-        <f t="shared" si="44"/>
-        <v>51</v>
+        <f t="shared" si="47"/>
+        <v>49</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-51</v>
+        <f t="shared" si="48"/>
+        <v>25-49</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B279">
-        <f t="shared" si="44"/>
-        <v>52</v>
+        <f t="shared" si="47"/>
+        <v>50</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-52</v>
+        <f t="shared" si="48"/>
+        <v>25-50</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B280">
-        <f t="shared" si="44"/>
-        <v>53</v>
+        <f t="shared" si="47"/>
+        <v>51</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-53</v>
+        <f t="shared" si="48"/>
+        <v>25-51</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B281">
-        <f t="shared" si="44"/>
-        <v>54</v>
+        <f t="shared" si="47"/>
+        <v>52</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-54</v>
+        <f t="shared" si="48"/>
+        <v>25-52</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B282">
-        <f t="shared" si="44"/>
-        <v>55</v>
+        <f t="shared" si="47"/>
+        <v>53</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-55</v>
+        <f t="shared" si="48"/>
+        <v>25-53</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B283">
-        <f t="shared" si="44"/>
-        <v>56</v>
+        <f t="shared" si="47"/>
+        <v>54</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-56</v>
+        <f t="shared" si="48"/>
+        <v>25-54</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B284">
-        <f t="shared" si="44"/>
-        <v>57</v>
+        <f t="shared" si="47"/>
+        <v>55</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-57</v>
+        <f t="shared" si="48"/>
+        <v>25-55</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B285">
-        <f t="shared" si="44"/>
-        <v>58</v>
+        <f t="shared" si="47"/>
+        <v>56</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-58</v>
+        <f t="shared" si="48"/>
+        <v>25-56</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B286">
-        <f t="shared" si="44"/>
-        <v>59</v>
+        <f t="shared" si="47"/>
+        <v>57</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-59</v>
+        <f t="shared" si="48"/>
+        <v>25-57</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B287">
-        <f t="shared" si="44"/>
-        <v>60</v>
+        <f t="shared" si="47"/>
+        <v>58</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-60</v>
+        <f t="shared" si="48"/>
+        <v>25-58</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B288">
-        <f t="shared" si="44"/>
-        <v>61</v>
+        <f t="shared" si="47"/>
+        <v>59</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-61</v>
+        <f t="shared" si="48"/>
+        <v>25-59</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B289">
-        <f t="shared" si="44"/>
-        <v>62</v>
+        <f t="shared" si="47"/>
+        <v>60</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-62</v>
+        <f t="shared" si="48"/>
+        <v>25-60</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B290">
-        <f t="shared" si="44"/>
-        <v>63</v>
+        <f t="shared" si="47"/>
+        <v>61</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-63</v>
+        <f t="shared" si="48"/>
+        <v>25-61</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B291">
-        <f t="shared" si="44"/>
-        <v>64</v>
+        <f t="shared" si="47"/>
+        <v>62</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-64</v>
+        <f t="shared" si="48"/>
+        <v>25-62</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B292">
-        <f t="shared" si="44"/>
-        <v>65</v>
+        <f t="shared" si="47"/>
+        <v>63</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-65</v>
+        <f t="shared" si="48"/>
+        <v>25-63</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B293">
-        <f t="shared" si="44"/>
-        <v>66</v>
+        <f t="shared" si="47"/>
+        <v>64</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="45"/>
-        <v>25-66</v>
+        <f t="shared" si="48"/>
+        <v>25-64</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B294">
-        <f t="shared" ref="B294:B357" si="47">IF(A294=A293,B293+1,1)</f>
-        <v>67</v>
+        <f t="shared" si="47"/>
+        <v>65</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" ref="C294:C357" si="48">CONCATENATE(A294,"-",B294)</f>
-        <v>25-67</v>
+        <f t="shared" si="48"/>
+        <v>25-65</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
-        <f t="shared" ref="A295:A358" si="49">A294</f>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="B295">
         <f t="shared" si="47"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C295" s="3" t="str">
         <f t="shared" si="48"/>
-        <v>25-68</v>
+        <v>25-66</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -10062,1020 +10263,1020 @@
         <v>25</v>
       </c>
       <c r="B296">
-        <f t="shared" si="47"/>
-        <v>69</v>
+        <f t="shared" ref="B296:B359" si="50">IF(A296=A295,B295+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-69</v>
+        <f t="shared" ref="C296:C359" si="51">CONCATENATE(A296,"-",B296)</f>
+        <v>25-67</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="A297:A360" si="52">A296</f>
         <v>25</v>
       </c>
       <c r="B297">
-        <f t="shared" si="47"/>
-        <v>70</v>
+        <f t="shared" si="50"/>
+        <v>68</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-70</v>
+        <f t="shared" si="51"/>
+        <v>25-68</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B298">
-        <f t="shared" si="47"/>
-        <v>71</v>
+        <f t="shared" si="50"/>
+        <v>69</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-71</v>
+        <f t="shared" si="51"/>
+        <v>25-69</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B299">
-        <f t="shared" si="47"/>
-        <v>72</v>
+        <f t="shared" si="50"/>
+        <v>70</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-72</v>
+        <f t="shared" si="51"/>
+        <v>25-70</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B300">
-        <f t="shared" si="47"/>
-        <v>73</v>
+        <f t="shared" si="50"/>
+        <v>71</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-73</v>
+        <f t="shared" si="51"/>
+        <v>25-71</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B301">
-        <f t="shared" si="47"/>
-        <v>74</v>
+        <f t="shared" si="50"/>
+        <v>72</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-74</v>
+        <f t="shared" si="51"/>
+        <v>25-72</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B302">
-        <f t="shared" si="47"/>
-        <v>75</v>
+        <f t="shared" si="50"/>
+        <v>73</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-75</v>
+        <f t="shared" si="51"/>
+        <v>25-73</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B303">
-        <f t="shared" si="47"/>
-        <v>76</v>
+        <f t="shared" si="50"/>
+        <v>74</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-76</v>
+        <f t="shared" si="51"/>
+        <v>25-74</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B304">
-        <f t="shared" si="47"/>
-        <v>77</v>
+        <f t="shared" si="50"/>
+        <v>75</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-77</v>
+        <f t="shared" si="51"/>
+        <v>25-75</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B305">
-        <f t="shared" si="47"/>
-        <v>78</v>
+        <f t="shared" si="50"/>
+        <v>76</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-78</v>
+        <f t="shared" si="51"/>
+        <v>25-76</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B306">
-        <f t="shared" si="47"/>
-        <v>79</v>
+        <f t="shared" si="50"/>
+        <v>77</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-79</v>
+        <f t="shared" si="51"/>
+        <v>25-77</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B307">
-        <f t="shared" si="47"/>
-        <v>80</v>
+        <f t="shared" si="50"/>
+        <v>78</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-80</v>
+        <f t="shared" si="51"/>
+        <v>25-78</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B308">
-        <f t="shared" si="47"/>
-        <v>81</v>
+        <f t="shared" si="50"/>
+        <v>79</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-81</v>
+        <f t="shared" si="51"/>
+        <v>25-79</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B309">
-        <f t="shared" si="47"/>
-        <v>82</v>
+        <f t="shared" si="50"/>
+        <v>80</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-82</v>
+        <f t="shared" si="51"/>
+        <v>25-80</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B310">
-        <f t="shared" si="47"/>
-        <v>83</v>
+        <f t="shared" si="50"/>
+        <v>81</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-83</v>
+        <f t="shared" si="51"/>
+        <v>25-81</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B311">
-        <f t="shared" si="47"/>
-        <v>84</v>
+        <f t="shared" si="50"/>
+        <v>82</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-84</v>
+        <f t="shared" si="51"/>
+        <v>25-82</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B312">
-        <f t="shared" si="47"/>
-        <v>85</v>
+        <f t="shared" si="50"/>
+        <v>83</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-85</v>
+        <f t="shared" si="51"/>
+        <v>25-83</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B313">
-        <f t="shared" si="47"/>
-        <v>86</v>
+        <f t="shared" si="50"/>
+        <v>84</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-86</v>
+        <f t="shared" si="51"/>
+        <v>25-84</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B314">
-        <f t="shared" si="47"/>
-        <v>87</v>
+        <f t="shared" si="50"/>
+        <v>85</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-87</v>
+        <f t="shared" si="51"/>
+        <v>25-85</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B315">
-        <f t="shared" si="47"/>
-        <v>88</v>
+        <f t="shared" si="50"/>
+        <v>86</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-88</v>
+        <f t="shared" si="51"/>
+        <v>25-86</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B316">
-        <f t="shared" si="47"/>
-        <v>89</v>
+        <f t="shared" si="50"/>
+        <v>87</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-89</v>
+        <f t="shared" si="51"/>
+        <v>25-87</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B317">
-        <f t="shared" si="47"/>
-        <v>90</v>
+        <f t="shared" si="50"/>
+        <v>88</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-90</v>
+        <f t="shared" si="51"/>
+        <v>25-88</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B318">
-        <f t="shared" si="47"/>
-        <v>91</v>
+        <f t="shared" si="50"/>
+        <v>89</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-91</v>
+        <f t="shared" si="51"/>
+        <v>25-89</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B319">
-        <f t="shared" si="47"/>
-        <v>92</v>
+        <f t="shared" si="50"/>
+        <v>90</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-92</v>
+        <f t="shared" si="51"/>
+        <v>25-90</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B320">
-        <f t="shared" si="47"/>
-        <v>93</v>
+        <f t="shared" si="50"/>
+        <v>91</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-93</v>
+        <f t="shared" si="51"/>
+        <v>25-91</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B321">
-        <f t="shared" si="47"/>
-        <v>94</v>
+        <f t="shared" si="50"/>
+        <v>92</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-94</v>
+        <f t="shared" si="51"/>
+        <v>25-92</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B322">
-        <f t="shared" si="47"/>
-        <v>95</v>
+        <f t="shared" si="50"/>
+        <v>93</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-95</v>
+        <f t="shared" si="51"/>
+        <v>25-93</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B323">
-        <f t="shared" si="47"/>
-        <v>96</v>
+        <f t="shared" si="50"/>
+        <v>94</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-96</v>
+        <f t="shared" si="51"/>
+        <v>25-94</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B324">
-        <f t="shared" si="47"/>
-        <v>97</v>
+        <f t="shared" si="50"/>
+        <v>95</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-97</v>
+        <f t="shared" si="51"/>
+        <v>25-95</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B325">
-        <f t="shared" si="47"/>
-        <v>98</v>
+        <f t="shared" si="50"/>
+        <v>96</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-98</v>
+        <f t="shared" si="51"/>
+        <v>25-96</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B326">
-        <f t="shared" si="47"/>
-        <v>99</v>
+        <f t="shared" si="50"/>
+        <v>97</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-99</v>
+        <f t="shared" si="51"/>
+        <v>25-97</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B327">
-        <f t="shared" si="47"/>
-        <v>100</v>
+        <f t="shared" si="50"/>
+        <v>98</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-100</v>
+        <f t="shared" si="51"/>
+        <v>25-98</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B328">
-        <f t="shared" si="47"/>
-        <v>101</v>
+        <f t="shared" si="50"/>
+        <v>99</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-101</v>
+        <f t="shared" si="51"/>
+        <v>25-99</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B329">
-        <f t="shared" si="47"/>
-        <v>102</v>
+        <f t="shared" si="50"/>
+        <v>100</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-102</v>
+        <f t="shared" si="51"/>
+        <v>25-100</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B330">
-        <f t="shared" si="47"/>
-        <v>103</v>
+        <f t="shared" si="50"/>
+        <v>101</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-103</v>
+        <f t="shared" si="51"/>
+        <v>25-101</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B331">
-        <f t="shared" si="47"/>
-        <v>104</v>
+        <f t="shared" si="50"/>
+        <v>102</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-104</v>
+        <f t="shared" si="51"/>
+        <v>25-102</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B332">
-        <f t="shared" si="47"/>
-        <v>105</v>
+        <f t="shared" si="50"/>
+        <v>103</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-105</v>
+        <f t="shared" si="51"/>
+        <v>25-103</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B333">
-        <f t="shared" si="47"/>
-        <v>106</v>
+        <f t="shared" si="50"/>
+        <v>104</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-106</v>
+        <f t="shared" si="51"/>
+        <v>25-104</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B334">
-        <f t="shared" si="47"/>
-        <v>107</v>
+        <f t="shared" si="50"/>
+        <v>105</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-107</v>
+        <f t="shared" si="51"/>
+        <v>25-105</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B335">
-        <f t="shared" si="47"/>
-        <v>108</v>
+        <f t="shared" si="50"/>
+        <v>106</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-108</v>
+        <f t="shared" si="51"/>
+        <v>25-106</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B336">
-        <f t="shared" si="47"/>
-        <v>109</v>
+        <f t="shared" si="50"/>
+        <v>107</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-109</v>
+        <f t="shared" si="51"/>
+        <v>25-107</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B337">
-        <f t="shared" si="47"/>
-        <v>110</v>
+        <f t="shared" si="50"/>
+        <v>108</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-110</v>
+        <f t="shared" si="51"/>
+        <v>25-108</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B338">
-        <f t="shared" si="47"/>
-        <v>111</v>
+        <f t="shared" si="50"/>
+        <v>109</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-111</v>
+        <f t="shared" si="51"/>
+        <v>25-109</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B339">
-        <f t="shared" si="47"/>
-        <v>112</v>
+        <f t="shared" si="50"/>
+        <v>110</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-112</v>
+        <f t="shared" si="51"/>
+        <v>25-110</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B340">
-        <f t="shared" si="47"/>
-        <v>113</v>
+        <f t="shared" si="50"/>
+        <v>111</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-113</v>
+        <f t="shared" si="51"/>
+        <v>25-111</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B341">
-        <f t="shared" si="47"/>
-        <v>114</v>
+        <f t="shared" si="50"/>
+        <v>112</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-114</v>
+        <f t="shared" si="51"/>
+        <v>25-112</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B342">
-        <f t="shared" si="47"/>
-        <v>115</v>
+        <f t="shared" si="50"/>
+        <v>113</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-115</v>
+        <f t="shared" si="51"/>
+        <v>25-113</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B343">
-        <f t="shared" si="47"/>
-        <v>116</v>
+        <f t="shared" si="50"/>
+        <v>114</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-116</v>
+        <f t="shared" si="51"/>
+        <v>25-114</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B344">
-        <f t="shared" si="47"/>
-        <v>117</v>
+        <f t="shared" si="50"/>
+        <v>115</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-117</v>
+        <f t="shared" si="51"/>
+        <v>25-115</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B345">
-        <f t="shared" si="47"/>
-        <v>118</v>
+        <f t="shared" si="50"/>
+        <v>116</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-118</v>
+        <f t="shared" si="51"/>
+        <v>25-116</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B346">
-        <f t="shared" si="47"/>
-        <v>119</v>
+        <f t="shared" si="50"/>
+        <v>117</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-119</v>
+        <f t="shared" si="51"/>
+        <v>25-117</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B347">
-        <f t="shared" si="47"/>
-        <v>120</v>
+        <f t="shared" si="50"/>
+        <v>118</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-120</v>
+        <f t="shared" si="51"/>
+        <v>25-118</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B348">
-        <f t="shared" si="47"/>
-        <v>121</v>
+        <f t="shared" si="50"/>
+        <v>119</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-121</v>
+        <f t="shared" si="51"/>
+        <v>25-119</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B349">
-        <f t="shared" si="47"/>
-        <v>122</v>
+        <f t="shared" si="50"/>
+        <v>120</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-122</v>
+        <f t="shared" si="51"/>
+        <v>25-120</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B350">
-        <f t="shared" si="47"/>
-        <v>123</v>
+        <f t="shared" si="50"/>
+        <v>121</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-123</v>
+        <f t="shared" si="51"/>
+        <v>25-121</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B351">
-        <f t="shared" si="47"/>
-        <v>124</v>
+        <f t="shared" si="50"/>
+        <v>122</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-124</v>
+        <f t="shared" si="51"/>
+        <v>25-122</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B352">
-        <f t="shared" si="47"/>
-        <v>125</v>
+        <f t="shared" si="50"/>
+        <v>123</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-125</v>
+        <f t="shared" si="51"/>
+        <v>25-123</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B353">
-        <f t="shared" si="47"/>
-        <v>126</v>
+        <f t="shared" si="50"/>
+        <v>124</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-126</v>
+        <f t="shared" si="51"/>
+        <v>25-124</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B354">
-        <f t="shared" si="47"/>
-        <v>127</v>
+        <f t="shared" si="50"/>
+        <v>125</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-127</v>
+        <f t="shared" si="51"/>
+        <v>25-125</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B355">
-        <f t="shared" si="47"/>
-        <v>128</v>
+        <f t="shared" si="50"/>
+        <v>126</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-128</v>
+        <f t="shared" si="51"/>
+        <v>25-126</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B356">
-        <f t="shared" si="47"/>
-        <v>129</v>
+        <f t="shared" si="50"/>
+        <v>127</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-129</v>
+        <f t="shared" si="51"/>
+        <v>25-127</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B357">
-        <f t="shared" si="47"/>
-        <v>130</v>
+        <f t="shared" si="50"/>
+        <v>128</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-130</v>
+        <f t="shared" si="51"/>
+        <v>25-128</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B358">
-        <f t="shared" ref="B358:B379" si="50">IF(A358=A357,B357+1,1)</f>
-        <v>131</v>
+        <f t="shared" si="50"/>
+        <v>129</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" ref="C358:C379" si="51">CONCATENATE(A358,"-",B358)</f>
-        <v>25-131</v>
+        <f t="shared" si="51"/>
+        <v>25-129</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
-        <f t="shared" ref="A359:A379" si="52">A358</f>
+        <f t="shared" si="52"/>
         <v>25</v>
       </c>
       <c r="B359">
         <f t="shared" si="50"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C359" s="3" t="str">
         <f t="shared" si="51"/>
-        <v>25-132</v>
+        <v>25-130</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
@@ -11086,325 +11287,349 @@
         <v>25</v>
       </c>
       <c r="B360">
-        <f t="shared" si="50"/>
-        <v>133</v>
+        <f t="shared" ref="B360:B381" si="53">IF(A360=A359,B359+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-133</v>
+        <f t="shared" ref="C360:C381" si="54">CONCATENATE(A360,"-",B360)</f>
+        <v>25-131</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="A361:A381" si="55">A360</f>
         <v>25</v>
       </c>
       <c r="B361">
-        <f t="shared" si="50"/>
-        <v>134</v>
+        <f t="shared" si="53"/>
+        <v>132</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-134</v>
+        <f t="shared" si="54"/>
+        <v>25-132</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B362">
-        <f t="shared" si="50"/>
-        <v>135</v>
+        <f t="shared" si="53"/>
+        <v>133</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-135</v>
+        <f t="shared" si="54"/>
+        <v>25-133</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B363">
-        <f t="shared" si="50"/>
-        <v>136</v>
+        <f t="shared" si="53"/>
+        <v>134</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-136</v>
+        <f t="shared" si="54"/>
+        <v>25-134</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B364">
-        <f t="shared" si="50"/>
-        <v>137</v>
+        <f t="shared" si="53"/>
+        <v>135</v>
       </c>
       <c r="C364" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-137</v>
+        <f t="shared" si="54"/>
+        <v>25-135</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B365">
-        <f t="shared" si="50"/>
-        <v>138</v>
+        <f t="shared" si="53"/>
+        <v>136</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-138</v>
+        <f t="shared" si="54"/>
+        <v>25-136</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B366">
-        <f t="shared" si="50"/>
-        <v>139</v>
+        <f t="shared" si="53"/>
+        <v>137</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-139</v>
+        <f t="shared" si="54"/>
+        <v>25-137</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B367">
-        <f t="shared" si="50"/>
-        <v>140</v>
+        <f t="shared" si="53"/>
+        <v>138</v>
       </c>
       <c r="C367" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-140</v>
+        <f t="shared" si="54"/>
+        <v>25-138</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B368">
-        <f t="shared" si="50"/>
-        <v>141</v>
+        <f t="shared" si="53"/>
+        <v>139</v>
       </c>
       <c r="C368" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-141</v>
+        <f t="shared" si="54"/>
+        <v>25-139</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B369">
-        <f t="shared" si="50"/>
-        <v>142</v>
+        <f t="shared" si="53"/>
+        <v>140</v>
       </c>
       <c r="C369" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-142</v>
+        <f t="shared" si="54"/>
+        <v>25-140</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B370">
-        <f t="shared" si="50"/>
-        <v>143</v>
+        <f t="shared" si="53"/>
+        <v>141</v>
       </c>
       <c r="C370" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-143</v>
+        <f t="shared" si="54"/>
+        <v>25-141</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
     <row r="371" spans="1:13" ht="15">
       <c r="A371">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B371">
-        <f t="shared" si="50"/>
-        <v>144</v>
+        <f t="shared" si="53"/>
+        <v>142</v>
       </c>
       <c r="C371" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-144</v>
+        <f t="shared" si="54"/>
+        <v>25-142</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
     <row r="372" spans="1:13" ht="15">
       <c r="A372">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B372">
-        <f t="shared" si="50"/>
-        <v>145</v>
+        <f t="shared" si="53"/>
+        <v>143</v>
       </c>
       <c r="C372" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-145</v>
+        <f t="shared" si="54"/>
+        <v>25-143</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
     </row>
     <row r="373" spans="1:13" ht="15">
       <c r="A373">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B373">
-        <f t="shared" si="50"/>
-        <v>146</v>
+        <f t="shared" si="53"/>
+        <v>144</v>
       </c>
       <c r="C373" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-146</v>
+        <f t="shared" si="54"/>
+        <v>25-144</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
     </row>
     <row r="374" spans="1:13" ht="15">
       <c r="A374">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B374">
-        <f t="shared" si="50"/>
-        <v>147</v>
+        <f t="shared" si="53"/>
+        <v>145</v>
       </c>
       <c r="C374" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-147</v>
+        <f t="shared" si="54"/>
+        <v>25-145</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
     </row>
     <row r="375" spans="1:13" ht="15">
       <c r="A375">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B375">
-        <f t="shared" si="50"/>
-        <v>148</v>
+        <f t="shared" si="53"/>
+        <v>146</v>
       </c>
       <c r="C375" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-148</v>
+        <f t="shared" si="54"/>
+        <v>25-146</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
     </row>
     <row r="376" spans="1:13" ht="15">
       <c r="A376">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B376">
-        <f t="shared" si="50"/>
-        <v>149</v>
+        <f t="shared" si="53"/>
+        <v>147</v>
       </c>
       <c r="C376" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-149</v>
+        <f t="shared" si="54"/>
+        <v>25-147</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
     </row>
     <row r="377" spans="1:13" ht="15">
       <c r="A377">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B377">
-        <f t="shared" si="50"/>
-        <v>150</v>
+        <f t="shared" si="53"/>
+        <v>148</v>
       </c>
       <c r="C377" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-150</v>
+        <f t="shared" si="54"/>
+        <v>25-148</v>
       </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
     </row>
     <row r="378" spans="1:13" ht="15">
       <c r="A378">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B378">
-        <f t="shared" si="50"/>
-        <v>151</v>
+        <f t="shared" si="53"/>
+        <v>149</v>
       </c>
       <c r="C378" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-151</v>
+        <f t="shared" si="54"/>
+        <v>25-149</v>
       </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
     </row>
     <row r="379" spans="1:13" ht="15">
       <c r="A379">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>25</v>
       </c>
       <c r="B379">
-        <f t="shared" si="50"/>
-        <v>152</v>
+        <f t="shared" si="53"/>
+        <v>150</v>
       </c>
       <c r="C379" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-152</v>
+        <f t="shared" si="54"/>
+        <v>25-150</v>
       </c>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
     </row>
-    <row r="380" spans="1:13" ht="12.75">
+    <row r="380" spans="1:13" ht="15">
+      <c r="A380">
+        <f t="shared" si="55"/>
+        <v>25</v>
+      </c>
+      <c r="B380">
+        <f t="shared" si="53"/>
+        <v>151</v>
+      </c>
+      <c r="C380" s="3" t="str">
+        <f t="shared" si="54"/>
+        <v>25-151</v>
+      </c>
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
     </row>
-    <row r="381" spans="1:13" ht="12.75">
+    <row r="381" spans="1:13" ht="15">
+      <c r="A381">
+        <f t="shared" si="55"/>
+        <v>25</v>
+      </c>
+      <c r="B381">
+        <f t="shared" si="53"/>
+        <v>152</v>
+      </c>
+      <c r="C381" s="3" t="str">
+        <f t="shared" si="54"/>
+        <v>25-152</v>
+      </c>
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
     </row>
@@ -14147,294 +14372,332 @@
     <row r="1066" spans="12:13" ht="12.75">
       <c r="L1066" s="6"/>
       <c r="M1066" s="6"/>
+    </row>
+    <row r="1067" spans="12:13" ht="12.75">
+      <c r="L1067" s="6"/>
+      <c r="M1067" s="6"/>
+    </row>
+    <row r="1068" spans="12:13" ht="12.75">
+      <c r="L1068" s="6"/>
+      <c r="M1068" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L187:L190"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsBlanks" dxfId="56" priority="61">
+    <cfRule type="containsBlanks" dxfId="68" priority="67">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="53" priority="58">
+    <cfRule type="containsBlanks" dxfId="65" priority="64">
       <formula>LEN(TRIM(K199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="51" priority="60" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="50" priority="52">
+    <cfRule type="containsBlanks" dxfId="62" priority="58">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="47" priority="49">
+    <cfRule type="containsBlanks" dxfId="59" priority="55">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="44" priority="46">
+    <cfRule type="containsBlanks" dxfId="56" priority="52">
       <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="41" priority="43">
+    <cfRule type="containsBlanks" dxfId="53" priority="49">
       <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="40" priority="40">
+    <cfRule type="containsBlanks" dxfId="52" priority="46">
       <formula>LEN(TRIM(K206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208">
-    <cfRule type="containsBlanks" dxfId="39" priority="37">
+    <cfRule type="containsBlanks" dxfId="51" priority="43">
       <formula>LEN(TRIM(K208))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209">
-    <cfRule type="containsBlanks" dxfId="38" priority="34">
+    <cfRule type="containsBlanks" dxfId="50" priority="40">
       <formula>LEN(TRIM(K209))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsBlanks" dxfId="37" priority="31">
+    <cfRule type="containsBlanks" dxfId="49" priority="37">
       <formula>LEN(TRIM(K211))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsBlanks" dxfId="36" priority="28">
+    <cfRule type="containsBlanks" dxfId="48" priority="34">
       <formula>LEN(TRIM(K213))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K215:K226 K228:K229">
-    <cfRule type="containsBlanks" dxfId="35" priority="25">
+  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
+    <cfRule type="containsBlanks" dxfId="47" priority="31">
       <formula>LEN(TRIM(K215))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="34" priority="19">
+    <cfRule type="containsBlanks" dxfId="46" priority="25">
       <formula>LEN(TRIM(K205))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207">
-    <cfRule type="containsBlanks" dxfId="31" priority="16">
+    <cfRule type="containsBlanks" dxfId="43" priority="22">
       <formula>LEN(TRIM(K207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="28" priority="13">
+    <cfRule type="containsBlanks" dxfId="40" priority="19">
       <formula>LEN(TRIM(K203))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsBlanks" dxfId="25" priority="10">
+    <cfRule type="containsBlanks" dxfId="37" priority="16">
       <formula>LEN(TRIM(K210))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
+    <cfRule type="containsBlanks" dxfId="34" priority="13">
       <formula>LEN(TRIM(K212))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="20" priority="33" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="31" priority="10">
       <formula>LEN(TRIM(K214))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="18" priority="29" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="17" priority="30" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K215:K226 K228:K229">
-    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K215))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K215:K226 K228:K229">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K215))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="10" priority="14" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K214))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K214">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K214))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K227">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(K227))=0</formula>
+  <conditionalFormatting sqref="K229">
+    <cfRule type="containsBlanks" dxfId="14" priority="7">
+      <formula>LEN(TRIM(K229))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K227">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K227))))</formula>
+  <conditionalFormatting sqref="K229">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K229))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K227">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K227))))</formula>
+  <conditionalFormatting sqref="K229">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K229))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
+      <formula>LEN(TRIM(K216))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K216))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K216))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(K217))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K217))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K217">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K217))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
   <si>
     <t>Test Number</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Create a block. Right click on it in the blocks dashboard and select `Edit block`. Change the block. Click ok. Verify the changes are applied</t>
+  </si>
+  <si>
+    <t>Add a component to a synoptic. Change its type at least twice. Confirm that each time the target details switch to the default for the selected type</t>
   </si>
 </sst>
 </file>
@@ -1203,40 +1206,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF4C7C3"/>
           <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border>
@@ -1277,34 +1252,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFF4C7C3"/>
           <bgColor rgb="FFF4C7C3"/>
         </patternFill>
@@ -1321,34 +1268,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
         </patternFill>
       </fill>
       <border>
@@ -2467,11 +2386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1068"/>
+  <dimension ref="A1:N1069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6992,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="22" t="str">
-        <f t="shared" ref="C157:C230" si="25">CONCATENATE(A157,"-",B157)</f>
+        <f t="shared" ref="C157:C231" si="25">CONCATENATE(A157,"-",B157)</f>
         <v>16-1</v>
       </c>
       <c r="D157" s="46"/>
@@ -7014,11 +6933,11 @@
     </row>
     <row r="158" spans="1:13" ht="15">
       <c r="A158">
-        <f t="shared" ref="A158:A232" si="26">A157</f>
+        <f t="shared" ref="A158:A233" si="26">A157</f>
         <v>16</v>
       </c>
       <c r="B158">
-        <f t="shared" ref="B158:B231" si="27">IF(A158=A157,B157+1,1)</f>
+        <f t="shared" ref="B158:B232" si="27">IF(A158=A157,B157+1,1)</f>
         <v>2</v>
       </c>
       <c r="C158" s="22" t="str">
@@ -7640,46 +7559,47 @@
       <c r="L178" s="8"/>
       <c r="M178" s="6"/>
     </row>
-    <row r="179" spans="1:13" ht="15">
+    <row r="179" spans="1:13" ht="60">
       <c r="A179">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ref="B179" si="28">IF(A179=A178,B178+1,1)</f>
+        <v>23</v>
+      </c>
+      <c r="C179" s="3" t="str">
+        <f t="shared" ref="C179" si="29">CONCATENATE(A179,"-",B179)</f>
+        <v>16-23</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J179" s="8"/>
+      <c r="K179" s="9"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="6"/>
+    </row>
+    <row r="180" spans="1:13" ht="15">
+      <c r="A180">
         <v>17</v>
       </c>
-      <c r="B179">
-        <f t="shared" si="27"/>
+      <c r="B180">
+        <f>IF(A180=A178,B178+1,1)</f>
         <v>1</v>
       </c>
-      <c r="C179" s="3" t="str">
+      <c r="C180" s="3" t="str">
         <f t="shared" si="25"/>
         <v>17-1</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J179" s="8"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="11"/>
-    </row>
-    <row r="180" spans="1:13" ht="30">
-      <c r="A180">
-        <f t="shared" si="26"/>
-        <v>17</v>
-      </c>
-      <c r="B180">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="C180" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v>17-2</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -7691,25 +7611,24 @@
         <v>184</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J180" s="8"/>
       <c r="K180" s="7"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="6"/>
-    </row>
-    <row r="181" spans="1:13" ht="15">
+      <c r="L180" s="11"/>
+    </row>
+    <row r="181" spans="1:13" ht="30">
       <c r="A181">
         <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="B181">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>17-3</v>
+        <v>17-2</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7721,11 +7640,11 @@
         <v>184</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J181" s="8"/>
       <c r="K181" s="7"/>
-      <c r="L181" s="8"/>
+      <c r="L181" s="1"/>
       <c r="M181" s="6"/>
     </row>
     <row r="182" spans="1:13" ht="15">
@@ -7735,11 +7654,11 @@
       </c>
       <c r="B182">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>17-4</v>
+        <v>17-3</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -7751,7 +7670,7 @@
         <v>184</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J182" s="8"/>
       <c r="K182" s="7"/>
@@ -7760,15 +7679,16 @@
     </row>
     <row r="183" spans="1:13" ht="15">
       <c r="A183">
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="B183">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C183" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>18-1</v>
+        <v>17-4</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -7777,27 +7697,27 @@
         <v>63</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J183" s="8"/>
       <c r="K183" s="7"/>
-      <c r="L183" s="11"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="6"/>
     </row>
     <row r="184" spans="1:13" ht="15">
       <c r="A184">
-        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="B184">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C184" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>18-2</v>
+        <v>18-1</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -7809,12 +7729,11 @@
         <v>189</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J184" s="8"/>
       <c r="K184" s="7"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="6"/>
+      <c r="L184" s="11"/>
     </row>
     <row r="185" spans="1:13" ht="15">
       <c r="A185">
@@ -7823,11 +7742,11 @@
       </c>
       <c r="B185">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>18-3</v>
+        <v>18-2</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -7839,24 +7758,25 @@
         <v>189</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J185" s="8"/>
       <c r="K185" s="7"/>
       <c r="L185" s="8"/>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="1:13" ht="30">
+    <row r="186" spans="1:13" ht="15">
       <c r="A186">
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="B186">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C186" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19-1</v>
+        <v>18-3</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -7865,10 +7785,10 @@
         <v>63</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J186" s="8"/>
       <c r="K186" s="7"/>
@@ -7877,16 +7797,15 @@
     </row>
     <row r="187" spans="1:13" ht="30">
       <c r="A187">
-        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="B187">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19-2</v>
+        <v>19-1</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -7898,11 +7817,12 @@
         <v>193</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J187" s="8"/>
       <c r="K187" s="7"/>
-      <c r="L187" s="49"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="6"/>
     </row>
     <row r="188" spans="1:13" ht="30">
       <c r="A188">
@@ -7911,11 +7831,11 @@
       </c>
       <c r="B188">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19-3</v>
+        <v>19-2</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7927,25 +7847,24 @@
         <v>193</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J188" s="8"/>
       <c r="K188" s="7"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="6"/>
-    </row>
-    <row r="189" spans="1:13" ht="45">
+      <c r="L188" s="49"/>
+    </row>
+    <row r="189" spans="1:13" ht="30">
       <c r="A189">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="B189">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19-4</v>
+        <v>19-3</v>
       </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7957,25 +7876,25 @@
         <v>193</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J189" s="8"/>
       <c r="K189" s="7"/>
       <c r="L189" s="50"/>
       <c r="M189" s="6"/>
     </row>
-    <row r="190" spans="1:13" ht="30">
+    <row r="190" spans="1:13" ht="45">
       <c r="A190">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="B190">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C190" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>19-5</v>
+        <v>19-4</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -7987,54 +7906,54 @@
         <v>193</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J190" s="8"/>
       <c r="K190" s="7"/>
-      <c r="L190" s="51"/>
+      <c r="L190" s="50"/>
       <c r="M190" s="6"/>
     </row>
     <row r="191" spans="1:13" ht="30">
       <c r="A191">
-        <v>20</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="B191">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C191" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>20-1</v>
+        <v>19-5</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="7"/>
       <c r="G191" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J191" s="8"/>
       <c r="K191" s="7"/>
-      <c r="L191" s="8"/>
+      <c r="L191" s="51"/>
       <c r="M191" s="6"/>
     </row>
-    <row r="192" spans="1:13" ht="45">
+    <row r="192" spans="1:13" ht="30">
       <c r="A192">
-        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="B192">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C192" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>20-2</v>
+        <v>20-1</v>
       </c>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -8046,84 +7965,84 @@
         <v>199</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J192" s="8"/>
       <c r="K192" s="7"/>
       <c r="L192" s="8"/>
       <c r="M192" s="6"/>
     </row>
-    <row r="193" spans="1:13" ht="26.25">
+    <row r="193" spans="1:13" ht="45">
       <c r="A193">
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>20</v>
       </c>
       <c r="B193">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C193" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-1</v>
-      </c>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G193" s="15"/>
-      <c r="H193" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I193" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J193" s="12"/>
-      <c r="K193" s="10"/>
-      <c r="L193" s="12"/>
+        <v>20-2</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J193" s="8"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="8"/>
       <c r="M193" s="6"/>
     </row>
     <row r="194" spans="1:13" ht="26.25">
       <c r="A194">
-        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B194">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-2</v>
+        <v>21-1</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="10" t="s">
+      <c r="F194" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="G194" s="15"/>
       <c r="H194" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J194" s="12"/>
       <c r="K194" s="10"/>
       <c r="L194" s="12"/>
       <c r="M194" s="6"/>
     </row>
-    <row r="195" spans="1:13" ht="39">
+    <row r="195" spans="1:13" ht="26.25">
       <c r="A195">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B195">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-3</v>
+        <v>21-2</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
@@ -8135,11 +8054,11 @@
         <v>15</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J195" s="12"/>
       <c r="K195" s="10"/>
-      <c r="L195" s="11"/>
+      <c r="L195" s="12"/>
       <c r="M195" s="6"/>
     </row>
     <row r="196" spans="1:13" ht="39">
@@ -8149,11 +8068,11 @@
       </c>
       <c r="B196">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-4</v>
+        <v>21-3</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -8164,26 +8083,26 @@
       <c r="H196" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I196" s="12" t="s">
-        <v>205</v>
+      <c r="I196" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="J196" s="12"/>
       <c r="K196" s="10"/>
-      <c r="L196" s="12"/>
+      <c r="L196" s="11"/>
       <c r="M196" s="6"/>
     </row>
-    <row r="197" spans="1:13" ht="51.75">
+    <row r="197" spans="1:13" ht="39">
       <c r="A197">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B197">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-5</v>
+        <v>21-4</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -8195,25 +8114,25 @@
         <v>15</v>
       </c>
       <c r="I197" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J197" s="12"/>
       <c r="K197" s="10"/>
       <c r="L197" s="12"/>
       <c r="M197" s="6"/>
     </row>
-    <row r="198" spans="1:13" ht="26.25">
+    <row r="198" spans="1:13" ht="51.75">
       <c r="A198">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B198">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>21-6</v>
+        <v>21-5</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8225,7 +8144,7 @@
         <v>15</v>
       </c>
       <c r="I198" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J198" s="12"/>
       <c r="K198" s="10"/>
@@ -8239,29 +8158,27 @@
       </c>
       <c r="B199">
         <f t="shared" si="27"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f t="shared" ref="C199" si="28">CONCATENATE(A199,"-",B199)</f>
-        <v>21-7</v>
+        <f t="shared" si="25"/>
+        <v>21-6</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
       <c r="G199" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H199" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I199" s="12" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J199" s="12"/>
       <c r="K199" s="10"/>
-      <c r="L199" s="12" t="s">
-        <v>226</v>
-      </c>
+      <c r="L199" s="12"/>
       <c r="M199" s="6"/>
     </row>
     <row r="200" spans="1:13" ht="26.25">
@@ -8271,11 +8188,11 @@
       </c>
       <c r="B200">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f t="shared" ref="C200" si="29">CONCATENATE(A200,"-",B200)</f>
-        <v>21-8</v>
+        <f t="shared" ref="C200" si="30">CONCATENATE(A200,"-",B200)</f>
+        <v>21-7</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
@@ -8287,7 +8204,7 @@
         <v>15</v>
       </c>
       <c r="I200" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J200" s="12"/>
       <c r="K200" s="10"/>
@@ -8303,11 +8220,11 @@
       </c>
       <c r="B201">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f t="shared" ref="C201" si="30">CONCATENATE(A201,"-",B201)</f>
-        <v>21-9</v>
+        <f t="shared" ref="C201" si="31">CONCATENATE(A201,"-",B201)</f>
+        <v>21-8</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
@@ -8319,7 +8236,7 @@
         <v>15</v>
       </c>
       <c r="I201" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J201" s="12"/>
       <c r="K201" s="10"/>
@@ -8330,16 +8247,16 @@
     </row>
     <row r="202" spans="1:13" ht="26.25">
       <c r="A202">
-        <f>A201</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B202">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f t="shared" ref="C202:C204" si="31">CONCATENATE(A202,"-",B202)</f>
-        <v>21-10</v>
+        <f t="shared" ref="C202" si="32">CONCATENATE(A202,"-",B202)</f>
+        <v>21-9</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
@@ -8351,7 +8268,7 @@
         <v>15</v>
       </c>
       <c r="I202" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J202" s="12"/>
       <c r="K202" s="10"/>
@@ -8367,11 +8284,11 @@
       </c>
       <c r="B203">
         <f t="shared" si="27"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f t="shared" ref="C203" si="32">CONCATENATE(A203,"-",B203)</f>
-        <v>21-11</v>
+        <f t="shared" ref="C203:C205" si="33">CONCATENATE(A203,"-",B203)</f>
+        <v>21-10</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
@@ -8383,7 +8300,7 @@
         <v>15</v>
       </c>
       <c r="I203" s="12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J203" s="12"/>
       <c r="K203" s="10"/>
@@ -8394,16 +8311,16 @@
     </row>
     <row r="204" spans="1:13" ht="26.25">
       <c r="A204">
-        <f>A202</f>
+        <f>A203</f>
         <v>21</v>
       </c>
       <c r="B204">
         <f t="shared" si="27"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f t="shared" si="31"/>
-        <v>21-12</v>
+        <f t="shared" ref="C204" si="34">CONCATENATE(A204,"-",B204)</f>
+        <v>21-11</v>
       </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
@@ -8415,7 +8332,7 @@
         <v>15</v>
       </c>
       <c r="I204" s="12" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J204" s="12"/>
       <c r="K204" s="10"/>
@@ -8426,16 +8343,16 @@
     </row>
     <row r="205" spans="1:13" ht="26.25">
       <c r="A205">
-        <f t="shared" si="26"/>
+        <f>A203</f>
         <v>21</v>
       </c>
       <c r="B205">
         <f t="shared" si="27"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f t="shared" ref="C205" si="33">CONCATENATE(A205,"-",B205)</f>
-        <v>21-13</v>
+        <f t="shared" si="33"/>
+        <v>21-12</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
@@ -8447,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="I205" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J205" s="12"/>
       <c r="K205" s="10"/>
@@ -8458,16 +8375,16 @@
     </row>
     <row r="206" spans="1:13" ht="26.25">
       <c r="A206">
-        <f>A204</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B206">
         <f t="shared" si="27"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f t="shared" ref="C206" si="34">CONCATENATE(A206,"-",B206)</f>
-        <v>21-14</v>
+        <f t="shared" ref="C206" si="35">CONCATENATE(A206,"-",B206)</f>
+        <v>21-13</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
@@ -8479,7 +8396,7 @@
         <v>15</v>
       </c>
       <c r="I206" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J206" s="12"/>
       <c r="K206" s="10"/>
@@ -8495,11 +8412,11 @@
       </c>
       <c r="B207">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f t="shared" ref="C207" si="35">CONCATENATE(A207,"-",B207)</f>
-        <v>21-15</v>
+        <f t="shared" ref="C207" si="36">CONCATENATE(A207,"-",B207)</f>
+        <v>21-14</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
@@ -8511,7 +8428,7 @@
         <v>15</v>
       </c>
       <c r="I207" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J207" s="12"/>
       <c r="K207" s="10"/>
@@ -8527,11 +8444,11 @@
       </c>
       <c r="B208">
         <f t="shared" si="27"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f t="shared" ref="C208:C209" si="36">CONCATENATE(A208,"-",B208)</f>
-        <v>21-16</v>
+        <f t="shared" ref="C208" si="37">CONCATENATE(A208,"-",B208)</f>
+        <v>21-15</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
@@ -8543,7 +8460,7 @@
         <v>15</v>
       </c>
       <c r="I208" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J208" s="12"/>
       <c r="K208" s="10"/>
@@ -8552,18 +8469,18 @@
       </c>
       <c r="M208" s="6"/>
     </row>
-    <row r="209" spans="1:13" ht="39">
+    <row r="209" spans="1:13" ht="26.25">
       <c r="A209">
-        <f t="shared" si="26"/>
+        <f>A207</f>
         <v>21</v>
       </c>
       <c r="B209">
         <f t="shared" si="27"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f t="shared" si="36"/>
-        <v>21-17</v>
+        <f t="shared" ref="C209:C210" si="38">CONCATENATE(A209,"-",B209)</f>
+        <v>21-16</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
@@ -8575,7 +8492,7 @@
         <v>15</v>
       </c>
       <c r="I209" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J209" s="12"/>
       <c r="K209" s="10"/>
@@ -8590,11 +8507,12 @@
         <v>21</v>
       </c>
       <c r="B210">
-        <v>18</v>
+        <f t="shared" si="27"/>
+        <v>17</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f t="shared" ref="C210" si="37">CONCATENATE(A210,"-",B210)</f>
-        <v>21-18</v>
+        <f t="shared" si="38"/>
+        <v>21-17</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
@@ -8606,7 +8524,7 @@
         <v>15</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J210" s="12"/>
       <c r="K210" s="10"/>
@@ -8615,18 +8533,17 @@
       </c>
       <c r="M210" s="6"/>
     </row>
-    <row r="211" spans="1:13" ht="26.25">
+    <row r="211" spans="1:13" ht="39">
       <c r="A211">
-        <f>A209</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="B211">
-        <f t="shared" si="27"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f t="shared" ref="C211:C213" si="38">CONCATENATE(A211,"-",B211)</f>
-        <v>21-19</v>
+        <f t="shared" ref="C211" si="39">CONCATENATE(A211,"-",B211)</f>
+        <v>21-18</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
@@ -8638,7 +8555,7 @@
         <v>15</v>
       </c>
       <c r="I211" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J211" s="12"/>
       <c r="K211" s="10"/>
@@ -8654,11 +8571,11 @@
       </c>
       <c r="B212">
         <f t="shared" si="27"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f t="shared" ref="C212" si="39">CONCATENATE(A212,"-",B212)</f>
-        <v>21-20</v>
+        <f t="shared" ref="C212:C214" si="40">CONCATENATE(A212,"-",B212)</f>
+        <v>21-19</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
@@ -8670,7 +8587,7 @@
         <v>15</v>
       </c>
       <c r="I212" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="J212" s="12"/>
       <c r="K212" s="10"/>
@@ -8686,11 +8603,11 @@
       </c>
       <c r="B213">
         <f t="shared" si="27"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f t="shared" si="38"/>
-        <v>21-21</v>
+        <f t="shared" ref="C213" si="41">CONCATENATE(A213,"-",B213)</f>
+        <v>21-20</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
@@ -8702,7 +8619,7 @@
         <v>15</v>
       </c>
       <c r="I213" s="12" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J213" s="12"/>
       <c r="K213" s="10"/>
@@ -8718,11 +8635,11 @@
       </c>
       <c r="B214">
         <f t="shared" si="27"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C214" s="3" t="str">
-        <f t="shared" ref="C214" si="40">CONCATENATE(A214,"-",B214)</f>
-        <v>21-22</v>
+        <f t="shared" si="40"/>
+        <v>21-21</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
@@ -8734,7 +8651,7 @@
         <v>15</v>
       </c>
       <c r="I214" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J214" s="12"/>
       <c r="K214" s="10"/>
@@ -8743,78 +8660,82 @@
       </c>
       <c r="M214" s="6"/>
     </row>
-    <row r="215" spans="1:13" ht="39">
+    <row r="215" spans="1:13" ht="26.25">
       <c r="A215">
         <f>A213</f>
         <v>21</v>
       </c>
       <c r="B215">
         <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="C215" s="3" t="str">
+        <f t="shared" ref="C215" si="42">CONCATENATE(A215,"-",B215)</f>
+        <v>21-22</v>
+      </c>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H215" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I215" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J215" s="12"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="M215" s="6"/>
+    </row>
+    <row r="216" spans="1:13" ht="39">
+      <c r="A216">
+        <f>A214</f>
+        <v>21</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
-      <c r="C215" s="19" t="str">
-        <f t="shared" ref="C215" si="41">CONCATENATE(A215,"-",B215)</f>
+      <c r="C216" s="19" t="str">
+        <f t="shared" ref="C216" si="43">CONCATENATE(A216,"-",B216)</f>
         <v>21-23</v>
-      </c>
-      <c r="D215" s="20"/>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H215" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I215" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J215" s="18"/>
-      <c r="K215" s="21"/>
-      <c r="L215" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="M215" s="6"/>
-    </row>
-    <row r="216" spans="1:13" ht="51.75">
-      <c r="A216">
-        <f t="shared" ref="A216:A217" si="42">A214</f>
-        <v>21</v>
-      </c>
-      <c r="B216">
-        <f t="shared" ref="B216:B217" si="43">IF(A216=A215,B215+1,1)</f>
-        <v>24</v>
-      </c>
-      <c r="C216" s="19" t="str">
-        <f t="shared" ref="C216:C217" si="44">CONCATENATE(A216,"-",B216)</f>
-        <v>21-24</v>
       </c>
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="21"/>
+      <c r="G216" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="H216" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I216" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J216" s="39"/>
+      <c r="I216" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="J216" s="18"/>
       <c r="K216" s="21"/>
-      <c r="L216" s="39"/>
+      <c r="L216" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="M216" s="6"/>
     </row>
-    <row r="217" spans="1:13" ht="39">
+    <row r="217" spans="1:13" ht="51.75">
       <c r="A217">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="A217:A218" si="44">A215</f>
         <v>21</v>
       </c>
       <c r="B217">
-        <f t="shared" si="43"/>
-        <v>25</v>
+        <f t="shared" ref="B217:B218" si="45">IF(A217=A216,B216+1,1)</f>
+        <v>24</v>
       </c>
       <c r="C217" s="19" t="str">
-        <f t="shared" si="44"/>
-        <v>21-25</v>
+        <f t="shared" ref="C217:C218" si="46">CONCATENATE(A217,"-",B217)</f>
+        <v>21-24</v>
       </c>
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
@@ -8824,79 +8745,79 @@
         <v>15</v>
       </c>
       <c r="I217" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J217" s="39"/>
       <c r="K217" s="21"/>
       <c r="L217" s="39"/>
       <c r="M217" s="6"/>
     </row>
-    <row r="218" spans="1:13" ht="26.25">
+    <row r="218" spans="1:13" ht="39">
       <c r="A218">
+        <f t="shared" si="44"/>
+        <v>21</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="45"/>
+        <v>25</v>
+      </c>
+      <c r="C218" s="19" t="str">
+        <f t="shared" si="46"/>
+        <v>21-25</v>
+      </c>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I218" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="J218" s="39"/>
+      <c r="K218" s="21"/>
+      <c r="L218" s="39"/>
+      <c r="M218" s="6"/>
+    </row>
+    <row r="219" spans="1:13" ht="26.25">
+      <c r="A219">
         <v>22</v>
       </c>
-      <c r="B218">
+      <c r="B219">
         <v>1</v>
       </c>
-      <c r="C218" s="22" t="str">
-        <f>CONCATENATE(A218,"-",B218)</f>
+      <c r="C219" s="22" t="str">
+        <f>CONCATENATE(A219,"-",B219)</f>
         <v>22-1</v>
-      </c>
-      <c r="D218" s="23"/>
-      <c r="E218" s="23"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="I218" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="J218" s="23"/>
-      <c r="K218" s="21"/>
-      <c r="L218" s="26"/>
-      <c r="M218" s="6"/>
-    </row>
-    <row r="219" spans="1:13" ht="39">
-      <c r="A219">
-        <f>A218</f>
-        <v>22</v>
-      </c>
-      <c r="B219">
-        <f>IF(A219=A218,B218+1,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C219" s="22" t="str">
-        <f t="shared" si="25"/>
-        <v>22-2</v>
       </c>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
       <c r="F219" s="23"/>
-      <c r="G219" s="23"/>
+      <c r="G219" s="24"/>
       <c r="H219" s="24" t="s">
         <v>249</v>
       </c>
       <c r="I219" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J219" s="23"/>
       <c r="K219" s="21"/>
       <c r="L219" s="26"/>
       <c r="M219" s="6"/>
     </row>
-    <row r="220" spans="1:13" ht="26.25">
+    <row r="220" spans="1:13" ht="39">
       <c r="A220">
-        <f t="shared" si="26"/>
+        <f>A219</f>
         <v>22</v>
       </c>
       <c r="B220">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <f>IF(A220=A219,B219+1,1)</f>
+        <v>2</v>
       </c>
       <c r="C220" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-3</v>
+        <v>22-2</v>
       </c>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
@@ -8906,25 +8827,25 @@
         <v>249</v>
       </c>
       <c r="I220" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J220" s="23"/>
       <c r="K220" s="21"/>
       <c r="L220" s="26"/>
       <c r="M220" s="6"/>
     </row>
-    <row r="221" spans="1:13" ht="15">
+    <row r="221" spans="1:13" ht="26.25">
       <c r="A221">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="B221">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-4</v>
+        <v>22-3</v>
       </c>
       <c r="D221" s="23"/>
       <c r="E221" s="23"/>
@@ -8934,7 +8855,7 @@
         <v>249</v>
       </c>
       <c r="I221" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J221" s="23"/>
       <c r="K221" s="21"/>
@@ -8948,11 +8869,11 @@
       </c>
       <c r="B222">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-5</v>
+        <v>22-4</v>
       </c>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
@@ -8962,7 +8883,7 @@
         <v>249</v>
       </c>
       <c r="I222" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J222" s="23"/>
       <c r="K222" s="21"/>
@@ -8976,68 +8897,66 @@
       </c>
       <c r="B223">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" s="22" t="str">
         <f t="shared" si="25"/>
-        <v>22-6</v>
-      </c>
-      <c r="D223" s="36"/>
-      <c r="E223" s="36"/>
-      <c r="F223" s="36"/>
-      <c r="G223" s="36"/>
-      <c r="H223" s="27" t="s">
+        <v>22-5</v>
+      </c>
+      <c r="D223" s="23"/>
+      <c r="E223" s="23"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="23"/>
+      <c r="H223" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I223" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="J223" s="36"/>
+      <c r="I223" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J223" s="23"/>
       <c r="K223" s="21"/>
-      <c r="L223" s="38"/>
+      <c r="L223" s="26"/>
       <c r="M223" s="6"/>
     </row>
-    <row r="224" spans="1:13" ht="26.25">
+    <row r="224" spans="1:13" ht="15">
       <c r="A224">
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="B224">
         <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C224" s="22" t="str">
+        <f t="shared" si="25"/>
+        <v>22-6</v>
+      </c>
+      <c r="D224" s="36"/>
+      <c r="E224" s="36"/>
+      <c r="F224" s="36"/>
+      <c r="G224" s="36"/>
+      <c r="H224" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I224" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J224" s="36"/>
+      <c r="K224" s="21"/>
+      <c r="L224" s="38"/>
+      <c r="M224" s="6"/>
+    </row>
+    <row r="225" spans="1:13" ht="26.25">
+      <c r="A225">
+        <v>23</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="C224" s="35" t="str">
+      <c r="C225" s="35" t="str">
         <f t="shared" si="25"/>
         <v>23-1</v>
-      </c>
-      <c r="D224" s="23"/>
-      <c r="E224" s="23"/>
-      <c r="F224" s="23"/>
-      <c r="G224" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H224" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="I224" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="J224" s="23"/>
-      <c r="K224" s="21"/>
-      <c r="L224" s="26"/>
-      <c r="M224" s="6"/>
-    </row>
-    <row r="225" spans="1:13" ht="26.25">
-      <c r="A225">
-        <f t="shared" si="26"/>
-        <v>23</v>
-      </c>
-      <c r="B225">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="C225" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v>23-2</v>
       </c>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
@@ -9049,7 +8968,7 @@
         <v>266</v>
       </c>
       <c r="I225" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J225" s="23"/>
       <c r="K225" s="21"/>
@@ -9063,11 +8982,11 @@
       </c>
       <c r="B226">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23-3</v>
+        <v>23-2</v>
       </c>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
@@ -9079,25 +8998,25 @@
         <v>266</v>
       </c>
       <c r="I226" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J226" s="23"/>
       <c r="K226" s="21"/>
       <c r="L226" s="26"/>
       <c r="M226" s="6"/>
     </row>
-    <row r="227" spans="1:13" ht="39">
+    <row r="227" spans="1:13" ht="26.25">
       <c r="A227">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B227">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C227" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23-4</v>
+        <v>23-3</v>
       </c>
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
@@ -9109,25 +9028,25 @@
         <v>266</v>
       </c>
       <c r="I227" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J227" s="23"/>
       <c r="K227" s="21"/>
       <c r="L227" s="26"/>
       <c r="M227" s="6"/>
     </row>
-    <row r="228" spans="1:13" ht="15">
+    <row r="228" spans="1:13" ht="39">
       <c r="A228">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="B228">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C228" s="3" t="str">
         <f t="shared" si="25"/>
-        <v>23-5</v>
+        <v>23-4</v>
       </c>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
@@ -9139,23 +9058,25 @@
         <v>266</v>
       </c>
       <c r="I228" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J228" s="23"/>
       <c r="K228" s="21"/>
       <c r="L228" s="26"/>
       <c r="M228" s="6"/>
     </row>
-    <row r="229" spans="1:13" ht="26.25">
+    <row r="229" spans="1:13" ht="15">
       <c r="A229">
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="B229">
-        <v>6</v>
+        <f t="shared" si="27"/>
+        <v>5</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f t="shared" ref="C229" si="45">CONCATENATE(A229,"-",B229)</f>
-        <v>24-6</v>
+        <f t="shared" si="25"/>
+        <v>23-5</v>
       </c>
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
@@ -9167,7 +9088,7 @@
         <v>266</v>
       </c>
       <c r="I229" s="25" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J229" s="23"/>
       <c r="K229" s="21"/>
@@ -9176,15 +9097,14 @@
     </row>
     <row r="230" spans="1:13" ht="26.25">
       <c r="A230">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B230">
-        <f>IF(A230=A228,B228+1,1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v>25-1</v>
+        <f t="shared" ref="C230" si="47">CONCATENATE(A230,"-",B230)</f>
+        <v>24-6</v>
       </c>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
@@ -9193,10 +9113,10 @@
         <v>63</v>
       </c>
       <c r="H230" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="I230" s="25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J230" s="23"/>
       <c r="K230" s="21"/>
@@ -9205,16 +9125,15 @@
     </row>
     <row r="231" spans="1:13" ht="26.25">
       <c r="A231">
-        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B231">
-        <f t="shared" si="27"/>
-        <v>2</v>
+        <f>IF(A231=A229,B229+1,1)</f>
+        <v>1</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f t="shared" ref="C231" si="46">CONCATENATE(A231,"-",B231)</f>
-        <v>25-2</v>
+        <f t="shared" si="25"/>
+        <v>25-1</v>
       </c>
       <c r="D231" s="23"/>
       <c r="E231" s="23"/>
@@ -9226,2414 +9145,2440 @@
         <v>272</v>
       </c>
       <c r="I231" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J231" s="23"/>
       <c r="K231" s="21"/>
       <c r="L231" s="26"/>
       <c r="M231" s="6"/>
     </row>
-    <row r="232" spans="1:13" ht="15">
+    <row r="232" spans="1:13" ht="26.25">
       <c r="A232">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B232">
-        <f t="shared" ref="B232:B295" si="47">IF(A232=A231,B231+1,1)</f>
-        <v>3</v>
+        <f t="shared" si="27"/>
+        <v>2</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f t="shared" ref="C232:C295" si="48">CONCATENATE(A232,"-",B232)</f>
-        <v>25-3</v>
-      </c>
-      <c r="L232" s="6"/>
+        <f t="shared" ref="C232" si="48">CONCATENATE(A232,"-",B232)</f>
+        <v>25-2</v>
+      </c>
+      <c r="D232" s="23"/>
+      <c r="E232" s="23"/>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H232" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="I232" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="J232" s="23"/>
+      <c r="K232" s="21"/>
+      <c r="L232" s="26"/>
       <c r="M232" s="6"/>
     </row>
     <row r="233" spans="1:13" ht="15">
       <c r="A233">
-        <f t="shared" ref="A233:A296" si="49">A232</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="B233">
-        <f t="shared" si="47"/>
-        <v>4</v>
+        <f t="shared" ref="B233:B296" si="49">IF(A233=A232,B232+1,1)</f>
+        <v>3</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-4</v>
+        <f t="shared" ref="C233:C296" si="50">CONCATENATE(A233,"-",B233)</f>
+        <v>25-3</v>
       </c>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
+        <f t="shared" ref="A234:A297" si="51">A233</f>
+        <v>25</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="C234" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-4</v>
+      </c>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+    </row>
+    <row r="235" spans="1:13" ht="15">
+      <c r="A235">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="C235" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-5</v>
+      </c>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+    </row>
+    <row r="236" spans="1:13" ht="15">
+      <c r="A236">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="C236" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-6</v>
+      </c>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+    </row>
+    <row r="237" spans="1:13" ht="15">
+      <c r="A237">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="49"/>
+        <v>7</v>
+      </c>
+      <c r="C237" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-7</v>
+      </c>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+    </row>
+    <row r="238" spans="1:13" ht="15">
+      <c r="A238">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="49"/>
+        <v>8</v>
+      </c>
+      <c r="C238" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-8</v>
+      </c>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+    </row>
+    <row r="239" spans="1:13" ht="15">
+      <c r="A239">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="C239" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-9</v>
+      </c>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+    </row>
+    <row r="240" spans="1:13" ht="15">
+      <c r="A240">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="C240" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-10</v>
+      </c>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+    </row>
+    <row r="241" spans="1:13" ht="15">
+      <c r="A241">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="C241" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-11</v>
+      </c>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+    </row>
+    <row r="242" spans="1:13" ht="15">
+      <c r="A242">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="49"/>
+        <v>12</v>
+      </c>
+      <c r="C242" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-12</v>
+      </c>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+    </row>
+    <row r="243" spans="1:13" ht="15">
+      <c r="A243">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="C243" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-13</v>
+      </c>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+    </row>
+    <row r="244" spans="1:13" ht="15">
+      <c r="A244">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="49"/>
+        <v>14</v>
+      </c>
+      <c r="C244" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-14</v>
+      </c>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+    </row>
+    <row r="245" spans="1:13" ht="15">
+      <c r="A245">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="49"/>
+        <v>15</v>
+      </c>
+      <c r="C245" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-15</v>
+      </c>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+    </row>
+    <row r="246" spans="1:13" ht="15">
+      <c r="A246">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="49"/>
+        <v>16</v>
+      </c>
+      <c r="C246" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-16</v>
+      </c>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+    </row>
+    <row r="247" spans="1:13" ht="15">
+      <c r="A247">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="49"/>
+        <v>17</v>
+      </c>
+      <c r="C247" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-17</v>
+      </c>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+    </row>
+    <row r="248" spans="1:13" ht="15">
+      <c r="A248">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="49"/>
+        <v>18</v>
+      </c>
+      <c r="C248" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-18</v>
+      </c>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+    </row>
+    <row r="249" spans="1:13" ht="15">
+      <c r="A249">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="49"/>
+        <v>19</v>
+      </c>
+      <c r="C249" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-19</v>
+      </c>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+    </row>
+    <row r="250" spans="1:13" ht="15">
+      <c r="A250">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="49"/>
+        <v>20</v>
+      </c>
+      <c r="C250" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-20</v>
+      </c>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+    </row>
+    <row r="251" spans="1:13" ht="15">
+      <c r="A251">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="49"/>
+        <v>21</v>
+      </c>
+      <c r="C251" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-21</v>
+      </c>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+    </row>
+    <row r="252" spans="1:13" ht="15">
+      <c r="A252">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="49"/>
+        <v>22</v>
+      </c>
+      <c r="C252" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-22</v>
+      </c>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+    </row>
+    <row r="253" spans="1:13" ht="15">
+      <c r="A253">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="49"/>
+        <v>23</v>
+      </c>
+      <c r="C253" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-23</v>
+      </c>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+    </row>
+    <row r="254" spans="1:13" ht="15">
+      <c r="A254">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="49"/>
+        <v>24</v>
+      </c>
+      <c r="C254" s="3" t="str">
+        <f t="shared" si="50"/>
+        <v>25-24</v>
+      </c>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+    </row>
+    <row r="255" spans="1:13" ht="15">
+      <c r="A255">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B255">
         <f t="shared" si="49"/>
         <v>25</v>
       </c>
-      <c r="B234">
-        <f t="shared" si="47"/>
-        <v>5</v>
-      </c>
-      <c r="C234" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-5</v>
-      </c>
-      <c r="L234" s="6"/>
-      <c r="M234" s="6"/>
-    </row>
-    <row r="235" spans="1:13" ht="15">
-      <c r="A235">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B235">
-        <f t="shared" si="47"/>
-        <v>6</v>
-      </c>
-      <c r="C235" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-6</v>
-      </c>
-      <c r="L235" s="6"/>
-      <c r="M235" s="6"/>
-    </row>
-    <row r="236" spans="1:13" ht="15">
-      <c r="A236">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B236">
-        <f t="shared" si="47"/>
-        <v>7</v>
-      </c>
-      <c r="C236" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-7</v>
-      </c>
-      <c r="L236" s="6"/>
-      <c r="M236" s="6"/>
-    </row>
-    <row r="237" spans="1:13" ht="15">
-      <c r="A237">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B237">
-        <f t="shared" si="47"/>
-        <v>8</v>
-      </c>
-      <c r="C237" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-8</v>
-      </c>
-      <c r="L237" s="6"/>
-      <c r="M237" s="6"/>
-    </row>
-    <row r="238" spans="1:13" ht="15">
-      <c r="A238">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B238">
-        <f t="shared" si="47"/>
-        <v>9</v>
-      </c>
-      <c r="C238" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-9</v>
-      </c>
-      <c r="L238" s="6"/>
-      <c r="M238" s="6"/>
-    </row>
-    <row r="239" spans="1:13" ht="15">
-      <c r="A239">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B239">
-        <f t="shared" si="47"/>
-        <v>10</v>
-      </c>
-      <c r="C239" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-10</v>
-      </c>
-      <c r="L239" s="6"/>
-      <c r="M239" s="6"/>
-    </row>
-    <row r="240" spans="1:13" ht="15">
-      <c r="A240">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B240">
-        <f t="shared" si="47"/>
-        <v>11</v>
-      </c>
-      <c r="C240" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-11</v>
-      </c>
-      <c r="L240" s="6"/>
-      <c r="M240" s="6"/>
-    </row>
-    <row r="241" spans="1:13" ht="15">
-      <c r="A241">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B241">
-        <f t="shared" si="47"/>
-        <v>12</v>
-      </c>
-      <c r="C241" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-12</v>
-      </c>
-      <c r="L241" s="6"/>
-      <c r="M241" s="6"/>
-    </row>
-    <row r="242" spans="1:13" ht="15">
-      <c r="A242">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B242">
-        <f t="shared" si="47"/>
-        <v>13</v>
-      </c>
-      <c r="C242" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-13</v>
-      </c>
-      <c r="L242" s="6"/>
-      <c r="M242" s="6"/>
-    </row>
-    <row r="243" spans="1:13" ht="15">
-      <c r="A243">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B243">
-        <f t="shared" si="47"/>
-        <v>14</v>
-      </c>
-      <c r="C243" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-14</v>
-      </c>
-      <c r="L243" s="6"/>
-      <c r="M243" s="6"/>
-    </row>
-    <row r="244" spans="1:13" ht="15">
-      <c r="A244">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="47"/>
-        <v>15</v>
-      </c>
-      <c r="C244" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-15</v>
-      </c>
-      <c r="L244" s="6"/>
-      <c r="M244" s="6"/>
-    </row>
-    <row r="245" spans="1:13" ht="15">
-      <c r="A245">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="47"/>
-        <v>16</v>
-      </c>
-      <c r="C245" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-16</v>
-      </c>
-      <c r="L245" s="6"/>
-      <c r="M245" s="6"/>
-    </row>
-    <row r="246" spans="1:13" ht="15">
-      <c r="A246">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="47"/>
-        <v>17</v>
-      </c>
-      <c r="C246" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-17</v>
-      </c>
-      <c r="L246" s="6"/>
-      <c r="M246" s="6"/>
-    </row>
-    <row r="247" spans="1:13" ht="15">
-      <c r="A247">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="47"/>
-        <v>18</v>
-      </c>
-      <c r="C247" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-18</v>
-      </c>
-      <c r="L247" s="6"/>
-      <c r="M247" s="6"/>
-    </row>
-    <row r="248" spans="1:13" ht="15">
-      <c r="A248">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="47"/>
-        <v>19</v>
-      </c>
-      <c r="C248" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-19</v>
-      </c>
-      <c r="L248" s="6"/>
-      <c r="M248" s="6"/>
-    </row>
-    <row r="249" spans="1:13" ht="15">
-      <c r="A249">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="47"/>
-        <v>20</v>
-      </c>
-      <c r="C249" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-20</v>
-      </c>
-      <c r="L249" s="6"/>
-      <c r="M249" s="6"/>
-    </row>
-    <row r="250" spans="1:13" ht="15">
-      <c r="A250">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="47"/>
-        <v>21</v>
-      </c>
-      <c r="C250" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-21</v>
-      </c>
-      <c r="L250" s="6"/>
-      <c r="M250" s="6"/>
-    </row>
-    <row r="251" spans="1:13" ht="15">
-      <c r="A251">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="47"/>
-        <v>22</v>
-      </c>
-      <c r="C251" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-22</v>
-      </c>
-      <c r="L251" s="6"/>
-      <c r="M251" s="6"/>
-    </row>
-    <row r="252" spans="1:13" ht="15">
-      <c r="A252">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="47"/>
-        <v>23</v>
-      </c>
-      <c r="C252" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-23</v>
-      </c>
-      <c r="L252" s="6"/>
-      <c r="M252" s="6"/>
-    </row>
-    <row r="253" spans="1:13" ht="15">
-      <c r="A253">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="47"/>
-        <v>24</v>
-      </c>
-      <c r="C253" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-24</v>
-      </c>
-      <c r="L253" s="6"/>
-      <c r="M253" s="6"/>
-    </row>
-    <row r="254" spans="1:13" ht="15">
-      <c r="A254">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B254">
-        <f t="shared" si="47"/>
-        <v>25</v>
-      </c>
-      <c r="C254" s="3" t="str">
-        <f t="shared" si="48"/>
+      <c r="C255" s="3" t="str">
+        <f t="shared" si="50"/>
         <v>25-25</v>
-      </c>
-      <c r="L254" s="6"/>
-      <c r="M254" s="6"/>
-    </row>
-    <row r="255" spans="1:13" ht="15">
-      <c r="A255">
-        <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B255">
-        <f t="shared" si="47"/>
-        <v>26</v>
-      </c>
-      <c r="C255" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-26</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B256">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B256">
-        <f t="shared" si="47"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-27</v>
+        <f t="shared" si="50"/>
+        <v>25-26</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
     </row>
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B257">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B257">
-        <f t="shared" si="47"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-28</v>
+        <f t="shared" si="50"/>
+        <v>25-27</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
     </row>
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B258">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B258">
-        <f t="shared" si="47"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-29</v>
+        <f t="shared" si="50"/>
+        <v>25-28</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
     </row>
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B259">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B259">
-        <f t="shared" si="47"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-30</v>
+        <f t="shared" si="50"/>
+        <v>25-29</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
     </row>
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B260">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="47"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-31</v>
+        <f t="shared" si="50"/>
+        <v>25-30</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
     </row>
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B261">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="47"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-32</v>
+        <f t="shared" si="50"/>
+        <v>25-31</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
     </row>
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B262">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B262">
-        <f t="shared" si="47"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-33</v>
+        <f t="shared" si="50"/>
+        <v>25-32</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
     </row>
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B263">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B263">
-        <f t="shared" si="47"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-34</v>
+        <f t="shared" si="50"/>
+        <v>25-33</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
     </row>
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B264">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B264">
-        <f t="shared" si="47"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-35</v>
+        <f t="shared" si="50"/>
+        <v>25-34</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
     </row>
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B265">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B265">
-        <f t="shared" si="47"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-36</v>
+        <f t="shared" si="50"/>
+        <v>25-35</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
     </row>
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B266">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B266">
-        <f t="shared" si="47"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-37</v>
+        <f t="shared" si="50"/>
+        <v>25-36</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
     </row>
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B267">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B267">
-        <f t="shared" si="47"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-38</v>
+        <f t="shared" si="50"/>
+        <v>25-37</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
     </row>
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B268">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B268">
-        <f t="shared" si="47"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-39</v>
+        <f t="shared" si="50"/>
+        <v>25-38</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
     </row>
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B269">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B269">
-        <f t="shared" si="47"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-40</v>
+        <f t="shared" si="50"/>
+        <v>25-39</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
     </row>
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B270">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B270">
-        <f t="shared" si="47"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-41</v>
+        <f t="shared" si="50"/>
+        <v>25-40</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
     </row>
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B271">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B271">
-        <f t="shared" si="47"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-42</v>
+        <f t="shared" si="50"/>
+        <v>25-41</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
     </row>
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B272">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B272">
-        <f t="shared" si="47"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-43</v>
+        <f t="shared" si="50"/>
+        <v>25-42</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
     </row>
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B273">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B273">
-        <f t="shared" si="47"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-44</v>
+        <f t="shared" si="50"/>
+        <v>25-43</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
     </row>
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B274">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="47"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-45</v>
+        <f t="shared" si="50"/>
+        <v>25-44</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
     </row>
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B275">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="47"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-46</v>
+        <f t="shared" si="50"/>
+        <v>25-45</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
     </row>
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B276">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="47"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-47</v>
+        <f t="shared" si="50"/>
+        <v>25-46</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
     </row>
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B277">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B277">
-        <f t="shared" si="47"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-48</v>
+        <f t="shared" si="50"/>
+        <v>25-47</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
     </row>
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B278">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B278">
-        <f t="shared" si="47"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-49</v>
+        <f t="shared" si="50"/>
+        <v>25-48</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
     </row>
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B279">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B279">
-        <f t="shared" si="47"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-50</v>
+        <f t="shared" si="50"/>
+        <v>25-49</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
     </row>
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B280">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B280">
-        <f t="shared" si="47"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-51</v>
+        <f t="shared" si="50"/>
+        <v>25-50</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
     </row>
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B281">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B281">
-        <f t="shared" si="47"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-52</v>
+        <f t="shared" si="50"/>
+        <v>25-51</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
     </row>
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B282">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B282">
-        <f t="shared" si="47"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-53</v>
+        <f t="shared" si="50"/>
+        <v>25-52</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
     </row>
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B283">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B283">
-        <f t="shared" si="47"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-54</v>
+        <f t="shared" si="50"/>
+        <v>25-53</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
     </row>
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B284">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B284">
-        <f t="shared" si="47"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-55</v>
+        <f t="shared" si="50"/>
+        <v>25-54</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
     </row>
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B285">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B285">
-        <f t="shared" si="47"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-56</v>
+        <f t="shared" si="50"/>
+        <v>25-55</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
     </row>
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B286">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B286">
-        <f t="shared" si="47"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-57</v>
+        <f t="shared" si="50"/>
+        <v>25-56</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
     </row>
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B287">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="47"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-58</v>
+        <f t="shared" si="50"/>
+        <v>25-57</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
     </row>
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B288">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="47"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-59</v>
+        <f t="shared" si="50"/>
+        <v>25-58</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
     </row>
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B289">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="47"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-60</v>
+        <f t="shared" si="50"/>
+        <v>25-59</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
     </row>
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B290">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B290">
-        <f t="shared" si="47"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-61</v>
+        <f t="shared" si="50"/>
+        <v>25-60</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
     </row>
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B291">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B291">
-        <f t="shared" si="47"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-62</v>
+        <f t="shared" si="50"/>
+        <v>25-61</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
     </row>
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B292">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B292">
-        <f t="shared" si="47"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-63</v>
+        <f t="shared" si="50"/>
+        <v>25-62</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
     </row>
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B293">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B293">
-        <f t="shared" si="47"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-64</v>
+        <f t="shared" si="50"/>
+        <v>25-63</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
     </row>
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B294">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B294">
-        <f t="shared" si="47"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-65</v>
+        <f t="shared" si="50"/>
+        <v>25-64</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
     </row>
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B295">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B295">
-        <f t="shared" si="47"/>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f t="shared" si="48"/>
-        <v>25-66</v>
+        <f t="shared" si="50"/>
+        <v>25-65</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
     </row>
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
+        <f t="shared" si="51"/>
+        <v>25</v>
+      </c>
+      <c r="B296">
         <f t="shared" si="49"/>
-        <v>25</v>
-      </c>
-      <c r="B296">
-        <f t="shared" ref="B296:B359" si="50">IF(A296=A295,B295+1,1)</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f t="shared" ref="C296:C359" si="51">CONCATENATE(A296,"-",B296)</f>
-        <v>25-67</v>
+        <f t="shared" si="50"/>
+        <v>25-66</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
     </row>
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
-        <f t="shared" ref="A297:A360" si="52">A296</f>
+        <f t="shared" si="51"/>
         <v>25</v>
       </c>
       <c r="B297">
-        <f t="shared" si="50"/>
-        <v>68</v>
+        <f t="shared" ref="B297:B360" si="52">IF(A297=A296,B296+1,1)</f>
+        <v>67</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-68</v>
+        <f t="shared" ref="C297:C360" si="53">CONCATENATE(A297,"-",B297)</f>
+        <v>25-67</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
     </row>
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
+        <f t="shared" ref="A298:A361" si="54">A297</f>
+        <v>25</v>
+      </c>
+      <c r="B298">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B298">
-        <f t="shared" si="50"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-69</v>
+        <f t="shared" si="53"/>
+        <v>25-68</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
     </row>
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B299">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B299">
-        <f t="shared" si="50"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-70</v>
+        <f t="shared" si="53"/>
+        <v>25-69</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
     </row>
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B300">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B300">
-        <f t="shared" si="50"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-71</v>
+        <f t="shared" si="53"/>
+        <v>25-70</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
     </row>
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B301">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B301">
-        <f t="shared" si="50"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-72</v>
+        <f t="shared" si="53"/>
+        <v>25-71</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
     </row>
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B302">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B302">
-        <f t="shared" si="50"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-73</v>
+        <f t="shared" si="53"/>
+        <v>25-72</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
     </row>
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B303">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B303">
-        <f t="shared" si="50"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-74</v>
+        <f t="shared" si="53"/>
+        <v>25-73</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
     </row>
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B304">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B304">
-        <f t="shared" si="50"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-75</v>
+        <f t="shared" si="53"/>
+        <v>25-74</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
     </row>
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B305">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B305">
-        <f t="shared" si="50"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-76</v>
+        <f t="shared" si="53"/>
+        <v>25-75</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
     </row>
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B306">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B306">
-        <f t="shared" si="50"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-77</v>
+        <f t="shared" si="53"/>
+        <v>25-76</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
     </row>
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B307">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B307">
-        <f t="shared" si="50"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-78</v>
+        <f t="shared" si="53"/>
+        <v>25-77</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
     </row>
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B308">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B308">
-        <f t="shared" si="50"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-79</v>
+        <f t="shared" si="53"/>
+        <v>25-78</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
     </row>
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B309">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B309">
-        <f t="shared" si="50"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-80</v>
+        <f t="shared" si="53"/>
+        <v>25-79</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
     </row>
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B310">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B310">
-        <f t="shared" si="50"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-81</v>
+        <f t="shared" si="53"/>
+        <v>25-80</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
     </row>
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B311">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B311">
-        <f t="shared" si="50"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-82</v>
+        <f t="shared" si="53"/>
+        <v>25-81</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
     </row>
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B312">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B312">
-        <f t="shared" si="50"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-83</v>
+        <f t="shared" si="53"/>
+        <v>25-82</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
     </row>
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B313">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B313">
-        <f t="shared" si="50"/>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-84</v>
+        <f t="shared" si="53"/>
+        <v>25-83</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
     </row>
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B314">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B314">
-        <f t="shared" si="50"/>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-85</v>
+        <f t="shared" si="53"/>
+        <v>25-84</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
     </row>
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B315">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B315">
-        <f t="shared" si="50"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-86</v>
+        <f t="shared" si="53"/>
+        <v>25-85</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
     </row>
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B316">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B316">
-        <f t="shared" si="50"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-87</v>
+        <f t="shared" si="53"/>
+        <v>25-86</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
     </row>
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B317">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B317">
-        <f t="shared" si="50"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-88</v>
+        <f t="shared" si="53"/>
+        <v>25-87</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
     </row>
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B318">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B318">
-        <f t="shared" si="50"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-89</v>
+        <f t="shared" si="53"/>
+        <v>25-88</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
     </row>
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B319">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B319">
-        <f t="shared" si="50"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-90</v>
+        <f t="shared" si="53"/>
+        <v>25-89</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
     </row>
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B320">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B320">
-        <f t="shared" si="50"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-91</v>
+        <f t="shared" si="53"/>
+        <v>25-90</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
     </row>
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B321">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B321">
-        <f t="shared" si="50"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-92</v>
+        <f t="shared" si="53"/>
+        <v>25-91</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
     </row>
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B322">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B322">
-        <f t="shared" si="50"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-93</v>
+        <f t="shared" si="53"/>
+        <v>25-92</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
     </row>
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B323">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B323">
-        <f t="shared" si="50"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-94</v>
+        <f t="shared" si="53"/>
+        <v>25-93</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
     </row>
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B324">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B324">
-        <f t="shared" si="50"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-95</v>
+        <f t="shared" si="53"/>
+        <v>25-94</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
     </row>
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B325">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B325">
-        <f t="shared" si="50"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-96</v>
+        <f t="shared" si="53"/>
+        <v>25-95</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
     </row>
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B326">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B326">
-        <f t="shared" si="50"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-97</v>
+        <f t="shared" si="53"/>
+        <v>25-96</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
     </row>
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B327">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B327">
-        <f t="shared" si="50"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-98</v>
+        <f t="shared" si="53"/>
+        <v>25-97</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
     </row>
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B328">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B328">
-        <f t="shared" si="50"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-99</v>
+        <f t="shared" si="53"/>
+        <v>25-98</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
     </row>
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B329">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B329">
-        <f t="shared" si="50"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-100</v>
+        <f t="shared" si="53"/>
+        <v>25-99</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
     </row>
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B330">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B330">
-        <f t="shared" si="50"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-101</v>
+        <f t="shared" si="53"/>
+        <v>25-100</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
     </row>
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B331">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B331">
-        <f t="shared" si="50"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-102</v>
+        <f t="shared" si="53"/>
+        <v>25-101</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
     </row>
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B332">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B332">
-        <f t="shared" si="50"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-103</v>
+        <f t="shared" si="53"/>
+        <v>25-102</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
     </row>
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B333">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B333">
-        <f t="shared" si="50"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-104</v>
+        <f t="shared" si="53"/>
+        <v>25-103</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
     </row>
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B334">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B334">
-        <f t="shared" si="50"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-105</v>
+        <f t="shared" si="53"/>
+        <v>25-104</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
     </row>
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B335">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B335">
-        <f t="shared" si="50"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-106</v>
+        <f t="shared" si="53"/>
+        <v>25-105</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
     </row>
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B336">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B336">
-        <f t="shared" si="50"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-107</v>
+        <f t="shared" si="53"/>
+        <v>25-106</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
     </row>
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B337">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B337">
-        <f t="shared" si="50"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-108</v>
+        <f t="shared" si="53"/>
+        <v>25-107</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
     </row>
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B338">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B338">
-        <f t="shared" si="50"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-109</v>
+        <f t="shared" si="53"/>
+        <v>25-108</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
     </row>
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B339">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B339">
-        <f t="shared" si="50"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-110</v>
+        <f t="shared" si="53"/>
+        <v>25-109</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
     </row>
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B340">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B340">
-        <f t="shared" si="50"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-111</v>
+        <f t="shared" si="53"/>
+        <v>25-110</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
     </row>
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B341">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B341">
-        <f t="shared" si="50"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-112</v>
+        <f t="shared" si="53"/>
+        <v>25-111</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
     </row>
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B342">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B342">
-        <f t="shared" si="50"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-113</v>
+        <f t="shared" si="53"/>
+        <v>25-112</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
     </row>
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B343">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B343">
-        <f t="shared" si="50"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-114</v>
+        <f t="shared" si="53"/>
+        <v>25-113</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
     </row>
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B344">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B344">
-        <f t="shared" si="50"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-115</v>
+        <f t="shared" si="53"/>
+        <v>25-114</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
     </row>
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B345">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B345">
-        <f t="shared" si="50"/>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-116</v>
+        <f t="shared" si="53"/>
+        <v>25-115</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
     </row>
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B346">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B346">
-        <f t="shared" si="50"/>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-117</v>
+        <f t="shared" si="53"/>
+        <v>25-116</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
     </row>
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B347">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B347">
-        <f t="shared" si="50"/>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C347" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-118</v>
+        <f t="shared" si="53"/>
+        <v>25-117</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
     </row>
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B348">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B348">
-        <f t="shared" si="50"/>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C348" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-119</v>
+        <f t="shared" si="53"/>
+        <v>25-118</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
     </row>
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B349">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B349">
-        <f t="shared" si="50"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C349" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-120</v>
+        <f t="shared" si="53"/>
+        <v>25-119</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B350">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B350">
-        <f t="shared" si="50"/>
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C350" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-121</v>
+        <f t="shared" si="53"/>
+        <v>25-120</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
     </row>
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B351">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B351">
-        <f t="shared" si="50"/>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C351" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-122</v>
+        <f t="shared" si="53"/>
+        <v>25-121</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
     </row>
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B352">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B352">
-        <f t="shared" si="50"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C352" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-123</v>
+        <f t="shared" si="53"/>
+        <v>25-122</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
     </row>
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B353">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B353">
-        <f t="shared" si="50"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-124</v>
+        <f t="shared" si="53"/>
+        <v>25-123</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
     </row>
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B354">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B354">
-        <f t="shared" si="50"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C354" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-125</v>
+        <f t="shared" si="53"/>
+        <v>25-124</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
     </row>
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B355">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B355">
-        <f t="shared" si="50"/>
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C355" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-126</v>
+        <f t="shared" si="53"/>
+        <v>25-125</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
     </row>
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B356">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B356">
-        <f t="shared" si="50"/>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C356" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-127</v>
+        <f t="shared" si="53"/>
+        <v>25-126</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
     </row>
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B357">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B357">
-        <f t="shared" si="50"/>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C357" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-128</v>
+        <f t="shared" si="53"/>
+        <v>25-127</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
     </row>
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B358">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B358">
-        <f t="shared" si="50"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C358" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-129</v>
+        <f t="shared" si="53"/>
+        <v>25-128</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
     </row>
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B359">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B359">
-        <f t="shared" si="50"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C359" s="3" t="str">
-        <f t="shared" si="51"/>
-        <v>25-130</v>
+        <f t="shared" si="53"/>
+        <v>25-129</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
     </row>
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
+        <f t="shared" si="54"/>
+        <v>25</v>
+      </c>
+      <c r="B360">
         <f t="shared" si="52"/>
-        <v>25</v>
-      </c>
-      <c r="B360">
-        <f t="shared" ref="B360:B381" si="53">IF(A360=A359,B359+1,1)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C360" s="3" t="str">
-        <f t="shared" ref="C360:C381" si="54">CONCATENATE(A360,"-",B360)</f>
-        <v>25-131</v>
+        <f t="shared" si="53"/>
+        <v>25-130</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
     </row>
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
-        <f t="shared" ref="A361:A381" si="55">A360</f>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
       <c r="B361">
-        <f t="shared" si="53"/>
-        <v>132</v>
+        <f t="shared" ref="B361:B382" si="55">IF(A361=A360,B360+1,1)</f>
+        <v>131</v>
       </c>
       <c r="C361" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-132</v>
+        <f t="shared" ref="C361:C382" si="56">CONCATENATE(A361,"-",B361)</f>
+        <v>25-131</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
     </row>
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
+        <f t="shared" ref="A362:A382" si="57">A361</f>
+        <v>25</v>
+      </c>
+      <c r="B362">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B362">
-        <f t="shared" si="53"/>
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C362" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-133</v>
+        <f t="shared" si="56"/>
+        <v>25-132</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
     </row>
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B363">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B363">
-        <f t="shared" si="53"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C363" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-134</v>
+        <f t="shared" si="56"/>
+        <v>25-133</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
     </row>
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B364">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B364">
-        <f t="shared" si="53"/>
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C364" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-135</v>
+        <f t="shared" si="56"/>
+        <v>25-134</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
     </row>
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B365">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B365">
-        <f t="shared" si="53"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C365" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-136</v>
+        <f t="shared" si="56"/>
+        <v>25-135</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
     </row>
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B366">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B366">
-        <f t="shared" si="53"/>
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C366" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-137</v>
+        <f t="shared" si="56"/>
+        <v>25-136</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
     </row>
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B367">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B367">
-        <f t="shared" si="53"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C367" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-138</v>
+        <f t="shared" si="56"/>
+        <v>25-137</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
     </row>
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B368">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B368">
-        <f t="shared" si="53"/>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C368" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-139</v>
+        <f t="shared" si="56"/>
+        <v>25-138</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
     </row>
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B369">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B369">
-        <f t="shared" si="53"/>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C369" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-140</v>
+        <f t="shared" si="56"/>
+        <v>25-139</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
     </row>
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B370">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B370">
-        <f t="shared" si="53"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C370" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-141</v>
+        <f t="shared" si="56"/>
+        <v>25-140</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
     </row>
     <row r="371" spans="1:13" ht="15">
       <c r="A371">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B371">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B371">
-        <f t="shared" si="53"/>
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C371" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-142</v>
+        <f t="shared" si="56"/>
+        <v>25-141</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
     </row>
     <row r="372" spans="1:13" ht="15">
       <c r="A372">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B372">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B372">
-        <f t="shared" si="53"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C372" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-143</v>
+        <f t="shared" si="56"/>
+        <v>25-142</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
     </row>
     <row r="373" spans="1:13" ht="15">
       <c r="A373">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B373">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B373">
-        <f t="shared" si="53"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C373" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-144</v>
+        <f t="shared" si="56"/>
+        <v>25-143</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
     </row>
     <row r="374" spans="1:13" ht="15">
       <c r="A374">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B374">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B374">
-        <f t="shared" si="53"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C374" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-145</v>
+        <f t="shared" si="56"/>
+        <v>25-144</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
     </row>
     <row r="375" spans="1:13" ht="15">
       <c r="A375">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B375">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B375">
-        <f t="shared" si="53"/>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C375" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-146</v>
+        <f t="shared" si="56"/>
+        <v>25-145</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
     </row>
     <row r="376" spans="1:13" ht="15">
       <c r="A376">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B376">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B376">
-        <f t="shared" si="53"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C376" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-147</v>
+        <f t="shared" si="56"/>
+        <v>25-146</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
     </row>
     <row r="377" spans="1:13" ht="15">
       <c r="A377">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B377">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B377">
-        <f t="shared" si="53"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C377" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-148</v>
+        <f t="shared" si="56"/>
+        <v>25-147</v>
       </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
     </row>
     <row r="378" spans="1:13" ht="15">
       <c r="A378">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B378">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B378">
-        <f t="shared" si="53"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C378" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-149</v>
+        <f t="shared" si="56"/>
+        <v>25-148</v>
       </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
     </row>
     <row r="379" spans="1:13" ht="15">
       <c r="A379">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B379">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B379">
-        <f t="shared" si="53"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C379" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-150</v>
+        <f t="shared" si="56"/>
+        <v>25-149</v>
       </c>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
     </row>
     <row r="380" spans="1:13" ht="15">
       <c r="A380">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B380">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B380">
-        <f t="shared" si="53"/>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C380" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-151</v>
+        <f t="shared" si="56"/>
+        <v>25-150</v>
       </c>
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
     </row>
     <row r="381" spans="1:13" ht="15">
       <c r="A381">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B381">
         <f t="shared" si="55"/>
-        <v>25</v>
-      </c>
-      <c r="B381">
-        <f t="shared" si="53"/>
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C381" s="3" t="str">
-        <f t="shared" si="54"/>
-        <v>25-152</v>
+        <f t="shared" si="56"/>
+        <v>25-151</v>
       </c>
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
     </row>
-    <row r="382" spans="1:13" ht="12.75">
+    <row r="382" spans="1:13" ht="15">
+      <c r="A382">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="B382">
+        <f t="shared" si="55"/>
+        <v>152</v>
+      </c>
+      <c r="C382" s="3" t="str">
+        <f t="shared" si="56"/>
+        <v>25-152</v>
+      </c>
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
     </row>
@@ -14381,323 +14326,327 @@
       <c r="L1068" s="6"/>
       <c r="M1068" s="6"/>
     </row>
+    <row r="1069" spans="12:13" ht="12.75">
+      <c r="L1069" s="6"/>
+      <c r="M1069" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L187:L190"/>
+    <mergeCell ref="L188:L191"/>
   </mergeCells>
-  <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsBlanks" dxfId="68" priority="67">
+  <conditionalFormatting sqref="K2:K199">
+    <cfRule type="containsBlanks" dxfId="62" priority="67">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K2:K199">
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K198">
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K2:K199">
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsBlanks" dxfId="65" priority="64">
-      <formula>LEN(TRIM(K199))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K199">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K199))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsBlanks" dxfId="62" priority="58">
+    <cfRule type="containsBlanks" dxfId="59" priority="64">
       <formula>LEN(TRIM(K200))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200">
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="57" priority="66" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K200))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsBlanks" dxfId="59" priority="55">
+    <cfRule type="containsBlanks" dxfId="56" priority="58">
       <formula>LEN(TRIM(K201))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="58" priority="56" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K201">
-    <cfRule type="containsText" dxfId="57" priority="57" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="54" priority="60" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K201))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsBlanks" dxfId="56" priority="52">
+    <cfRule type="containsBlanks" dxfId="53" priority="55">
       <formula>LEN(TRIM(K202))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="55" priority="53" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K202">
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K202))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsBlanks" dxfId="50" priority="52">
+      <formula>LEN(TRIM(K203))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsBlanks" dxfId="47" priority="49">
+      <formula>LEN(TRIM(K205))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsBlanks" dxfId="46" priority="46">
+      <formula>LEN(TRIM(K207))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsBlanks" dxfId="45" priority="43">
+      <formula>LEN(TRIM(K209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsBlanks" dxfId="44" priority="40">
+      <formula>LEN(TRIM(K210))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsBlanks" dxfId="43" priority="37">
+      <formula>LEN(TRIM(K212))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsBlanks" dxfId="42" priority="34">
+      <formula>LEN(TRIM(K214))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216 K231:K232 K219:K229">
+    <cfRule type="containsBlanks" dxfId="41" priority="31">
+      <formula>LEN(TRIM(K216))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsBlanks" dxfId="40" priority="25">
+      <formula>LEN(TRIM(K206))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="39" priority="50" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205">
+    <cfRule type="containsText" dxfId="38" priority="51" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsBlanks" dxfId="37" priority="22">
+      <formula>LEN(TRIM(K208))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsText" dxfId="36" priority="47" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K207">
+    <cfRule type="containsText" dxfId="35" priority="48" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsBlanks" dxfId="53" priority="49">
+    <cfRule type="containsBlanks" dxfId="34" priority="19">
       <formula>LEN(TRIM(K204))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsText" dxfId="33" priority="44" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209">
+    <cfRule type="containsText" dxfId="32" priority="45" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K211">
+    <cfRule type="containsBlanks" dxfId="31" priority="16">
+      <formula>LEN(TRIM(K211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsText" dxfId="30" priority="41" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K210">
+    <cfRule type="containsText" dxfId="29" priority="42" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K213">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
+      <formula>LEN(TRIM(K213))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsText" dxfId="27" priority="38" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K212">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K215">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
+      <formula>LEN(TRIM(K215))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K214))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K214))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216 K231:K232 K219:K229">
+    <cfRule type="containsText" dxfId="22" priority="32" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K216))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K216 K231:K232 K219:K229">
+    <cfRule type="containsText" dxfId="21" priority="33" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K216))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K206">
-    <cfRule type="containsBlanks" dxfId="52" priority="46">
-      <formula>LEN(TRIM(K206))=0</formula>
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K206">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K208">
-    <cfRule type="containsBlanks" dxfId="51" priority="43">
-      <formula>LEN(TRIM(K208))=0</formula>
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsBlanks" dxfId="50" priority="40">
-      <formula>LEN(TRIM(K209))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K211">
-    <cfRule type="containsBlanks" dxfId="49" priority="37">
-      <formula>LEN(TRIM(K211))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K213">
-    <cfRule type="containsBlanks" dxfId="48" priority="34">
-      <formula>LEN(TRIM(K213))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
-    <cfRule type="containsBlanks" dxfId="47" priority="31">
-      <formula>LEN(TRIM(K215))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsBlanks" dxfId="46" priority="25">
-      <formula>LEN(TRIM(K205))=0</formula>
+  <conditionalFormatting sqref="K208">
+    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K204">
-    <cfRule type="containsText" dxfId="44" priority="51" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K204))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsBlanks" dxfId="43" priority="22">
-      <formula>LEN(TRIM(K207))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K206))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K206">
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K206))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsBlanks" dxfId="40" priority="19">
-      <formula>LEN(TRIM(K203))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K208">
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K208))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsBlanks" dxfId="37" priority="16">
-      <formula>LEN(TRIM(K210))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K209))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K209">
-    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K209))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212">
-    <cfRule type="containsBlanks" dxfId="34" priority="13">
-      <formula>LEN(TRIM(K212))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K211">
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K211))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K214">
-    <cfRule type="containsBlanks" dxfId="31" priority="10">
-      <formula>LEN(TRIM(K214))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K213">
-    <cfRule type="containsText" dxfId="29" priority="36" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K213))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="pass">
+  <conditionalFormatting sqref="K215">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K215))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K215 K230:K231 K218:K228">
-    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="fail">
+  <conditionalFormatting sqref="K215">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K215))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K205))))</formula>
+  <conditionalFormatting sqref="K230">
+    <cfRule type="containsBlanks" dxfId="8" priority="7">
+      <formula>LEN(TRIM(K230))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K205">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K205))))</formula>
+  <conditionalFormatting sqref="K230">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K230))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K207">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K207))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K203))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K203))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K210))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K210">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K210))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K212))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K212">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K212))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K214">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K214))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K214">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K214))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K229">
-    <cfRule type="containsBlanks" dxfId="14" priority="7">
-      <formula>LEN(TRIM(K229))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K229">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K229))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K229">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K229))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K216">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
-      <formula>LEN(TRIM(K216))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K216">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="pass">
-      <formula>NOT(ISERROR(SEARCH(("pass"),(K216))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K216">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="fail">
-      <formula>NOT(ISERROR(SEARCH(("fail"),(K216))))</formula>
+  <conditionalFormatting sqref="K230">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K230))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(K217))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="pass">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH(("pass"),(K217))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K217">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="fail">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH(("fail"),(K217))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(K218))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="pass">
+      <formula>NOT(ISERROR(SEARCH(("pass"),(K218))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K218">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="fail">
+      <formula>NOT(ISERROR(SEARCH(("fail"),(K218))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testing/manual_system_tests_template.xlsx
+++ b/testing/manual_system_tests_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="298">
   <si>
     <t>Test Number</t>
   </si>
@@ -902,6 +902,15 @@
   </si>
   <si>
     <t>Add a component to a synoptic. Change its type at least twice. Confirm that each time the target details switch to the default for the selected type</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Open the about dialog from the help menu. The server version and client version are displayed correctly</t>
+  </si>
+  <si>
+    <t>Switch to a different instrument. Repeat above</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,175 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2389,8 +2566,8 @@
   <dimension ref="A1:N1069"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G179" sqref="G179"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9182,50 +9359,73 @@
       <c r="L232" s="26"/>
       <c r="M232" s="6"/>
     </row>
-    <row r="233" spans="1:13" ht="15">
+    <row r="233" spans="1:13" ht="39">
       <c r="A233">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B233">
         <f t="shared" ref="B233:B296" si="49">IF(A233=A232,B232+1,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C233" s="3" t="str">
         <f t="shared" ref="C233:C296" si="50">CONCATENATE(A233,"-",B233)</f>
-        <v>25-3</v>
-      </c>
-      <c r="L233" s="6"/>
+        <v>26-1</v>
+      </c>
+      <c r="D233" s="23"/>
+      <c r="E233" s="23"/>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I233" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="J233" s="23"/>
+      <c r="K233" s="21"/>
+      <c r="L233" s="26"/>
       <c r="M233" s="6"/>
     </row>
     <row r="234" spans="1:13" ht="15">
       <c r="A234">
         <f t="shared" ref="A234:A297" si="51">A233</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B234">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C234" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-4</v>
-      </c>
-      <c r="L234" s="6"/>
+        <v>26-2</v>
+      </c>
+      <c r="D234" s="23"/>
+      <c r="E234" s="23"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I234" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="J234" s="23"/>
+      <c r="K234" s="21"/>
+      <c r="L234" s="26"/>
       <c r="M234" s="6"/>
     </row>
     <row r="235" spans="1:13" ht="15">
       <c r="A235">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B235">
         <f t="shared" si="49"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-5</v>
+        <v>26-3</v>
       </c>
       <c r="L235" s="6"/>
       <c r="M235" s="6"/>
@@ -9233,15 +9433,15 @@
     <row r="236" spans="1:13" ht="15">
       <c r="A236">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B236">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C236" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-6</v>
+        <v>26-4</v>
       </c>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
@@ -9249,15 +9449,15 @@
     <row r="237" spans="1:13" ht="15">
       <c r="A237">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B237">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-7</v>
+        <v>26-5</v>
       </c>
       <c r="L237" s="6"/>
       <c r="M237" s="6"/>
@@ -9265,15 +9465,15 @@
     <row r="238" spans="1:13" ht="15">
       <c r="A238">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B238">
         <f t="shared" si="49"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-8</v>
+        <v>26-6</v>
       </c>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
@@ -9281,15 +9481,15 @@
     <row r="239" spans="1:13" ht="15">
       <c r="A239">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B239">
         <f t="shared" si="49"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C239" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-9</v>
+        <v>26-7</v>
       </c>
       <c r="L239" s="6"/>
       <c r="M239" s="6"/>
@@ -9297,15 +9497,15 @@
     <row r="240" spans="1:13" ht="15">
       <c r="A240">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B240">
         <f t="shared" si="49"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C240" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-10</v>
+        <v>26-8</v>
       </c>
       <c r="L240" s="6"/>
       <c r="M240" s="6"/>
@@ -9313,15 +9513,15 @@
     <row r="241" spans="1:13" ht="15">
       <c r="A241">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B241">
         <f t="shared" si="49"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C241" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-11</v>
+        <v>26-9</v>
       </c>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
@@ -9329,15 +9529,15 @@
     <row r="242" spans="1:13" ht="15">
       <c r="A242">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B242">
         <f t="shared" si="49"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C242" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-12</v>
+        <v>26-10</v>
       </c>
       <c r="L242" s="6"/>
       <c r="M242" s="6"/>
@@ -9345,15 +9545,15 @@
     <row r="243" spans="1:13" ht="15">
       <c r="A243">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B243">
         <f t="shared" si="49"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C243" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-13</v>
+        <v>26-11</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -9361,15 +9561,15 @@
     <row r="244" spans="1:13" ht="15">
       <c r="A244">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B244">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C244" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-14</v>
+        <v>26-12</v>
       </c>
       <c r="L244" s="6"/>
       <c r="M244" s="6"/>
@@ -9377,15 +9577,15 @@
     <row r="245" spans="1:13" ht="15">
       <c r="A245">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B245">
         <f t="shared" si="49"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C245" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-15</v>
+        <v>26-13</v>
       </c>
       <c r="L245" s="6"/>
       <c r="M245" s="6"/>
@@ -9393,15 +9593,15 @@
     <row r="246" spans="1:13" ht="15">
       <c r="A246">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B246">
         <f t="shared" si="49"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C246" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-16</v>
+        <v>26-14</v>
       </c>
       <c r="L246" s="6"/>
       <c r="M246" s="6"/>
@@ -9409,15 +9609,15 @@
     <row r="247" spans="1:13" ht="15">
       <c r="A247">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B247">
         <f t="shared" si="49"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C247" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-17</v>
+        <v>26-15</v>
       </c>
       <c r="L247" s="6"/>
       <c r="M247" s="6"/>
@@ -9425,15 +9625,15 @@
     <row r="248" spans="1:13" ht="15">
       <c r="A248">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B248">
         <f t="shared" si="49"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C248" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-18</v>
+        <v>26-16</v>
       </c>
       <c r="L248" s="6"/>
       <c r="M248" s="6"/>
@@ -9441,15 +9641,15 @@
     <row r="249" spans="1:13" ht="15">
       <c r="A249">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B249">
         <f t="shared" si="49"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C249" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-19</v>
+        <v>26-17</v>
       </c>
       <c r="L249" s="6"/>
       <c r="M249" s="6"/>
@@ -9457,15 +9657,15 @@
     <row r="250" spans="1:13" ht="15">
       <c r="A250">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B250">
         <f t="shared" si="49"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C250" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-20</v>
+        <v>26-18</v>
       </c>
       <c r="L250" s="6"/>
       <c r="M250" s="6"/>
@@ -9473,15 +9673,15 @@
     <row r="251" spans="1:13" ht="15">
       <c r="A251">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B251">
         <f t="shared" si="49"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C251" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-21</v>
+        <v>26-19</v>
       </c>
       <c r="L251" s="6"/>
       <c r="M251" s="6"/>
@@ -9489,15 +9689,15 @@
     <row r="252" spans="1:13" ht="15">
       <c r="A252">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B252">
         <f t="shared" si="49"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C252" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-22</v>
+        <v>26-20</v>
       </c>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
@@ -9505,15 +9705,15 @@
     <row r="253" spans="1:13" ht="15">
       <c r="A253">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B253">
         <f t="shared" si="49"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C253" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-23</v>
+        <v>26-21</v>
       </c>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
@@ -9521,15 +9721,15 @@
     <row r="254" spans="1:13" ht="15">
       <c r="A254">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B254">
         <f t="shared" si="49"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C254" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-24</v>
+        <v>26-22</v>
       </c>
       <c r="L254" s="6"/>
       <c r="M254" s="6"/>
@@ -9537,15 +9737,15 @@
     <row r="255" spans="1:13" ht="15">
       <c r="A255">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B255">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C255" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-25</v>
+        <v>26-23</v>
       </c>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
@@ -9553,15 +9753,15 @@
     <row r="256" spans="1:13" ht="15">
       <c r="A256">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B256">
         <f t="shared" si="49"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-26</v>
+        <v>26-24</v>
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
@@ -9569,15 +9769,15 @@
     <row r="257" spans="1:13" ht="15">
       <c r="A257">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B257">
         <f t="shared" si="49"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C257" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-27</v>
+        <v>26-25</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -9585,15 +9785,15 @@
     <row r="258" spans="1:13" ht="15">
       <c r="A258">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B258">
         <f t="shared" si="49"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C258" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-28</v>
+        <v>26-26</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
@@ -9601,15 +9801,15 @@
     <row r="259" spans="1:13" ht="15">
       <c r="A259">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B259">
         <f t="shared" si="49"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C259" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-29</v>
+        <v>26-27</v>
       </c>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
@@ -9617,15 +9817,15 @@
     <row r="260" spans="1:13" ht="15">
       <c r="A260">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B260">
         <f t="shared" si="49"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C260" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-30</v>
+        <v>26-28</v>
       </c>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
@@ -9633,15 +9833,15 @@
     <row r="261" spans="1:13" ht="15">
       <c r="A261">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B261">
         <f t="shared" si="49"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C261" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-31</v>
+        <v>26-29</v>
       </c>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
@@ -9649,15 +9849,15 @@
     <row r="262" spans="1:13" ht="15">
       <c r="A262">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B262">
         <f t="shared" si="49"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C262" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-32</v>
+        <v>26-30</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -9665,15 +9865,15 @@
     <row r="263" spans="1:13" ht="15">
       <c r="A263">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B263">
         <f t="shared" si="49"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C263" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-33</v>
+        <v>26-31</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -9681,15 +9881,15 @@
     <row r="264" spans="1:13" ht="15">
       <c r="A264">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B264">
         <f t="shared" si="49"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C264" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-34</v>
+        <v>26-32</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
@@ -9697,15 +9897,15 @@
     <row r="265" spans="1:13" ht="15">
       <c r="A265">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B265">
         <f t="shared" si="49"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C265" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-35</v>
+        <v>26-33</v>
       </c>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
@@ -9713,15 +9913,15 @@
     <row r="266" spans="1:13" ht="15">
       <c r="A266">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B266">
         <f t="shared" si="49"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C266" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-36</v>
+        <v>26-34</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -9729,15 +9929,15 @@
     <row r="267" spans="1:13" ht="15">
       <c r="A267">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B267">
         <f t="shared" si="49"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C267" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-37</v>
+        <v>26-35</v>
       </c>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
@@ -9745,15 +9945,15 @@
     <row r="268" spans="1:13" ht="15">
       <c r="A268">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B268">
         <f t="shared" si="49"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C268" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-38</v>
+        <v>26-36</v>
       </c>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
@@ -9761,15 +9961,15 @@
     <row r="269" spans="1:13" ht="15">
       <c r="A269">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B269">
         <f t="shared" si="49"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C269" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-39</v>
+        <v>26-37</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -9777,15 +9977,15 @@
     <row r="270" spans="1:13" ht="15">
       <c r="A270">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B270">
         <f t="shared" si="49"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C270" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-40</v>
+        <v>26-38</v>
       </c>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
@@ -9793,15 +9993,15 @@
     <row r="271" spans="1:13" ht="15">
       <c r="A271">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B271">
         <f t="shared" si="49"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C271" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-41</v>
+        <v>26-39</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
@@ -9809,15 +10009,15 @@
     <row r="272" spans="1:13" ht="15">
       <c r="A272">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B272">
         <f t="shared" si="49"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C272" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-42</v>
+        <v>26-40</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -9825,15 +10025,15 @@
     <row r="273" spans="1:13" ht="15">
       <c r="A273">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B273">
         <f t="shared" si="49"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C273" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-43</v>
+        <v>26-41</v>
       </c>
       <c r="L273" s="6"/>
       <c r="M273" s="6"/>
@@ -9841,15 +10041,15 @@
     <row r="274" spans="1:13" ht="15">
       <c r="A274">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B274">
         <f t="shared" si="49"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C274" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-44</v>
+        <v>26-42</v>
       </c>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
@@ -9857,15 +10057,15 @@
     <row r="275" spans="1:13" ht="15">
       <c r="A275">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B275">
         <f t="shared" si="49"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C275" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-45</v>
+        <v>26-43</v>
       </c>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
@@ -9873,15 +10073,15 @@
     <row r="276" spans="1:13" ht="15">
       <c r="A276">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B276">
         <f t="shared" si="49"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C276" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-46</v>
+        <v>26-44</v>
       </c>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
@@ -9889,15 +10089,15 @@
     <row r="277" spans="1:13" ht="15">
       <c r="A277">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B277">
         <f t="shared" si="49"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C277" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-47</v>
+        <v>26-45</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
@@ -9905,15 +10105,15 @@
     <row r="278" spans="1:13" ht="15">
       <c r="A278">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B278">
         <f t="shared" si="49"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C278" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-48</v>
+        <v>26-46</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -9921,15 +10121,15 @@
     <row r="279" spans="1:13" ht="15">
       <c r="A279">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B279">
         <f t="shared" si="49"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C279" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-49</v>
+        <v>26-47</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
@@ -9937,15 +10137,15 @@
     <row r="280" spans="1:13" ht="15">
       <c r="A280">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B280">
         <f t="shared" si="49"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C280" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-50</v>
+        <v>26-48</v>
       </c>
       <c r="L280" s="6"/>
       <c r="M280" s="6"/>
@@ -9953,15 +10153,15 @@
     <row r="281" spans="1:13" ht="15">
       <c r="A281">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B281">
         <f t="shared" si="49"/>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C281" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-51</v>
+        <v>26-49</v>
       </c>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
@@ -9969,15 +10169,15 @@
     <row r="282" spans="1:13" ht="15">
       <c r="A282">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B282">
         <f t="shared" si="49"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C282" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-52</v>
+        <v>26-50</v>
       </c>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
@@ -9985,15 +10185,15 @@
     <row r="283" spans="1:13" ht="15">
       <c r="A283">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B283">
         <f t="shared" si="49"/>
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C283" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-53</v>
+        <v>26-51</v>
       </c>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
@@ -10001,15 +10201,15 @@
     <row r="284" spans="1:13" ht="15">
       <c r="A284">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B284">
         <f t="shared" si="49"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C284" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-54</v>
+        <v>26-52</v>
       </c>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
@@ -10017,15 +10217,15 @@
     <row r="285" spans="1:13" ht="15">
       <c r="A285">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B285">
         <f t="shared" si="49"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C285" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-55</v>
+        <v>26-53</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -10033,15 +10233,15 @@
     <row r="286" spans="1:13" ht="15">
       <c r="A286">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B286">
         <f t="shared" si="49"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C286" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-56</v>
+        <v>26-54</v>
       </c>
       <c r="L286" s="6"/>
       <c r="M286" s="6"/>
@@ -10049,15 +10249,15 @@
     <row r="287" spans="1:13" ht="15">
       <c r="A287">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B287">
         <f t="shared" si="49"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C287" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-57</v>
+        <v>26-55</v>
       </c>
       <c r="L287" s="6"/>
       <c r="M287" s="6"/>
@@ -10065,15 +10265,15 @@
     <row r="288" spans="1:13" ht="15">
       <c r="A288">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B288">
         <f t="shared" si="49"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C288" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-58</v>
+        <v>26-56</v>
       </c>
       <c r="L288" s="6"/>
       <c r="M288" s="6"/>
@@ -10081,15 +10281,15 @@
     <row r="289" spans="1:13" ht="15">
       <c r="A289">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B289">
         <f t="shared" si="49"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C289" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-59</v>
+        <v>26-57</v>
       </c>
       <c r="L289" s="6"/>
       <c r="M289" s="6"/>
@@ -10097,15 +10297,15 @@
     <row r="290" spans="1:13" ht="15">
       <c r="A290">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B290">
         <f t="shared" si="49"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C290" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-60</v>
+        <v>26-58</v>
       </c>
       <c r="L290" s="6"/>
       <c r="M290" s="6"/>
@@ -10113,15 +10313,15 @@
     <row r="291" spans="1:13" ht="15">
       <c r="A291">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B291">
         <f t="shared" si="49"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C291" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-61</v>
+        <v>26-59</v>
       </c>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
@@ -10129,15 +10329,15 @@
     <row r="292" spans="1:13" ht="15">
       <c r="A292">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B292">
         <f t="shared" si="49"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C292" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-62</v>
+        <v>26-60</v>
       </c>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
@@ -10145,15 +10345,15 @@
     <row r="293" spans="1:13" ht="15">
       <c r="A293">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B293">
         <f t="shared" si="49"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C293" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-63</v>
+        <v>26-61</v>
       </c>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
@@ -10161,15 +10361,15 @@
     <row r="294" spans="1:13" ht="15">
       <c r="A294">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B294">
         <f t="shared" si="49"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C294" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-64</v>
+        <v>26-62</v>
       </c>
       <c r="L294" s="6"/>
       <c r="M294" s="6"/>
@@ -10177,15 +10377,15 @@
     <row r="295" spans="1:13" ht="15">
       <c r="A295">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B295">
         <f t="shared" si="49"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C295" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-65</v>
+        <v>26-63</v>
       </c>
       <c r="L295" s="6"/>
       <c r="M295" s="6"/>
@@ -10193,15 +10393,15 @@
     <row r="296" spans="1:13" ht="15">
       <c r="A296">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B296">
         <f t="shared" si="49"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C296" s="3" t="str">
         <f t="shared" si="50"/>
-        <v>25-66</v>
+        <v>26-64</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
@@ -10209,15 +10409,15 @@
     <row r="297" spans="1:13" ht="15">
       <c r="A297">
         <f t="shared" si="51"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B297">
         <f t="shared" ref="B297:B360" si="52">IF(A297=A296,B296+1,1)</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C297" s="3" t="str">
         <f t="shared" ref="C297:C360" si="53">CONCATENATE(A297,"-",B297)</f>
-        <v>25-67</v>
+        <v>26-65</v>
       </c>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
@@ -10225,15 +10425,15 @@
     <row r="298" spans="1:13" ht="15">
       <c r="A298">
         <f t="shared" ref="A298:A361" si="54">A297</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B298">
         <f t="shared" si="52"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C298" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-68</v>
+        <v>26-66</v>
       </c>
       <c r="L298" s="6"/>
       <c r="M298" s="6"/>
@@ -10241,15 +10441,15 @@
     <row r="299" spans="1:13" ht="15">
       <c r="A299">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B299">
         <f t="shared" si="52"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C299" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-69</v>
+        <v>26-67</v>
       </c>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
@@ -10257,15 +10457,15 @@
     <row r="300" spans="1:13" ht="15">
       <c r="A300">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B300">
         <f t="shared" si="52"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C300" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-70</v>
+        <v>26-68</v>
       </c>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
@@ -10273,15 +10473,15 @@
     <row r="301" spans="1:13" ht="15">
       <c r="A301">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B301">
         <f t="shared" si="52"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C301" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-71</v>
+        <v>26-69</v>
       </c>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
@@ -10289,15 +10489,15 @@
     <row r="302" spans="1:13" ht="15">
       <c r="A302">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B302">
         <f t="shared" si="52"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C302" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-72</v>
+        <v>26-70</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6"/>
@@ -10305,15 +10505,15 @@
     <row r="303" spans="1:13" ht="15">
       <c r="A303">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B303">
         <f t="shared" si="52"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C303" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-73</v>
+        <v>26-71</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6"/>
@@ -10321,15 +10521,15 @@
     <row r="304" spans="1:13" ht="15">
       <c r="A304">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B304">
         <f t="shared" si="52"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C304" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-74</v>
+        <v>26-72</v>
       </c>
       <c r="L304" s="6"/>
       <c r="M304" s="6"/>
@@ -10337,15 +10537,15 @@
     <row r="305" spans="1:13" ht="15">
       <c r="A305">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B305">
         <f t="shared" si="52"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C305" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-75</v>
+        <v>26-73</v>
       </c>
       <c r="L305" s="6"/>
       <c r="M305" s="6"/>
@@ -10353,15 +10553,15 @@
     <row r="306" spans="1:13" ht="15">
       <c r="A306">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B306">
         <f t="shared" si="52"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C306" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-76</v>
+        <v>26-74</v>
       </c>
       <c r="L306" s="6"/>
       <c r="M306" s="6"/>
@@ -10369,15 +10569,15 @@
     <row r="307" spans="1:13" ht="15">
       <c r="A307">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B307">
         <f t="shared" si="52"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C307" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-77</v>
+        <v>26-75</v>
       </c>
       <c r="L307" s="6"/>
       <c r="M307" s="6"/>
@@ -10385,15 +10585,15 @@
     <row r="308" spans="1:13" ht="15">
       <c r="A308">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B308">
         <f t="shared" si="52"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C308" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-78</v>
+        <v>26-76</v>
       </c>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
@@ -10401,15 +10601,15 @@
     <row r="309" spans="1:13" ht="15">
       <c r="A309">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B309">
         <f t="shared" si="52"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C309" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-79</v>
+        <v>26-77</v>
       </c>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
@@ -10417,15 +10617,15 @@
     <row r="310" spans="1:13" ht="15">
       <c r="A310">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B310">
         <f t="shared" si="52"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C310" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-80</v>
+        <v>26-78</v>
       </c>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
@@ -10433,15 +10633,15 @@
     <row r="311" spans="1:13" ht="15">
       <c r="A311">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B311">
         <f t="shared" si="52"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C311" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-81</v>
+        <v>26-79</v>
       </c>
       <c r="L311" s="6"/>
       <c r="M311" s="6"/>
@@ -10449,15 +10649,15 @@
     <row r="312" spans="1:13" ht="15">
       <c r="A312">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B312">
         <f t="shared" si="52"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C312" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-82</v>
+        <v>26-80</v>
       </c>
       <c r="L312" s="6"/>
       <c r="M312" s="6"/>
@@ -10465,15 +10665,15 @@
     <row r="313" spans="1:13" ht="15">
       <c r="A313">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B313">
         <f t="shared" si="52"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C313" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-83</v>
+        <v>26-81</v>
       </c>
       <c r="L313" s="6"/>
       <c r="M313" s="6"/>
@@ -10481,15 +10681,15 @@
     <row r="314" spans="1:13" ht="15">
       <c r="A314">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B314">
         <f t="shared" si="52"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C314" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-84</v>
+        <v>26-82</v>
       </c>
       <c r="L314" s="6"/>
       <c r="M314" s="6"/>
@@ -10497,15 +10697,15 @@
     <row r="315" spans="1:13" ht="15">
       <c r="A315">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B315">
         <f t="shared" si="52"/>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C315" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-85</v>
+        <v>26-83</v>
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
@@ -10513,15 +10713,15 @@
     <row r="316" spans="1:13" ht="15">
       <c r="A316">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B316">
         <f t="shared" si="52"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C316" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-86</v>
+        <v>26-84</v>
       </c>
       <c r="L316" s="6"/>
       <c r="M316" s="6"/>
@@ -10529,15 +10729,15 @@
     <row r="317" spans="1:13" ht="15">
       <c r="A317">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B317">
         <f t="shared" si="52"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C317" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-87</v>
+        <v>26-85</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6"/>
@@ -10545,15 +10745,15 @@
     <row r="318" spans="1:13" ht="15">
       <c r="A318">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B318">
         <f t="shared" si="52"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C318" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-88</v>
+        <v>26-86</v>
       </c>
       <c r="L318" s="6"/>
       <c r="M318" s="6"/>
@@ -10561,15 +10761,15 @@
     <row r="319" spans="1:13" ht="15">
       <c r="A319">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B319">
         <f t="shared" si="52"/>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C319" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-89</v>
+        <v>26-87</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6"/>
@@ -10577,15 +10777,15 @@
     <row r="320" spans="1:13" ht="15">
       <c r="A320">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B320">
         <f t="shared" si="52"/>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C320" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-90</v>
+        <v>26-88</v>
       </c>
       <c r="L320" s="6"/>
       <c r="M320" s="6"/>
@@ -10593,15 +10793,15 @@
     <row r="321" spans="1:13" ht="15">
       <c r="A321">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B321">
         <f t="shared" si="52"/>
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C321" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-91</v>
+        <v>26-89</v>
       </c>
       <c r="L321" s="6"/>
       <c r="M321" s="6"/>
@@ -10609,15 +10809,15 @@
     <row r="322" spans="1:13" ht="15">
       <c r="A322">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B322">
         <f t="shared" si="52"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C322" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-92</v>
+        <v>26-90</v>
       </c>
       <c r="L322" s="6"/>
       <c r="M322" s="6"/>
@@ -10625,15 +10825,15 @@
     <row r="323" spans="1:13" ht="15">
       <c r="A323">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B323">
         <f t="shared" si="52"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C323" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-93</v>
+        <v>26-91</v>
       </c>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
@@ -10641,15 +10841,15 @@
     <row r="324" spans="1:13" ht="15">
       <c r="A324">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B324">
         <f t="shared" si="52"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C324" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-94</v>
+        <v>26-92</v>
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
@@ -10657,15 +10857,15 @@
     <row r="325" spans="1:13" ht="15">
       <c r="A325">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B325">
         <f t="shared" si="52"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C325" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-95</v>
+        <v>26-93</v>
       </c>
       <c r="L325" s="6"/>
       <c r="M325" s="6"/>
@@ -10673,15 +10873,15 @@
     <row r="326" spans="1:13" ht="15">
       <c r="A326">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B326">
         <f t="shared" si="52"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C326" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-96</v>
+        <v>26-94</v>
       </c>
       <c r="L326" s="6"/>
       <c r="M326" s="6"/>
@@ -10689,15 +10889,15 @@
     <row r="327" spans="1:13" ht="15">
       <c r="A327">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B327">
         <f t="shared" si="52"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C327" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-97</v>
+        <v>26-95</v>
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
@@ -10705,15 +10905,15 @@
     <row r="328" spans="1:13" ht="15">
       <c r="A328">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B328">
         <f t="shared" si="52"/>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C328" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-98</v>
+        <v>26-96</v>
       </c>
       <c r="L328" s="6"/>
       <c r="M328" s="6"/>
@@ -10721,15 +10921,15 @@
     <row r="329" spans="1:13" ht="15">
       <c r="A329">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B329">
         <f t="shared" si="52"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C329" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-99</v>
+        <v>26-97</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6"/>
@@ -10737,15 +10937,15 @@
     <row r="330" spans="1:13" ht="15">
       <c r="A330">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B330">
         <f t="shared" si="52"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C330" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-100</v>
+        <v>26-98</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6"/>
@@ -10753,15 +10953,15 @@
     <row r="331" spans="1:13" ht="15">
       <c r="A331">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B331">
         <f t="shared" si="52"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C331" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-101</v>
+        <v>26-99</v>
       </c>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
@@ -10769,15 +10969,15 @@
     <row r="332" spans="1:13" ht="15">
       <c r="A332">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B332">
         <f t="shared" si="52"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C332" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-102</v>
+        <v>26-100</v>
       </c>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
@@ -10785,15 +10985,15 @@
     <row r="333" spans="1:13" ht="15">
       <c r="A333">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B333">
         <f t="shared" si="52"/>
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C333" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-103</v>
+        <v>26-101</v>
       </c>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
@@ -10801,15 +11001,15 @@
     <row r="334" spans="1:13" ht="15">
       <c r="A334">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B334">
         <f t="shared" si="52"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C334" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-104</v>
+        <v>26-102</v>
       </c>
       <c r="L334" s="6"/>
       <c r="M334" s="6"/>
@@ -10817,15 +11017,15 @@
     <row r="335" spans="1:13" ht="15">
       <c r="A335">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B335">
         <f t="shared" si="52"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C335" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-105</v>
+        <v>26-103</v>
       </c>
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
@@ -10833,15 +11033,15 @@
     <row r="336" spans="1:13" ht="15">
       <c r="A336">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B336">
         <f t="shared" si="52"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C336" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-106</v>
+        <v>26-104</v>
       </c>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
@@ -10849,15 +11049,15 @@
     <row r="337" spans="1:13" ht="15">
       <c r="A337">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B337">
         <f t="shared" si="52"/>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C337" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-107</v>
+        <v>26-105</v>
       </c>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
@@ -10865,15 +11065,15 @@
     <row r="338" spans="1:13" ht="15">
       <c r="A338">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B338">
         <f t="shared" si="52"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C338" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-108</v>
+        <v>26-106</v>
       </c>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
@@ -10881,15 +11081,15 @@
     <row r="339" spans="1:13" ht="15">
       <c r="A339">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B339">
         <f t="shared" si="52"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C339" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-109</v>
+        <v>26-107</v>
       </c>
       <c r="L339" s="6"/>
       <c r="M339" s="6"/>
@@ -10897,15 +11097,15 @@
     <row r="340" spans="1:13" ht="15">
       <c r="A340">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B340">
         <f t="shared" si="52"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C340" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-110</v>
+        <v>26-108</v>
       </c>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
@@ -10913,15 +11113,15 @@
     <row r="341" spans="1:13" ht="15">
       <c r="A341">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B341">
         <f t="shared" si="52"/>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C341" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-111</v>
+        <v>26-109</v>
       </c>
       <c r="L341" s="6"/>
       <c r="M341" s="6"/>
@@ -10929,15 +11129,15 @@
     <row r="342" spans="1:13" ht="15">
       <c r="A342">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B342">
         <f t="shared" si="52"/>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C342" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-112</v>
+        <v>26-110</v>
       </c>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
@@ -10945,15 +11145,15 @@
     <row r="343" spans="1:13" ht="15">
       <c r="A343">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B343">
         <f t="shared" si="52"/>
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C343" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-113</v>
+        <v>26-111</v>
       </c>
       <c r="L343" s="6"/>
       <c r="M343" s="6"/>
@@ -10961,15 +11161,15 @@
     <row r="344" spans="1:13" ht="15">
       <c r="A344">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B344">
         <f t="shared" si="52"/>
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C344" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-114</v>
+        <v>26-112</v>
       </c>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
@@ -10977,15 +11177,15 @@
     <row r="345" spans="1:13" ht="15">
       <c r="A345">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B345">
         <f t="shared" si="52"/>
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C345" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-115</v>
+        <v>26-113</v>
       </c>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
@@ -10993,15 +11193,15 @@
     <row r="346" spans="1:13" ht="15">
       <c r="A346">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B346">
         <f t="shared" si="52"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C346" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-116</v>
+        <v>26-114</v>
       </c>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
@@ -11009,15 +11209,15 @@
     <row r="347" spans="1:13" ht="15">
       <c r="A347">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B347">
         <f t="shared" si="52"/>
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C347" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-117</v>
+        <v>26-115</v>
       </c>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
@@ -11025,15 +11225,15 @@
     <row r="348" spans="1:13" ht="15">
       <c r="A348">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B348">
         <f t="shared" si="52"/>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C348" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-118</v>
+        <v>26-116</v>
       </c>
       <c r="L348" s="6"/>
       <c r="M348" s="6"/>
@@ -11041,15 +11241,15 @@
     <row r="349" spans="1:13" ht="15">
       <c r="A349">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B349">
         <f t="shared" si="52"/>
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C349" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-119</v>
+        <v>26-117</v>
       </c>
       <c r="L349" s="6"/>
       <c r="M349" s="6"/>
@@ -11057,15 +11257,15 @@
     <row r="350" spans="1:13" ht="15">
       <c r="A350">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B350">
         <f t="shared" si="52"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C350" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-120</v>
+        <v>26-118</v>
       </c>
       <c r="L350" s="6"/>
       <c r="M350" s="6"/>
@@ -11073,15 +11273,15 @@
     <row r="351" spans="1:13" ht="15">
       <c r="A351">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B351">
         <f t="shared" si="52"/>
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C351" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-121</v>
+        <v>26-119</v>
       </c>
       <c r="L351" s="6"/>
       <c r="M351" s="6"/>
@@ -11089,15 +11289,15 @@
     <row r="352" spans="1:13" ht="15">
       <c r="A352">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B352">
         <f t="shared" si="52"/>
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C352" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-122</v>
+        <v>26-120</v>
       </c>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
@@ -11105,15 +11305,15 @@
     <row r="353" spans="1:13" ht="15">
       <c r="A353">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B353">
         <f t="shared" si="52"/>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C353" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-123</v>
+        <v>26-121</v>
       </c>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
@@ -11121,15 +11321,15 @@
     <row r="354" spans="1:13" ht="15">
       <c r="A354">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B354">
         <f t="shared" si="52"/>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C354" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-124</v>
+        <v>26-122</v>
       </c>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
@@ -11137,15 +11337,15 @@
     <row r="355" spans="1:13" ht="15">
       <c r="A355">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B355">
         <f t="shared" si="52"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C355" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-125</v>
+        <v>26-123</v>
       </c>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
@@ -11153,15 +11353,15 @@
     <row r="356" spans="1:13" ht="15">
       <c r="A356">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B356">
         <f t="shared" si="52"/>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C356" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-126</v>
+        <v>26-124</v>
       </c>
       <c r="L356" s="6"/>
       <c r="M356" s="6"/>
@@ -11169,15 +11369,15 @@
     <row r="357" spans="1:13" ht="15">
       <c r="A357">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B357">
         <f t="shared" si="52"/>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C357" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-127</v>
+        <v>26-125</v>
       </c>
       <c r="L357" s="6"/>
       <c r="M357" s="6"/>
@@ -11185,15 +11385,15 @@
     <row r="358" spans="1:13" ht="15">
       <c r="A358">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B358">
         <f t="shared" si="52"/>
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C358" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-128</v>
+        <v>26-126</v>
       </c>
       <c r="L358" s="6"/>
       <c r="M358" s="6"/>
@@ -11201,15 +11401,15 @@
     <row r="359" spans="1:13" ht="15">
       <c r="A359">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B359">
         <f t="shared" si="52"/>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C359" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-129</v>
+        <v>26-127</v>
       </c>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
@@ -11217,15 +11417,15 @@
     <row r="360" spans="1:13" ht="15">
       <c r="A360">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B360">
         <f t="shared" si="52"/>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C360" s="3" t="str">
         <f t="shared" si="53"/>
-        <v>25-130</v>
+        <v>26-128</v>
       </c>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
@@ -11233,15 +11433,15 @@
     <row r="361" spans="1:13" ht="15">
       <c r="A361">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B361">
         <f t="shared" ref="B361:B382" si="55">IF(A361=A360,B360+1,1)</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C361" s="3" t="str">
         <f t="shared" ref="C361:C382" si="56">CONCATENATE(A361,"-",B361)</f>
-        <v>25-131</v>
+        <v>26-129</v>
       </c>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
@@ -11249,15 +11449,15 @@
     <row r="362" spans="1:13" ht="15">
       <c r="A362">
         <f t="shared" ref="A362:A382" si="57">A361</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B362">
         <f t="shared" si="55"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C362" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-132</v>
+        <v>26-130</v>
       </c>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
@@ -11265,15 +11465,15 @@
     <row r="363" spans="1:13" ht="15">
       <c r="A363">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B363">
         <f t="shared" si="55"/>
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C363" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-133</v>
+        <v>26-131</v>
       </c>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
@@ -11281,15 +11481,15 @@
     <row r="364" spans="1:13" ht="15">
       <c r="A364">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B364">
         <f t="shared" si="55"/>
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C364" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-134</v>
+        <v>26-132</v>
       </c>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
@@ -11297,15 +11497,15 @@
     <row r="365" spans="1:13" ht="15">
       <c r="A365">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B365">
         <f t="shared" si="55"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C365" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-135</v>
+        <v>26-133</v>
       </c>
       <c r="L365" s="6"/>
       <c r="M365" s="6"/>
@@ -11313,15 +11513,15 @@
     <row r="366" spans="1:13" ht="15">
       <c r="A366">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B366">
         <f t="shared" si="55"/>
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C366" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-136</v>
+        <v>26-134</v>
       </c>
       <c r="L366" s="6"/>
       <c r="M366" s="6"/>
@@ -11329,15 +11529,15 @@
     <row r="367" spans="1:13" ht="15">
       <c r="A367">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B367">
         <f t="shared" si="55"/>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C367" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-137</v>
+        <v>26-135</v>
       </c>
       <c r="L367" s="6"/>
       <c r="M367" s="6"/>
@@ -11345,15 +11545,15 @@
     <row r="368" spans="1:13" ht="15">
       <c r="A368">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B368">
         <f t="shared" si="55"/>
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C368" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-138</v>
+        <v>26-136</v>
       </c>
       <c r="L368" s="6"/>
       <c r="M368" s="6"/>
@@ -11361,15 +11561,15 @@
     <row r="369" spans="1:13" ht="15">
       <c r="A369">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B369">
         <f t="shared" si="55"/>
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C369" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-139</v>
+        <v>26-137</v>
       </c>
       <c r="L369" s="6"/>
       <c r="M369" s="6"/>
@@ -11377,15 +11577,15 @@
     <row r="370" spans="1:13" ht="15">
       <c r="A370">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B370">
         <f t="shared" si="55"/>
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C370" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-140</v>
+        <v>26-138</v>
       </c>
       <c r="L370" s="6"/>
       <c r="M370" s="6"/>
@@ -11393,15 +11593,15 @@
     <row r="371" spans="1:13" ht="15">
       <c r="A371">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B371">
         <f t="shared" si="55"/>
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C371" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-141</v>
+        <v>26-139</v>
       </c>
       <c r="L371" s="6"/>
       <c r="M371" s="6"/>
@@ -11409,15 +11609,15 @@
     <row r="372" spans="1:13" ht="15">
       <c r="A372">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B372">
         <f t="shared" si="55"/>
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C372" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-142</v>
+        <v>26-140</v>
       </c>
       <c r="L372" s="6"/>
       <c r="M372" s="6"/>
@@ -11425,15 +11625,15 @@
     <row r="373" spans="1:13" ht="15">
       <c r="A373">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B373">
         <f t="shared" si="55"/>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C373" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-143</v>
+        <v>26-141</v>
       </c>
       <c r="L373" s="6"/>
       <c r="M373" s="6"/>
@@ -11441,15 +11641,15 @@
     <row r="374" spans="1:13" ht="15">
       <c r="A374">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B374">
         <f t="shared" si="55"/>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C374" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-144</v>
+        <v>26-142</v>
       </c>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
@@ -11457,15 +11657,15 @@
     <row r="375" spans="1:13" ht="15">
       <c r="A375">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B375">
         <f t="shared" si="55"/>
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C375" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-145</v>
+        <v>26-143</v>
       </c>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
@@ -11473,15 +11673,15 @@
     <row r="376" spans="1:13" ht="15">
       <c r="A376">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B376">
         <f t="shared" si="55"/>
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C376" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-146</v>
+        <v>26-144</v>
       </c>
       <c r="L376" s="6"/>
       <c r="M376" s="6"/>
@@ -11489,15 +11689,15 @@
     <row r="377" spans="1:13" ht="15">
       <c r="A377">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B377">
         <f t="shared" si="55"/>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C377" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-147</v>
+        <v>26-145</v>
       </c>
       <c r="L377" s="6"/>
       <c r="M377" s="6"/>
@@ -11505,15 +11705,15 @@
     <row r="378" spans="1:13" ht="15">
       <c r="A378">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B378">
         <f t="shared" si="55"/>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C378" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-148</v>
+        <v>26-146</v>
       </c>
       <c r="L378" s="6"/>
       <c r="M378" s="6"/>
@@ -11521,15 +11721,15 @@
     <row r="379" spans="1:13" ht="15">
       <c r="A379">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B379">
         <f t="shared" si="55"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C379" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-149</v>
+        <v>26-147</v>
       </c>
       <c r="L379" s="6"/>
       <c r="M379" s="6"/>
@@ -11537,15 +11737,15 @@
     <row r="380" spans="1:13" ht="15">
       <c r="A380">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B380">
         <f t="shared" si="55"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C380" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-150</v>
+        <v>26-148</v>
       </c>
       <c r="L380" s="6"/>
       <c r="M380" s="6"/>
@@ -11553,15 +11753,15 @@
     <row r="381" spans="1:13" ht="15">
       <c r="A381">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B381">
         <f t="shared" si="55"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C381" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-151</v>
+        <v>26-149</v>
       </c>
       <c r="L381" s="6"/>
       <c r="M381" s="6"/>
@@ -11569,15 +11769,15 @@
     <row r="382" spans="1:13" ht="15">
       <c r="A382">
         <f t="shared" si="57"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B382">
         <f t="shared" si="55"/>
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C382" s="3" t="str">
         <f t="shared" si="56"/>
-        <v>25-152</v>
+        <v>26-150</v>
       </c>
       <c r="L382" s="6"/>
       <c r="M382" s="6"/>
@@ -14335,318 +14535,348 @@
     <mergeCell ref="L188:L191"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K199">
-    <cfRule type="containsBlanks" dxfId="62" priority="67">
+    <cfRule type="containsBlanks" dxfId="74" priority="73">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditio